--- a/school map app coordinates.xlsx
+++ b/school map app coordinates.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/30bda0da95c309b9/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sarahhoffman/Documents/apperoni/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="32000" windowHeight="18000" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="25600" windowHeight="14500" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="831" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="886" uniqueCount="212">
   <si>
     <t>Name</t>
   </si>
@@ -626,6 +626,48 @@
   </si>
   <si>
     <t>1,14,2,8</t>
+  </si>
+  <si>
+    <t>1,9</t>
+  </si>
+  <si>
+    <t>4,1</t>
+  </si>
+  <si>
+    <t>2,1</t>
+  </si>
+  <si>
+    <t>1,7</t>
+  </si>
+  <si>
+    <t>1,8</t>
+  </si>
+  <si>
+    <t>3,8</t>
+  </si>
+  <si>
+    <t>2,1,2,2</t>
+  </si>
+  <si>
+    <t>2,1,1,3</t>
+  </si>
+  <si>
+    <t>3,3</t>
+  </si>
+  <si>
+    <t>1,5</t>
+  </si>
+  <si>
+    <t>4,6</t>
+  </si>
+  <si>
+    <t>4,1,4,2</t>
+  </si>
+  <si>
+    <t>4,2,4,1</t>
+  </si>
+  <si>
+    <t>1,1,1,26,3,1,3,26</t>
   </si>
 </sst>
 </file>
@@ -674,8 +716,42 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="195">
+  <cellStyleXfs count="229">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -881,7 +957,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="195">
+  <cellStyles count="229">
     <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
@@ -979,6 +1055,23 @@
     <cellStyle name="Followed Hyperlink" xfId="190" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="192" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="194" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="196" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="198" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="200" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="202" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="204" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="206" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="208" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="210" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="212" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="214" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="216" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="218" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="220" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="222" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="224" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="226" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="228" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
@@ -1076,6 +1169,23 @@
     <cellStyle name="Hyperlink" xfId="189" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="191" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="193" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="195" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="197" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="199" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="201" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="203" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="205" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="207" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="209" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="211" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="213" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="215" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="217" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="219" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="221" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="223" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="225" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="227" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -4048,8 +4158,8 @@
   <dimension ref="A1:J153"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M14" sqref="M14"/>
+      <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G51" sqref="G51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5099,12 +5209,15 @@
       <c r="E45">
         <v>10</v>
       </c>
+      <c r="F45" t="s">
+        <v>211</v>
+      </c>
       <c r="G45" t="s">
         <v>166</v>
       </c>
       <c r="H45" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> new Room('Auxillary Gym', 66, 43, 26, 10,[],'Normal'),</v>
+        <f>CONCATENATE(" new Room('", A45,"', ", B45,", ", C45,", ",D45,", ",E45, ",[",F45,"],'",G45,"'),")</f>
+        <v xml:space="preserve"> new Room('Auxillary Gym', 66, 43, 26, 10,[1,1,1,26,3,1,3,26],'Normal'),</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5148,12 +5261,15 @@
       <c r="E48">
         <v>4</v>
       </c>
+      <c r="F48" t="s">
+        <v>177</v>
+      </c>
       <c r="G48" t="s">
         <v>166</v>
       </c>
       <c r="H48" t="str">
         <f>CONCATENATE(" new Room('", A48,"', ", B48,", ", C48,", ",D48,", ",E48, ",[",F48,"],'",G48,"'),")</f>
-        <v xml:space="preserve"> new Room('126', 57, 55, 12, 4,[],'Normal'),</v>
+        <v xml:space="preserve"> new Room('126', 57, 55, 12, 4,[2,4],'Normal'),</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -5172,12 +5288,15 @@
       <c r="E49">
         <v>4</v>
       </c>
+      <c r="F49" t="s">
+        <v>176</v>
+      </c>
       <c r="G49" t="s">
         <v>166</v>
       </c>
       <c r="H49" t="str">
         <f>CONCATENATE(" new Room('", A49,"', ", B49,", ", C49,", ",D49,", ",E49, ",[",F49,"],'",G49,"'),")</f>
-        <v xml:space="preserve"> new Room('124', 57, 59, 12, 4,[],'Normal'),</v>
+        <v xml:space="preserve"> new Room('124', 57, 59, 12, 4,[2,3],'Normal'),</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -5196,12 +5315,15 @@
       <c r="E50">
         <v>4</v>
       </c>
+      <c r="F50" t="s">
+        <v>177</v>
+      </c>
       <c r="G50" t="s">
         <v>166</v>
       </c>
       <c r="H50" t="str">
         <f>CONCATENATE(" new Room('", A50,"', ", B50,", ", C50,", ",D50,", ",E50, ",[",F50,"],'",G50,"'),")</f>
-        <v xml:space="preserve"> new Room('122', 57, 63, 12, 4,[],'Normal'),</v>
+        <v xml:space="preserve"> new Room('122', 57, 63, 12, 4,[2,4],'Normal'),</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5755,12 +5877,15 @@
       <c r="E79">
         <v>3</v>
       </c>
+      <c r="F79" t="s">
+        <v>198</v>
+      </c>
       <c r="G79" t="s">
         <v>166</v>
       </c>
       <c r="H79" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> new Room('265', 75, 19, 9, 3,[],'Normal'),</v>
+        <v xml:space="preserve"> new Room('265', 75, 19, 9, 3,[1,9],'Normal'),</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -5779,12 +5904,15 @@
       <c r="E80">
         <v>4</v>
       </c>
+      <c r="F80" t="s">
+        <v>199</v>
+      </c>
       <c r="G80" t="s">
         <v>166</v>
       </c>
       <c r="H80" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> new Room('266', 75, 22, 9, 4,[],'Normal'),</v>
+        <v xml:space="preserve"> new Room('266', 75, 22, 9, 4,[4,1],'Normal'),</v>
       </c>
     </row>
     <row r="81" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -5803,12 +5931,15 @@
       <c r="E81">
         <v>5</v>
       </c>
+      <c r="F81" t="s">
+        <v>199</v>
+      </c>
       <c r="G81" t="s">
         <v>166</v>
       </c>
       <c r="H81" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> new Room('267', 75, 26, 9, 5,[],'Normal'),</v>
+        <v xml:space="preserve"> new Room('267', 75, 26, 9, 5,[4,1],'Normal'),</v>
       </c>
     </row>
     <row r="82" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -5827,12 +5958,15 @@
       <c r="E82">
         <v>4</v>
       </c>
+      <c r="F82" t="s">
+        <v>199</v>
+      </c>
       <c r="G82" t="s">
         <v>166</v>
       </c>
       <c r="H82" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> new Room('275', 75, 31, 12, 4,[],'Normal'),</v>
+        <v xml:space="preserve"> new Room('275', 75, 31, 12, 4,[4,1],'Normal'),</v>
       </c>
     </row>
     <row r="83" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -5851,12 +5985,15 @@
       <c r="E83">
         <v>4</v>
       </c>
+      <c r="F83" t="s">
+        <v>182</v>
+      </c>
       <c r="G83" t="s">
         <v>166</v>
       </c>
       <c r="H83" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> new Room('281', 75, 37, 12, 4,[],'Normal'),</v>
+        <v xml:space="preserve"> new Room('281', 75, 37, 12, 4,[4,4],'Normal'),</v>
       </c>
     </row>
     <row r="84" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -5875,12 +6012,15 @@
       <c r="E84">
         <v>4</v>
       </c>
+      <c r="F84" t="s">
+        <v>178</v>
+      </c>
       <c r="G84" t="s">
         <v>166</v>
       </c>
       <c r="H84" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> new Room('283', 87, 37, 12, 4,[],'Normal'),</v>
+        <v xml:space="preserve"> new Room('283', 87, 37, 12, 4,[3,1],'Normal'),</v>
       </c>
     </row>
     <row r="85" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -5899,12 +6039,15 @@
       <c r="E85">
         <v>4</v>
       </c>
+      <c r="F85" t="s">
+        <v>200</v>
+      </c>
       <c r="G85" t="s">
         <v>166</v>
       </c>
       <c r="H85" t="str">
         <f>CONCATENATE(" new Room('", A85,"', ", B85,", ", C85,", ",D85,", ",E85, ",[",F85,"],'",G85,"'),")</f>
-        <v xml:space="preserve"> new Room('248', 87, 33, 12, 4,[],'Normal'),</v>
+        <v xml:space="preserve"> new Room('248', 87, 33, 12, 4,[2,1],'Normal'),</v>
       </c>
     </row>
     <row r="86" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -5973,12 +6116,15 @@
       <c r="E90">
         <v>5</v>
       </c>
+      <c r="F90" t="s">
+        <v>201</v>
+      </c>
       <c r="G90" t="s">
         <v>166</v>
       </c>
       <c r="H90" t="str">
         <f t="shared" ref="H90:H98" si="3">CONCATENATE(" new Room('", A90,"', ", B90,", ", C90,", ",D90,", ",E90, ",[",F90,"],'",G90,"'),")</f>
-        <v xml:space="preserve"> new Room('251', 75, 6, 7, 5,[],'Normal'),</v>
+        <v xml:space="preserve"> new Room('251', 75, 6, 7, 5,[1,7],'Normal'),</v>
       </c>
       <c r="J90">
         <v>151</v>
@@ -6000,12 +6146,15 @@
       <c r="E91">
         <v>5</v>
       </c>
+      <c r="F91" t="s">
+        <v>202</v>
+      </c>
       <c r="G91" t="s">
         <v>166</v>
       </c>
       <c r="H91" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve"> new Room('252', 82, 6, 8, 5,[],'Normal'),</v>
+        <v xml:space="preserve"> new Room('252', 82, 6, 8, 5,[1,8],'Normal'),</v>
       </c>
       <c r="J91">
         <v>149</v>
@@ -6027,12 +6176,15 @@
       <c r="E92">
         <v>4</v>
       </c>
+      <c r="F92" t="s">
+        <v>201</v>
+      </c>
       <c r="G92" t="s">
         <v>166</v>
       </c>
       <c r="H92" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve"> new Room('255', 90, 6, 7, 4,[],'Normal'),</v>
+        <v xml:space="preserve"> new Room('255', 90, 6, 7, 4,[1,7],'Normal'),</v>
       </c>
       <c r="J92" t="s">
         <v>49</v>
@@ -6054,12 +6206,15 @@
       <c r="E93">
         <v>4</v>
       </c>
+      <c r="F93" t="s">
+        <v>177</v>
+      </c>
       <c r="G93" t="s">
         <v>166</v>
       </c>
       <c r="H93" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve"> new Room('253', 90, 10, 7, 4,[],'Normal'),</v>
+        <v xml:space="preserve"> new Room('253', 90, 10, 7, 4,[2,4],'Normal'),</v>
       </c>
     </row>
     <row r="94" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -6078,12 +6233,15 @@
       <c r="E94">
         <v>4</v>
       </c>
+      <c r="F94" t="s">
+        <v>178</v>
+      </c>
       <c r="G94" t="s">
         <v>166</v>
       </c>
       <c r="H94" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve"> new Room('260', 90, 14, 7, 4,[],'Normal'),</v>
+        <v xml:space="preserve"> new Room('260', 90, 14, 7, 4,[3,1],'Normal'),</v>
       </c>
     </row>
     <row r="95" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -6102,12 +6260,15 @@
       <c r="E95">
         <v>4</v>
       </c>
+      <c r="F95" t="s">
+        <v>188</v>
+      </c>
       <c r="G95" t="s">
         <v>166</v>
       </c>
       <c r="H95" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve"> new Room('262', 83, 14, 7, 4,[],'Normal'),</v>
+        <v xml:space="preserve"> new Room('262', 83, 14, 7, 4,[3,7],'Normal'),</v>
       </c>
     </row>
     <row r="96" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -6126,12 +6287,15 @@
       <c r="E96">
         <v>4</v>
       </c>
+      <c r="F96" t="s">
+        <v>203</v>
+      </c>
       <c r="G96" t="s">
         <v>166</v>
       </c>
       <c r="H96" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve"> new Room('264', 75, 14, 8, 4,[],'Normal'),</v>
+        <v xml:space="preserve"> new Room('264', 75, 14, 8, 4,[3,8],'Normal'),</v>
       </c>
     </row>
     <row r="97" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -6150,12 +6314,15 @@
       <c r="E97">
         <v>3</v>
       </c>
+      <c r="F97" t="s">
+        <v>186</v>
+      </c>
       <c r="G97" t="s">
         <v>166</v>
       </c>
       <c r="H97" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve"> new Room('288', 75, 11, 15, 3,[],'Normal'),</v>
+        <v xml:space="preserve"> new Room('288', 75, 11, 15, 3,[4,2],'Normal'),</v>
       </c>
     </row>
     <row r="98" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -6174,12 +6341,15 @@
       <c r="E98">
         <v>3</v>
       </c>
+      <c r="F98" t="s">
+        <v>194</v>
+      </c>
       <c r="G98" t="s">
         <v>166</v>
       </c>
       <c r="H98" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve"> new Room('MDF2', 97, 15, 3, 3,[],'Normal'),</v>
+        <v xml:space="preserve"> new Room('MDF2', 97, 15, 3, 3,[1,1],'Normal'),</v>
       </c>
     </row>
     <row r="99" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -6200,12 +6370,15 @@
       <c r="E100">
         <v>3</v>
       </c>
+      <c r="F100" t="s">
+        <v>204</v>
+      </c>
       <c r="G100" t="s">
         <v>166</v>
       </c>
       <c r="H100" t="str">
         <f t="shared" ref="H100:H110" si="4">CONCATENATE(" new Room('", A100,"', ", B100,", ", C100,", ",D100,", ",E100, ",[",F100,"],'",G100,"'),")</f>
-        <v xml:space="preserve"> new Room('204', 121, 14, 8, 3,[],'Normal'),</v>
+        <v xml:space="preserve"> new Room('204', 121, 14, 8, 3,[2,1,2,2],'Normal'),</v>
       </c>
       <c r="J100">
         <v>135</v>
@@ -6227,12 +6400,15 @@
       <c r="E101">
         <v>3</v>
       </c>
+      <c r="F101" t="s">
+        <v>200</v>
+      </c>
       <c r="G101" t="s">
         <v>166</v>
       </c>
       <c r="H101" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve"> new Room('205', 121, 11, 8, 3,[],'Normal'),</v>
+        <v xml:space="preserve"> new Room('205', 121, 11, 8, 3,[2,1],'Normal'),</v>
       </c>
       <c r="J101">
         <v>137</v>
@@ -6281,12 +6457,15 @@
       <c r="E103">
         <v>5</v>
       </c>
+      <c r="F103" t="s">
+        <v>205</v>
+      </c>
       <c r="G103" t="s">
         <v>166</v>
       </c>
       <c r="H103" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve"> new Room('206', 121, 6, 8, 5,[],'Normal'),</v>
+        <v xml:space="preserve"> new Room('206', 121, 6, 8, 5,[2,1,1,3],'Normal'),</v>
       </c>
       <c r="J103">
         <v>139</v>
@@ -6303,17 +6482,20 @@
         <v>6</v>
       </c>
       <c r="D104">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E104">
         <v>4</v>
       </c>
+      <c r="F104" t="s">
+        <v>189</v>
+      </c>
       <c r="G104" t="s">
         <v>166</v>
       </c>
       <c r="H104" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve"> new Room('207', 116, 6, 6, 4,[],'Normal'),</v>
+        <v xml:space="preserve"> new Room('207', 116, 6, 5, 4,[1,4],'Normal'),</v>
       </c>
       <c r="J104">
         <v>141</v>
@@ -6337,12 +6519,15 @@
         <f>E106</f>
         <v>4</v>
       </c>
+      <c r="F105" t="s">
+        <v>196</v>
+      </c>
       <c r="G105" t="s">
         <v>166</v>
       </c>
       <c r="H105" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve"> new Room('208', 108, 6, 8, 4,[],'Normal'),</v>
+        <v xml:space="preserve"> new Room('208', 108, 6, 8, 4,[1,2],'Normal'),</v>
       </c>
       <c r="J105">
         <v>143</v>
@@ -6366,12 +6551,15 @@
         <f>E92</f>
         <v>4</v>
       </c>
+      <c r="F106" t="s">
+        <v>207</v>
+      </c>
       <c r="G106" t="s">
         <v>166</v>
       </c>
       <c r="H106" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve"> new Room('209', 100, 6, 8, 4,[],'Normal'),</v>
+        <v xml:space="preserve"> new Room('209', 100, 6, 8, 4,[1,5],'Normal'),</v>
       </c>
       <c r="J106">
         <v>145</v>
@@ -6393,12 +6581,15 @@
       <c r="E107">
         <v>4</v>
       </c>
+      <c r="F107" t="s">
+        <v>206</v>
+      </c>
       <c r="G107" t="s">
         <v>166</v>
       </c>
       <c r="H107" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve"> new Room('200', 101, 13, 5, 4,[],'Normal'),</v>
+        <v xml:space="preserve"> new Room('200', 101, 13, 5, 4,[3,3],'Normal'),</v>
       </c>
     </row>
     <row r="108" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -6417,12 +6608,15 @@
       <c r="E108">
         <v>4</v>
       </c>
+      <c r="F108" t="s">
+        <v>178</v>
+      </c>
       <c r="G108" t="s">
         <v>166</v>
       </c>
       <c r="H108" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve"> new Room('201', 106, 13, 5, 4,[],'Normal'),</v>
+        <v xml:space="preserve"> new Room('201', 106, 13, 5, 4,[3,1],'Normal'),</v>
       </c>
     </row>
     <row r="109" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -6441,12 +6635,15 @@
       <c r="E109">
         <v>4</v>
       </c>
+      <c r="F109" t="s">
+        <v>206</v>
+      </c>
       <c r="G109" t="s">
         <v>166</v>
       </c>
       <c r="H109" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve"> new Room('202', 111, 13, 5, 4,[],'Normal'),</v>
+        <v xml:space="preserve"> new Room('202', 111, 13, 5, 4,[3,3],'Normal'),</v>
       </c>
     </row>
     <row r="110" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -6465,12 +6662,15 @@
       <c r="E110">
         <v>4</v>
       </c>
+      <c r="F110" t="s">
+        <v>178</v>
+      </c>
       <c r="G110" t="s">
         <v>166</v>
       </c>
       <c r="H110" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve"> new Room('203', 116, 13, 5, 4,[],'Normal'),</v>
+        <v xml:space="preserve"> new Room('203', 116, 13, 5, 4,[3,1],'Normal'),</v>
       </c>
     </row>
     <row r="111" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -6490,12 +6690,15 @@
       <c r="E112">
         <v>11</v>
       </c>
+      <c r="F112" t="s">
+        <v>208</v>
+      </c>
       <c r="G112" t="s">
         <v>166</v>
       </c>
       <c r="H112" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> new Room('221', 134, 7, 9, 11,[],'Normal'),</v>
+        <v xml:space="preserve"> new Room('221', 134, 7, 9, 11,[4,6],'Normal'),</v>
       </c>
       <c r="J112">
         <v>136</v>
@@ -6517,12 +6720,15 @@
       <c r="E113">
         <v>3</v>
       </c>
+      <c r="F113" t="s">
+        <v>176</v>
+      </c>
       <c r="G113" t="s">
         <v>166</v>
       </c>
       <c r="H113" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> new Room('226', 117, 19, 5, 3,[],'Normal'),</v>
+        <v xml:space="preserve"> new Room('226', 117, 19, 5, 3,[2,3],'Normal'),</v>
       </c>
     </row>
     <row r="114" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -6543,12 +6749,15 @@
         <f>E113</f>
         <v>3</v>
       </c>
+      <c r="F114" t="s">
+        <v>176</v>
+      </c>
       <c r="G114" t="s">
         <v>166</v>
       </c>
       <c r="H114" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> new Room('228', 117, 22, 5, 3,[],'Normal'),</v>
+        <v xml:space="preserve"> new Room('228', 117, 22, 5, 3,[2,3],'Normal'),</v>
       </c>
     </row>
     <row r="115" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -6569,12 +6778,15 @@
         <f>E114</f>
         <v>3</v>
       </c>
+      <c r="F115" t="s">
+        <v>200</v>
+      </c>
       <c r="G115" t="s">
         <v>166</v>
       </c>
       <c r="H115" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> new Room('230', 117, 25, 5, 3,[],'Normal'),</v>
+        <v xml:space="preserve"> new Room('230', 117, 25, 5, 3,[2,1],'Normal'),</v>
       </c>
     </row>
     <row r="116" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -6666,12 +6878,15 @@
         <f>E113+E114+E115</f>
         <v>9</v>
       </c>
+      <c r="F119" t="s">
+        <v>196</v>
+      </c>
       <c r="G119" t="s">
         <v>166</v>
       </c>
       <c r="H119" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> new Room('240/241', 103, 19, 14, 9,[],'Normal'),</v>
+        <v xml:space="preserve"> new Room('240/241', 103, 19, 14, 9,[1,2],'Normal'),</v>
       </c>
       <c r="J119">
         <v>154</v>
@@ -6695,12 +6910,15 @@
       <c r="E122">
         <v>5</v>
       </c>
+      <c r="F122" t="s">
+        <v>187</v>
+      </c>
       <c r="G122" t="s">
         <v>166</v>
       </c>
       <c r="H122" t="str">
         <f>CONCATENATE(" new Room('", A122,"', ", B122,", ", C122,", ",D122,", ",E122, ",[",F122,"],'",G122,"'),")</f>
-        <v xml:space="preserve"> new Room('225', 125, 18, 18, 5,[],'Normal'),</v>
+        <v xml:space="preserve"> new Room('225', 125, 18, 18, 5,[4,3],'Normal'),</v>
       </c>
       <c r="J122">
         <v>152</v>
@@ -6722,12 +6940,15 @@
       <c r="E123">
         <v>5</v>
       </c>
+      <c r="F123" t="s">
+        <v>186</v>
+      </c>
       <c r="G123" t="s">
         <v>166</v>
       </c>
       <c r="H123" t="str">
         <f t="shared" ref="H123:H124" si="5">CONCATENATE(" new Room('", A123,"', ", B123,", ", C123,", ",D123,", ",E123, ",[",F123,"],'",G123,"'),")</f>
-        <v xml:space="preserve"> new Room('229', 125, 23, 18, 5,[],'Normal'),</v>
+        <v xml:space="preserve"> new Room('229', 125, 23, 18, 5,[4,2],'Normal'),</v>
       </c>
     </row>
     <row r="124" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -6746,12 +6967,15 @@
       <c r="E124">
         <v>5</v>
       </c>
+      <c r="F124" t="s">
+        <v>182</v>
+      </c>
       <c r="G124" t="s">
         <v>166</v>
       </c>
       <c r="H124" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve"> new Room('231', 125, 28, 18, 5,[],'Normal'),</v>
+        <v xml:space="preserve"> new Room('231', 125, 28, 18, 5,[4,4],'Normal'),</v>
       </c>
     </row>
     <row r="125" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -6770,12 +6994,15 @@
       <c r="E125">
         <v>2</v>
       </c>
+      <c r="F125" t="s">
+        <v>209</v>
+      </c>
       <c r="G125" t="s">
         <v>166</v>
       </c>
       <c r="H125" t="str">
         <f>CONCATENATE(" new Room('", A125,"', ", B125,", ", C125,", ",D125,", ",E125, ",[",F125,"],'",G125,"'),")</f>
-        <v xml:space="preserve"> new Room('stairs1', 125, 33, 10, 2,[],'Normal'),</v>
+        <v xml:space="preserve"> new Room('stairs1', 125, 33, 10, 2,[4,1,4,2],'Normal'),</v>
       </c>
     </row>
     <row r="126" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -6794,12 +7021,15 @@
       <c r="E126">
         <v>4</v>
       </c>
+      <c r="F126" t="s">
+        <v>187</v>
+      </c>
       <c r="G126" t="s">
         <v>166</v>
       </c>
       <c r="H126" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> new Room('305', 125, 35, 10, 4,[],'Normal'),</v>
+        <v xml:space="preserve"> new Room('305', 125, 35, 10, 4,[4,3],'Normal'),</v>
       </c>
     </row>
     <row r="127" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -6818,12 +7048,15 @@
       <c r="E127">
         <v>4</v>
       </c>
+      <c r="F127" t="s">
+        <v>182</v>
+      </c>
       <c r="G127" t="s">
         <v>166</v>
       </c>
       <c r="H127" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> new Room('311', 125, 39, 9, 4,[],'Normal'),</v>
+        <v xml:space="preserve"> new Room('311', 125, 39, 9, 4,[4,4],'Normal'),</v>
       </c>
     </row>
     <row r="128" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -6842,12 +7075,15 @@
       <c r="E128">
         <v>4</v>
       </c>
+      <c r="F128" t="s">
+        <v>199</v>
+      </c>
       <c r="G128" t="s">
         <v>166</v>
       </c>
       <c r="H128" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> new Room('313', 125, 43, 9, 4,[],'Normal'),</v>
+        <v xml:space="preserve"> new Room('313', 125, 43, 9, 4,[4,1],'Normal'),</v>
       </c>
     </row>
     <row r="129" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -6866,12 +7102,15 @@
       <c r="E129">
         <v>4</v>
       </c>
+      <c r="F129" t="s">
+        <v>182</v>
+      </c>
       <c r="G129" t="s">
         <v>166</v>
       </c>
       <c r="H129" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> new Room('315', 125, 47, 9, 4,[],'Normal'),</v>
+        <v xml:space="preserve"> new Room('315', 125, 47, 9, 4,[4,4],'Normal'),</v>
       </c>
     </row>
     <row r="130" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -6890,12 +7129,15 @@
       <c r="E130">
         <v>4</v>
       </c>
+      <c r="F130" t="s">
+        <v>199</v>
+      </c>
       <c r="G130" t="s">
         <v>166</v>
       </c>
       <c r="H130" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> new Room('317', 125, 51, 9, 4,[],'Normal'),</v>
+        <v xml:space="preserve"> new Room('317', 125, 51, 9, 4,[4,1],'Normal'),</v>
       </c>
     </row>
     <row r="131" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -6914,12 +7156,15 @@
       <c r="E131">
         <v>4</v>
       </c>
+      <c r="F131" t="s">
+        <v>182</v>
+      </c>
       <c r="G131" t="s">
         <v>166</v>
       </c>
       <c r="H131" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> new Room('319', 125, 55, 9, 4,[],'Normal'),</v>
+        <v xml:space="preserve"> new Room('319', 125, 55, 9, 4,[4,4],'Normal'),</v>
       </c>
     </row>
     <row r="132" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -6938,12 +7183,15 @@
       <c r="E132">
         <v>4</v>
       </c>
+      <c r="F132" t="s">
+        <v>199</v>
+      </c>
       <c r="G132" t="s">
         <v>166</v>
       </c>
       <c r="H132" t="str">
         <f t="shared" ref="H132:H146" si="6">CONCATENATE(" new Room('", A132,"', ", B132,", ", C132,", ",D132,", ",E132, ",[",F132,"],'",G132,"'),")</f>
-        <v xml:space="preserve"> new Room('321', 125, 59, 9, 4,[],'Normal'),</v>
+        <v xml:space="preserve"> new Room('321', 125, 59, 9, 4,[4,1],'Normal'),</v>
       </c>
     </row>
     <row r="133" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -6962,12 +7210,15 @@
       <c r="E133">
         <v>3</v>
       </c>
+      <c r="F133" t="s">
+        <v>210</v>
+      </c>
       <c r="G133" t="s">
         <v>166</v>
       </c>
       <c r="H133" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve"> new Room('stairs2', 125, 64, 9, 3,[],'Normal'),</v>
+        <v xml:space="preserve"> new Room('stairs2', 125, 64, 9, 3,[4,2,4,1],'Normal'),</v>
       </c>
     </row>
     <row r="134" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -7012,12 +7263,15 @@
       <c r="E136">
         <v>2</v>
       </c>
+      <c r="F136" t="s">
+        <v>200</v>
+      </c>
       <c r="G136" t="s">
         <v>166</v>
       </c>
       <c r="H136" t="str">
         <f>CONCATENATE(" new Room('", A136,"', ", B136,", ", C136,", ",D136,", ",E136, ",[",F136,"],'",G136,"'),")</f>
-        <v xml:space="preserve"> new Room('boys br1', 113, 33, 9, 2,[],'Normal'),</v>
+        <v xml:space="preserve"> new Room('boys br1', 113, 33, 9, 2,[2,1],'Normal'),</v>
       </c>
     </row>
     <row r="137" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -7036,12 +7290,15 @@
       <c r="E137">
         <v>2</v>
       </c>
+      <c r="F137" t="s">
+        <v>175</v>
+      </c>
       <c r="G137" t="s">
         <v>166</v>
       </c>
       <c r="H137" t="str">
         <f>CONCATENATE(" new Room('", A137,"', ", B137,", ", C137,", ",D137,", ",E137, ",[",F137,"],'",G137,"'),")</f>
-        <v xml:space="preserve"> new Room('girls br1', 113, 35, 9, 2,[],'Normal'),</v>
+        <v xml:space="preserve"> new Room('girls br1', 113, 35, 9, 2,[2,2],'Normal'),</v>
       </c>
     </row>
     <row r="138" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -7060,12 +7317,15 @@
       <c r="E138">
         <v>3</v>
       </c>
+      <c r="F138" t="s">
+        <v>175</v>
+      </c>
       <c r="G138" t="s">
         <v>166</v>
       </c>
       <c r="H138" t="str">
         <f>CONCATENATE(" new Room('", A138,"', ", B138,", ", C138,", ",D138,", ",E138, ",[",F138,"],'",G138,"'),")</f>
-        <v xml:space="preserve"> new Room('fake 322', 113, 37, 9, 3,[],'Normal'),</v>
+        <v xml:space="preserve"> new Room('fake 322', 113, 37, 9, 3,[2,2],'Normal'),</v>
       </c>
     </row>
     <row r="139" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -7084,12 +7344,15 @@
       <c r="E139">
         <v>3</v>
       </c>
+      <c r="F139" t="s">
+        <v>176</v>
+      </c>
       <c r="G139" t="s">
         <v>166</v>
       </c>
       <c r="H139" t="str">
         <f>CONCATENATE(" new Room('", A139,"', ", B139,", ", C139,", ",D139,", ",E139, ",[",F139,"],'",G139,"'),")</f>
-        <v xml:space="preserve"> new Room('312', 113, 40, 9, 3,[],'Normal'),</v>
+        <v xml:space="preserve"> new Room('312', 113, 40, 9, 3,[2,3],'Normal'),</v>
       </c>
     </row>
     <row r="140" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -7134,12 +7397,15 @@
       <c r="E142">
         <v>4</v>
       </c>
+      <c r="F142" t="s">
+        <v>177</v>
+      </c>
       <c r="G142" t="s">
         <v>166</v>
       </c>
       <c r="H142" t="str">
         <f>CONCATENATE(" new Room('", A142,"', ", B142,", ", C142,", ",D142,", ",E142, ",[",F142,"],'",G142,"'),")</f>
-        <v xml:space="preserve"> new Room('314', 113, 45, 9, 4,[],'Normal'),</v>
+        <v xml:space="preserve"> new Room('314', 113, 45, 9, 4,[2,4],'Normal'),</v>
       </c>
     </row>
     <row r="143" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -7159,14 +7425,14 @@
         <v>4</v>
       </c>
       <c r="F143" t="s">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="G143" t="s">
         <v>166</v>
       </c>
       <c r="H143" t="str">
         <f>CONCATENATE(" new Room('", A143,"', ", B143,", ", C143,", ",D143,", ",E143, ",[",F143,"],'",G143,"'),")</f>
-        <v xml:space="preserve"> new Room('316', 113, 49, 9, 4,[2,2],'Normal'),</v>
+        <v xml:space="preserve"> new Room('316', 113, 49, 9, 4,[2,1],'Normal'),</v>
       </c>
     </row>
     <row r="144" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -7185,12 +7451,15 @@
       <c r="E144">
         <v>4</v>
       </c>
+      <c r="F144" t="s">
+        <v>200</v>
+      </c>
       <c r="G144" t="s">
         <v>166</v>
       </c>
       <c r="H144" t="str">
         <f>CONCATENATE(" new Room('", A144,"', ", B144,", ", C144,", ",D144,", ",E144, ",[",F144,"],'",G144,"'),")</f>
-        <v xml:space="preserve"> new Room('318', 113, 55, 9, 4,[],'Normal'),</v>
+        <v xml:space="preserve"> new Room('318', 113, 55, 9, 4,[2,1],'Normal'),</v>
       </c>
     </row>
     <row r="145" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -7209,12 +7478,15 @@
       <c r="E145">
         <v>4</v>
       </c>
+      <c r="F145" t="s">
+        <v>177</v>
+      </c>
       <c r="G145" t="s">
         <v>166</v>
       </c>
       <c r="H145" t="str">
         <f>CONCATENATE(" new Room('", A145,"', ", B145,", ", C145,", ",D145,", ",E145, ",[",F145,"],'",G145,"'),")</f>
-        <v xml:space="preserve"> new Room('320', 113, 59, 9, 4,[],'Normal'),</v>
+        <v xml:space="preserve"> new Room('320', 113, 59, 9, 4,[2,4],'Normal'),</v>
       </c>
     </row>
     <row r="146" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -7234,12 +7506,15 @@
         <f>E145</f>
         <v>4</v>
       </c>
+      <c r="F146" t="s">
+        <v>200</v>
+      </c>
       <c r="G146" t="s">
         <v>166</v>
       </c>
       <c r="H146" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve"> new Room('322', 113, 63, 9, 4,[],'Normal'),</v>
+        <v xml:space="preserve"> new Room('322', 113, 63, 9, 4,[2,1],'Normal'),</v>
       </c>
     </row>
     <row r="147" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/school map app coordinates.xlsx
+++ b/school map app coordinates.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27309"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sarahhoffman/Documents/apperoni/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WebSites\apperoni\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="25600" windowHeight="14500" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="435" windowWidth="25605" windowHeight="14505" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,11 +19,8 @@
     <sheet name="Floor2ForProgram" sheetId="4" r:id="rId5"/>
     <sheet name="old" sheetId="2" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -32,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="886" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="889" uniqueCount="214">
   <si>
     <t>Name</t>
   </si>
@@ -668,6 +665,12 @@
   </si>
   <si>
     <t>1,1,1,26,3,1,3,26</t>
+  </si>
+  <si>
+    <t>Outside</t>
+  </si>
+  <si>
+    <t>Outside,HideWall-23</t>
   </si>
 </sst>
 </file>
@@ -1471,14 +1474,14 @@
       <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="57.83203125" customWidth="1"/>
-    <col min="8" max="8" width="18.83203125" customWidth="1"/>
-    <col min="9" max="9" width="15.83203125" customWidth="1"/>
+    <col min="6" max="6" width="57.875" customWidth="1"/>
+    <col min="8" max="8" width="18.875" customWidth="1"/>
+    <col min="9" max="9" width="15.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1504,7 +1507,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -1531,7 +1534,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -1555,7 +1558,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -1579,7 +1582,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -1603,7 +1606,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -1627,7 +1630,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -1651,7 +1654,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -1675,7 +1678,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -1699,7 +1702,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -1723,7 +1726,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -1747,7 +1750,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>26</v>
       </c>
@@ -1771,7 +1774,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>27</v>
       </c>
@@ -1795,7 +1798,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>29</v>
       </c>
@@ -1822,7 +1825,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>30</v>
       </c>
@@ -1849,7 +1852,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>32</v>
       </c>
@@ -1876,7 +1879,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>34</v>
       </c>
@@ -1900,7 +1903,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>35</v>
       </c>
@@ -1924,7 +1927,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>37</v>
       </c>
@@ -1948,7 +1951,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>8</v>
       </c>
@@ -1972,7 +1975,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>8</v>
       </c>
@@ -1996,7 +1999,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>40</v>
       </c>
@@ -2020,7 +2023,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>41</v>
       </c>
@@ -2044,7 +2047,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>42</v>
       </c>
@@ -2068,7 +2071,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>43</v>
       </c>
@@ -2092,7 +2095,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>44</v>
       </c>
@@ -2116,7 +2119,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>45</v>
       </c>
@@ -2140,7 +2143,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>46</v>
       </c>
@@ -2164,7 +2167,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>47</v>
       </c>
@@ -2188,7 +2191,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>48</v>
       </c>
@@ -2212,7 +2215,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>50</v>
       </c>
@@ -2236,7 +2239,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>51</v>
       </c>
@@ -2260,7 +2263,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>52</v>
       </c>
@@ -2284,7 +2287,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>53</v>
       </c>
@@ -2308,7 +2311,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>54</v>
       </c>
@@ -2332,7 +2335,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>55</v>
       </c>
@@ -2356,7 +2359,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>56</v>
       </c>
@@ -2380,7 +2383,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>57</v>
       </c>
@@ -2404,7 +2407,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>58</v>
       </c>
@@ -2428,7 +2431,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>59</v>
       </c>
@@ -2452,7 +2455,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>60</v>
       </c>
@@ -2473,7 +2476,7 @@
         <v xml:space="preserve"> new Room('200', 1159, 372, 143, 47,[]),</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>61</v>
       </c>
@@ -2494,7 +2497,7 @@
         <v xml:space="preserve"> new Room('201', 1200, 314, 45, 48,[]),</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>62</v>
       </c>
@@ -2515,7 +2518,7 @@
         <v xml:space="preserve"> new Room('202', 1244, 316, 46, 46,[]),</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>63</v>
       </c>
@@ -2536,7 +2539,7 @@
         <v xml:space="preserve"> new Room('203', 1291, 314, 45, 48,[]),</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>64</v>
       </c>
@@ -2557,7 +2560,7 @@
         <v xml:space="preserve"> new Room('226', 1303, 374, 48, 23,[]),</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>65</v>
       </c>
@@ -2578,7 +2581,7 @@
         <v xml:space="preserve"> new Room('228', 1304, 396, 46, 24,[]),</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>66</v>
       </c>
@@ -2599,7 +2602,7 @@
         <v xml:space="preserve"> new Room('230', 1300, 420, 50, 21,[]),</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>67</v>
       </c>
@@ -2620,7 +2623,7 @@
         <v xml:space="preserve"> new Room('234', 1269, 441, 77, 50,[]),</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>68</v>
       </c>
@@ -2641,7 +2644,7 @@
         <v xml:space="preserve"> new Room('232', 1215, 457, 55, 33,[]),</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>69</v>
       </c>
@@ -2662,7 +2665,7 @@
         <v xml:space="preserve"> new Room('235', 1216, 438, 52, 20,[]),</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>70</v>
       </c>
@@ -2683,7 +2686,7 @@
         <v xml:space="preserve"> new Room('boys br', 1258, 491, 91, 17,[]),</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>71</v>
       </c>
@@ -2704,7 +2707,7 @@
         <v xml:space="preserve"> new Room('girls br', 1260, 511, 88, 17,[]),</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>72</v>
       </c>
@@ -2725,7 +2728,7 @@
         <v xml:space="preserve"> new Room('fake 322', 1259, 527, 89, 43,[]),</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>73</v>
       </c>
@@ -2746,7 +2749,7 @@
         <v xml:space="preserve"> new Room('312', 1257, 570, 90, 33,[]),</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>74</v>
       </c>
@@ -2767,7 +2770,7 @@
         <v xml:space="preserve"> new Room('314', 1260, 622, 91, 37,[]),</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>75</v>
       </c>
@@ -2788,7 +2791,7 @@
         <v xml:space="preserve"> new Room('316', 1258, 660, 91, 37,[]),</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>76</v>
       </c>
@@ -2809,7 +2812,7 @@
         <v xml:space="preserve"> new Room('318', 1258, 750, 94, 34,[]),</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>77</v>
       </c>
@@ -2830,7 +2833,7 @@
         <v xml:space="preserve"> new Room('320', 1258, 750, 94, 34,[]),</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>78</v>
       </c>
@@ -2851,7 +2854,7 @@
         <v xml:space="preserve"> new Room('322', 1258, 785, 92, 34,[]),</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>79</v>
       </c>
@@ -2872,7 +2875,7 @@
         <v xml:space="preserve"> new Room('stairs', 1378, 491, 99, 21,[]),</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>80</v>
       </c>
@@ -2893,7 +2896,7 @@
         <v xml:space="preserve"> new Room('305', 1380, 509, 98, 47,[]),</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>81</v>
       </c>
@@ -2914,7 +2917,7 @@
         <v xml:space="preserve"> new Room('311', 1382, 554, 94, 36,[]),</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>82</v>
       </c>
@@ -2935,7 +2938,7 @@
         <v xml:space="preserve"> new Room('313', 1381, 588, 95, 36,[]),</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>83</v>
       </c>
@@ -2956,7 +2959,7 @@
         <v xml:space="preserve"> new Room('315', 1382, 624, 94, 36,[]),</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>84</v>
       </c>
@@ -2977,7 +2980,7 @@
         <v xml:space="preserve"> new Room('317', 1382, 660, 94, 37,[]),</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>85</v>
       </c>
@@ -2998,7 +3001,7 @@
         <v xml:space="preserve"> new Room('319', 1383, 693, 92, 36,[]),</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>86</v>
       </c>
@@ -3019,7 +3022,7 @@
         <v xml:space="preserve"> new Room('321', 1383, 728, 94, 37,[]),</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>87</v>
       </c>
@@ -3040,7 +3043,7 @@
         <v xml:space="preserve"> new Room('126', 693, 735, 121, 35,[]),</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>88</v>
       </c>
@@ -3061,7 +3064,7 @@
         <v xml:space="preserve"> new Room('124', 693, 784, 120, 36,[]),</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>89</v>
       </c>
@@ -3082,7 +3085,7 @@
         <v xml:space="preserve"> new Room('122', 693, 818, 122, 35,[]),</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>90</v>
       </c>
@@ -3103,7 +3106,7 @@
         <v xml:space="preserve"> new Room('120', 705, 866, 110, 57,[]),</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>91</v>
       </c>
@@ -3124,7 +3127,7 @@
         <v xml:space="preserve"> new Room('Courtyard', 639, 357, 69, 217,[]),</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>92</v>
       </c>
@@ -3145,7 +3148,7 @@
         <v xml:space="preserve"> new Room('District MDF', 708, 357, 81, 35,[]),</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>93</v>
       </c>
@@ -3166,7 +3169,7 @@
         <v xml:space="preserve"> new Room('MDF', 787, 356, 67, 37,[]),</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>272</v>
       </c>
@@ -3187,7 +3190,7 @@
         <v xml:space="preserve"> new Room('272', 706, 391, 142, 45,[]),</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>276</v>
       </c>
@@ -3208,7 +3211,7 @@
         <v xml:space="preserve"> new Room('276', 706, 438, 142, 45,[]),</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>278</v>
       </c>
@@ -3229,7 +3232,7 @@
         <v xml:space="preserve"> new Room('278', 706, 483, 142, 45,[]),</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>282</v>
       </c>
@@ -3250,7 +3253,7 @@
         <v xml:space="preserve"> new Room('282', 706, 526, 142, 45,[]),</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>253</v>
       </c>
@@ -3271,7 +3274,7 @@
         <v xml:space="preserve"> new Room('253', 1032, 280, 70, 36,[]),</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>260</v>
       </c>
@@ -3292,7 +3295,7 @@
         <v xml:space="preserve"> new Room('260', 1032, 315, 70, 36,[]),</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>288</v>
       </c>
@@ -3313,7 +3316,7 @@
         <v xml:space="preserve"> new Room('288', 884, 289, 150, 28,[]),</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>264</v>
       </c>
@@ -3334,7 +3337,7 @@
         <v xml:space="preserve"> new Room('264', 884, 316, 78, 44,[]),</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>262</v>
       </c>
@@ -3355,7 +3358,7 @@
         <v xml:space="preserve"> new Room('262', 963, 316, 78, 44,[]),</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>260</v>
       </c>
@@ -3376,7 +3379,7 @@
         <v xml:space="preserve"> new Room('260', 1033, 316, 78, 44,[]),</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>93</v>
       </c>
@@ -3397,7 +3400,7 @@
         <v xml:space="preserve"> new Room('MDF', 1103, 335, 31, 25,[]),</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>265</v>
       </c>
@@ -3418,7 +3421,7 @@
         <v xml:space="preserve"> new Room('265', 884, 373, 86, 33,[]),</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>266</v>
       </c>
@@ -3439,7 +3442,7 @@
         <v xml:space="preserve"> new Room('266', 885, 406, 86, 42,[]),</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>267</v>
       </c>
@@ -3460,7 +3463,7 @@
         <v xml:space="preserve"> new Room('267', 885, 446, 85, 45,[]),</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>263</v>
       </c>
@@ -3481,7 +3484,7 @@
         <v xml:space="preserve"> new Room('263', 970, 373, 82, 47,[]),</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>242</v>
       </c>
@@ -3502,7 +3505,7 @@
         <v xml:space="preserve"> new Room('242', 970, 374, 165, 88,[]),</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>275</v>
       </c>
@@ -3523,7 +3526,7 @@
         <v xml:space="preserve"> new Room('275', 884, 490, 118, 44,[]),</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>281</v>
       </c>
@@ -3544,7 +3547,7 @@
         <v xml:space="preserve"> new Room('281', 884, 548, 120, 44,[]),</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>248</v>
       </c>
@@ -3565,7 +3568,7 @@
         <v xml:space="preserve"> new Room('248', 1002, 508, 117, 44,[]),</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>283</v>
       </c>
@@ -3586,7 +3589,7 @@
         <v xml:space="preserve"> new Room('283', 1002, 552, 116, 35,[]),</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>94</v>
       </c>
@@ -3607,7 +3610,7 @@
         <v xml:space="preserve"> new Room('Mech', 970, 460, 88, 31,[]),</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>95</v>
       </c>
@@ -3628,7 +3631,7 @@
         <v xml:space="preserve"> new Room('Piano Room', 140, 710, 100, 46,[]),</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>96</v>
       </c>
@@ -3649,7 +3652,7 @@
         <v xml:space="preserve"> new Room('Band Room', 136, 754, 120, 92,[]),</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>97</v>
       </c>
@@ -3670,7 +3673,7 @@
         <v xml:space="preserve"> new Room('Band Lockers', 142, 846, 60, 42,[]),</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>98</v>
       </c>
@@ -3691,7 +3694,7 @@
         <v xml:space="preserve"> new Room('Band Office', 218, 846, 46, 34,[]),</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>99</v>
       </c>
@@ -3712,7 +3715,7 @@
         <v xml:space="preserve"> new Room('Orchestra', 132, 920, 124, 90,[]),</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>100</v>
       </c>
@@ -3733,7 +3736,7 @@
         <v xml:space="preserve"> new Room('Choral Room', 378, 952, 150, 58,[]),</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>101</v>
       </c>
@@ -3754,7 +3757,7 @@
         <v xml:space="preserve"> new Room('Sm. Ensemble Room', 286, 976, 64, 30,[]),</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>91</v>
       </c>
@@ -3775,7 +3778,7 @@
         <v xml:space="preserve"> new Room('Courtyard', 600, 864, 104, 96,[]),</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>91</v>
       </c>
@@ -3796,7 +3799,7 @@
         <v xml:space="preserve"> new Room('Courtyard', 600, 734, 98, 120,[]),</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>131</v>
       </c>
@@ -3817,7 +3820,7 @@
         <v xml:space="preserve"> new Room('131', 841, 755, 86, 56,[]),</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>133</v>
       </c>
@@ -3838,7 +3841,7 @@
         <v xml:space="preserve"> new Room('133', 927, 755, 80, 56,[]),</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>102</v>
       </c>
@@ -3859,7 +3862,7 @@
         <v xml:space="preserve"> new Room('Main Office', 815, 976, 70, 62,[]),</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>103</v>
       </c>
@@ -3880,7 +3883,7 @@
         <v xml:space="preserve"> new Room('Lobby', 885, 960, 85, 50,[]),</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>104</v>
       </c>
@@ -3901,7 +3904,7 @@
         <v xml:space="preserve"> new Room('Attendance', 970, 992, 70, 44,[]),</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>105</v>
       </c>
@@ -3922,7 +3925,7 @@
         <v xml:space="preserve"> new Room('Media Center', 840, 810, 168, 154,[]),</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>106</v>
       </c>
@@ -3943,7 +3946,7 @@
         <v xml:space="preserve"> new Room('Guidance', 1030, 750, 115, 54,[]),</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>107</v>
       </c>
@@ -3964,7 +3967,7 @@
         <v xml:space="preserve"> new Room('Special Services', 1030, 868, 95, 50,[]),</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>108</v>
       </c>
@@ -3985,7 +3988,7 @@
         <v xml:space="preserve"> new Room('Auxillary Gym', 787, 608, 264, 116,[]),</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>91</v>
       </c>
@@ -4006,7 +4009,7 @@
         <v xml:space="preserve"> new Room('Courtyard', 1163, 625, 96, 73,[]),</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>91</v>
       </c>
@@ -4027,12 +4030,12 @@
         <v xml:space="preserve"> new Room('Courtyard', 1163, 494, 98, 114,[]),</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>243</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>91</v>
       </c>
@@ -4053,17 +4056,17 @@
         <v xml:space="preserve"> new Room('Courtyard', 1163, 281, 191, 35,[]),</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>231</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>229</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>109</v>
       </c>
@@ -4084,7 +4087,7 @@
         <v xml:space="preserve"> new Room('Lecture Hall 502', 294, 724, 113, 40,[]),</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>110</v>
       </c>
@@ -4105,7 +4108,7 @@
         <v xml:space="preserve"> new Room('Lecture Hall 501', 461, 724, 107, 40,[]),</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>111</v>
       </c>
@@ -4126,7 +4129,7 @@
         <v xml:space="preserve"> new Room('Auditorium', 291, 765, 279, 130,[]),</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>112</v>
       </c>
@@ -4155,25 +4158,31 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J153"/>
+  <dimension ref="A1:J147"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G51" sqref="G51"/>
+      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="57.83203125" customWidth="1"/>
-    <col min="9" max="9" width="18.83203125" customWidth="1"/>
-    <col min="10" max="10" width="15.83203125" customWidth="1"/>
+    <col min="1" max="1" width="17.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="57.875" customWidth="1"/>
+    <col min="9" max="9" width="18.875" customWidth="1"/>
+    <col min="10" max="10" width="15.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
       <c r="D1" t="s">
         <v>3</v>
       </c>
@@ -4193,7 +4202,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>164</v>
       </c>
@@ -4223,7 +4232,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>26</v>
       </c>
@@ -4246,14 +4255,14 @@
         <v>166</v>
       </c>
       <c r="H3" t="str">
-        <f t="shared" ref="H3:H60" si="0">CONCATENATE(" new Room('", A3,"', ", B3,", ", C3,", ",D3,", ",E3, ",[",F3,"],'",G3,"'),")</f>
+        <f t="shared" ref="H3:H62" si="0">CONCATENATE(" new Room('", A3,"', ", B3,", ", C3,", ",D3,", ",E3, ",[",F3,"],'",G3,"'),")</f>
         <v xml:space="preserve"> new Room('receiving', 5, 13, 8, 5,[2,4],'Normal'),</v>
       </c>
       <c r="J3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -4283,7 +4292,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
@@ -4313,7 +4322,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
@@ -4343,7 +4352,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
@@ -4373,7 +4382,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
@@ -4403,7 +4412,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>18</v>
       </c>
@@ -4433,7 +4442,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>20</v>
       </c>
@@ -4463,7 +4472,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>22</v>
       </c>
@@ -4490,7 +4499,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>24</v>
       </c>
@@ -4517,7 +4526,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>35</v>
       </c>
@@ -4547,7 +4556,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>37</v>
       </c>
@@ -4577,7 +4586,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>151</v>
       </c>
@@ -4601,8 +4610,8 @@
         <v xml:space="preserve"> new Room('cafeteria', 16, 43, 32, 11,[],'Walkable'),</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="20" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>29</v>
       </c>
@@ -4632,7 +4641,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>30</v>
       </c>
@@ -4662,7 +4671,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>32</v>
       </c>
@@ -4692,7 +4701,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>34</v>
       </c>
@@ -4722,7 +4731,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>152</v>
       </c>
@@ -4752,7 +4761,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>153</v>
       </c>
@@ -4782,7 +4791,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>40</v>
       </c>
@@ -4812,7 +4821,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>41</v>
       </c>
@@ -4842,7 +4851,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>42</v>
       </c>
@@ -4872,7 +4881,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>43</v>
       </c>
@@ -4902,7 +4911,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>44</v>
       </c>
@@ -4932,7 +4941,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>45</v>
       </c>
@@ -4962,7 +4971,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>56</v>
       </c>
@@ -4992,7 +5001,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>131</v>
       </c>
@@ -5016,7 +5025,7 @@
         <v xml:space="preserve"> new Room('131', 71, 58, 9, 6,[],'Normal'),</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>133</v>
       </c>
@@ -5040,7 +5049,7 @@
         <v xml:space="preserve"> new Room('133', 80, 58, 8, 6,[],'Normal'),</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>105</v>
       </c>
@@ -5064,7 +5073,7 @@
         <v xml:space="preserve"> new Room('Media Center', 71, 64, 17, 15,[],'Normal'),</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>104</v>
       </c>
@@ -5088,7 +5097,7 @@
         <v xml:space="preserve"> new Room('Attendance', 84, 81, 7, 4,[],'Normal'),</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>102</v>
       </c>
@@ -5112,467 +5121,465 @@
         <v xml:space="preserve"> new Room('Main Office', 69, 80, 7, 6,[],'Normal'),</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B40">
+        <v>90</v>
+      </c>
+      <c r="C40">
+        <v>57</v>
+      </c>
+      <c r="D40">
+        <v>12</v>
+      </c>
+      <c r="E40">
+        <v>12</v>
+      </c>
+      <c r="G40" t="s">
+        <v>166</v>
+      </c>
+      <c r="H40" t="str">
+        <f>CONCATENATE(" new Room('", A40,"', ", B40,", ", C40,", ",D40,", ",E40, ",[",F40,"],'",G40,"'),")</f>
+        <v xml:space="preserve"> new Room('Guidance', 90, 57, 12, 12,[],'Normal'),</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B41">
+        <v>90</v>
+      </c>
+      <c r="C41">
+        <f>C40+E40</f>
+        <v>69</v>
+      </c>
+      <c r="D41">
+        <v>10</v>
+      </c>
+      <c r="E41">
+        <v>10</v>
+      </c>
+      <c r="G41" t="s">
+        <v>166</v>
+      </c>
+      <c r="H41" t="str">
+        <f>CONCATENATE(" new Room('", A41,"', ", B41,", ", C41,", ",D41,", ",E41, ",[",F41,"],'",G41,"'),")</f>
+        <v xml:space="preserve"> new Room('Special Services', 90, 69, 10, 10,[],'Normal'),</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B42">
+        <f>B40+D40</f>
+        <v>102</v>
+      </c>
+      <c r="C42">
+        <f>C145</f>
+        <v>55</v>
+      </c>
+      <c r="D42">
+        <f>B145 - (B40+D40)</f>
+        <v>11</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="G42" t="s">
+        <v>213</v>
+      </c>
+      <c r="H42" t="str">
+        <f>CONCATENATE(" new Room('", A42,"', ", B42,", ", C42,", ",D42,", ",E42, ",[",F42,"],'",G42,"'),")</f>
+        <v xml:space="preserve"> new Room('Outside', 102, 55, 11, 1,[],'Outside,HideWall-23'),</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B41">
+      <c r="B44">
         <v>33</v>
       </c>
-      <c r="C41">
+      <c r="C44">
         <v>54</v>
       </c>
-      <c r="D41">
+      <c r="D44">
         <v>11</v>
       </c>
-      <c r="E41">
+      <c r="E44">
         <v>4</v>
       </c>
-      <c r="G41" t="s">
-        <v>166</v>
-      </c>
-      <c r="H41" t="str">
+      <c r="G44" t="s">
+        <v>166</v>
+      </c>
+      <c r="H44" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> new Room('Lecture Hall 501', 33, 54, 11, 4,[],'Normal'),</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="2" t="s">
+    <row r="45" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B42">
+      <c r="B45">
         <v>16</v>
       </c>
-      <c r="C42">
+      <c r="C45">
         <v>54</v>
       </c>
-      <c r="D42">
+      <c r="D45">
         <v>11</v>
       </c>
-      <c r="E42">
+      <c r="E45">
         <v>4</v>
       </c>
-      <c r="G42" t="s">
-        <v>166</v>
-      </c>
-      <c r="H42" t="str">
+      <c r="G45" t="s">
+        <v>166</v>
+      </c>
+      <c r="H45" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> new Room('Lecture Hall 502', 16, 54, 11, 4,[],'Normal'),</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="2" t="s">
+    <row r="46" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B43">
+      <c r="B46">
         <v>16</v>
       </c>
-      <c r="C43">
+      <c r="C46">
         <v>58</v>
       </c>
-      <c r="D43">
+      <c r="D46">
         <v>28</v>
       </c>
-      <c r="E43">
+      <c r="E46">
         <v>13</v>
       </c>
-      <c r="G43" t="s">
-        <v>166</v>
-      </c>
-      <c r="H43" t="str">
+      <c r="G46" t="s">
+        <v>166</v>
+      </c>
+      <c r="H46" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> new Room('Auditorium', 16, 58, 28, 13,[],'Normal'),</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B44">
+    <row r="47" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B47">
         <v>-13</v>
       </c>
-      <c r="C44">
+      <c r="C47">
         <v>-18</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="2" t="s">
+    <row r="48" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B45">
+      <c r="B48">
         <v>66</v>
       </c>
-      <c r="C45">
+      <c r="C48">
         <v>43</v>
       </c>
-      <c r="D45">
+      <c r="D48">
         <v>26</v>
       </c>
-      <c r="E45">
+      <c r="E48">
         <v>10</v>
       </c>
-      <c r="F45" t="s">
+      <c r="F48" t="s">
         <v>211</v>
-      </c>
-      <c r="G45" t="s">
-        <v>166</v>
-      </c>
-      <c r="H45" t="str">
-        <f>CONCATENATE(" new Room('", A45,"', ", B45,", ", C45,", ",D45,", ",E45, ",[",F45,"],'",G45,"'),")</f>
-        <v xml:space="preserve"> new Room('Auxillary Gym', 66, 43, 26, 10,[1,1,1,26,3,1,3,26],'Normal'),</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="47" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="B47">
-        <v>47</v>
-      </c>
-      <c r="C47">
-        <v>55</v>
-      </c>
-      <c r="D47">
-        <v>10</v>
-      </c>
-      <c r="E47">
-        <v>12</v>
-      </c>
-      <c r="G47" t="s">
-        <v>166</v>
-      </c>
-      <c r="H47" t="str">
-        <f>CONCATENATE(" new Room('", A47,"', ", B47,", ", C47,", ",D47,", ",E47, ",[",F47,"],'",G47,"'),")</f>
-        <v xml:space="preserve"> new Room('Courtyard3', 47, 55, 10, 12,[],'Normal'),</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B48">
-        <v>57</v>
-      </c>
-      <c r="C48">
-        <v>55</v>
-      </c>
-      <c r="D48">
-        <v>12</v>
-      </c>
-      <c r="E48">
-        <v>4</v>
-      </c>
-      <c r="F48" t="s">
-        <v>177</v>
       </c>
       <c r="G48" t="s">
         <v>166</v>
       </c>
       <c r="H48" t="str">
         <f>CONCATENATE(" new Room('", A48,"', ", B48,", ", C48,", ",D48,", ",E48, ",[",F48,"],'",G48,"'),")</f>
-        <v xml:space="preserve"> new Room('126', 57, 55, 12, 4,[2,4],'Normal'),</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B49">
-        <v>57</v>
-      </c>
-      <c r="C49">
-        <v>59</v>
-      </c>
-      <c r="D49">
+        <v xml:space="preserve"> new Room('Auxillary Gym', 66, 43, 26, 10,[1,1,1,26,3,1,3,26],'Normal'),</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="50" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B50">
+        <v>47</v>
+      </c>
+      <c r="C50">
+        <v>55</v>
+      </c>
+      <c r="D50">
+        <v>10</v>
+      </c>
+      <c r="E50">
         <v>12</v>
-      </c>
-      <c r="E49">
-        <v>4</v>
-      </c>
-      <c r="F49" t="s">
-        <v>176</v>
-      </c>
-      <c r="G49" t="s">
-        <v>166</v>
-      </c>
-      <c r="H49" t="str">
-        <f>CONCATENATE(" new Room('", A49,"', ", B49,", ", C49,", ",D49,", ",E49, ",[",F49,"],'",G49,"'),")</f>
-        <v xml:space="preserve"> new Room('124', 57, 59, 12, 4,[2,3],'Normal'),</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B50">
-        <v>57</v>
-      </c>
-      <c r="C50">
-        <v>63</v>
-      </c>
-      <c r="D50">
-        <v>12</v>
-      </c>
-      <c r="E50">
-        <v>4</v>
-      </c>
-      <c r="F50" t="s">
-        <v>177</v>
       </c>
       <c r="G50" t="s">
         <v>166</v>
       </c>
       <c r="H50" t="str">
         <f>CONCATENATE(" new Room('", A50,"', ", B50,", ", C50,", ",D50,", ",E50, ",[",F50,"],'",G50,"'),")</f>
-        <v xml:space="preserve"> new Room('122', 57, 63, 12, 4,[2,4],'Normal'),</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="52" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+        <v xml:space="preserve"> new Room('Courtyard3', 47, 55, 10, 12,[],'Normal'),</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B51">
+        <v>57</v>
+      </c>
+      <c r="C51">
+        <v>55</v>
+      </c>
+      <c r="D51">
+        <v>12</v>
+      </c>
+      <c r="E51">
+        <v>4</v>
+      </c>
+      <c r="F51" t="s">
+        <v>177</v>
+      </c>
+      <c r="G51" t="s">
+        <v>166</v>
+      </c>
+      <c r="H51" t="str">
+        <f>CONCATENATE(" new Room('", A51,"', ", B51,", ", C51,", ",D51,", ",E51, ",[",F51,"],'",G51,"'),")</f>
+        <v xml:space="preserve"> new Room('126', 57, 55, 12, 4,[2,4],'Normal'),</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="B52">
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="C52">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="D52">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E52">
         <v>4</v>
       </c>
       <c r="F52" t="s">
+        <v>176</v>
+      </c>
+      <c r="G52" t="s">
+        <v>166</v>
+      </c>
+      <c r="H52" t="str">
+        <f>CONCATENATE(" new Room('", A52,"', ", B52,", ", C52,", ",D52,", ",E52, ",[",F52,"],'",G52,"'),")</f>
+        <v xml:space="preserve"> new Room('124', 57, 59, 12, 4,[2,3],'Normal'),</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B53">
+        <v>57</v>
+      </c>
+      <c r="C53">
+        <v>63</v>
+      </c>
+      <c r="D53">
+        <v>12</v>
+      </c>
+      <c r="E53">
+        <v>4</v>
+      </c>
+      <c r="F53" t="s">
+        <v>177</v>
+      </c>
+      <c r="G53" t="s">
+        <v>166</v>
+      </c>
+      <c r="H53" t="str">
+        <f>CONCATENATE(" new Room('", A53,"', ", B53,", ", C53,", ",D53,", ",E53, ",[",F53,"],'",G53,"'),")</f>
+        <v xml:space="preserve"> new Room('122', 57, 63, 12, 4,[2,4],'Normal'),</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B55">
+        <v>1</v>
+      </c>
+      <c r="C55">
+        <v>67</v>
+      </c>
+      <c r="D55">
+        <v>6</v>
+      </c>
+      <c r="E55">
+        <v>4</v>
+      </c>
+      <c r="F55" t="s">
         <v>189</v>
       </c>
-      <c r="G52" t="s">
-        <v>166</v>
-      </c>
-      <c r="H52" t="str">
+      <c r="G55" t="s">
+        <v>166</v>
+      </c>
+      <c r="H55" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> new Room('Band Lockers', 1, 67, 6, 4,[1,4],'Normal'),</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="2" t="s">
+    <row r="56" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B53">
+      <c r="B56">
         <v>9</v>
       </c>
-      <c r="C53">
+      <c r="C56">
         <v>67</v>
       </c>
-      <c r="D53">
+      <c r="D56">
         <v>5</v>
       </c>
-      <c r="E53">
+      <c r="E56">
         <v>3</v>
       </c>
-      <c r="F53" t="s">
+      <c r="F56" t="s">
         <v>187</v>
       </c>
-      <c r="G53" t="s">
-        <v>166</v>
-      </c>
-      <c r="H53" t="str">
+      <c r="G56" t="s">
+        <v>166</v>
+      </c>
+      <c r="H56" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> new Room('Band Office', 9, 67, 5, 3,[4,3],'Normal'),</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="2" t="s">
+    <row r="57" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B54">
+      <c r="B57">
         <v>1</v>
       </c>
-      <c r="C54">
+      <c r="C57">
         <v>58</v>
-      </c>
-      <c r="D54">
-        <v>12</v>
-      </c>
-      <c r="E54">
-        <v>9</v>
-      </c>
-      <c r="F54" t="s">
-        <v>190</v>
-      </c>
-      <c r="G54" t="s">
-        <v>166</v>
-      </c>
-      <c r="H54" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> new Room('Band Room', 1, 58, 12, 9,[1,1,1,9],'Normal'),</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B55">
-        <v>25</v>
-      </c>
-      <c r="C55">
-        <v>77</v>
-      </c>
-      <c r="D55">
-        <v>15</v>
-      </c>
-      <c r="E55">
-        <v>6</v>
-      </c>
-      <c r="F55" t="s">
-        <v>191</v>
-      </c>
-      <c r="G55" t="s">
-        <v>166</v>
-      </c>
-      <c r="H55" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> new Room('Choral Room', 25, 77, 15, 6,[1,1,1,14],'Normal'),</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="B56">
-        <v>47</v>
-      </c>
-      <c r="C56">
-        <v>68</v>
-      </c>
-      <c r="D56">
-        <v>10</v>
-      </c>
-      <c r="E56">
-        <v>10</v>
-      </c>
-      <c r="G56" t="s">
-        <v>166</v>
-      </c>
-      <c r="H56" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> new Room('Courtyard2', 47, 68, 10, 10,[],'Normal'),</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="B57">
-        <v>90</v>
-      </c>
-      <c r="C57">
-        <v>57</v>
       </c>
       <c r="D57">
         <v>12</v>
       </c>
       <c r="E57">
-        <v>5</v>
+        <v>9</v>
+      </c>
+      <c r="F57" t="s">
+        <v>190</v>
       </c>
       <c r="G57" t="s">
         <v>166</v>
       </c>
       <c r="H57" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> new Room('Guidance', 90, 57, 12, 5,[],'Normal'),</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+        <v xml:space="preserve"> new Room('Band Room', 1, 58, 12, 9,[1,1,1,9],'Normal'),</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B58">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="C58">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D58">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E58">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F58" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G58" t="s">
         <v>166</v>
       </c>
       <c r="H58" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> new Room('Orchestra', 0, 74, 12, 9,[4,6,2,2],'Normal'),</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+        <v xml:space="preserve"> new Room('Choral Room', 25, 77, 15, 6,[1,1,1,14],'Normal'),</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>95</v>
+        <v>156</v>
       </c>
       <c r="B59">
-        <v>1</v>
+        <v>47</v>
       </c>
       <c r="C59">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="D59">
         <v>10</v>
       </c>
       <c r="E59">
-        <v>5</v>
-      </c>
-      <c r="F59" t="s">
-        <v>193</v>
+        <v>10</v>
       </c>
       <c r="G59" t="s">
         <v>166</v>
       </c>
       <c r="H59" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> new Room('Piano Room', 1, 53, 10, 5,[2,1,3,8],'Normal'),</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+        <v xml:space="preserve"> new Room('Courtyard2', 47, 68, 10, 10,[],'Normal'),</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B60">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="C60">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D60">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E60">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F60" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G60" t="s">
         <v>166</v>
       </c>
       <c r="H60" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> new Room('Sm. Ensemble Room', 16, 80, 6, 3,[1,1],'Normal'),</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+        <v xml:space="preserve"> new Room('Orchestra', 0, 74, 12, 9,[4,6,2,2],'Normal'),</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="B61">
-        <v>90</v>
+        <v>1</v>
       </c>
       <c r="C61">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="D61">
         <v>10</v>
@@ -5580,1195 +5587,1196 @@
       <c r="E61">
         <v>5</v>
       </c>
+      <c r="F61" t="s">
+        <v>193</v>
+      </c>
       <c r="G61" t="s">
         <v>166</v>
       </c>
       <c r="H61" t="str">
-        <f t="shared" ref="H61:H131" si="1">CONCATENATE(" new Room('", A61,"', ", B61,", ", C61,", ",D61,", ",E61, ",[",F61,"],'",G61,"'),")</f>
-        <v xml:space="preserve"> new Room('Special Services', 90, 69, 10, 5,[],'Normal'),</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> new Room('Piano Room', 1, 53, 10, 5,[2,1,3,8],'Normal'),</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="B62">
         <v>16</v>
       </c>
       <c r="C62">
+        <v>80</v>
+      </c>
+      <c r="D62">
+        <v>6</v>
+      </c>
+      <c r="E62">
+        <v>3</v>
+      </c>
+      <c r="F62" t="s">
+        <v>194</v>
+      </c>
+      <c r="G62" t="s">
+        <v>166</v>
+      </c>
+      <c r="H62" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> new Room('Sm. Ensemble Room', 16, 80, 6, 3,[1,1],'Normal'),</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B63">
+        <v>16</v>
+      </c>
+      <c r="C63">
         <v>71</v>
       </c>
-      <c r="D62">
+      <c r="D63">
         <v>28</v>
       </c>
-      <c r="E62">
+      <c r="E63">
         <v>5</v>
       </c>
-      <c r="F62" t="s">
+      <c r="F63" t="s">
         <v>195</v>
       </c>
-      <c r="G62" t="s">
-        <v>166</v>
-      </c>
-      <c r="H62" t="str">
-        <f t="shared" si="1"/>
+      <c r="G63" t="s">
+        <v>166</v>
+      </c>
+      <c r="H63" t="str">
+        <f t="shared" ref="H63:H132" si="1">CONCATENATE(" new Room('", A63,"', ", B63,", ", C63,", ",D63,", ",E63, ",[",F63,"],'",G63,"'),")</f>
         <v xml:space="preserve"> new Room('Stage', 16, 71, 28, 5,[4,5,3,2,2,1],'Normal'),</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="64" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="2" t="s">
+    <row r="64" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="65" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="B64">
+      <c r="B65">
         <v>51</v>
-      </c>
-      <c r="C64">
-        <v>18</v>
-      </c>
-      <c r="D64">
-        <v>7</v>
-      </c>
-      <c r="E64">
-        <f>SUM(E66:E70)</f>
-        <v>23</v>
-      </c>
-      <c r="G64" t="s">
-        <v>166</v>
-      </c>
-      <c r="H64" t="str">
-        <f t="shared" ref="H64:H70" si="2">CONCATENATE(" new Room('", A64,"', ", B64,", ", C64,", ",D64,", ",E64, ",[",F64,"],'",G64,"'),")</f>
-        <v xml:space="preserve"> new Room('Courtyard1', 51, 18, 7, 23,[],'Normal'),</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B65">
-        <v>58</v>
       </c>
       <c r="C65">
         <v>18</v>
       </c>
       <c r="D65">
+        <v>7</v>
+      </c>
+      <c r="E65">
+        <f>SUM(E67:E71)</f>
+        <v>23</v>
+      </c>
+      <c r="G65" t="s">
+        <v>166</v>
+      </c>
+      <c r="H65" t="str">
+        <f t="shared" ref="H65:H71" si="2">CONCATENATE(" new Room('", A65,"', ", B65,", ", C65,", ",D65,", ",E65, ",[",F65,"],'",G65,"'),")</f>
+        <v xml:space="preserve"> new Room('Courtyard1', 51, 18, 7, 23,[],'Normal'),</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B66">
+        <v>58</v>
+      </c>
+      <c r="C66">
+        <v>18</v>
+      </c>
+      <c r="D66">
         <v>8</v>
       </c>
-      <c r="E65">
+      <c r="E66">
         <v>3</v>
       </c>
-      <c r="F65" t="s">
+      <c r="F66" t="s">
         <v>196</v>
       </c>
-      <c r="G65" t="s">
-        <v>166</v>
-      </c>
-      <c r="H65" t="str">
+      <c r="G66" t="s">
+        <v>166</v>
+      </c>
+      <c r="H66" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> new Room('District MDF', 58, 18, 8, 3,[1,2],'Normal'),</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="2" t="s">
+    <row r="67" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="B66">
+      <c r="B67">
         <v>66</v>
       </c>
-      <c r="C66">
+      <c r="C67">
         <v>18</v>
       </c>
-      <c r="D66">
+      <c r="D67">
         <v>7</v>
       </c>
-      <c r="E66">
+      <c r="E67">
         <v>3</v>
       </c>
-      <c r="F66" t="s">
+      <c r="F67" t="s">
         <v>196</v>
       </c>
-      <c r="G66" t="s">
-        <v>166</v>
-      </c>
-      <c r="H66" t="str">
+      <c r="G67" t="s">
+        <v>166</v>
+      </c>
+      <c r="H67" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> new Room('MDF1', 66, 18, 7, 3,[1,2],'Normal'),</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="2">
+    <row r="68" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="2">
         <v>272</v>
       </c>
-      <c r="B67">
+      <c r="B68">
         <v>58</v>
       </c>
-      <c r="C67">
+      <c r="C68">
         <v>21</v>
       </c>
-      <c r="D67">
+      <c r="D68">
         <v>15</v>
       </c>
-      <c r="E67">
+      <c r="E68">
         <v>5</v>
       </c>
-      <c r="F67" t="s">
+      <c r="F68" t="s">
         <v>177</v>
       </c>
-      <c r="G67" t="s">
-        <v>166</v>
-      </c>
-      <c r="H67" t="str">
+      <c r="G68" t="s">
+        <v>166</v>
+      </c>
+      <c r="H68" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> new Room('272', 58, 21, 15, 5,[2,4],'Normal'),</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="2">
+    <row r="69" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="2">
         <v>276</v>
       </c>
-      <c r="B68">
+      <c r="B69">
         <v>58</v>
       </c>
-      <c r="C68">
+      <c r="C69">
         <v>26</v>
       </c>
-      <c r="D68">
+      <c r="D69">
         <v>15</v>
       </c>
-      <c r="E68">
+      <c r="E69">
         <v>5</v>
       </c>
-      <c r="F68" t="s">
+      <c r="F69" t="s">
         <v>176</v>
       </c>
-      <c r="G68" t="s">
-        <v>166</v>
-      </c>
-      <c r="H68" t="str">
+      <c r="G69" t="s">
+        <v>166</v>
+      </c>
+      <c r="H69" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> new Room('276', 58, 26, 15, 5,[2,3],'Normal'),</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="2">
+    <row r="70" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="2">
         <v>278</v>
       </c>
-      <c r="B69">
+      <c r="B70">
         <v>58</v>
       </c>
-      <c r="C69">
+      <c r="C70">
         <v>31</v>
       </c>
-      <c r="D69">
+      <c r="D70">
         <v>15</v>
       </c>
-      <c r="E69">
+      <c r="E70">
         <v>5</v>
       </c>
-      <c r="F69" t="s">
+      <c r="F70" t="s">
         <v>175</v>
       </c>
-      <c r="G69" t="s">
-        <v>166</v>
-      </c>
-      <c r="H69" t="str">
+      <c r="G70" t="s">
+        <v>166</v>
+      </c>
+      <c r="H70" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> new Room('278', 58, 31, 15, 5,[2,2],'Normal'),</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="2">
+    <row r="71" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="2">
         <v>282</v>
       </c>
-      <c r="B70">
+      <c r="B71">
         <v>58</v>
       </c>
-      <c r="C70">
+      <c r="C71">
         <v>36</v>
       </c>
-      <c r="D70">
+      <c r="D71">
         <v>15</v>
       </c>
-      <c r="E70">
+      <c r="E71">
         <v>5</v>
       </c>
-      <c r="F70" t="s">
+      <c r="F71" t="s">
         <v>175</v>
       </c>
-      <c r="G70" t="s">
-        <v>166</v>
-      </c>
-      <c r="H70" t="str">
+      <c r="G71" t="s">
+        <v>166</v>
+      </c>
+      <c r="H71" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> new Room('282', 58, 36, 15, 5,[2,2],'Normal'),</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="72" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="73" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="75" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="2">
+    <row r="72" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="73" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="74" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="76" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="2">
         <v>242</v>
       </c>
-      <c r="B75">
+      <c r="B76">
         <v>84</v>
       </c>
-      <c r="C75">
+      <c r="C76">
         <v>19</v>
       </c>
-      <c r="D75">
+      <c r="D76">
         <v>17</v>
       </c>
-      <c r="E75">
+      <c r="E76">
         <v>9</v>
       </c>
-      <c r="F75" t="s">
+      <c r="F76" t="s">
         <v>197</v>
       </c>
-      <c r="G75" t="s">
-        <v>166</v>
-      </c>
-      <c r="H75" t="str">
+      <c r="G76" t="s">
+        <v>166</v>
+      </c>
+      <c r="H76" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> new Room('242', 84, 19, 17, 9,[1,14,2,8],'Normal'),</v>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="78" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="2">
+    <row r="78" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="79" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="2">
         <v>263</v>
       </c>
-      <c r="B78">
+      <c r="B79">
         <v>84</v>
       </c>
-      <c r="C78">
+      <c r="C79">
         <v>19</v>
       </c>
-      <c r="D78">
+      <c r="D79">
         <v>8</v>
       </c>
-      <c r="E78">
+      <c r="E79">
         <v>5</v>
       </c>
-      <c r="F78" t="s">
+      <c r="F79" t="s">
         <v>194</v>
       </c>
-      <c r="G78" t="s">
-        <v>166</v>
-      </c>
-      <c r="H78" t="str">
+      <c r="G79" t="s">
+        <v>166</v>
+      </c>
+      <c r="H79" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> new Room('263', 84, 19, 8, 5,[1,1],'Normal'),</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="2">
+    <row r="80" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="2">
         <v>265</v>
       </c>
-      <c r="B79">
+      <c r="B80">
         <v>75</v>
       </c>
-      <c r="C79">
+      <c r="C80">
         <v>19</v>
       </c>
-      <c r="D79">
+      <c r="D80">
         <v>9</v>
       </c>
-      <c r="E79">
+      <c r="E80">
         <v>3</v>
       </c>
-      <c r="F79" t="s">
+      <c r="F80" t="s">
         <v>198</v>
       </c>
-      <c r="G79" t="s">
-        <v>166</v>
-      </c>
-      <c r="H79" t="str">
+      <c r="G80" t="s">
+        <v>166</v>
+      </c>
+      <c r="H80" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> new Room('265', 75, 19, 9, 3,[1,9],'Normal'),</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="2">
+    <row r="81" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="2">
         <v>266</v>
       </c>
-      <c r="B80">
+      <c r="B81">
         <v>75</v>
       </c>
-      <c r="C80">
+      <c r="C81">
         <v>22</v>
       </c>
-      <c r="D80">
+      <c r="D81">
         <v>9</v>
       </c>
-      <c r="E80">
+      <c r="E81">
         <v>4</v>
       </c>
-      <c r="F80" t="s">
+      <c r="F81" t="s">
         <v>199</v>
       </c>
-      <c r="G80" t="s">
-        <v>166</v>
-      </c>
-      <c r="H80" t="str">
+      <c r="G81" t="s">
+        <v>166</v>
+      </c>
+      <c r="H81" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> new Room('266', 75, 22, 9, 4,[4,1],'Normal'),</v>
       </c>
     </row>
-    <row r="81" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="2">
+    <row r="82" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="2">
         <v>267</v>
       </c>
-      <c r="B81">
+      <c r="B82">
         <v>75</v>
       </c>
-      <c r="C81">
+      <c r="C82">
         <v>26</v>
       </c>
-      <c r="D81">
+      <c r="D82">
         <v>9</v>
       </c>
-      <c r="E81">
+      <c r="E82">
         <v>5</v>
       </c>
-      <c r="F81" t="s">
+      <c r="F82" t="s">
         <v>199</v>
       </c>
-      <c r="G81" t="s">
-        <v>166</v>
-      </c>
-      <c r="H81" t="str">
+      <c r="G82" t="s">
+        <v>166</v>
+      </c>
+      <c r="H82" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> new Room('267', 75, 26, 9, 5,[4,1],'Normal'),</v>
       </c>
     </row>
-    <row r="82" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="2">
+    <row r="83" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="2">
         <v>275</v>
       </c>
-      <c r="B82">
+      <c r="B83">
         <v>75</v>
       </c>
-      <c r="C82">
+      <c r="C83">
         <v>31</v>
       </c>
-      <c r="D82">
+      <c r="D83">
         <v>12</v>
       </c>
-      <c r="E82">
+      <c r="E83">
         <v>4</v>
       </c>
-      <c r="F82" t="s">
+      <c r="F83" t="s">
         <v>199</v>
       </c>
-      <c r="G82" t="s">
-        <v>166</v>
-      </c>
-      <c r="H82" t="str">
+      <c r="G83" t="s">
+        <v>166</v>
+      </c>
+      <c r="H83" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> new Room('275', 75, 31, 12, 4,[4,1],'Normal'),</v>
       </c>
     </row>
-    <row r="83" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="2">
+    <row r="84" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="2">
         <v>281</v>
       </c>
-      <c r="B83">
+      <c r="B84">
         <v>75</v>
       </c>
-      <c r="C83">
+      <c r="C84">
         <v>37</v>
       </c>
-      <c r="D83">
+      <c r="D84">
         <v>12</v>
       </c>
-      <c r="E83">
+      <c r="E84">
         <v>4</v>
       </c>
-      <c r="F83" t="s">
+      <c r="F84" t="s">
         <v>182</v>
       </c>
-      <c r="G83" t="s">
-        <v>166</v>
-      </c>
-      <c r="H83" t="str">
+      <c r="G84" t="s">
+        <v>166</v>
+      </c>
+      <c r="H84" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> new Room('281', 75, 37, 12, 4,[4,4],'Normal'),</v>
       </c>
     </row>
-    <row r="84" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="2">
+    <row r="85" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="2">
         <v>283</v>
       </c>
-      <c r="B84">
+      <c r="B85">
         <v>87</v>
       </c>
-      <c r="C84">
+      <c r="C85">
         <v>37</v>
       </c>
-      <c r="D84">
+      <c r="D85">
         <v>12</v>
       </c>
-      <c r="E84">
+      <c r="E85">
         <v>4</v>
       </c>
-      <c r="F84" t="s">
+      <c r="F85" t="s">
         <v>178</v>
       </c>
-      <c r="G84" t="s">
-        <v>166</v>
-      </c>
-      <c r="H84" t="str">
+      <c r="G85" t="s">
+        <v>166</v>
+      </c>
+      <c r="H85" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> new Room('283', 87, 37, 12, 4,[3,1],'Normal'),</v>
       </c>
     </row>
-    <row r="85" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="2">
+    <row r="86" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="2">
         <v>248</v>
       </c>
-      <c r="B85">
+      <c r="B86">
         <v>87</v>
       </c>
-      <c r="C85">
+      <c r="C86">
         <v>33</v>
       </c>
-      <c r="D85">
+      <c r="D86">
         <v>12</v>
       </c>
-      <c r="E85">
+      <c r="E86">
         <v>4</v>
       </c>
-      <c r="F85" t="s">
+      <c r="F86" t="s">
         <v>200</v>
-      </c>
-      <c r="G85" t="s">
-        <v>166</v>
-      </c>
-      <c r="H85" t="str">
-        <f>CONCATENATE(" new Room('", A85,"', ", B85,", ", C85,", ",D85,", ",E85, ",[",F85,"],'",G85,"'),")</f>
-        <v xml:space="preserve"> new Room('248', 87, 33, 12, 4,[2,1],'Normal'),</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="B86">
-        <v>84</v>
-      </c>
-      <c r="C86">
-        <v>28</v>
-      </c>
-      <c r="D86">
-        <v>9</v>
-      </c>
-      <c r="E86">
-        <v>3</v>
       </c>
       <c r="G86" t="s">
         <v>166</v>
       </c>
       <c r="H86" t="str">
         <f>CONCATENATE(" new Room('", A86,"', ", B86,", ", C86,", ",D86,", ",E86, ",[",F86,"],'",G86,"'),")</f>
+        <v xml:space="preserve"> new Room('248', 87, 33, 12, 4,[2,1],'Normal'),</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B87">
+        <v>84</v>
+      </c>
+      <c r="C87">
+        <v>28</v>
+      </c>
+      <c r="D87">
+        <v>9</v>
+      </c>
+      <c r="E87">
+        <v>3</v>
+      </c>
+      <c r="G87" t="s">
+        <v>166</v>
+      </c>
+      <c r="H87" t="str">
+        <f>CONCATENATE(" new Room('", A87,"', ", B87,", ", C87,", ",D87,", ",E87, ",[",F87,"],'",G87,"'),")</f>
         <v xml:space="preserve"> new Room('mech4', 84, 28, 9, 3,[],'Normal'),</v>
       </c>
     </row>
-    <row r="87" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="88" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="2" t="s">
+    <row r="88" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="89" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B88">
+      <c r="B89">
         <v>58</v>
       </c>
-      <c r="C88">
+      <c r="C89">
         <v>69</v>
       </c>
-      <c r="D88">
+      <c r="D89">
         <v>11</v>
       </c>
-      <c r="E88">
+      <c r="E89">
         <v>6</v>
       </c>
-      <c r="G88" t="s">
-        <v>166</v>
-      </c>
-      <c r="H88" t="str">
+      <c r="G89" t="s">
+        <v>166</v>
+      </c>
+      <c r="H89" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> new Room('120', 58, 69, 11, 6,[],'Normal'),</v>
       </c>
     </row>
-    <row r="89" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="90" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="2" t="s">
+    <row r="90" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="91" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B90">
+      <c r="B91">
         <v>75</v>
-      </c>
-      <c r="C90">
-        <v>6</v>
-      </c>
-      <c r="D90">
-        <v>7</v>
-      </c>
-      <c r="E90">
-        <v>5</v>
-      </c>
-      <c r="F90" t="s">
-        <v>201</v>
-      </c>
-      <c r="G90" t="s">
-        <v>166</v>
-      </c>
-      <c r="H90" t="str">
-        <f t="shared" ref="H90:H98" si="3">CONCATENATE(" new Room('", A90,"', ", B90,", ", C90,", ",D90,", ",E90, ",[",F90,"],'",G90,"'),")</f>
-        <v xml:space="preserve"> new Room('251', 75, 6, 7, 5,[1,7],'Normal'),</v>
-      </c>
-      <c r="J90">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B91">
-        <v>82</v>
       </c>
       <c r="C91">
         <v>6</v>
       </c>
       <c r="D91">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E91">
         <v>5</v>
       </c>
       <c r="F91" t="s">
+        <v>201</v>
+      </c>
+      <c r="G91" t="s">
+        <v>166</v>
+      </c>
+      <c r="H91" t="str">
+        <f t="shared" ref="H91:H99" si="3">CONCATENATE(" new Room('", A91,"', ", B91,", ", C91,", ",D91,", ",E91, ",[",F91,"],'",G91,"'),")</f>
+        <v xml:space="preserve"> new Room('251', 75, 6, 7, 5,[1,7],'Normal'),</v>
+      </c>
+      <c r="J91">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B92">
+        <v>82</v>
+      </c>
+      <c r="C92">
+        <v>6</v>
+      </c>
+      <c r="D92">
+        <v>8</v>
+      </c>
+      <c r="E92">
+        <v>5</v>
+      </c>
+      <c r="F92" t="s">
         <v>202</v>
       </c>
-      <c r="G91" t="s">
-        <v>166</v>
-      </c>
-      <c r="H91" t="str">
+      <c r="G92" t="s">
+        <v>166</v>
+      </c>
+      <c r="H92" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve"> new Room('252', 82, 6, 8, 5,[1,8],'Normal'),</v>
       </c>
-      <c r="J91">
+      <c r="J92">
         <v>149</v>
       </c>
     </row>
-    <row r="92" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="2" t="s">
+    <row r="93" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B92">
+      <c r="B93">
         <v>90</v>
       </c>
-      <c r="C92">
+      <c r="C93">
         <v>6</v>
       </c>
-      <c r="D92">
+      <c r="D93">
         <v>7</v>
       </c>
-      <c r="E92">
+      <c r="E93">
         <v>4</v>
       </c>
-      <c r="F92" t="s">
+      <c r="F93" t="s">
         <v>201</v>
       </c>
-      <c r="G92" t="s">
-        <v>166</v>
-      </c>
-      <c r="H92" t="str">
+      <c r="G93" t="s">
+        <v>166</v>
+      </c>
+      <c r="H93" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve"> new Room('255', 90, 6, 7, 4,[1,7],'Normal'),</v>
       </c>
-      <c r="J92" t="s">
+      <c r="J93" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="93" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="2">
+    <row r="94" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="2">
         <v>253</v>
       </c>
-      <c r="B93">
+      <c r="B94">
         <v>90</v>
       </c>
-      <c r="C93">
+      <c r="C94">
         <v>10</v>
       </c>
-      <c r="D93">
+      <c r="D94">
         <v>7</v>
       </c>
-      <c r="E93">
+      <c r="E94">
         <v>4</v>
       </c>
-      <c r="F93" t="s">
+      <c r="F94" t="s">
         <v>177</v>
       </c>
-      <c r="G93" t="s">
-        <v>166</v>
-      </c>
-      <c r="H93" t="str">
+      <c r="G94" t="s">
+        <v>166</v>
+      </c>
+      <c r="H94" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve"> new Room('253', 90, 10, 7, 4,[2,4],'Normal'),</v>
       </c>
     </row>
-    <row r="94" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="2">
+    <row r="95" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="2">
         <v>260</v>
       </c>
-      <c r="B94">
+      <c r="B95">
         <v>90</v>
       </c>
-      <c r="C94">
+      <c r="C95">
         <v>14</v>
       </c>
-      <c r="D94">
+      <c r="D95">
         <v>7</v>
       </c>
-      <c r="E94">
+      <c r="E95">
         <v>4</v>
       </c>
-      <c r="F94" t="s">
+      <c r="F95" t="s">
         <v>178</v>
       </c>
-      <c r="G94" t="s">
-        <v>166</v>
-      </c>
-      <c r="H94" t="str">
+      <c r="G95" t="s">
+        <v>166</v>
+      </c>
+      <c r="H95" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve"> new Room('260', 90, 14, 7, 4,[3,1],'Normal'),</v>
       </c>
     </row>
-    <row r="95" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="2">
+    <row r="96" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="2">
         <v>262</v>
       </c>
-      <c r="B95">
+      <c r="B96">
         <v>83</v>
       </c>
-      <c r="C95">
+      <c r="C96">
         <v>14</v>
       </c>
-      <c r="D95">
+      <c r="D96">
         <v>7</v>
       </c>
-      <c r="E95">
+      <c r="E96">
         <v>4</v>
       </c>
-      <c r="F95" t="s">
+      <c r="F96" t="s">
         <v>188</v>
       </c>
-      <c r="G95" t="s">
-        <v>166</v>
-      </c>
-      <c r="H95" t="str">
+      <c r="G96" t="s">
+        <v>166</v>
+      </c>
+      <c r="H96" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve"> new Room('262', 83, 14, 7, 4,[3,7],'Normal'),</v>
       </c>
     </row>
-    <row r="96" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="2">
+    <row r="97" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="2">
         <v>264</v>
       </c>
-      <c r="B96">
+      <c r="B97">
         <v>75</v>
       </c>
-      <c r="C96">
+      <c r="C97">
         <v>14</v>
       </c>
-      <c r="D96">
+      <c r="D97">
         <v>8</v>
       </c>
-      <c r="E96">
+      <c r="E97">
         <v>4</v>
       </c>
-      <c r="F96" t="s">
+      <c r="F97" t="s">
         <v>203</v>
       </c>
-      <c r="G96" t="s">
-        <v>166</v>
-      </c>
-      <c r="H96" t="str">
+      <c r="G97" t="s">
+        <v>166</v>
+      </c>
+      <c r="H97" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve"> new Room('264', 75, 14, 8, 4,[3,8],'Normal'),</v>
       </c>
     </row>
-    <row r="97" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="2">
+    <row r="98" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="2">
         <v>288</v>
       </c>
-      <c r="B97">
+      <c r="B98">
         <v>75</v>
       </c>
-      <c r="C97">
+      <c r="C98">
         <v>11</v>
       </c>
-      <c r="D97">
+      <c r="D98">
         <v>15</v>
       </c>
-      <c r="E97">
+      <c r="E98">
         <v>3</v>
       </c>
-      <c r="F97" t="s">
+      <c r="F98" t="s">
         <v>186</v>
       </c>
-      <c r="G97" t="s">
-        <v>166</v>
-      </c>
-      <c r="H97" t="str">
+      <c r="G98" t="s">
+        <v>166</v>
+      </c>
+      <c r="H98" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve"> new Room('288', 75, 11, 15, 3,[4,2],'Normal'),</v>
       </c>
     </row>
-    <row r="98" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="2" t="s">
+    <row r="99" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="B98">
+      <c r="B99">
         <v>97</v>
       </c>
-      <c r="C98">
+      <c r="C99">
         <v>15</v>
       </c>
-      <c r="D98">
+      <c r="D99">
         <v>3</v>
       </c>
-      <c r="E98">
+      <c r="E99">
         <v>3</v>
       </c>
-      <c r="F98" t="s">
+      <c r="F99" t="s">
         <v>194</v>
       </c>
-      <c r="G98" t="s">
-        <v>166</v>
-      </c>
-      <c r="H98" t="str">
+      <c r="G99" t="s">
+        <v>166</v>
+      </c>
+      <c r="H99" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve"> new Room('MDF2', 97, 15, 3, 3,[1,1],'Normal'),</v>
       </c>
     </row>
-    <row r="99" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="100" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="2" t="s">
+    <row r="100" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="101" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="B100">
-        <v>121</v>
-      </c>
-      <c r="C100">
-        <v>14</v>
-      </c>
-      <c r="D100">
-        <f>D101</f>
-        <v>8</v>
-      </c>
-      <c r="E100">
-        <v>3</v>
-      </c>
-      <c r="F100" t="s">
-        <v>204</v>
-      </c>
-      <c r="G100" t="s">
-        <v>166</v>
-      </c>
-      <c r="H100" t="str">
-        <f t="shared" ref="H100:H110" si="4">CONCATENATE(" new Room('", A100,"', ", B100,", ", C100,", ",D100,", ",E100, ",[",F100,"],'",G100,"'),")</f>
-        <v xml:space="preserve"> new Room('204', 121, 14, 8, 3,[2,1,2,2],'Normal'),</v>
-      </c>
-      <c r="J100">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="101" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="2" t="s">
-        <v>54</v>
       </c>
       <c r="B101">
         <v>121</v>
       </c>
       <c r="C101">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D101">
+        <f>D102</f>
         <v>8</v>
       </c>
       <c r="E101">
         <v>3</v>
       </c>
       <c r="F101" t="s">
+        <v>204</v>
+      </c>
+      <c r="G101" t="s">
+        <v>166</v>
+      </c>
+      <c r="H101" t="str">
+        <f t="shared" ref="H101:H111" si="4">CONCATENATE(" new Room('", A101,"', ", B101,", ", C101,", ",D101,", ",E101, ",[",F101,"],'",G101,"'),")</f>
+        <v xml:space="preserve"> new Room('204', 121, 14, 8, 3,[2,1,2,2],'Normal'),</v>
+      </c>
+      <c r="J101">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B102">
+        <v>121</v>
+      </c>
+      <c r="C102">
+        <v>11</v>
+      </c>
+      <c r="D102">
+        <v>8</v>
+      </c>
+      <c r="E102">
+        <v>3</v>
+      </c>
+      <c r="F102" t="s">
         <v>200</v>
       </c>
-      <c r="G101" t="s">
-        <v>166</v>
-      </c>
-      <c r="H101" t="str">
+      <c r="G102" t="s">
+        <v>166</v>
+      </c>
+      <c r="H102" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve"> new Room('205', 121, 11, 8, 3,[2,1],'Normal'),</v>
       </c>
-      <c r="J101">
+      <c r="J102">
         <v>137</v>
       </c>
     </row>
-    <row r="102" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="2" t="s">
+    <row r="103" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="B102">
+      <c r="B103">
         <v>101</v>
       </c>
-      <c r="C102">
+      <c r="C103">
         <v>10</v>
       </c>
-      <c r="D102">
-        <f>D107+D108+D109+D110</f>
+      <c r="D103">
+        <f>D108+D109+D110+D111</f>
         <v>20</v>
       </c>
-      <c r="E102">
-        <f>E101</f>
+      <c r="E103">
+        <f>E102</f>
         <v>3</v>
       </c>
-      <c r="G102" t="s">
-        <v>166</v>
-      </c>
-      <c r="H102" t="str">
+      <c r="G103" t="s">
+        <v>166</v>
+      </c>
+      <c r="H103" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve"> new Room('Courtyard6', 101, 10, 20, 3,[],'Normal'),</v>
       </c>
     </row>
-    <row r="103" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="2" t="s">
+    <row r="104" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B103">
+      <c r="B104">
         <v>121</v>
       </c>
-      <c r="C103">
+      <c r="C104">
         <v>6</v>
       </c>
-      <c r="D103">
-        <f>D101</f>
+      <c r="D104">
+        <f>D102</f>
         <v>8</v>
       </c>
-      <c r="E103">
+      <c r="E104">
         <v>5</v>
       </c>
-      <c r="F103" t="s">
+      <c r="F104" t="s">
         <v>205</v>
       </c>
-      <c r="G103" t="s">
-        <v>166</v>
-      </c>
-      <c r="H103" t="str">
+      <c r="G104" t="s">
+        <v>166</v>
+      </c>
+      <c r="H104" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve"> new Room('206', 121, 6, 8, 5,[2,1,1,3],'Normal'),</v>
       </c>
-      <c r="J103">
+      <c r="J104">
         <v>139</v>
       </c>
     </row>
-    <row r="104" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="2" t="s">
+    <row r="105" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B104">
+      <c r="B105">
         <v>116</v>
       </c>
-      <c r="C104">
+      <c r="C105">
         <v>6</v>
       </c>
-      <c r="D104">
+      <c r="D105">
         <v>5</v>
       </c>
-      <c r="E104">
+      <c r="E105">
         <v>4</v>
       </c>
-      <c r="F104" t="s">
+      <c r="F105" t="s">
         <v>189</v>
       </c>
-      <c r="G104" t="s">
-        <v>166</v>
-      </c>
-      <c r="H104" t="str">
+      <c r="G105" t="s">
+        <v>166</v>
+      </c>
+      <c r="H105" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve"> new Room('207', 116, 6, 5, 4,[1,4],'Normal'),</v>
       </c>
-      <c r="J104">
+      <c r="J105">
         <v>141</v>
       </c>
     </row>
-    <row r="105" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="2" t="s">
+    <row r="106" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B105">
+      <c r="B106">
         <v>108</v>
       </c>
-      <c r="C105">
+      <c r="C106">
         <v>6</v>
       </c>
-      <c r="D105">
+      <c r="D106">
         <f>D31</f>
         <v>8</v>
       </c>
-      <c r="E105">
-        <f>E106</f>
+      <c r="E106">
+        <f>E107</f>
         <v>4</v>
       </c>
-      <c r="F105" t="s">
+      <c r="F106" t="s">
         <v>196</v>
       </c>
-      <c r="G105" t="s">
-        <v>166</v>
-      </c>
-      <c r="H105" t="str">
+      <c r="G106" t="s">
+        <v>166</v>
+      </c>
+      <c r="H106" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve"> new Room('208', 108, 6, 8, 4,[1,2],'Normal'),</v>
       </c>
-      <c r="J105">
+      <c r="J106">
         <v>143</v>
       </c>
     </row>
-    <row r="106" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="2" t="s">
+    <row r="107" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B106">
+      <c r="B107">
         <v>100</v>
       </c>
-      <c r="C106">
+      <c r="C107">
         <v>6</v>
       </c>
-      <c r="D106">
+      <c r="D107">
         <f>D30</f>
         <v>8</v>
       </c>
-      <c r="E106">
-        <f>E92</f>
+      <c r="E107">
+        <f>E93</f>
         <v>4</v>
       </c>
-      <c r="F106" t="s">
+      <c r="F107" t="s">
         <v>207</v>
       </c>
-      <c r="G106" t="s">
-        <v>166</v>
-      </c>
-      <c r="H106" t="str">
+      <c r="G107" t="s">
+        <v>166</v>
+      </c>
+      <c r="H107" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve"> new Room('209', 100, 6, 8, 4,[1,5],'Normal'),</v>
       </c>
-      <c r="J106">
+      <c r="J107">
         <v>145</v>
       </c>
     </row>
-    <row r="107" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="2" t="s">
+    <row r="108" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B107">
+      <c r="B108">
         <v>101</v>
       </c>
-      <c r="C107">
+      <c r="C108">
         <v>13</v>
       </c>
-      <c r="D107">
+      <c r="D108">
         <v>5</v>
       </c>
-      <c r="E107">
+      <c r="E108">
         <v>4</v>
       </c>
-      <c r="F107" t="s">
+      <c r="F108" t="s">
         <v>206</v>
       </c>
-      <c r="G107" t="s">
-        <v>166</v>
-      </c>
-      <c r="H107" t="str">
+      <c r="G108" t="s">
+        <v>166</v>
+      </c>
+      <c r="H108" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve"> new Room('200', 101, 13, 5, 4,[3,3],'Normal'),</v>
       </c>
     </row>
-    <row r="108" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="2" t="s">
+    <row r="109" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B108">
+      <c r="B109">
         <v>106</v>
       </c>
-      <c r="C108">
+      <c r="C109">
         <v>13</v>
       </c>
-      <c r="D108">
+      <c r="D109">
         <v>5</v>
       </c>
-      <c r="E108">
+      <c r="E109">
         <v>4</v>
       </c>
-      <c r="F108" t="s">
+      <c r="F109" t="s">
         <v>178</v>
       </c>
-      <c r="G108" t="s">
-        <v>166</v>
-      </c>
-      <c r="H108" t="str">
+      <c r="G109" t="s">
+        <v>166</v>
+      </c>
+      <c r="H109" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve"> new Room('201', 106, 13, 5, 4,[3,1],'Normal'),</v>
       </c>
     </row>
-    <row r="109" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="2" t="s">
+    <row r="110" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B109">
+      <c r="B110">
         <v>111</v>
       </c>
-      <c r="C109">
+      <c r="C110">
         <v>13</v>
       </c>
-      <c r="D109">
+      <c r="D110">
         <v>5</v>
       </c>
-      <c r="E109">
+      <c r="E110">
         <v>4</v>
       </c>
-      <c r="F109" t="s">
+      <c r="F110" t="s">
         <v>206</v>
       </c>
-      <c r="G109" t="s">
-        <v>166</v>
-      </c>
-      <c r="H109" t="str">
+      <c r="G110" t="s">
+        <v>166</v>
+      </c>
+      <c r="H110" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve"> new Room('202', 111, 13, 5, 4,[3,3],'Normal'),</v>
       </c>
     </row>
-    <row r="110" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="2" t="s">
+    <row r="111" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B110">
+      <c r="B111">
         <v>116</v>
       </c>
-      <c r="C110">
+      <c r="C111">
         <v>13</v>
       </c>
-      <c r="D110">
+      <c r="D111">
         <v>5</v>
       </c>
-      <c r="E110">
+      <c r="E111">
         <v>4</v>
       </c>
-      <c r="F110" t="s">
+      <c r="F111" t="s">
         <v>178</v>
       </c>
-      <c r="G110" t="s">
-        <v>166</v>
-      </c>
-      <c r="H110" t="str">
+      <c r="G111" t="s">
+        <v>166</v>
+      </c>
+      <c r="H111" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve"> new Room('203', 116, 13, 5, 4,[3,1],'Normal'),</v>
       </c>
     </row>
-    <row r="111" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="112" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="2" t="s">
+    <row r="112" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="113" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B112">
+      <c r="B113">
         <v>134</v>
       </c>
-      <c r="C112">
+      <c r="C113">
         <v>7</v>
       </c>
-      <c r="D112">
+      <c r="D113">
         <v>9</v>
       </c>
-      <c r="E112">
+      <c r="E113">
         <v>11</v>
       </c>
-      <c r="F112" t="s">
+      <c r="F113" t="s">
         <v>208</v>
       </c>
-      <c r="G112" t="s">
-        <v>166</v>
-      </c>
-      <c r="H112" t="str">
+      <c r="G113" t="s">
+        <v>166</v>
+      </c>
+      <c r="H113" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> new Room('221', 134, 7, 9, 11,[4,6],'Normal'),</v>
       </c>
-      <c r="J112">
+      <c r="J113">
         <v>136</v>
       </c>
     </row>
-    <row r="113" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="2" t="s">
+    <row r="114" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B113">
+      <c r="B114">
         <v>117</v>
       </c>
-      <c r="C113">
+      <c r="C114">
         <v>19</v>
       </c>
-      <c r="D113">
+      <c r="D114">
         <v>5</v>
       </c>
-      <c r="E113">
+      <c r="E114">
         <v>3</v>
       </c>
-      <c r="F113" t="s">
+      <c r="F114" t="s">
         <v>176</v>
       </c>
-      <c r="G113" t="s">
-        <v>166</v>
-      </c>
-      <c r="H113" t="str">
+      <c r="G114" t="s">
+        <v>166</v>
+      </c>
+      <c r="H114" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> new Room('226', 117, 19, 5, 3,[2,3],'Normal'),</v>
       </c>
     </row>
-    <row r="114" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="2" t="s">
+    <row r="115" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="B114">
-        <v>117</v>
-      </c>
-      <c r="C114">
-        <v>22</v>
-      </c>
-      <c r="D114">
-        <f>D113</f>
-        <v>5</v>
-      </c>
-      <c r="E114">
-        <f>E113</f>
-        <v>3</v>
-      </c>
-      <c r="F114" t="s">
-        <v>176</v>
-      </c>
-      <c r="G114" t="s">
-        <v>166</v>
-      </c>
-      <c r="H114" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> new Room('228', 117, 22, 5, 3,[2,3],'Normal'),</v>
-      </c>
-    </row>
-    <row r="115" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="2" t="s">
-        <v>66</v>
       </c>
       <c r="B115">
         <v>117</v>
       </c>
       <c r="C115">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D115">
         <f>D114</f>
@@ -6779,160 +6787,159 @@
         <v>3</v>
       </c>
       <c r="F115" t="s">
-        <v>200</v>
+        <v>176</v>
       </c>
       <c r="G115" t="s">
         <v>166</v>
       </c>
       <c r="H115" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> new Room('230', 117, 25, 5, 3,[2,1],'Normal'),</v>
-      </c>
-    </row>
-    <row r="116" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+        <v xml:space="preserve"> new Room('228', 117, 22, 5, 3,[2,3],'Normal'),</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B116">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="C116">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D116">
-        <v>6</v>
+        <f>D115</f>
+        <v>5</v>
       </c>
       <c r="E116">
+        <f>E115</f>
         <v>3</v>
+      </c>
+      <c r="F116" t="s">
+        <v>200</v>
       </c>
       <c r="G116" t="s">
         <v>166</v>
       </c>
       <c r="H116" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> new Room('232', 109, 30, 6, 3,[],'Normal'),</v>
-      </c>
-    </row>
-    <row r="117" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+        <v xml:space="preserve"> new Room('230', 117, 25, 5, 3,[2,1],'Normal'),</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B117">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C117">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D117">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E117">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G117" t="s">
         <v>166</v>
       </c>
       <c r="H117" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> new Room('234', 114, 28, 8, 5,[],'Normal'),</v>
-      </c>
-    </row>
-    <row r="118" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+        <v xml:space="preserve"> new Room('232', 109, 30, 6, 3,[],'Normal'),</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B118">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="C118">
         <v>28</v>
       </c>
       <c r="D118">
+        <v>8</v>
+      </c>
+      <c r="E118">
         <v>5</v>
-      </c>
-      <c r="E118">
-        <v>2</v>
       </c>
       <c r="G118" t="s">
         <v>166</v>
       </c>
       <c r="H118" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> new Room('235', 109, 28, 5, 2,[],'Normal'),</v>
-      </c>
-    </row>
-    <row r="119" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+        <v xml:space="preserve"> new Room('234', 114, 28, 8, 5,[],'Normal'),</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="B119">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="C119">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="D119">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="E119">
-        <f>E113+E114+E115</f>
-        <v>9</v>
-      </c>
-      <c r="F119" t="s">
-        <v>196</v>
+        <v>2</v>
       </c>
       <c r="G119" t="s">
         <v>166</v>
       </c>
       <c r="H119" t="str">
         <f t="shared" si="1"/>
+        <v xml:space="preserve"> new Room('235', 109, 28, 5, 2,[],'Normal'),</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B120">
+        <v>103</v>
+      </c>
+      <c r="C120">
+        <v>19</v>
+      </c>
+      <c r="D120">
+        <v>14</v>
+      </c>
+      <c r="E120">
+        <f>E114+E115+E116</f>
+        <v>9</v>
+      </c>
+      <c r="F120" t="s">
+        <v>196</v>
+      </c>
+      <c r="G120" t="s">
+        <v>166</v>
+      </c>
+      <c r="H120" t="str">
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> new Room('240/241', 103, 19, 14, 9,[1,2],'Normal'),</v>
       </c>
-      <c r="J119">
+      <c r="J120">
         <v>154</v>
       </c>
     </row>
-    <row r="120" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="121" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="122" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="2" t="s">
+    <row r="121" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="122" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="123" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="B122">
-        <v>125</v>
-      </c>
-      <c r="C122">
-        <v>18</v>
-      </c>
-      <c r="D122">
-        <v>18</v>
-      </c>
-      <c r="E122">
-        <v>5</v>
-      </c>
-      <c r="F122" t="s">
-        <v>187</v>
-      </c>
-      <c r="G122" t="s">
-        <v>166</v>
-      </c>
-      <c r="H122" t="str">
-        <f>CONCATENATE(" new Room('", A122,"', ", B122,", ", C122,", ",D122,", ",E122, ",[",F122,"],'",G122,"'),")</f>
-        <v xml:space="preserve"> new Room('225', 125, 18, 18, 5,[4,3],'Normal'),</v>
-      </c>
-      <c r="J122">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="123" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="2" t="s">
-        <v>170</v>
       </c>
       <c r="B123">
         <v>125</v>
       </c>
       <c r="C123">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D123">
         <v>18</v>
@@ -6941,25 +6948,28 @@
         <v>5</v>
       </c>
       <c r="F123" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G123" t="s">
         <v>166</v>
       </c>
       <c r="H123" t="str">
-        <f t="shared" ref="H123:H124" si="5">CONCATENATE(" new Room('", A123,"', ", B123,", ", C123,", ",D123,", ",E123, ",[",F123,"],'",G123,"'),")</f>
-        <v xml:space="preserve"> new Room('229', 125, 23, 18, 5,[4,2],'Normal'),</v>
-      </c>
-    </row>
-    <row r="124" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+        <f>CONCATENATE(" new Room('", A123,"', ", B123,", ", C123,", ",D123,", ",E123, ",[",F123,"],'",G123,"'),")</f>
+        <v xml:space="preserve"> new Room('225', 125, 18, 18, 5,[4,3],'Normal'),</v>
+      </c>
+      <c r="J123">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B124">
         <v>125</v>
       </c>
       <c r="C124">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D124">
         <v>18</v>
@@ -6968,321 +6978,321 @@
         <v>5</v>
       </c>
       <c r="F124" t="s">
+        <v>186</v>
+      </c>
+      <c r="G124" t="s">
+        <v>166</v>
+      </c>
+      <c r="H124" t="str">
+        <f t="shared" ref="H124:H125" si="5">CONCATENATE(" new Room('", A124,"', ", B124,", ", C124,", ",D124,", ",E124, ",[",F124,"],'",G124,"'),")</f>
+        <v xml:space="preserve"> new Room('229', 125, 23, 18, 5,[4,2],'Normal'),</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B125">
+        <v>125</v>
+      </c>
+      <c r="C125">
+        <v>28</v>
+      </c>
+      <c r="D125">
+        <v>18</v>
+      </c>
+      <c r="E125">
+        <v>5</v>
+      </c>
+      <c r="F125" t="s">
         <v>182</v>
       </c>
-      <c r="G124" t="s">
-        <v>166</v>
-      </c>
-      <c r="H124" t="str">
+      <c r="G125" t="s">
+        <v>166</v>
+      </c>
+      <c r="H125" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> new Room('231', 125, 28, 18, 5,[4,4],'Normal'),</v>
       </c>
     </row>
-    <row r="125" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="2" t="s">
+    <row r="126" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="2" t="s">
         <v>169</v>
-      </c>
-      <c r="B125">
-        <v>125</v>
-      </c>
-      <c r="C125">
-        <v>33</v>
-      </c>
-      <c r="D125">
-        <v>10</v>
-      </c>
-      <c r="E125">
-        <v>2</v>
-      </c>
-      <c r="F125" t="s">
-        <v>209</v>
-      </c>
-      <c r="G125" t="s">
-        <v>166</v>
-      </c>
-      <c r="H125" t="str">
-        <f>CONCATENATE(" new Room('", A125,"', ", B125,", ", C125,", ",D125,", ",E125, ",[",F125,"],'",G125,"'),")</f>
-        <v xml:space="preserve"> new Room('stairs1', 125, 33, 10, 2,[4,1,4,2],'Normal'),</v>
-      </c>
-    </row>
-    <row r="126" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="2" t="s">
-        <v>80</v>
       </c>
       <c r="B126">
         <v>125</v>
       </c>
       <c r="C126">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D126">
         <v>10</v>
       </c>
       <c r="E126">
+        <v>2</v>
+      </c>
+      <c r="F126" t="s">
+        <v>209</v>
+      </c>
+      <c r="G126" t="s">
+        <v>166</v>
+      </c>
+      <c r="H126" t="str">
+        <f>CONCATENATE(" new Room('", A126,"', ", B126,", ", C126,", ",D126,", ",E126, ",[",F126,"],'",G126,"'),")</f>
+        <v xml:space="preserve"> new Room('stairs1', 125, 33, 10, 2,[4,1,4,2],'Normal'),</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B127">
+        <v>125</v>
+      </c>
+      <c r="C127">
+        <v>35</v>
+      </c>
+      <c r="D127">
+        <v>10</v>
+      </c>
+      <c r="E127">
         <v>4</v>
       </c>
-      <c r="F126" t="s">
+      <c r="F127" t="s">
         <v>187</v>
       </c>
-      <c r="G126" t="s">
-        <v>166</v>
-      </c>
-      <c r="H126" t="str">
+      <c r="G127" t="s">
+        <v>166</v>
+      </c>
+      <c r="H127" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> new Room('305', 125, 35, 10, 4,[4,3],'Normal'),</v>
       </c>
     </row>
-    <row r="127" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="2" t="s">
+    <row r="128" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B127">
+      <c r="B128">
         <v>125</v>
       </c>
-      <c r="C127">
+      <c r="C128">
         <v>39</v>
       </c>
-      <c r="D127">
+      <c r="D128">
         <v>9</v>
       </c>
-      <c r="E127">
+      <c r="E128">
         <v>4</v>
       </c>
-      <c r="F127" t="s">
+      <c r="F128" t="s">
         <v>182</v>
       </c>
-      <c r="G127" t="s">
-        <v>166</v>
-      </c>
-      <c r="H127" t="str">
+      <c r="G128" t="s">
+        <v>166</v>
+      </c>
+      <c r="H128" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> new Room('311', 125, 39, 9, 4,[4,4],'Normal'),</v>
       </c>
     </row>
-    <row r="128" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="2" t="s">
+    <row r="129" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B128">
+      <c r="B129">
         <v>125</v>
       </c>
-      <c r="C128">
+      <c r="C129">
         <v>43</v>
       </c>
-      <c r="D128">
+      <c r="D129">
         <v>9</v>
       </c>
-      <c r="E128">
+      <c r="E129">
         <v>4</v>
       </c>
-      <c r="F128" t="s">
+      <c r="F129" t="s">
         <v>199</v>
       </c>
-      <c r="G128" t="s">
-        <v>166</v>
-      </c>
-      <c r="H128" t="str">
+      <c r="G129" t="s">
+        <v>166</v>
+      </c>
+      <c r="H129" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> new Room('313', 125, 43, 9, 4,[4,1],'Normal'),</v>
       </c>
     </row>
-    <row r="129" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="2" t="s">
+    <row r="130" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B129">
+      <c r="B130">
         <v>125</v>
       </c>
-      <c r="C129">
+      <c r="C130">
         <v>47</v>
       </c>
-      <c r="D129">
+      <c r="D130">
         <v>9</v>
       </c>
-      <c r="E129">
+      <c r="E130">
         <v>4</v>
       </c>
-      <c r="F129" t="s">
+      <c r="F130" t="s">
         <v>182</v>
       </c>
-      <c r="G129" t="s">
-        <v>166</v>
-      </c>
-      <c r="H129" t="str">
+      <c r="G130" t="s">
+        <v>166</v>
+      </c>
+      <c r="H130" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> new Room('315', 125, 47, 9, 4,[4,4],'Normal'),</v>
       </c>
     </row>
-    <row r="130" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A130" s="2" t="s">
+    <row r="131" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B130">
+      <c r="B131">
         <v>125</v>
       </c>
-      <c r="C130">
+      <c r="C131">
         <v>51</v>
       </c>
-      <c r="D130">
+      <c r="D131">
         <v>9</v>
       </c>
-      <c r="E130">
+      <c r="E131">
         <v>4</v>
       </c>
-      <c r="F130" t="s">
+      <c r="F131" t="s">
         <v>199</v>
       </c>
-      <c r="G130" t="s">
-        <v>166</v>
-      </c>
-      <c r="H130" t="str">
+      <c r="G131" t="s">
+        <v>166</v>
+      </c>
+      <c r="H131" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> new Room('317', 125, 51, 9, 4,[4,1],'Normal'),</v>
       </c>
     </row>
-    <row r="131" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A131" s="2" t="s">
+    <row r="132" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B131">
+      <c r="B132">
         <v>125</v>
       </c>
-      <c r="C131">
+      <c r="C132">
         <v>55</v>
       </c>
-      <c r="D131">
+      <c r="D132">
         <v>9</v>
       </c>
-      <c r="E131">
+      <c r="E132">
         <v>4</v>
       </c>
-      <c r="F131" t="s">
+      <c r="F132" t="s">
         <v>182</v>
       </c>
-      <c r="G131" t="s">
-        <v>166</v>
-      </c>
-      <c r="H131" t="str">
+      <c r="G132" t="s">
+        <v>166</v>
+      </c>
+      <c r="H132" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> new Room('319', 125, 55, 9, 4,[4,4],'Normal'),</v>
       </c>
     </row>
-    <row r="132" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A132" s="2" t="s">
+    <row r="133" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="2" t="s">
         <v>86</v>
-      </c>
-      <c r="B132">
-        <v>125</v>
-      </c>
-      <c r="C132">
-        <v>59</v>
-      </c>
-      <c r="D132">
-        <v>9</v>
-      </c>
-      <c r="E132">
-        <v>4</v>
-      </c>
-      <c r="F132" t="s">
-        <v>199</v>
-      </c>
-      <c r="G132" t="s">
-        <v>166</v>
-      </c>
-      <c r="H132" t="str">
-        <f t="shared" ref="H132:H146" si="6">CONCATENATE(" new Room('", A132,"', ", B132,", ", C132,", ",D132,", ",E132, ",[",F132,"],'",G132,"'),")</f>
-        <v xml:space="preserve"> new Room('321', 125, 59, 9, 4,[4,1],'Normal'),</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="2" t="s">
-        <v>168</v>
       </c>
       <c r="B133">
         <v>125</v>
       </c>
       <c r="C133">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D133">
         <v>9</v>
       </c>
       <c r="E133">
+        <v>4</v>
+      </c>
+      <c r="F133" t="s">
+        <v>199</v>
+      </c>
+      <c r="G133" t="s">
+        <v>166</v>
+      </c>
+      <c r="H133" t="str">
+        <f t="shared" ref="H133:H147" si="6">CONCATENATE(" new Room('", A133,"', ", B133,", ", C133,", ",D133,", ",E133, ",[",F133,"],'",G133,"'),")</f>
+        <v xml:space="preserve"> new Room('321', 125, 59, 9, 4,[4,1],'Normal'),</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B134">
+        <v>125</v>
+      </c>
+      <c r="C134">
+        <v>64</v>
+      </c>
+      <c r="D134">
+        <v>9</v>
+      </c>
+      <c r="E134">
         <v>3</v>
       </c>
-      <c r="F133" t="s">
+      <c r="F134" t="s">
         <v>210</v>
       </c>
-      <c r="G133" t="s">
-        <v>166</v>
-      </c>
-      <c r="H133" t="str">
+      <c r="G134" t="s">
+        <v>166</v>
+      </c>
+      <c r="H134" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve"> new Room('stairs2', 125, 64, 9, 3,[4,2,4,1],'Normal'),</v>
       </c>
     </row>
-    <row r="134" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="135" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="2" t="s">
+    <row r="135" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="136" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="B135">
+      <c r="B136">
         <v>103</v>
-      </c>
-      <c r="C135">
-        <v>33</v>
-      </c>
-      <c r="D135">
-        <v>10</v>
-      </c>
-      <c r="E135">
-        <f>E136+E137+E138+E139</f>
-        <v>10</v>
-      </c>
-      <c r="G135" t="s">
-        <v>166</v>
-      </c>
-      <c r="H135" t="str">
-        <f>CONCATENATE(" new Room('", A135,"', ", B135,", ", C135,", ",D135,", ",E135, ",[",F135,"],'",G135,"'),")</f>
-        <v xml:space="preserve"> new Room('Courtyard5', 103, 33, 10, 10,[],'Normal'),</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A136" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="B136">
-        <v>113</v>
       </c>
       <c r="C136">
         <v>33</v>
       </c>
       <c r="D136">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E136">
-        <v>2</v>
-      </c>
-      <c r="F136" t="s">
-        <v>200</v>
+        <f>E137+E138+E139+E140</f>
+        <v>10</v>
       </c>
       <c r="G136" t="s">
         <v>166</v>
       </c>
       <c r="H136" t="str">
         <f>CONCATENATE(" new Room('", A136,"', ", B136,", ", C136,", ",D136,", ",E136, ",[",F136,"],'",G136,"'),")</f>
-        <v xml:space="preserve"> new Room('boys br1', 113, 33, 9, 2,[2,1],'Normal'),</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+        <v xml:space="preserve"> new Room('Courtyard5', 103, 33, 10, 10,[],'Normal'),</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="B137">
         <v>113</v>
       </c>
       <c r="C137">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D137">
         <v>9</v>
@@ -7291,31 +7301,31 @@
         <v>2</v>
       </c>
       <c r="F137" t="s">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="G137" t="s">
         <v>166</v>
       </c>
       <c r="H137" t="str">
         <f>CONCATENATE(" new Room('", A137,"', ", B137,", ", C137,", ",D137,", ",E137, ",[",F137,"],'",G137,"'),")</f>
-        <v xml:space="preserve"> new Room('girls br1', 113, 35, 9, 2,[2,2],'Normal'),</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+        <v xml:space="preserve"> new Room('boys br1', 113, 33, 9, 2,[2,1],'Normal'),</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
-        <v>72</v>
+        <v>161</v>
       </c>
       <c r="B138">
         <v>113</v>
       </c>
       <c r="C138">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D138">
         <v>9</v>
       </c>
       <c r="E138">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F138" t="s">
         <v>175</v>
@@ -7325,18 +7335,18 @@
       </c>
       <c r="H138" t="str">
         <f>CONCATENATE(" new Room('", A138,"', ", B138,", ", C138,", ",D138,", ",E138, ",[",F138,"],'",G138,"'),")</f>
-        <v xml:space="preserve"> new Room('fake 322', 113, 37, 9, 3,[2,2],'Normal'),</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+        <v xml:space="preserve"> new Room('girls br1', 113, 35, 9, 2,[2,2],'Normal'),</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B139">
         <v>113</v>
       </c>
       <c r="C139">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D139">
         <v>9</v>
@@ -7345,78 +7355,78 @@
         <v>3</v>
       </c>
       <c r="F139" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G139" t="s">
         <v>166</v>
       </c>
       <c r="H139" t="str">
         <f>CONCATENATE(" new Room('", A139,"', ", B139,", ", C139,", ",D139,", ",E139, ",[",F139,"],'",G139,"'),")</f>
+        <v xml:space="preserve"> new Room('fake 322', 113, 37, 9, 3,[2,2],'Normal'),</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B140">
+        <v>113</v>
+      </c>
+      <c r="C140">
+        <v>40</v>
+      </c>
+      <c r="D140">
+        <v>9</v>
+      </c>
+      <c r="E140">
+        <v>3</v>
+      </c>
+      <c r="F140" t="s">
+        <v>176</v>
+      </c>
+      <c r="G140" t="s">
+        <v>166</v>
+      </c>
+      <c r="H140" t="str">
+        <f>CONCATENATE(" new Room('", A140,"', ", B140,", ", C140,", ",D140,", ",E140, ",[",F140,"],'",G140,"'),")</f>
         <v xml:space="preserve"> new Room('312', 113, 40, 9, 3,[2,3],'Normal'),</v>
       </c>
     </row>
-    <row r="140" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="141" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A141" s="2" t="s">
+    <row r="141" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="142" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="B141">
+      <c r="B142">
         <v>103</v>
-      </c>
-      <c r="C141">
-        <v>45</v>
-      </c>
-      <c r="D141">
-        <v>10</v>
-      </c>
-      <c r="E141">
-        <f>E142+E143</f>
-        <v>8</v>
-      </c>
-      <c r="G141" t="s">
-        <v>166</v>
-      </c>
-      <c r="H141" t="str">
-        <f>CONCATENATE(" new Room('", A141,"', ", B141,", ", C141,", ",D141,", ",E141, ",[",F141,"],'",G141,"'),")</f>
-        <v xml:space="preserve"> new Room('Courtyard4', 103, 45, 10, 8,[],'Normal'),</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A142" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B142">
-        <v>113</v>
       </c>
       <c r="C142">
         <v>45</v>
       </c>
       <c r="D142">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E142">
-        <v>4</v>
-      </c>
-      <c r="F142" t="s">
-        <v>177</v>
+        <f>E143+E144</f>
+        <v>8</v>
       </c>
       <c r="G142" t="s">
         <v>166</v>
       </c>
       <c r="H142" t="str">
         <f>CONCATENATE(" new Room('", A142,"', ", B142,", ", C142,", ",D142,", ",E142, ",[",F142,"],'",G142,"'),")</f>
-        <v xml:space="preserve"> new Room('314', 113, 45, 9, 4,[2,4],'Normal'),</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+        <v xml:space="preserve"> new Room('Courtyard4', 103, 45, 10, 8,[],'Normal'),</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B143">
         <v>113</v>
       </c>
       <c r="C143">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D143">
         <v>9</v>
@@ -7425,25 +7435,25 @@
         <v>4</v>
       </c>
       <c r="F143" t="s">
-        <v>200</v>
+        <v>177</v>
       </c>
       <c r="G143" t="s">
         <v>166</v>
       </c>
       <c r="H143" t="str">
         <f>CONCATENATE(" new Room('", A143,"', ", B143,", ", C143,", ",D143,", ",E143, ",[",F143,"],'",G143,"'),")</f>
-        <v xml:space="preserve"> new Room('316', 113, 49, 9, 4,[2,1],'Normal'),</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+        <v xml:space="preserve"> new Room('314', 113, 45, 9, 4,[2,4],'Normal'),</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B144">
         <v>113</v>
       </c>
       <c r="C144">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D144">
         <v>9</v>
@@ -7459,18 +7469,18 @@
       </c>
       <c r="H144" t="str">
         <f>CONCATENATE(" new Room('", A144,"', ", B144,", ", C144,", ",D144,", ",E144, ",[",F144,"],'",G144,"'),")</f>
-        <v xml:space="preserve"> new Room('318', 113, 55, 9, 4,[2,1],'Normal'),</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+        <v xml:space="preserve"> new Room('316', 113, 49, 9, 4,[2,1],'Normal'),</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B145">
         <v>113</v>
       </c>
       <c r="C145">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D145">
         <v>9</v>
@@ -7479,53 +7489,69 @@
         <v>4</v>
       </c>
       <c r="F145" t="s">
-        <v>177</v>
+        <v>200</v>
       </c>
       <c r="G145" t="s">
         <v>166</v>
       </c>
       <c r="H145" t="str">
         <f>CONCATENATE(" new Room('", A145,"', ", B145,", ", C145,", ",D145,", ",E145, ",[",F145,"],'",G145,"'),")</f>
-        <v xml:space="preserve"> new Room('320', 113, 59, 9, 4,[2,4],'Normal'),</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+        <v xml:space="preserve"> new Room('318', 113, 55, 9, 4,[2,1],'Normal'),</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B146">
         <v>113</v>
       </c>
       <c r="C146">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D146">
         <v>9</v>
       </c>
       <c r="E146">
-        <f>E145</f>
         <v>4</v>
       </c>
       <c r="F146" t="s">
+        <v>177</v>
+      </c>
+      <c r="G146" t="s">
+        <v>166</v>
+      </c>
+      <c r="H146" t="str">
+        <f>CONCATENATE(" new Room('", A146,"', ", B146,", ", C146,", ",D146,", ",E146, ",[",F146,"],'",G146,"'),")</f>
+        <v xml:space="preserve"> new Room('320', 113, 59, 9, 4,[2,4],'Normal'),</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B147">
+        <v>113</v>
+      </c>
+      <c r="C147">
+        <v>63</v>
+      </c>
+      <c r="D147">
+        <v>9</v>
+      </c>
+      <c r="E147">
+        <f>E146</f>
+        <v>4</v>
+      </c>
+      <c r="F147" t="s">
         <v>200</v>
       </c>
-      <c r="G146" t="s">
-        <v>166</v>
-      </c>
-      <c r="H146" t="str">
+      <c r="G147" t="s">
+        <v>166</v>
+      </c>
+      <c r="H147" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve"> new Room('322', 113, 63, 9, 4,[2,1],'Normal'),</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="151" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="152" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="153" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A153" s="2">
-        <v>243</v>
-      </c>
-      <c r="G153" t="s">
-        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -7533,7 +7559,7 @@
     <sortCondition ref="A34"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7545,9 +7571,9 @@
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>113</v>
       </c>
@@ -7576,7 +7602,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>122</v>
       </c>
@@ -7603,7 +7629,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>125</v>
       </c>
@@ -7630,7 +7656,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>127</v>
       </c>
@@ -7657,7 +7683,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>412</v>
       </c>
@@ -7684,7 +7710,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>414</v>
       </c>
@@ -7711,7 +7737,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>416</v>
       </c>
@@ -7738,7 +7764,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>418</v>
       </c>
@@ -7765,7 +7791,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>420</v>
       </c>
@@ -7792,7 +7818,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>422</v>
       </c>
@@ -7819,7 +7845,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>49</v>
       </c>
@@ -7846,17 +7872,17 @@
         <v>137</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="M12" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="M13" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>79</v>
       </c>
@@ -7883,7 +7909,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>136</v>
       </c>
@@ -7910,7 +7936,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>421</v>
       </c>
@@ -7937,7 +7963,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>419</v>
       </c>
@@ -7964,7 +7990,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>417</v>
       </c>
@@ -7991,7 +8017,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>415</v>
       </c>
@@ -8018,7 +8044,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>413</v>
       </c>
@@ -8045,7 +8071,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>411</v>
       </c>
@@ -8072,7 +8098,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>128</v>
       </c>
@@ -8096,7 +8122,7 @@
         <v xml:space="preserve"> new Room('Workroom', 124, 20, 91, 46),</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>79</v>
       </c>
@@ -8133,15 +8159,15 @@
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="57.83203125" customWidth="1"/>
-    <col min="9" max="9" width="18.83203125" customWidth="1"/>
-    <col min="10" max="10" width="15.83203125" customWidth="1"/>
+    <col min="1" max="1" width="17.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="57.875" customWidth="1"/>
+    <col min="9" max="9" width="18.875" customWidth="1"/>
+    <col min="10" max="10" width="15.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -8170,7 +8196,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>164</v>
       </c>
@@ -8200,7 +8226,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>26</v>
       </c>
@@ -8229,7 +8255,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -8258,7 +8284,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
@@ -8287,7 +8313,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
@@ -8316,7 +8342,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
@@ -8343,7 +8369,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
@@ -8370,7 +8396,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>18</v>
       </c>
@@ -8397,7 +8423,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>20</v>
       </c>
@@ -8424,7 +8450,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>22</v>
       </c>
@@ -8451,7 +8477,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>24</v>
       </c>
@@ -8478,7 +8504,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>35</v>
       </c>
@@ -8505,7 +8531,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>37</v>
       </c>
@@ -8532,7 +8558,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>151</v>
       </c>
@@ -8559,7 +8585,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>29</v>
       </c>
@@ -8589,7 +8615,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>30</v>
       </c>
@@ -8619,7 +8645,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>32</v>
       </c>
@@ -8649,7 +8675,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>34</v>
       </c>
@@ -8676,7 +8702,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>152</v>
       </c>
@@ -8703,7 +8729,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>153</v>
       </c>
@@ -8731,7 +8757,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>40</v>
       </c>
@@ -8759,7 +8785,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>41</v>
       </c>
@@ -8787,7 +8813,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>42</v>
       </c>
@@ -8815,7 +8841,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>43</v>
       </c>
@@ -8843,7 +8869,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>44</v>
       </c>
@@ -8871,7 +8897,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>45</v>
       </c>
@@ -8899,7 +8925,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>56</v>
       </c>
@@ -8926,7 +8952,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>131</v>
       </c>
@@ -8950,7 +8976,7 @@
         <v xml:space="preserve"> new Room('131', 84, 76, 9, 6,[],'Normal'),</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>133</v>
       </c>
@@ -8975,7 +9001,7 @@
         <v xml:space="preserve"> new Room('133', 93, 76, 8, 6,[],'Normal'),</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>105</v>
       </c>
@@ -9000,7 +9026,7 @@
         <v xml:space="preserve"> new Room('Media Center', 84, 82, 17, 15,[],'Normal'),</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>104</v>
       </c>
@@ -9024,7 +9050,7 @@
         <v xml:space="preserve"> new Room('Attendance', 97, 99, 7, 4,[],'Normal'),</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>102</v>
       </c>
@@ -9048,7 +9074,7 @@
         <v xml:space="preserve"> new Room('Main Office', 82, 98, 7, 6,[],'Normal'),</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>110</v>
       </c>
@@ -9072,7 +9098,7 @@
         <v xml:space="preserve"> new Room('Lecture Hall 501', 46, 72, 11, 4,[],'Normal'),</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>109</v>
       </c>
@@ -9096,7 +9122,7 @@
         <v xml:space="preserve"> new Room('Lecture Hall 502', 29, 72, 11, 4,[],'Normal'),</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>111</v>
       </c>
@@ -9121,7 +9147,7 @@
         <v xml:space="preserve"> new Room('Auditorium', 29, 76, 28, 13,[],'Normal'),</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>108</v>
       </c>
@@ -9145,7 +9171,7 @@
         <v xml:space="preserve"> new Room('Auxillary Gym', 79, 61, 26, 12,[],'Normal'),</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>157</v>
       </c>
@@ -9169,7 +9195,7 @@
         <v xml:space="preserve"> new Room('Courtyard3', 60, 73, 10, 12,[],'Normal'),</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>87</v>
       </c>
@@ -9194,7 +9220,7 @@
         <v xml:space="preserve"> new Room('126', 70, 73, 12, 4,[],'Normal'),</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>88</v>
       </c>
@@ -9220,7 +9246,7 @@
         <v xml:space="preserve"> new Room('124', 70, 77, 12, 4,[],'Normal'),</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>89</v>
       </c>
@@ -9246,7 +9272,7 @@
         <v xml:space="preserve"> new Room('122', 70, 81, 12, 4,[],'Normal'),</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>97</v>
       </c>
@@ -9270,7 +9296,7 @@
         <v xml:space="preserve"> new Room('Band Lockers', 14, 85, 6, 4,[],'Normal'),</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>98</v>
       </c>
@@ -9294,7 +9320,7 @@
         <v xml:space="preserve"> new Room('Band Office', 22, 85, 5, 3,[],'Normal'),</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>96</v>
       </c>
@@ -9318,7 +9344,7 @@
         <v xml:space="preserve"> new Room('Band Room', 14, 75, 12, 9,[],'Normal'),</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>154</v>
       </c>
@@ -9342,7 +9368,7 @@
         <v xml:space="preserve"> new Room('boys br1', 126, 49, 9, 2,[],'Normal'),</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>100</v>
       </c>
@@ -9366,7 +9392,7 @@
         <v xml:space="preserve"> new Room('Choral Room', 38, 95, 15, 6,[],'Normal'),</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>156</v>
       </c>
@@ -9390,7 +9416,7 @@
         <v xml:space="preserve"> new Room('Courtyard2', 60, 86, 10, 10,[],'Normal'),</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>159</v>
       </c>
@@ -9414,7 +9440,7 @@
         <v xml:space="preserve"> new Room('Courtyard5', 116, 49, 10, 11,[],'Normal'),</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>160</v>
       </c>
@@ -9438,7 +9464,7 @@
         <v xml:space="preserve"> new Room('Courtyard6', 116, 28, 19, 4,[],'Normal'),</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>161</v>
       </c>
@@ -9462,7 +9488,7 @@
         <v xml:space="preserve"> new Room('girls br1', 126, 51, 9, 2,[],'Normal'),</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>106</v>
       </c>
@@ -9486,7 +9512,7 @@
         <v xml:space="preserve"> new Room('Guidance', 103, 75, 12, 5,[],'Normal'),</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>163</v>
       </c>
@@ -9510,7 +9536,7 @@
         <v xml:space="preserve"> new Room('MDF2', 110, 34, 3, 3,[],'Normal'),</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>167</v>
       </c>
@@ -9534,7 +9560,7 @@
         <v xml:space="preserve"> new Room('mech4', 97, 46, 9, 3,[],'Normal'),</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>99</v>
       </c>
@@ -9558,7 +9584,7 @@
         <v xml:space="preserve"> new Room('Orchestra', 13, 92, 12, 9,[],'Normal'),</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>95</v>
       </c>
@@ -9582,7 +9608,7 @@
         <v xml:space="preserve"> new Room('Piano Room', 14, 71, 10, 5,[],'Normal'),</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>101</v>
       </c>
@@ -9606,7 +9632,7 @@
         <v xml:space="preserve"> new Room('Sm. Ensemble Room', 29, 98, 6, 3,[],'Normal'),</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>107</v>
       </c>
@@ -9630,7 +9656,7 @@
         <v xml:space="preserve"> new Room('Special Services', 103, 87, 10, 5,[],'Normal'),</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>112</v>
       </c>
@@ -9654,7 +9680,7 @@
         <v xml:space="preserve"> new Room('Stage', 29, 90, 28, 5,[],'Normal'),</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>155</v>
       </c>
@@ -9679,7 +9705,7 @@
         <v xml:space="preserve"> new Room('Courtyard1', 64, 36, 7, 23,[],'Normal'),</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>92</v>
       </c>
@@ -9704,7 +9730,7 @@
         <v xml:space="preserve"> new Room('District MDF', 71, 36, 8, 3,[],'Normal'),</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>162</v>
       </c>
@@ -9729,7 +9755,7 @@
         <v xml:space="preserve"> new Room('MDF1', 79, 36, 7, 3,[],'Normal'),</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>272</v>
       </c>
@@ -9754,7 +9780,7 @@
         <v xml:space="preserve"> new Room('272', 71, 39, 15, 5,[],'Normal'),</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>276</v>
       </c>
@@ -9779,7 +9805,7 @@
         <v xml:space="preserve"> new Room('276', 71, 44, 15, 5,[],'Normal'),</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>278</v>
       </c>
@@ -9804,7 +9830,7 @@
         <v xml:space="preserve"> new Room('278', 71, 49, 15, 5,[],'Normal'),</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>282</v>
       </c>
@@ -9829,7 +9855,7 @@
         <v xml:space="preserve"> new Room('282', 71, 54, 15, 5,[],'Normal'),</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>242</v>
       </c>
@@ -9853,7 +9879,7 @@
         <v xml:space="preserve"> new Room('242', 97, 37, 17, 9,[],'Normal'),</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>248</v>
       </c>
@@ -9877,7 +9903,7 @@
         <v xml:space="preserve"> new Room('248', 100, 51, 12, 4,[],'Normal'),</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>253</v>
       </c>
@@ -9901,7 +9927,7 @@
         <v xml:space="preserve"> new Room('253', 103, 28, 7, 4,[],'Normal'),</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>260</v>
       </c>
@@ -9925,7 +9951,7 @@
         <v xml:space="preserve"> new Room('260', 103, 32, 7, 4,[],'Normal'),</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>260</v>
       </c>
@@ -9949,7 +9975,7 @@
         <v xml:space="preserve"> new Room('260', 103, 32, 8, 4,[],'Normal'),</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>262</v>
       </c>
@@ -9973,7 +9999,7 @@
         <v xml:space="preserve"> new Room('262', 96, 32, 8, 4,[],'Normal'),</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
         <v>263</v>
       </c>
@@ -9997,7 +10023,7 @@
         <v xml:space="preserve"> new Room('263', 97, 37, 8, 5,[],'Normal'),</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
         <v>264</v>
       </c>
@@ -10021,7 +10047,7 @@
         <v xml:space="preserve"> new Room('264', 88, 32, 8, 4,[],'Normal'),</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
         <v>265</v>
       </c>
@@ -10045,7 +10071,7 @@
         <v xml:space="preserve"> new Room('265', 88, 37, 9, 3,[],'Normal'),</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
         <v>266</v>
       </c>
@@ -10069,7 +10095,7 @@
         <v xml:space="preserve"> new Room('266', 89, 41, 9, 4,[],'Normal'),</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
         <v>267</v>
       </c>
@@ -10093,7 +10119,7 @@
         <v xml:space="preserve"> new Room('267', 89, 45, 9, 5,[],'Normal'),</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
         <v>275</v>
       </c>
@@ -10117,7 +10143,7 @@
         <v xml:space="preserve"> new Room('275', 88, 49, 12, 4,[],'Normal'),</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
         <v>281</v>
       </c>
@@ -10141,7 +10167,7 @@
         <v xml:space="preserve"> new Room('281', 88, 55, 12, 4,[],'Normal'),</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
         <v>283</v>
       </c>
@@ -10165,7 +10191,7 @@
         <v xml:space="preserve"> new Room('283', 100, 55, 12, 4,[],'Normal'),</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
         <v>288</v>
       </c>
@@ -10189,7 +10215,7 @@
         <v xml:space="preserve"> new Room('288', 88, 29, 15, 3,[],'Normal'),</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
         <v>90</v>
       </c>
@@ -10213,7 +10239,7 @@
         <v xml:space="preserve"> new Room('120', 71, 87, 11, 6,[],'Normal'),</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>60</v>
       </c>
@@ -10237,7 +10263,7 @@
         <v xml:space="preserve"> new Room('200', 116, 37, 14, 5,[],'Normal'),</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
         <v>61</v>
       </c>
@@ -10261,7 +10287,7 @@
         <v xml:space="preserve"> new Room('201', 120, 31, 5, 5,[],'Normal'),</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
         <v>62</v>
       </c>
@@ -10285,7 +10311,7 @@
         <v xml:space="preserve"> new Room('202', 124, 32, 5, 5,[],'Normal'),</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
         <v>63</v>
       </c>
@@ -10309,7 +10335,7 @@
         <v xml:space="preserve"> new Room('203', 129, 31, 5, 5,[],'Normal'),</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>55</v>
       </c>
@@ -10336,7 +10362,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
         <v>54</v>
       </c>
@@ -10363,7 +10389,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
         <v>53</v>
       </c>
@@ -10390,7 +10416,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
         <v>52</v>
       </c>
@@ -10417,7 +10443,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
         <v>51</v>
       </c>
@@ -10444,7 +10470,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>50</v>
       </c>
@@ -10471,7 +10497,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
         <v>57</v>
       </c>
@@ -10498,7 +10524,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
         <v>64</v>
       </c>
@@ -10522,7 +10548,7 @@
         <v xml:space="preserve"> new Room('226', 130, 37, 5, 2,[],'Normal'),</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
         <v>65</v>
       </c>
@@ -10546,7 +10572,7 @@
         <v xml:space="preserve"> new Room('228', 130, 40, 5, 2,[],'Normal'),</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
         <v>66</v>
       </c>
@@ -10570,7 +10596,7 @@
         <v xml:space="preserve"> new Room('230', 130, 42, 5, 2,[],'Normal'),</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
         <v>68</v>
       </c>
@@ -10594,7 +10620,7 @@
         <v xml:space="preserve"> new Room('232', 122, 46, 6, 3,[],'Normal'),</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
         <v>67</v>
       </c>
@@ -10618,7 +10644,7 @@
         <v xml:space="preserve"> new Room('234', 127, 44, 8, 5,[],'Normal'),</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
         <v>69</v>
       </c>
@@ -10642,7 +10668,7 @@
         <v xml:space="preserve"> new Room('235', 122, 44, 5, 2,[],'Normal'),</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
         <v>59</v>
       </c>
@@ -10669,7 +10695,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
         <v>46</v>
       </c>
@@ -10696,7 +10722,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
         <v>47</v>
       </c>
@@ -10723,7 +10749,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
         <v>48</v>
       </c>
@@ -10750,7 +10776,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
         <v>58</v>
       </c>
@@ -10777,7 +10803,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
         <v>170</v>
       </c>
@@ -10802,7 +10828,7 @@
         <v xml:space="preserve"> new Room('229', 138, 41, 18, 5,[],'Normal'),</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
         <v>171</v>
       </c>
@@ -10827,7 +10853,7 @@
         <v xml:space="preserve"> new Room('231', 138, 46, 18, 5,[],'Normal'),</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
         <v>169</v>
       </c>
@@ -10852,7 +10878,7 @@
         <v xml:space="preserve"> new Room('stairs1', 138, 51, 10, 2,[],'Normal'),</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
         <v>80</v>
       </c>
@@ -10877,7 +10903,7 @@
         <v xml:space="preserve"> new Room('305', 138, 53, 10, 5,[],'Normal'),</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
         <v>81</v>
       </c>
@@ -10902,7 +10928,7 @@
         <v xml:space="preserve"> new Room('311', 138, 58, 9, 4,[],'Normal'),</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
         <v>82</v>
       </c>
@@ -10927,7 +10953,7 @@
         <v xml:space="preserve"> new Room('313', 138, 62, 9, 4,[],'Normal'),</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
         <v>83</v>
       </c>
@@ -10952,7 +10978,7 @@
         <v xml:space="preserve"> new Room('315', 138, 66, 9, 4,[],'Normal'),</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
         <v>84</v>
       </c>
@@ -10977,7 +11003,7 @@
         <v xml:space="preserve"> new Room('317', 138, 70, 9, 4,[],'Normal'),</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
         <v>85</v>
       </c>
@@ -11002,7 +11028,7 @@
         <v xml:space="preserve"> new Room('319', 138, 74, 9, 4,[],'Normal'),</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
         <v>86</v>
       </c>
@@ -11027,7 +11053,7 @@
         <v xml:space="preserve"> new Room('321', 138, 78, 9, 4,[],'Normal'),</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
         <v>168</v>
       </c>
@@ -11048,7 +11074,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
         <v>72</v>
       </c>
@@ -11072,7 +11098,7 @@
         <v xml:space="preserve"> new Room('fake 322', 126, 53, 9, 4,[],'Normal'),</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
         <v>73</v>
       </c>
@@ -11097,7 +11123,7 @@
         <v xml:space="preserve"> new Room('312', 126, 57, 9, 3,[],'Normal'),</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
         <v>158</v>
       </c>
@@ -11121,7 +11147,7 @@
         <v xml:space="preserve"> new Room('Courtyard4', 116, 63, 10, 7,[],'Normal'),</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
         <v>74</v>
       </c>
@@ -11145,7 +11171,7 @@
         <v xml:space="preserve"> new Room('314', 126, 63, 9, 4,[],'Normal'),</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
         <v>75</v>
       </c>
@@ -11170,7 +11196,7 @@
         <v xml:space="preserve"> new Room('316', 126, 67, 9, 4,[],'Normal'),</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
         <v>76</v>
       </c>
@@ -11195,7 +11221,7 @@
         <v xml:space="preserve"> new Room('318', 126, 71, 9, 4,[],'Normal'),</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
         <v>77</v>
       </c>
@@ -11220,7 +11246,7 @@
         <v xml:space="preserve"> new Room('320', 126, 75, 9, 4,[],'Normal'),</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
         <v>78</v>
       </c>
@@ -11245,7 +11271,7 @@
         <v xml:space="preserve"> new Room('322', 126, 79, 9, 3,[],'Normal'),</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" s="2">
         <v>243</v>
       </c>
@@ -11266,9 +11292,9 @@
       <selection activeCell="H2" sqref="H2:H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>113</v>
       </c>
@@ -11294,7 +11320,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>122</v>
       </c>
@@ -11321,7 +11347,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>125</v>
       </c>
@@ -11348,7 +11374,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>127</v>
       </c>
@@ -11375,7 +11401,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>412</v>
       </c>
@@ -11402,7 +11428,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>414</v>
       </c>
@@ -11429,7 +11455,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>416</v>
       </c>
@@ -11456,7 +11482,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>418</v>
       </c>
@@ -11483,7 +11509,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>420</v>
       </c>
@@ -11510,7 +11536,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>422</v>
       </c>
@@ -11537,7 +11563,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>49</v>
       </c>
@@ -11564,7 +11590,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>79</v>
       </c>
@@ -11591,7 +11617,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>128</v>
       </c>
@@ -11618,7 +11644,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>411</v>
       </c>
@@ -11645,7 +11671,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>413</v>
       </c>
@@ -11672,7 +11698,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>415</v>
       </c>
@@ -11699,7 +11725,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>417</v>
       </c>
@@ -11726,7 +11752,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>419</v>
       </c>
@@ -11753,7 +11779,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>421</v>
       </c>
@@ -11780,7 +11806,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>136</v>
       </c>
@@ -11807,7 +11833,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>79</v>
       </c>
@@ -11848,9 +11874,9 @@
       <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -11867,7 +11893,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -11888,7 +11914,7 @@
         <v xml:space="preserve"> new Room('Mech room', 125, 221, 132, 93),</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -11909,7 +11935,7 @@
         <v xml:space="preserve"> new Room('kitchen', 155, 363, 106, 100),</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -11930,7 +11956,7 @@
         <v xml:space="preserve"> new Room('servery', 158, 464, 82, 85),</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -11951,7 +11977,7 @@
         <v xml:space="preserve"> new Room('faculty lounge', 153, 511, 86, 61),</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -11972,7 +11998,7 @@
         <v xml:space="preserve"> new Room('main gym', 292, 412, 320, 179),</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -11993,7 +12019,7 @@
         <v xml:space="preserve"> new Room('boys locker', 292, 344, 160, 67),</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -12014,7 +12040,7 @@
         <v xml:space="preserve"> new Room('girls locker', 448, 346, 163, 64),</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -12035,7 +12061,7 @@
         <v xml:space="preserve"> new Room('trainer\'s room', 290, 249, 54, 52),</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -12056,7 +12082,7 @@
         <v xml:space="preserve"> new Room('team room 1', 343, 249, 161, 80),</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -12077,7 +12103,7 @@
         <v xml:space="preserve"> new Room('team room 2', 516, 251, 91, 81),</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>26</v>
       </c>
@@ -12098,7 +12124,7 @@
         <v xml:space="preserve"> new Room('receiving', 180, 312, 81, 52),</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>27</v>
       </c>
@@ -12119,7 +12145,7 @@
         <v xml:space="preserve"> new Room('café entrance', 137, 608, 105, 145),</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>29</v>
       </c>
@@ -12140,7 +12166,7 @@
         <v xml:space="preserve"> new Room('band room', 136, 754, 124, 92),</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>30</v>
       </c>
@@ -12161,7 +12187,7 @@
         <v xml:space="preserve"> new Room('orchestra', 132, 920, 125, 91),</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>32</v>
       </c>
@@ -12182,7 +12208,7 @@
         <v xml:space="preserve"> new Room('choir', 377, 952, 125, 91),</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>34</v>
       </c>
@@ -12203,7 +12229,7 @@
         <v xml:space="preserve"> new Room('school store', 675, 643, 49, 51),</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>35</v>
       </c>
@@ -12224,7 +12250,7 @@
         <v xml:space="preserve"> new Room('606', 633, 250, 125, 90),</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>37</v>
       </c>
@@ -12245,7 +12271,7 @@
         <v xml:space="preserve"> new Room('602', 758, 257, 95, 83),</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>8</v>
       </c>
@@ -12266,7 +12292,7 @@
         <v xml:space="preserve"> new Room('mech room', 763, 183, 57, 45),</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>8</v>
       </c>
@@ -12287,7 +12313,7 @@
         <v xml:space="preserve"> new Room('mech room', 819, 183, 63, 45),</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>40</v>
       </c>
@@ -12308,7 +12334,7 @@
         <v xml:space="preserve"> new Room('210', 882, 183, 84, 45),</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>41</v>
       </c>
@@ -12329,7 +12355,7 @@
         <v xml:space="preserve"> new Room('211', 965, 183, 83, 45),</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>42</v>
       </c>
@@ -12350,7 +12376,7 @@
         <v xml:space="preserve"> new Room('212', 1049, 183, 89, 45),</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>43</v>
       </c>
@@ -12371,7 +12397,7 @@
         <v xml:space="preserve"> new Room('213', 1136, 183, 79, 45),</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>44</v>
       </c>
@@ -12392,7 +12418,7 @@
         <v xml:space="preserve"> new Room('214', 1213, 183, 83, 45),</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>45</v>
       </c>
@@ -12413,7 +12439,7 @@
         <v xml:space="preserve"> new Room('215', 1299, 183, 82, 45),</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>46</v>
       </c>
@@ -12434,7 +12460,7 @@
         <v xml:space="preserve"> new Room('251', 892, 243, 73, 45),</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>47</v>
       </c>
@@ -12455,7 +12481,7 @@
         <v xml:space="preserve"> new Room('252', 959, 243, 73, 45),</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>48</v>
       </c>
@@ -12476,7 +12502,7 @@
         <v xml:space="preserve"> new Room('255', 1030, 244, 73, 36),</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>50</v>
       </c>
@@ -12497,7 +12523,7 @@
         <v xml:space="preserve"> new Room('209', 1129, 244, 73, 36),</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>51</v>
       </c>
@@ -12518,7 +12544,7 @@
         <v xml:space="preserve"> new Room('208', 1214, 244, 87, 39),</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>52</v>
       </c>
@@ -12539,7 +12565,7 @@
         <v xml:space="preserve"> new Room('207', 1300, 245, 56, 36),</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>53</v>
       </c>
@@ -12560,7 +12586,7 @@
         <v xml:space="preserve"> new Room('206', 1356, 244, 86, 47),</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>54</v>
       </c>
@@ -12581,7 +12607,7 @@
         <v xml:space="preserve"> new Room('205', 1356, 290, 82, 27),</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>55</v>
       </c>
@@ -12602,7 +12628,7 @@
         <v xml:space="preserve"> new Room('204', 1355, 315, 86, 32),</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>56</v>
       </c>
@@ -12623,7 +12649,7 @@
         <v xml:space="preserve"> new Room('218', 1429, 188, 126, 44),</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>57</v>
       </c>
@@ -12644,7 +12670,7 @@
         <v xml:space="preserve"> new Room('221', 1468, 247, 85, 114),</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>58</v>
       </c>
@@ -12665,7 +12691,7 @@
         <v xml:space="preserve"> new Room('225', 1383, 358, 175, 49),</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>59</v>
       </c>
@@ -12686,7 +12712,7 @@
         <v xml:space="preserve"> new Room('240/241', 1159, 372, 143, 69),</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>60</v>
       </c>
@@ -12707,7 +12733,7 @@
         <v xml:space="preserve"> new Room('200', 1159, 372, 143, 47),</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>61</v>
       </c>
@@ -12728,7 +12754,7 @@
         <v xml:space="preserve"> new Room('201', 1200, 314, 45, 48),</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>62</v>
       </c>
@@ -12749,7 +12775,7 @@
         <v xml:space="preserve"> new Room('202', 1244, 316, 46, 46),</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>63</v>
       </c>
@@ -12770,7 +12796,7 @@
         <v xml:space="preserve"> new Room('203', 1291, 314, 45, 48),</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>64</v>
       </c>
@@ -12791,7 +12817,7 @@
         <v xml:space="preserve"> new Room('226', 1303, 374, 48, 23),</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>65</v>
       </c>
@@ -12812,7 +12838,7 @@
         <v xml:space="preserve"> new Room('228', 1304, 396, 46, 24),</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>66</v>
       </c>
@@ -12833,7 +12859,7 @@
         <v xml:space="preserve"> new Room('230', 1300, 420, 50, 21),</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>67</v>
       </c>
@@ -12854,7 +12880,7 @@
         <v xml:space="preserve"> new Room('234', 1269, 441, 77, 50),</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>68</v>
       </c>
@@ -12875,7 +12901,7 @@
         <v xml:space="preserve"> new Room('232', 1215, 457, 55, 33),</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>69</v>
       </c>
@@ -12896,7 +12922,7 @@
         <v xml:space="preserve"> new Room('235', 1216, 438, 52, 20),</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>70</v>
       </c>
@@ -12917,7 +12943,7 @@
         <v xml:space="preserve"> new Room('boys br', 1258, 491, 91, 17),</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>71</v>
       </c>
@@ -12938,7 +12964,7 @@
         <v xml:space="preserve"> new Room('girls br', 1260, 511, 88, 17),</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>72</v>
       </c>
@@ -12959,7 +12985,7 @@
         <v xml:space="preserve"> new Room('fake 322', 1259, 527, 89, 43),</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>73</v>
       </c>
@@ -12980,7 +13006,7 @@
         <v xml:space="preserve"> new Room('312', 1257, 570, 90, 33),</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>74</v>
       </c>
@@ -13001,7 +13027,7 @@
         <v xml:space="preserve"> new Room('314', 1260, 622, 91, 37),</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>75</v>
       </c>
@@ -13022,7 +13048,7 @@
         <v xml:space="preserve"> new Room('316', 1258, 660, 91, 37),</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>76</v>
       </c>
@@ -13043,7 +13069,7 @@
         <v xml:space="preserve"> new Room('318', 1258, 750, 94, 34),</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>77</v>
       </c>
@@ -13064,7 +13090,7 @@
         <v xml:space="preserve"> new Room('320', 1258, 750, 94, 34),</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>78</v>
       </c>
@@ -13085,7 +13111,7 @@
         <v xml:space="preserve"> new Room('322', 1258, 785, 92, 34),</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>79</v>
       </c>
@@ -13106,7 +13132,7 @@
         <v xml:space="preserve"> new Room('stairs', 1378, 491, 99, 21),</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>80</v>
       </c>
@@ -13127,7 +13153,7 @@
         <v xml:space="preserve"> new Room('305', 1380, 509, 98, 47),</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>81</v>
       </c>
@@ -13148,7 +13174,7 @@
         <v xml:space="preserve"> new Room('311', 1382, 554, 94, 36),</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>82</v>
       </c>
@@ -13169,7 +13195,7 @@
         <v xml:space="preserve"> new Room('313', 1381, 588, 95, 36),</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>83</v>
       </c>
@@ -13190,7 +13216,7 @@
         <v xml:space="preserve"> new Room('315', 1382, 624, 94, 36),</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>84</v>
       </c>
@@ -13211,7 +13237,7 @@
         <v xml:space="preserve"> new Room('317', 1382, 660, 94, 37),</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>85</v>
       </c>
@@ -13232,7 +13258,7 @@
         <v xml:space="preserve"> new Room('319', 1383, 693, 92, 36),</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>86</v>
       </c>
@@ -13253,7 +13279,7 @@
         <v xml:space="preserve"> new Room('321', 1383, 728, 94, 37),</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>87</v>
       </c>
@@ -13274,7 +13300,7 @@
         <v xml:space="preserve"> new Room('126', 693, 735, 121, 35),</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>88</v>
       </c>
@@ -13295,7 +13321,7 @@
         <v xml:space="preserve"> new Room('124', 693, 784, 120, 36),</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>89</v>
       </c>
@@ -13316,7 +13342,7 @@
         <v xml:space="preserve"> new Room('122', 693, 818, 122, 35),</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>90</v>
       </c>

--- a/school map app coordinates.xlsx
+++ b/school map app coordinates.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27309"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WebSites\apperoni\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sarahhoffman/Documents/apperoni/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="435" windowWidth="25605" windowHeight="14505" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="25600" windowHeight="14500" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,8 +19,11 @@
     <sheet name="Floor2ForProgram" sheetId="4" r:id="rId5"/>
     <sheet name="old" sheetId="2" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -719,8 +722,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="229">
+  <cellStyleXfs count="233">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -960,7 +967,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="229">
+  <cellStyles count="233">
     <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
@@ -1075,6 +1082,8 @@
     <cellStyle name="Followed Hyperlink" xfId="224" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="226" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="228" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="230" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="232" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
@@ -1189,6 +1198,8 @@
     <cellStyle name="Hyperlink" xfId="223" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="225" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="227" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="229" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="231" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1474,11 +1485,11 @@
       <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="6" max="6" width="57.875" customWidth="1"/>
-    <col min="8" max="8" width="18.875" customWidth="1"/>
-    <col min="9" max="9" width="15.875" customWidth="1"/>
+    <col min="6" max="6" width="57.83203125" customWidth="1"/>
+    <col min="8" max="8" width="18.83203125" customWidth="1"/>
+    <col min="9" max="9" width="15.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -1507,7 +1518,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -1774,7 +1785,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>27</v>
       </c>
@@ -1951,7 +1962,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>8</v>
       </c>
@@ -1975,7 +1986,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>8</v>
       </c>
@@ -2407,7 +2418,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>58</v>
       </c>
@@ -2431,7 +2442,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>59</v>
       </c>
@@ -2455,7 +2466,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>60</v>
       </c>
@@ -2476,7 +2487,7 @@
         <v xml:space="preserve"> new Room('200', 1159, 372, 143, 47,[]),</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>61</v>
       </c>
@@ -2497,7 +2508,7 @@
         <v xml:space="preserve"> new Room('201', 1200, 314, 45, 48,[]),</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>62</v>
       </c>
@@ -2518,7 +2529,7 @@
         <v xml:space="preserve"> new Room('202', 1244, 316, 46, 46,[]),</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>63</v>
       </c>
@@ -2539,7 +2550,7 @@
         <v xml:space="preserve"> new Room('203', 1291, 314, 45, 48,[]),</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>64</v>
       </c>
@@ -2560,7 +2571,7 @@
         <v xml:space="preserve"> new Room('226', 1303, 374, 48, 23,[]),</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>65</v>
       </c>
@@ -2581,7 +2592,7 @@
         <v xml:space="preserve"> new Room('228', 1304, 396, 46, 24,[]),</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>66</v>
       </c>
@@ -2602,7 +2613,7 @@
         <v xml:space="preserve"> new Room('230', 1300, 420, 50, 21,[]),</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>67</v>
       </c>
@@ -2623,7 +2634,7 @@
         <v xml:space="preserve"> new Room('234', 1269, 441, 77, 50,[]),</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>68</v>
       </c>
@@ -2644,7 +2655,7 @@
         <v xml:space="preserve"> new Room('232', 1215, 457, 55, 33,[]),</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>69</v>
       </c>
@@ -2665,7 +2676,7 @@
         <v xml:space="preserve"> new Room('235', 1216, 438, 52, 20,[]),</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>70</v>
       </c>
@@ -2686,7 +2697,7 @@
         <v xml:space="preserve"> new Room('boys br', 1258, 491, 91, 17,[]),</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>71</v>
       </c>
@@ -2707,7 +2718,7 @@
         <v xml:space="preserve"> new Room('girls br', 1260, 511, 88, 17,[]),</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>72</v>
       </c>
@@ -2728,7 +2739,7 @@
         <v xml:space="preserve"> new Room('fake 322', 1259, 527, 89, 43,[]),</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>73</v>
       </c>
@@ -2749,7 +2760,7 @@
         <v xml:space="preserve"> new Room('312', 1257, 570, 90, 33,[]),</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>74</v>
       </c>
@@ -2770,7 +2781,7 @@
         <v xml:space="preserve"> new Room('314', 1260, 622, 91, 37,[]),</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>75</v>
       </c>
@@ -2791,7 +2802,7 @@
         <v xml:space="preserve"> new Room('316', 1258, 660, 91, 37,[]),</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>76</v>
       </c>
@@ -2812,7 +2823,7 @@
         <v xml:space="preserve"> new Room('318', 1258, 750, 94, 34,[]),</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>77</v>
       </c>
@@ -2833,7 +2844,7 @@
         <v xml:space="preserve"> new Room('320', 1258, 750, 94, 34,[]),</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>78</v>
       </c>
@@ -2854,7 +2865,7 @@
         <v xml:space="preserve"> new Room('322', 1258, 785, 92, 34,[]),</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>79</v>
       </c>
@@ -2875,7 +2886,7 @@
         <v xml:space="preserve"> new Room('stairs', 1378, 491, 99, 21,[]),</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>80</v>
       </c>
@@ -2896,7 +2907,7 @@
         <v xml:space="preserve"> new Room('305', 1380, 509, 98, 47,[]),</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>81</v>
       </c>
@@ -2917,7 +2928,7 @@
         <v xml:space="preserve"> new Room('311', 1382, 554, 94, 36,[]),</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>82</v>
       </c>
@@ -2938,7 +2949,7 @@
         <v xml:space="preserve"> new Room('313', 1381, 588, 95, 36,[]),</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>83</v>
       </c>
@@ -2959,7 +2970,7 @@
         <v xml:space="preserve"> new Room('315', 1382, 624, 94, 36,[]),</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>84</v>
       </c>
@@ -2980,7 +2991,7 @@
         <v xml:space="preserve"> new Room('317', 1382, 660, 94, 37,[]),</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>85</v>
       </c>
@@ -3001,7 +3012,7 @@
         <v xml:space="preserve"> new Room('319', 1383, 693, 92, 36,[]),</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>86</v>
       </c>
@@ -3022,7 +3033,7 @@
         <v xml:space="preserve"> new Room('321', 1383, 728, 94, 37,[]),</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>87</v>
       </c>
@@ -3043,7 +3054,7 @@
         <v xml:space="preserve"> new Room('126', 693, 735, 121, 35,[]),</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>88</v>
       </c>
@@ -3064,7 +3075,7 @@
         <v xml:space="preserve"> new Room('124', 693, 784, 120, 36,[]),</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>89</v>
       </c>
@@ -3085,7 +3096,7 @@
         <v xml:space="preserve"> new Room('122', 693, 818, 122, 35,[]),</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>90</v>
       </c>
@@ -3106,7 +3117,7 @@
         <v xml:space="preserve"> new Room('120', 705, 866, 110, 57,[]),</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>91</v>
       </c>
@@ -3127,7 +3138,7 @@
         <v xml:space="preserve"> new Room('Courtyard', 639, 357, 69, 217,[]),</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>92</v>
       </c>
@@ -3148,7 +3159,7 @@
         <v xml:space="preserve"> new Room('District MDF', 708, 357, 81, 35,[]),</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>93</v>
       </c>
@@ -3169,7 +3180,7 @@
         <v xml:space="preserve"> new Room('MDF', 787, 356, 67, 37,[]),</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>272</v>
       </c>
@@ -3190,7 +3201,7 @@
         <v xml:space="preserve"> new Room('272', 706, 391, 142, 45,[]),</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>276</v>
       </c>
@@ -3211,7 +3222,7 @@
         <v xml:space="preserve"> new Room('276', 706, 438, 142, 45,[]),</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>278</v>
       </c>
@@ -3232,7 +3243,7 @@
         <v xml:space="preserve"> new Room('278', 706, 483, 142, 45,[]),</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>282</v>
       </c>
@@ -3253,7 +3264,7 @@
         <v xml:space="preserve"> new Room('282', 706, 526, 142, 45,[]),</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>253</v>
       </c>
@@ -3274,7 +3285,7 @@
         <v xml:space="preserve"> new Room('253', 1032, 280, 70, 36,[]),</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>260</v>
       </c>
@@ -3295,7 +3306,7 @@
         <v xml:space="preserve"> new Room('260', 1032, 315, 70, 36,[]),</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>288</v>
       </c>
@@ -3316,7 +3327,7 @@
         <v xml:space="preserve"> new Room('288', 884, 289, 150, 28,[]),</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>264</v>
       </c>
@@ -3337,7 +3348,7 @@
         <v xml:space="preserve"> new Room('264', 884, 316, 78, 44,[]),</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>262</v>
       </c>
@@ -3358,7 +3369,7 @@
         <v xml:space="preserve"> new Room('262', 963, 316, 78, 44,[]),</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>260</v>
       </c>
@@ -3379,7 +3390,7 @@
         <v xml:space="preserve"> new Room('260', 1033, 316, 78, 44,[]),</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>93</v>
       </c>
@@ -3400,7 +3411,7 @@
         <v xml:space="preserve"> new Room('MDF', 1103, 335, 31, 25,[]),</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>265</v>
       </c>
@@ -3421,7 +3432,7 @@
         <v xml:space="preserve"> new Room('265', 884, 373, 86, 33,[]),</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>266</v>
       </c>
@@ -3442,7 +3453,7 @@
         <v xml:space="preserve"> new Room('266', 885, 406, 86, 42,[]),</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>267</v>
       </c>
@@ -3463,7 +3474,7 @@
         <v xml:space="preserve"> new Room('267', 885, 446, 85, 45,[]),</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>263</v>
       </c>
@@ -3484,7 +3495,7 @@
         <v xml:space="preserve"> new Room('263', 970, 373, 82, 47,[]),</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>242</v>
       </c>
@@ -3505,7 +3516,7 @@
         <v xml:space="preserve"> new Room('242', 970, 374, 165, 88,[]),</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>275</v>
       </c>
@@ -3526,7 +3537,7 @@
         <v xml:space="preserve"> new Room('275', 884, 490, 118, 44,[]),</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>281</v>
       </c>
@@ -3547,7 +3558,7 @@
         <v xml:space="preserve"> new Room('281', 884, 548, 120, 44,[]),</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>248</v>
       </c>
@@ -3568,7 +3579,7 @@
         <v xml:space="preserve"> new Room('248', 1002, 508, 117, 44,[]),</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>283</v>
       </c>
@@ -3589,7 +3600,7 @@
         <v xml:space="preserve"> new Room('283', 1002, 552, 116, 35,[]),</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>94</v>
       </c>
@@ -3610,7 +3621,7 @@
         <v xml:space="preserve"> new Room('Mech', 970, 460, 88, 31,[]),</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>95</v>
       </c>
@@ -3631,7 +3642,7 @@
         <v xml:space="preserve"> new Room('Piano Room', 140, 710, 100, 46,[]),</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>96</v>
       </c>
@@ -3652,7 +3663,7 @@
         <v xml:space="preserve"> new Room('Band Room', 136, 754, 120, 92,[]),</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>97</v>
       </c>
@@ -3673,7 +3684,7 @@
         <v xml:space="preserve"> new Room('Band Lockers', 142, 846, 60, 42,[]),</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>98</v>
       </c>
@@ -3694,7 +3705,7 @@
         <v xml:space="preserve"> new Room('Band Office', 218, 846, 46, 34,[]),</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>99</v>
       </c>
@@ -3715,7 +3726,7 @@
         <v xml:space="preserve"> new Room('Orchestra', 132, 920, 124, 90,[]),</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>100</v>
       </c>
@@ -3736,7 +3747,7 @@
         <v xml:space="preserve"> new Room('Choral Room', 378, 952, 150, 58,[]),</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>101</v>
       </c>
@@ -3757,7 +3768,7 @@
         <v xml:space="preserve"> new Room('Sm. Ensemble Room', 286, 976, 64, 30,[]),</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>91</v>
       </c>
@@ -3778,7 +3789,7 @@
         <v xml:space="preserve"> new Room('Courtyard', 600, 864, 104, 96,[]),</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>91</v>
       </c>
@@ -3799,7 +3810,7 @@
         <v xml:space="preserve"> new Room('Courtyard', 600, 734, 98, 120,[]),</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>131</v>
       </c>
@@ -3820,7 +3831,7 @@
         <v xml:space="preserve"> new Room('131', 841, 755, 86, 56,[]),</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>133</v>
       </c>
@@ -3841,7 +3852,7 @@
         <v xml:space="preserve"> new Room('133', 927, 755, 80, 56,[]),</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>102</v>
       </c>
@@ -3862,7 +3873,7 @@
         <v xml:space="preserve"> new Room('Main Office', 815, 976, 70, 62,[]),</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>103</v>
       </c>
@@ -3883,7 +3894,7 @@
         <v xml:space="preserve"> new Room('Lobby', 885, 960, 85, 50,[]),</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>104</v>
       </c>
@@ -3904,7 +3915,7 @@
         <v xml:space="preserve"> new Room('Attendance', 970, 992, 70, 44,[]),</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>105</v>
       </c>
@@ -3925,7 +3936,7 @@
         <v xml:space="preserve"> new Room('Media Center', 840, 810, 168, 154,[]),</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>106</v>
       </c>
@@ -3946,7 +3957,7 @@
         <v xml:space="preserve"> new Room('Guidance', 1030, 750, 115, 54,[]),</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>107</v>
       </c>
@@ -3967,7 +3978,7 @@
         <v xml:space="preserve"> new Room('Special Services', 1030, 868, 95, 50,[]),</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>108</v>
       </c>
@@ -3988,7 +3999,7 @@
         <v xml:space="preserve"> new Room('Auxillary Gym', 787, 608, 264, 116,[]),</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>91</v>
       </c>
@@ -4009,7 +4020,7 @@
         <v xml:space="preserve"> new Room('Courtyard', 1163, 625, 96, 73,[]),</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>91</v>
       </c>
@@ -4030,12 +4041,12 @@
         <v xml:space="preserve"> new Room('Courtyard', 1163, 494, 98, 114,[]),</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>243</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>91</v>
       </c>
@@ -4056,17 +4067,17 @@
         <v xml:space="preserve"> new Room('Courtyard', 1163, 281, 191, 35,[]),</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>231</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>229</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>109</v>
       </c>
@@ -4087,7 +4098,7 @@
         <v xml:space="preserve"> new Room('Lecture Hall 502', 294, 724, 113, 40,[]),</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>110</v>
       </c>
@@ -4108,7 +4119,7 @@
         <v xml:space="preserve"> new Room('Lecture Hall 501', 461, 724, 107, 40,[]),</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>111</v>
       </c>
@@ -4129,7 +4140,7 @@
         <v xml:space="preserve"> new Room('Auditorium', 291, 765, 279, 130,[]),</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>112</v>
       </c>
@@ -4161,19 +4172,19 @@
   <dimension ref="A1:J147"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G42" sqref="G42"/>
+      <pane ySplit="1" topLeftCell="A127" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H145" sqref="H145"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="57.875" customWidth="1"/>
-    <col min="9" max="9" width="18.875" customWidth="1"/>
-    <col min="10" max="10" width="15.875" customWidth="1"/>
+    <col min="1" max="1" width="17.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="57.83203125" customWidth="1"/>
+    <col min="9" max="9" width="18.83203125" customWidth="1"/>
+    <col min="10" max="10" width="15.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4202,7 +4213,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>164</v>
       </c>
@@ -4232,7 +4243,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>26</v>
       </c>
@@ -4262,7 +4273,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -4292,7 +4303,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
@@ -4322,7 +4333,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
@@ -4352,7 +4363,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
@@ -4382,7 +4393,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
@@ -4412,7 +4423,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>18</v>
       </c>
@@ -4442,7 +4453,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>20</v>
       </c>
@@ -4472,7 +4483,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>22</v>
       </c>
@@ -4499,7 +4510,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>24</v>
       </c>
@@ -4526,7 +4537,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>35</v>
       </c>
@@ -4556,7 +4567,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>37</v>
       </c>
@@ -4586,7 +4597,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>151</v>
       </c>
@@ -4611,7 +4622,7 @@
       </c>
     </row>
     <row r="19" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>29</v>
       </c>
@@ -4641,7 +4652,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>30</v>
       </c>
@@ -4671,7 +4682,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>32</v>
       </c>
@@ -4701,7 +4712,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>34</v>
       </c>
@@ -4731,7 +4742,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>152</v>
       </c>
@@ -4761,7 +4772,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>153</v>
       </c>
@@ -4791,7 +4802,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>40</v>
       </c>
@@ -4821,7 +4832,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>41</v>
       </c>
@@ -4851,7 +4862,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>42</v>
       </c>
@@ -4881,7 +4892,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>43</v>
       </c>
@@ -4911,7 +4922,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>44</v>
       </c>
@@ -4941,7 +4952,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>45</v>
       </c>
@@ -4971,7 +4982,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>56</v>
       </c>
@@ -5001,7 +5012,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>131</v>
       </c>
@@ -5025,7 +5036,7 @@
         <v xml:space="preserve"> new Room('131', 71, 58, 9, 6,[],'Normal'),</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>133</v>
       </c>
@@ -5049,7 +5060,7 @@
         <v xml:space="preserve"> new Room('133', 80, 58, 8, 6,[],'Normal'),</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>105</v>
       </c>
@@ -5073,7 +5084,7 @@
         <v xml:space="preserve"> new Room('Media Center', 71, 64, 17, 15,[],'Normal'),</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>104</v>
       </c>
@@ -5097,7 +5108,7 @@
         <v xml:space="preserve"> new Room('Attendance', 84, 81, 7, 4,[],'Normal'),</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>102</v>
       </c>
@@ -5121,7 +5132,7 @@
         <v xml:space="preserve"> new Room('Main Office', 69, 80, 7, 6,[],'Normal'),</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>106</v>
       </c>
@@ -5145,7 +5156,7 @@
         <v xml:space="preserve"> new Room('Guidance', 90, 57, 12, 12,[],'Normal'),</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>107</v>
       </c>
@@ -5170,7 +5181,7 @@
         <v xml:space="preserve"> new Room('Special Services', 90, 69, 10, 10,[],'Normal'),</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>212</v>
       </c>
@@ -5197,8 +5208,8 @@
         <v xml:space="preserve"> new Room('Outside', 102, 55, 11, 1,[],'Outside,HideWall-23'),</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="44" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>110</v>
       </c>
@@ -5222,7 +5233,7 @@
         <v xml:space="preserve"> new Room('Lecture Hall 501', 33, 54, 11, 4,[],'Normal'),</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>109</v>
       </c>
@@ -5246,7 +5257,7 @@
         <v xml:space="preserve"> new Room('Lecture Hall 502', 16, 54, 11, 4,[],'Normal'),</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>111</v>
       </c>
@@ -5270,7 +5281,7 @@
         <v xml:space="preserve"> new Room('Auditorium', 16, 58, 28, 13,[],'Normal'),</v>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47">
         <v>-13</v>
       </c>
@@ -5278,7 +5289,7 @@
         <v>-18</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>108</v>
       </c>
@@ -5305,8 +5316,8 @@
         <v xml:space="preserve"> new Room('Auxillary Gym', 66, 43, 26, 10,[1,1,1,26,3,1,3,26],'Normal'),</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="50" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="50" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>157</v>
       </c>
@@ -5330,7 +5341,7 @@
         <v xml:space="preserve"> new Room('Courtyard3', 47, 55, 10, 12,[],'Normal'),</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>87</v>
       </c>
@@ -5357,7 +5368,7 @@
         <v xml:space="preserve"> new Room('126', 57, 55, 12, 4,[2,4],'Normal'),</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>88</v>
       </c>
@@ -5384,7 +5395,7 @@
         <v xml:space="preserve"> new Room('124', 57, 59, 12, 4,[2,3],'Normal'),</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>89</v>
       </c>
@@ -5411,8 +5422,8 @@
         <v xml:space="preserve"> new Room('122', 57, 63, 12, 4,[2,4],'Normal'),</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="55" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="55" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>97</v>
       </c>
@@ -5439,7 +5450,7 @@
         <v xml:space="preserve"> new Room('Band Lockers', 1, 67, 6, 4,[1,4],'Normal'),</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>98</v>
       </c>
@@ -5466,7 +5477,7 @@
         <v xml:space="preserve"> new Room('Band Office', 9, 67, 5, 3,[4,3],'Normal'),</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>96</v>
       </c>
@@ -5493,7 +5504,7 @@
         <v xml:space="preserve"> new Room('Band Room', 1, 58, 12, 9,[1,1,1,9],'Normal'),</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>100</v>
       </c>
@@ -5520,7 +5531,7 @@
         <v xml:space="preserve"> new Room('Choral Room', 25, 77, 15, 6,[1,1,1,14],'Normal'),</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
         <v>156</v>
       </c>
@@ -5544,7 +5555,7 @@
         <v xml:space="preserve"> new Room('Courtyard2', 47, 68, 10, 10,[],'Normal'),</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>99</v>
       </c>
@@ -5571,7 +5582,7 @@
         <v xml:space="preserve"> new Room('Orchestra', 0, 74, 12, 9,[4,6,2,2],'Normal'),</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
         <v>95</v>
       </c>
@@ -5598,7 +5609,7 @@
         <v xml:space="preserve"> new Room('Piano Room', 1, 53, 10, 5,[2,1,3,8],'Normal'),</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>101</v>
       </c>
@@ -5625,7 +5636,7 @@
         <v xml:space="preserve"> new Room('Sm. Ensemble Room', 16, 80, 6, 3,[1,1],'Normal'),</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
         <v>112</v>
       </c>
@@ -5652,8 +5663,8 @@
         <v xml:space="preserve"> new Room('Stage', 16, 71, 28, 5,[4,5,3,2,2,1],'Normal'),</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="65" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="65" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
         <v>155</v>
       </c>
@@ -5678,7 +5689,7 @@
         <v xml:space="preserve"> new Room('Courtyard1', 51, 18, 7, 23,[],'Normal'),</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
         <v>92</v>
       </c>
@@ -5705,7 +5716,7 @@
         <v xml:space="preserve"> new Room('District MDF', 58, 18, 8, 3,[1,2],'Normal'),</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
         <v>162</v>
       </c>
@@ -5732,7 +5743,7 @@
         <v xml:space="preserve"> new Room('MDF1', 66, 18, 7, 3,[1,2],'Normal'),</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="2">
         <v>272</v>
       </c>
@@ -5759,7 +5770,7 @@
         <v xml:space="preserve"> new Room('272', 58, 21, 15, 5,[2,4],'Normal'),</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2">
         <v>276</v>
       </c>
@@ -5786,7 +5797,7 @@
         <v xml:space="preserve"> new Room('276', 58, 26, 15, 5,[2,3],'Normal'),</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2">
         <v>278</v>
       </c>
@@ -5813,7 +5824,7 @@
         <v xml:space="preserve"> new Room('278', 58, 31, 15, 5,[2,2],'Normal'),</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2">
         <v>282</v>
       </c>
@@ -5840,10 +5851,10 @@
         <v xml:space="preserve"> new Room('282', 58, 36, 15, 5,[2,2],'Normal'),</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="73" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="74" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="76" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="73" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="74" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="76" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2">
         <v>242</v>
       </c>
@@ -5870,8 +5881,8 @@
         <v xml:space="preserve"> new Room('242', 84, 19, 17, 9,[1,14,2,8],'Normal'),</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="79" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="79" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="2">
         <v>263</v>
       </c>
@@ -5898,7 +5909,7 @@
         <v xml:space="preserve"> new Room('263', 84, 19, 8, 5,[1,1],'Normal'),</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="2">
         <v>265</v>
       </c>
@@ -5925,7 +5936,7 @@
         <v xml:space="preserve"> new Room('265', 75, 19, 9, 3,[1,9],'Normal'),</v>
       </c>
     </row>
-    <row r="81" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="2">
         <v>266</v>
       </c>
@@ -5952,7 +5963,7 @@
         <v xml:space="preserve"> new Room('266', 75, 22, 9, 4,[4,1],'Normal'),</v>
       </c>
     </row>
-    <row r="82" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="2">
         <v>267</v>
       </c>
@@ -5979,7 +5990,7 @@
         <v xml:space="preserve"> new Room('267', 75, 26, 9, 5,[4,1],'Normal'),</v>
       </c>
     </row>
-    <row r="83" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="2">
         <v>275</v>
       </c>
@@ -6006,7 +6017,7 @@
         <v xml:space="preserve"> new Room('275', 75, 31, 12, 4,[4,1],'Normal'),</v>
       </c>
     </row>
-    <row r="84" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="2">
         <v>281</v>
       </c>
@@ -6033,7 +6044,7 @@
         <v xml:space="preserve"> new Room('281', 75, 37, 12, 4,[4,4],'Normal'),</v>
       </c>
     </row>
-    <row r="85" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="2">
         <v>283</v>
       </c>
@@ -6060,7 +6071,7 @@
         <v xml:space="preserve"> new Room('283', 87, 37, 12, 4,[3,1],'Normal'),</v>
       </c>
     </row>
-    <row r="86" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="2">
         <v>248</v>
       </c>
@@ -6087,7 +6098,7 @@
         <v xml:space="preserve"> new Room('248', 87, 33, 12, 4,[2,1],'Normal'),</v>
       </c>
     </row>
-    <row r="87" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
         <v>167</v>
       </c>
@@ -6111,8 +6122,8 @@
         <v xml:space="preserve"> new Room('mech4', 84, 28, 9, 3,[],'Normal'),</v>
       </c>
     </row>
-    <row r="88" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="89" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="89" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
         <v>90</v>
       </c>
@@ -6136,8 +6147,8 @@
         <v xml:space="preserve"> new Room('120', 58, 69, 11, 6,[],'Normal'),</v>
       </c>
     </row>
-    <row r="90" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="91" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="91" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
         <v>46</v>
       </c>
@@ -6167,7 +6178,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="92" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
         <v>47</v>
       </c>
@@ -6197,7 +6208,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="93" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
         <v>48</v>
       </c>
@@ -6227,7 +6238,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="94" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="2">
         <v>253</v>
       </c>
@@ -6254,7 +6265,7 @@
         <v xml:space="preserve"> new Room('253', 90, 10, 7, 4,[2,4],'Normal'),</v>
       </c>
     </row>
-    <row r="95" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="2">
         <v>260</v>
       </c>
@@ -6281,7 +6292,7 @@
         <v xml:space="preserve"> new Room('260', 90, 14, 7, 4,[3,1],'Normal'),</v>
       </c>
     </row>
-    <row r="96" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="2">
         <v>262</v>
       </c>
@@ -6308,7 +6319,7 @@
         <v xml:space="preserve"> new Room('262', 83, 14, 7, 4,[3,7],'Normal'),</v>
       </c>
     </row>
-    <row r="97" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="2">
         <v>264</v>
       </c>
@@ -6335,7 +6346,7 @@
         <v xml:space="preserve"> new Room('264', 75, 14, 8, 4,[3,8],'Normal'),</v>
       </c>
     </row>
-    <row r="98" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="2">
         <v>288</v>
       </c>
@@ -6362,7 +6373,7 @@
         <v xml:space="preserve"> new Room('288', 75, 11, 15, 3,[4,2],'Normal'),</v>
       </c>
     </row>
-    <row r="99" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
         <v>163</v>
       </c>
@@ -6389,8 +6400,8 @@
         <v xml:space="preserve"> new Room('MDF2', 97, 15, 3, 3,[1,1],'Normal'),</v>
       </c>
     </row>
-    <row r="100" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="101" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="101" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
         <v>55</v>
       </c>
@@ -6421,7 +6432,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="102" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
         <v>54</v>
       </c>
@@ -6451,7 +6462,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="103" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
         <v>160</v>
       </c>
@@ -6477,7 +6488,7 @@
         <v xml:space="preserve"> new Room('Courtyard6', 101, 10, 20, 3,[],'Normal'),</v>
       </c>
     </row>
-    <row r="104" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
         <v>53</v>
       </c>
@@ -6508,7 +6519,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="105" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
         <v>52</v>
       </c>
@@ -6538,7 +6549,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="106" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
         <v>51</v>
       </c>
@@ -6570,7 +6581,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="107" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
         <v>50</v>
       </c>
@@ -6602,7 +6613,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="108" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
         <v>60</v>
       </c>
@@ -6629,7 +6640,7 @@
         <v xml:space="preserve"> new Room('200', 101, 13, 5, 4,[3,3],'Normal'),</v>
       </c>
     </row>
-    <row r="109" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
         <v>61</v>
       </c>
@@ -6656,7 +6667,7 @@
         <v xml:space="preserve"> new Room('201', 106, 13, 5, 4,[3,1],'Normal'),</v>
       </c>
     </row>
-    <row r="110" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
         <v>62</v>
       </c>
@@ -6683,7 +6694,7 @@
         <v xml:space="preserve"> new Room('202', 111, 13, 5, 4,[3,3],'Normal'),</v>
       </c>
     </row>
-    <row r="111" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
         <v>63</v>
       </c>
@@ -6710,8 +6721,8 @@
         <v xml:space="preserve"> new Room('203', 116, 13, 5, 4,[3,1],'Normal'),</v>
       </c>
     </row>
-    <row r="112" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="113" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="113" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
         <v>57</v>
       </c>
@@ -6741,7 +6752,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="114" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
         <v>64</v>
       </c>
@@ -6768,7 +6779,7 @@
         <v xml:space="preserve"> new Room('226', 117, 19, 5, 3,[2,3],'Normal'),</v>
       </c>
     </row>
-    <row r="115" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
         <v>65</v>
       </c>
@@ -6797,7 +6808,7 @@
         <v xml:space="preserve"> new Room('228', 117, 22, 5, 3,[2,3],'Normal'),</v>
       </c>
     </row>
-    <row r="116" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
         <v>66</v>
       </c>
@@ -6826,7 +6837,7 @@
         <v xml:space="preserve"> new Room('230', 117, 25, 5, 3,[2,1],'Normal'),</v>
       </c>
     </row>
-    <row r="117" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
         <v>68</v>
       </c>
@@ -6850,7 +6861,7 @@
         <v xml:space="preserve"> new Room('232', 109, 30, 6, 3,[],'Normal'),</v>
       </c>
     </row>
-    <row r="118" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
         <v>67</v>
       </c>
@@ -6874,7 +6885,7 @@
         <v xml:space="preserve"> new Room('234', 114, 28, 8, 5,[],'Normal'),</v>
       </c>
     </row>
-    <row r="119" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
         <v>69</v>
       </c>
@@ -6898,7 +6909,7 @@
         <v xml:space="preserve"> new Room('235', 109, 28, 5, 2,[],'Normal'),</v>
       </c>
     </row>
-    <row r="120" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
         <v>59</v>
       </c>
@@ -6929,9 +6940,9 @@
         <v>154</v>
       </c>
     </row>
-    <row r="121" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="122" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="123" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="122" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="123" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
         <v>58</v>
       </c>
@@ -6961,7 +6972,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="124" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
         <v>170</v>
       </c>
@@ -6988,7 +6999,7 @@
         <v xml:space="preserve"> new Room('229', 125, 23, 18, 5,[4,2],'Normal'),</v>
       </c>
     </row>
-    <row r="125" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
         <v>171</v>
       </c>
@@ -7015,7 +7026,7 @@
         <v xml:space="preserve"> new Room('231', 125, 28, 18, 5,[4,4],'Normal'),</v>
       </c>
     </row>
-    <row r="126" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="s">
         <v>169</v>
       </c>
@@ -7042,7 +7053,7 @@
         <v xml:space="preserve"> new Room('stairs1', 125, 33, 10, 2,[4,1,4,2],'Normal'),</v>
       </c>
     </row>
-    <row r="127" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
         <v>80</v>
       </c>
@@ -7069,7 +7080,7 @@
         <v xml:space="preserve"> new Room('305', 125, 35, 10, 4,[4,3],'Normal'),</v>
       </c>
     </row>
-    <row r="128" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="s">
         <v>81</v>
       </c>
@@ -7096,7 +7107,7 @@
         <v xml:space="preserve"> new Room('311', 125, 39, 9, 4,[4,4],'Normal'),</v>
       </c>
     </row>
-    <row r="129" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
         <v>82</v>
       </c>
@@ -7123,7 +7134,7 @@
         <v xml:space="preserve"> new Room('313', 125, 43, 9, 4,[4,1],'Normal'),</v>
       </c>
     </row>
-    <row r="130" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
         <v>83</v>
       </c>
@@ -7150,7 +7161,7 @@
         <v xml:space="preserve"> new Room('315', 125, 47, 9, 4,[4,4],'Normal'),</v>
       </c>
     </row>
-    <row r="131" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
         <v>84</v>
       </c>
@@ -7177,7 +7188,7 @@
         <v xml:space="preserve"> new Room('317', 125, 51, 9, 4,[4,1],'Normal'),</v>
       </c>
     </row>
-    <row r="132" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
         <v>85</v>
       </c>
@@ -7204,7 +7215,7 @@
         <v xml:space="preserve"> new Room('319', 125, 55, 9, 4,[4,4],'Normal'),</v>
       </c>
     </row>
-    <row r="133" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
         <v>86</v>
       </c>
@@ -7231,7 +7242,7 @@
         <v xml:space="preserve"> new Room('321', 125, 59, 9, 4,[4,1],'Normal'),</v>
       </c>
     </row>
-    <row r="134" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
         <v>168</v>
       </c>
@@ -7258,8 +7269,8 @@
         <v xml:space="preserve"> new Room('stairs2', 125, 64, 9, 3,[4,2,4,1],'Normal'),</v>
       </c>
     </row>
-    <row r="135" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="136" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="136" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="s">
         <v>159</v>
       </c>
@@ -7284,7 +7295,7 @@
         <v xml:space="preserve"> new Room('Courtyard5', 103, 33, 10, 10,[],'Normal'),</v>
       </c>
     </row>
-    <row r="137" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="s">
         <v>154</v>
       </c>
@@ -7311,7 +7322,7 @@
         <v xml:space="preserve"> new Room('boys br1', 113, 33, 9, 2,[2,1],'Normal'),</v>
       </c>
     </row>
-    <row r="138" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
         <v>161</v>
       </c>
@@ -7338,7 +7349,7 @@
         <v xml:space="preserve"> new Room('girls br1', 113, 35, 9, 2,[2,2],'Normal'),</v>
       </c>
     </row>
-    <row r="139" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
         <v>72</v>
       </c>
@@ -7365,7 +7376,7 @@
         <v xml:space="preserve"> new Room('fake 322', 113, 37, 9, 3,[2,2],'Normal'),</v>
       </c>
     </row>
-    <row r="140" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="2" t="s">
         <v>73</v>
       </c>
@@ -7392,8 +7403,8 @@
         <v xml:space="preserve"> new Room('312', 113, 40, 9, 3,[2,3],'Normal'),</v>
       </c>
     </row>
-    <row r="141" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="142" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="142" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="2" t="s">
         <v>158</v>
       </c>
@@ -7418,7 +7429,7 @@
         <v xml:space="preserve"> new Room('Courtyard4', 103, 45, 10, 8,[],'Normal'),</v>
       </c>
     </row>
-    <row r="143" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="s">
         <v>74</v>
       </c>
@@ -7445,7 +7456,7 @@
         <v xml:space="preserve"> new Room('314', 113, 45, 9, 4,[2,4],'Normal'),</v>
       </c>
     </row>
-    <row r="144" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="2" t="s">
         <v>75</v>
       </c>
@@ -7472,7 +7483,7 @@
         <v xml:space="preserve"> new Room('316', 113, 49, 9, 4,[2,1],'Normal'),</v>
       </c>
     </row>
-    <row r="145" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="2" t="s">
         <v>76</v>
       </c>
@@ -7499,7 +7510,7 @@
         <v xml:space="preserve"> new Room('318', 113, 55, 9, 4,[2,1],'Normal'),</v>
       </c>
     </row>
-    <row r="146" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="2" t="s">
         <v>77</v>
       </c>
@@ -7526,7 +7537,7 @@
         <v xml:space="preserve"> new Room('320', 113, 59, 9, 4,[2,4],'Normal'),</v>
       </c>
     </row>
-    <row r="147" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="s">
         <v>78</v>
       </c>
@@ -7571,7 +7582,7 @@
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -8159,12 +8170,12 @@
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="57.875" customWidth="1"/>
-    <col min="9" max="9" width="18.875" customWidth="1"/>
-    <col min="10" max="10" width="15.875" customWidth="1"/>
+    <col min="1" max="1" width="17.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="57.83203125" customWidth="1"/>
+    <col min="9" max="9" width="18.83203125" customWidth="1"/>
+    <col min="10" max="10" width="15.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -8196,7 +8207,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>164</v>
       </c>
@@ -8702,7 +8713,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>152</v>
       </c>
@@ -8729,7 +8740,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>153</v>
       </c>
@@ -11053,7 +11064,7 @@
         <v xml:space="preserve"> new Room('321', 138, 78, 9, 4,[],'Normal'),</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="s">
         <v>168</v>
       </c>
@@ -11074,7 +11085,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
         <v>72</v>
       </c>
@@ -11098,7 +11109,7 @@
         <v xml:space="preserve"> new Room('fake 322', 126, 53, 9, 4,[],'Normal'),</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
         <v>73</v>
       </c>
@@ -11123,7 +11134,7 @@
         <v xml:space="preserve"> new Room('312', 126, 57, 9, 3,[],'Normal'),</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="s">
         <v>158</v>
       </c>
@@ -11147,7 +11158,7 @@
         <v xml:space="preserve"> new Room('Courtyard4', 116, 63, 10, 7,[],'Normal'),</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A142" s="2" t="s">
         <v>74</v>
       </c>
@@ -11171,7 +11182,7 @@
         <v xml:space="preserve"> new Room('314', 126, 63, 9, 4,[],'Normal'),</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="s">
         <v>75</v>
       </c>
@@ -11196,7 +11207,7 @@
         <v xml:space="preserve"> new Room('316', 126, 67, 9, 4,[],'Normal'),</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A144" s="2" t="s">
         <v>76</v>
       </c>
@@ -11221,7 +11232,7 @@
         <v xml:space="preserve"> new Room('318', 126, 71, 9, 4,[],'Normal'),</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A145" s="2" t="s">
         <v>77</v>
       </c>
@@ -11246,7 +11257,7 @@
         <v xml:space="preserve"> new Room('320', 126, 75, 9, 4,[],'Normal'),</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A146" s="2" t="s">
         <v>78</v>
       </c>
@@ -11271,7 +11282,7 @@
         <v xml:space="preserve"> new Room('322', 126, 79, 9, 3,[],'Normal'),</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A153" s="2">
         <v>243</v>
       </c>
@@ -11292,7 +11303,7 @@
       <selection activeCell="H2" sqref="H2:H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -11874,7 +11885,7 @@
       <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -11893,7 +11904,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -12124,7 +12135,7 @@
         <v xml:space="preserve"> new Room('receiving', 180, 312, 81, 52),</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>27</v>
       </c>
@@ -12271,7 +12282,7 @@
         <v xml:space="preserve"> new Room('602', 758, 257, 95, 83),</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>8</v>
       </c>
@@ -12292,7 +12303,7 @@
         <v xml:space="preserve"> new Room('mech room', 763, 183, 57, 45),</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>8</v>
       </c>

--- a/school map app coordinates.xlsx
+++ b/school map app coordinates.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="908" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="908" uniqueCount="215">
   <si>
     <t>Name</t>
   </si>
@@ -671,6 +671,9 @@
   </si>
   <si>
     <t>Outside,HideWall-23</t>
+  </si>
+  <si>
+    <t>Stair</t>
   </si>
 </sst>
 </file>
@@ -1489,7 +1492,7 @@
     <col min="9" max="9" width="15.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1542,7 +1545,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -1566,7 +1569,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -1590,7 +1593,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -1614,7 +1617,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -1638,7 +1641,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -1662,7 +1665,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -1686,7 +1689,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -1710,7 +1713,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -1734,7 +1737,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -1758,7 +1761,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>26</v>
       </c>
@@ -1806,7 +1809,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>29</v>
       </c>
@@ -1833,7 +1836,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>30</v>
       </c>
@@ -1860,7 +1863,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>32</v>
       </c>
@@ -1887,7 +1890,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>34</v>
       </c>
@@ -1911,7 +1914,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>35</v>
       </c>
@@ -1935,7 +1938,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>37</v>
       </c>
@@ -2007,7 +2010,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>40</v>
       </c>
@@ -2031,7 +2034,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>41</v>
       </c>
@@ -2055,7 +2058,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>42</v>
       </c>
@@ -2079,7 +2082,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>43</v>
       </c>
@@ -2103,7 +2106,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>44</v>
       </c>
@@ -2127,7 +2130,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>45</v>
       </c>
@@ -2151,7 +2154,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>46</v>
       </c>
@@ -2175,7 +2178,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>47</v>
       </c>
@@ -2199,7 +2202,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>48</v>
       </c>
@@ -4169,7 +4172,7 @@
   <dimension ref="A1:J147"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
@@ -7043,11 +7046,11 @@
         <v>209</v>
       </c>
       <c r="G126" t="s">
-        <v>166</v>
+        <v>214</v>
       </c>
       <c r="H126" t="str">
         <f>CONCATENATE(" new Room('", A126,"', ", B126,", ", C126,", ",D126,", ",E126, ",[",F126,"],'",G126,"'),")</f>
-        <v xml:space="preserve"> new Room('stairs1', 125, 33, 10, 2,[4,1,4,2],'Normal'),</v>
+        <v xml:space="preserve"> new Room('stairs1', 125, 33, 10, 2,[4,1,4,2],'Stair'),</v>
       </c>
     </row>
     <row r="127" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -7259,11 +7262,11 @@
         <v>210</v>
       </c>
       <c r="G134" t="s">
-        <v>166</v>
+        <v>214</v>
       </c>
       <c r="H134" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve"> new Room('stairs2', 125, 64, 9, 3,[4,2,4,1],'Normal'),</v>
+        <v xml:space="preserve"> new Room('stairs2', 125, 64, 9, 3,[4,2,4,1],'Stair'),</v>
       </c>
     </row>
     <row r="135" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7576,7 +7579,7 @@
   <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="H2" sqref="H2:H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7917,8 +7920,8 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>79</v>
+      <c r="A13" s="2" t="s">
+        <v>169</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -7936,11 +7939,11 @@
         <v>209</v>
       </c>
       <c r="G13" t="s">
-        <v>166</v>
+        <v>214</v>
       </c>
       <c r="H13" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> new Room('stairs', 12, 0, 9, 2,[4,1,4,2],'Normal'),</v>
+        <v xml:space="preserve"> new Room('stairs1', 12, 0, 9, 2,[4,1,4,2],'Stair'),</v>
       </c>
       <c r="K13" t="s">
         <v>79</v>
@@ -8195,8 +8198,8 @@
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>79</v>
+      <c r="A22" s="2" t="s">
+        <v>168</v>
       </c>
       <c r="B22">
         <v>12</v>
@@ -8215,11 +8218,11 @@
         <v>209</v>
       </c>
       <c r="G22" t="s">
-        <v>166</v>
+        <v>214</v>
       </c>
       <c r="H22" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> new Room('stairs', 12, 32, 8, 2,[4,1,4,2],'Normal'),</v>
+        <v xml:space="preserve"> new Room('stairs2', 12, 32, 8, 2,[4,1,4,2],'Stair'),</v>
       </c>
       <c r="K22" t="s">
         <v>79</v>
@@ -8835,7 +8838,7 @@
     <col min="10" max="10" width="15.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -8894,7 +8897,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>26</v>
       </c>
@@ -8923,7 +8926,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -8952,7 +8955,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
@@ -8981,7 +8984,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
@@ -9010,7 +9013,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
@@ -9037,7 +9040,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
@@ -9064,7 +9067,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>18</v>
       </c>
@@ -9091,7 +9094,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>20</v>
       </c>
@@ -9118,7 +9121,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>22</v>
       </c>
@@ -9145,7 +9148,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>24</v>
       </c>
@@ -9172,7 +9175,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>35</v>
       </c>
@@ -9199,7 +9202,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>37</v>
       </c>
@@ -9226,7 +9229,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>151</v>
       </c>
@@ -9253,7 +9256,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>29</v>
       </c>
@@ -9283,7 +9286,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>30</v>
       </c>
@@ -9313,7 +9316,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>32</v>
       </c>
@@ -9343,7 +9346,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>34</v>
       </c>
@@ -9425,7 +9428,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>40</v>
       </c>
@@ -9453,7 +9456,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>41</v>
       </c>
@@ -9481,7 +9484,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>42</v>
       </c>
@@ -9509,7 +9512,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>43</v>
       </c>
@@ -9537,7 +9540,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>44</v>
       </c>
@@ -9565,7 +9568,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>45</v>
       </c>
@@ -9593,7 +9596,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>56</v>
       </c>
@@ -9620,7 +9623,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>131</v>
       </c>
@@ -9644,7 +9647,7 @@
         <v xml:space="preserve"> new Room('131', 84, 76, 9, 6,[],'Normal'),</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>133</v>
       </c>
@@ -9669,7 +9672,7 @@
         <v xml:space="preserve"> new Room('133', 93, 76, 8, 6,[],'Normal'),</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>105</v>
       </c>
@@ -9694,7 +9697,7 @@
         <v xml:space="preserve"> new Room('Media Center', 84, 82, 17, 15,[],'Normal'),</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>104</v>
       </c>
@@ -9718,7 +9721,7 @@
         <v xml:space="preserve"> new Room('Attendance', 97, 99, 7, 4,[],'Normal'),</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>102</v>
       </c>
@@ -9742,7 +9745,7 @@
         <v xml:space="preserve"> new Room('Main Office', 82, 98, 7, 6,[],'Normal'),</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>110</v>
       </c>
@@ -9766,7 +9769,7 @@
         <v xml:space="preserve"> new Room('Lecture Hall 501', 46, 72, 11, 4,[],'Normal'),</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>109</v>
       </c>
@@ -9790,7 +9793,7 @@
         <v xml:space="preserve"> new Room('Lecture Hall 502', 29, 72, 11, 4,[],'Normal'),</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>111</v>
       </c>
@@ -9815,7 +9818,7 @@
         <v xml:space="preserve"> new Room('Auditorium', 29, 76, 28, 13,[],'Normal'),</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>108</v>
       </c>
@@ -9839,7 +9842,7 @@
         <v xml:space="preserve"> new Room('Auxillary Gym', 79, 61, 26, 12,[],'Normal'),</v>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>157</v>
       </c>
@@ -9863,7 +9866,7 @@
         <v xml:space="preserve"> new Room('Courtyard3', 60, 73, 10, 12,[],'Normal'),</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>87</v>
       </c>
@@ -9888,7 +9891,7 @@
         <v xml:space="preserve"> new Room('126', 70, 73, 12, 4,[],'Normal'),</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>88</v>
       </c>
@@ -9914,7 +9917,7 @@
         <v xml:space="preserve"> new Room('124', 70, 77, 12, 4,[],'Normal'),</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>89</v>
       </c>
@@ -9940,7 +9943,7 @@
         <v xml:space="preserve"> new Room('122', 70, 81, 12, 4,[],'Normal'),</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>97</v>
       </c>
@@ -9964,7 +9967,7 @@
         <v xml:space="preserve"> new Room('Band Lockers', 14, 85, 6, 4,[],'Normal'),</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>98</v>
       </c>
@@ -9988,7 +9991,7 @@
         <v xml:space="preserve"> new Room('Band Office', 22, 85, 5, 3,[],'Normal'),</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>96</v>
       </c>
@@ -10012,7 +10015,7 @@
         <v xml:space="preserve"> new Room('Band Room', 14, 75, 12, 9,[],'Normal'),</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>154</v>
       </c>
@@ -10036,7 +10039,7 @@
         <v xml:space="preserve"> new Room('boys br1', 126, 49, 9, 2,[],'Normal'),</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>100</v>
       </c>
@@ -10060,7 +10063,7 @@
         <v xml:space="preserve"> new Room('Choral Room', 38, 95, 15, 6,[],'Normal'),</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>156</v>
       </c>
@@ -10084,7 +10087,7 @@
         <v xml:space="preserve"> new Room('Courtyard2', 60, 86, 10, 10,[],'Normal'),</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>159</v>
       </c>
@@ -10108,7 +10111,7 @@
         <v xml:space="preserve"> new Room('Courtyard5', 116, 49, 10, 11,[],'Normal'),</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>160</v>
       </c>
@@ -10132,7 +10135,7 @@
         <v xml:space="preserve"> new Room('Courtyard6', 116, 28, 19, 4,[],'Normal'),</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>161</v>
       </c>
@@ -10156,7 +10159,7 @@
         <v xml:space="preserve"> new Room('girls br1', 126, 51, 9, 2,[],'Normal'),</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>106</v>
       </c>
@@ -10180,7 +10183,7 @@
         <v xml:space="preserve"> new Room('Guidance', 103, 75, 12, 5,[],'Normal'),</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>163</v>
       </c>
@@ -10204,7 +10207,7 @@
         <v xml:space="preserve"> new Room('MDF2', 110, 34, 3, 3,[],'Normal'),</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>167</v>
       </c>
@@ -10228,7 +10231,7 @@
         <v xml:space="preserve"> new Room('mech4', 97, 46, 9, 3,[],'Normal'),</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>99</v>
       </c>
@@ -10252,7 +10255,7 @@
         <v xml:space="preserve"> new Room('Orchestra', 13, 92, 12, 9,[],'Normal'),</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>95</v>
       </c>
@@ -10276,7 +10279,7 @@
         <v xml:space="preserve"> new Room('Piano Room', 14, 71, 10, 5,[],'Normal'),</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>101</v>
       </c>
@@ -10300,7 +10303,7 @@
         <v xml:space="preserve"> new Room('Sm. Ensemble Room', 29, 98, 6, 3,[],'Normal'),</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>107</v>
       </c>
@@ -10324,7 +10327,7 @@
         <v xml:space="preserve"> new Room('Special Services', 103, 87, 10, 5,[],'Normal'),</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>112</v>
       </c>
@@ -10348,7 +10351,7 @@
         <v xml:space="preserve"> new Room('Stage', 29, 90, 28, 5,[],'Normal'),</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>155</v>
       </c>
@@ -10373,7 +10376,7 @@
         <v xml:space="preserve"> new Room('Courtyard1', 64, 36, 7, 23,[],'Normal'),</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>92</v>
       </c>
@@ -10398,7 +10401,7 @@
         <v xml:space="preserve"> new Room('District MDF', 71, 36, 8, 3,[],'Normal'),</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>162</v>
       </c>
@@ -10423,7 +10426,7 @@
         <v xml:space="preserve"> new Room('MDF1', 79, 36, 7, 3,[],'Normal'),</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>272</v>
       </c>
@@ -10448,7 +10451,7 @@
         <v xml:space="preserve"> new Room('272', 71, 39, 15, 5,[],'Normal'),</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>276</v>
       </c>
@@ -10473,7 +10476,7 @@
         <v xml:space="preserve"> new Room('276', 71, 44, 15, 5,[],'Normal'),</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>278</v>
       </c>
@@ -10498,7 +10501,7 @@
         <v xml:space="preserve"> new Room('278', 71, 49, 15, 5,[],'Normal'),</v>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>282</v>
       </c>
@@ -10523,7 +10526,7 @@
         <v xml:space="preserve"> new Room('282', 71, 54, 15, 5,[],'Normal'),</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>242</v>
       </c>
@@ -10547,7 +10550,7 @@
         <v xml:space="preserve"> new Room('242', 97, 37, 17, 9,[],'Normal'),</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>248</v>
       </c>
@@ -10571,7 +10574,7 @@
         <v xml:space="preserve"> new Room('248', 100, 51, 12, 4,[],'Normal'),</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>253</v>
       </c>
@@ -10595,7 +10598,7 @@
         <v xml:space="preserve"> new Room('253', 103, 28, 7, 4,[],'Normal'),</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>260</v>
       </c>
@@ -10619,7 +10622,7 @@
         <v xml:space="preserve"> new Room('260', 103, 32, 7, 4,[],'Normal'),</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>260</v>
       </c>
@@ -10643,7 +10646,7 @@
         <v xml:space="preserve"> new Room('260', 103, 32, 8, 4,[],'Normal'),</v>
       </c>
     </row>
-    <row r="87" spans="1:8" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>262</v>
       </c>
@@ -10667,7 +10670,7 @@
         <v xml:space="preserve"> new Room('262', 96, 32, 8, 4,[],'Normal'),</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
         <v>263</v>
       </c>
@@ -10691,7 +10694,7 @@
         <v xml:space="preserve"> new Room('263', 97, 37, 8, 5,[],'Normal'),</v>
       </c>
     </row>
-    <row r="89" spans="1:8" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
         <v>264</v>
       </c>
@@ -10715,7 +10718,7 @@
         <v xml:space="preserve"> new Room('264', 88, 32, 8, 4,[],'Normal'),</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
         <v>265</v>
       </c>
@@ -10739,7 +10742,7 @@
         <v xml:space="preserve"> new Room('265', 88, 37, 9, 3,[],'Normal'),</v>
       </c>
     </row>
-    <row r="91" spans="1:8" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
         <v>266</v>
       </c>
@@ -10763,7 +10766,7 @@
         <v xml:space="preserve"> new Room('266', 89, 41, 9, 4,[],'Normal'),</v>
       </c>
     </row>
-    <row r="92" spans="1:8" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
         <v>267</v>
       </c>
@@ -10787,7 +10790,7 @@
         <v xml:space="preserve"> new Room('267', 89, 45, 9, 5,[],'Normal'),</v>
       </c>
     </row>
-    <row r="94" spans="1:8" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
         <v>275</v>
       </c>
@@ -10811,7 +10814,7 @@
         <v xml:space="preserve"> new Room('275', 88, 49, 12, 4,[],'Normal'),</v>
       </c>
     </row>
-    <row r="96" spans="1:8" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
         <v>281</v>
       </c>
@@ -10835,7 +10838,7 @@
         <v xml:space="preserve"> new Room('281', 88, 55, 12, 4,[],'Normal'),</v>
       </c>
     </row>
-    <row r="97" spans="1:10" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
         <v>283</v>
       </c>
@@ -10859,7 +10862,7 @@
         <v xml:space="preserve"> new Room('283', 100, 55, 12, 4,[],'Normal'),</v>
       </c>
     </row>
-    <row r="98" spans="1:10" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
         <v>288</v>
       </c>
@@ -10883,7 +10886,7 @@
         <v xml:space="preserve"> new Room('288', 88, 29, 15, 3,[],'Normal'),</v>
       </c>
     </row>
-    <row r="99" spans="1:10" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
         <v>90</v>
       </c>
@@ -10907,7 +10910,7 @@
         <v xml:space="preserve"> new Room('120', 71, 87, 11, 6,[],'Normal'),</v>
       </c>
     </row>
-    <row r="102" spans="1:10" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>60</v>
       </c>
@@ -10931,7 +10934,7 @@
         <v xml:space="preserve"> new Room('200', 116, 37, 14, 5,[],'Normal'),</v>
       </c>
     </row>
-    <row r="103" spans="1:10" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
         <v>61</v>
       </c>
@@ -10955,7 +10958,7 @@
         <v xml:space="preserve"> new Room('201', 120, 31, 5, 5,[],'Normal'),</v>
       </c>
     </row>
-    <row r="104" spans="1:10" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
         <v>62</v>
       </c>
@@ -10979,7 +10982,7 @@
         <v xml:space="preserve"> new Room('202', 124, 32, 5, 5,[],'Normal'),</v>
       </c>
     </row>
-    <row r="105" spans="1:10" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
         <v>63</v>
       </c>
@@ -11003,7 +11006,7 @@
         <v xml:space="preserve"> new Room('203', 129, 31, 5, 5,[],'Normal'),</v>
       </c>
     </row>
-    <row r="106" spans="1:10" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>55</v>
       </c>
@@ -11030,7 +11033,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="107" spans="1:10" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
         <v>54</v>
       </c>
@@ -11057,7 +11060,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="108" spans="1:10" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
         <v>53</v>
       </c>
@@ -11084,7 +11087,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="109" spans="1:10" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
         <v>52</v>
       </c>
@@ -11111,7 +11114,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="110" spans="1:10" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
         <v>51</v>
       </c>
@@ -11138,7 +11141,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="111" spans="1:10" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>50</v>
       </c>
@@ -11165,7 +11168,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="112" spans="1:10" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
         <v>57</v>
       </c>
@@ -11192,7 +11195,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="113" spans="1:10" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
         <v>64</v>
       </c>
@@ -11216,7 +11219,7 @@
         <v xml:space="preserve"> new Room('226', 130, 37, 5, 2,[],'Normal'),</v>
       </c>
     </row>
-    <row r="114" spans="1:10" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
         <v>65</v>
       </c>
@@ -11240,7 +11243,7 @@
         <v xml:space="preserve"> new Room('228', 130, 40, 5, 2,[],'Normal'),</v>
       </c>
     </row>
-    <row r="115" spans="1:10" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
         <v>66</v>
       </c>
@@ -11264,7 +11267,7 @@
         <v xml:space="preserve"> new Room('230', 130, 42, 5, 2,[],'Normal'),</v>
       </c>
     </row>
-    <row r="116" spans="1:10" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
         <v>68</v>
       </c>
@@ -11288,7 +11291,7 @@
         <v xml:space="preserve"> new Room('232', 122, 46, 6, 3,[],'Normal'),</v>
       </c>
     </row>
-    <row r="117" spans="1:10" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
         <v>67</v>
       </c>
@@ -11312,7 +11315,7 @@
         <v xml:space="preserve"> new Room('234', 127, 44, 8, 5,[],'Normal'),</v>
       </c>
     </row>
-    <row r="118" spans="1:10" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
         <v>69</v>
       </c>
@@ -11336,7 +11339,7 @@
         <v xml:space="preserve"> new Room('235', 122, 44, 5, 2,[],'Normal'),</v>
       </c>
     </row>
-    <row r="119" spans="1:10" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
         <v>59</v>
       </c>
@@ -11363,7 +11366,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="120" spans="1:10" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
         <v>46</v>
       </c>
@@ -11390,7 +11393,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="121" spans="1:10" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
         <v>47</v>
       </c>
@@ -11417,7 +11420,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="122" spans="1:10" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
         <v>48</v>
       </c>
@@ -11444,7 +11447,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="125" spans="1:10" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
         <v>58</v>
       </c>
@@ -11471,7 +11474,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="126" spans="1:10" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
         <v>170</v>
       </c>
@@ -11496,7 +11499,7 @@
         <v xml:space="preserve"> new Room('229', 138, 41, 18, 5,[],'Normal'),</v>
       </c>
     </row>
-    <row r="127" spans="1:10" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
         <v>171</v>
       </c>
@@ -11962,7 +11965,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -12000,7 +12003,7 @@
         <v xml:space="preserve"> new Room('Mech room', 125, 221, 132, 93),</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -12021,7 +12024,7 @@
         <v xml:space="preserve"> new Room('kitchen', 155, 363, 106, 100),</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -12042,7 +12045,7 @@
         <v xml:space="preserve"> new Room('servery', 158, 464, 82, 85),</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -12063,7 +12066,7 @@
         <v xml:space="preserve"> new Room('faculty lounge', 153, 511, 86, 61),</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -12084,7 +12087,7 @@
         <v xml:space="preserve"> new Room('main gym', 292, 412, 320, 179),</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -12105,7 +12108,7 @@
         <v xml:space="preserve"> new Room('boys locker', 292, 344, 160, 67),</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -12126,7 +12129,7 @@
         <v xml:space="preserve"> new Room('girls locker', 448, 346, 163, 64),</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -12147,7 +12150,7 @@
         <v xml:space="preserve"> new Room('trainer\'s room', 290, 249, 54, 52),</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -12168,7 +12171,7 @@
         <v xml:space="preserve"> new Room('team room 1', 343, 249, 161, 80),</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -12189,7 +12192,7 @@
         <v xml:space="preserve"> new Room('team room 2', 516, 251, 91, 81),</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>26</v>
       </c>
@@ -12231,7 +12234,7 @@
         <v xml:space="preserve"> new Room('café entrance', 137, 608, 105, 145),</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>29</v>
       </c>
@@ -12252,7 +12255,7 @@
         <v xml:space="preserve"> new Room('band room', 136, 754, 124, 92),</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>30</v>
       </c>
@@ -12273,7 +12276,7 @@
         <v xml:space="preserve"> new Room('orchestra', 132, 920, 125, 91),</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>32</v>
       </c>
@@ -12294,7 +12297,7 @@
         <v xml:space="preserve"> new Room('choir', 377, 952, 125, 91),</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>34</v>
       </c>
@@ -12315,7 +12318,7 @@
         <v xml:space="preserve"> new Room('school store', 675, 643, 49, 51),</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>35</v>
       </c>
@@ -12336,7 +12339,7 @@
         <v xml:space="preserve"> new Room('606', 633, 250, 125, 90),</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>37</v>
       </c>
@@ -12399,7 +12402,7 @@
         <v xml:space="preserve"> new Room('mech room', 819, 183, 63, 45),</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>40</v>
       </c>
@@ -12420,7 +12423,7 @@
         <v xml:space="preserve"> new Room('210', 882, 183, 84, 45),</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>41</v>
       </c>
@@ -12441,7 +12444,7 @@
         <v xml:space="preserve"> new Room('211', 965, 183, 83, 45),</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>42</v>
       </c>
@@ -12462,7 +12465,7 @@
         <v xml:space="preserve"> new Room('212', 1049, 183, 89, 45),</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>43</v>
       </c>
@@ -12483,7 +12486,7 @@
         <v xml:space="preserve"> new Room('213', 1136, 183, 79, 45),</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>44</v>
       </c>
@@ -12504,7 +12507,7 @@
         <v xml:space="preserve"> new Room('214', 1213, 183, 83, 45),</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>45</v>
       </c>
@@ -12525,7 +12528,7 @@
         <v xml:space="preserve"> new Room('215', 1299, 183, 82, 45),</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>46</v>
       </c>
@@ -12546,7 +12549,7 @@
         <v xml:space="preserve"> new Room('251', 892, 243, 73, 45),</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>47</v>
       </c>
@@ -12567,7 +12570,7 @@
         <v xml:space="preserve"> new Room('252', 959, 243, 73, 45),</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>48</v>
       </c>
@@ -12588,7 +12591,7 @@
         <v xml:space="preserve"> new Room('255', 1030, 244, 73, 36),</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>50</v>
       </c>
@@ -12609,7 +12612,7 @@
         <v xml:space="preserve"> new Room('209', 1129, 244, 73, 36),</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>51</v>
       </c>
@@ -12630,7 +12633,7 @@
         <v xml:space="preserve"> new Room('208', 1214, 244, 87, 39),</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>52</v>
       </c>
@@ -12651,7 +12654,7 @@
         <v xml:space="preserve"> new Room('207', 1300, 245, 56, 36),</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>53</v>
       </c>
@@ -12672,7 +12675,7 @@
         <v xml:space="preserve"> new Room('206', 1356, 244, 86, 47),</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>54</v>
       </c>
@@ -12693,7 +12696,7 @@
         <v xml:space="preserve"> new Room('205', 1356, 290, 82, 27),</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>55</v>
       </c>
@@ -12714,7 +12717,7 @@
         <v xml:space="preserve"> new Room('204', 1355, 315, 86, 32),</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>56</v>
       </c>
@@ -12735,7 +12738,7 @@
         <v xml:space="preserve"> new Room('218', 1429, 188, 126, 44),</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>57</v>
       </c>
@@ -12756,7 +12759,7 @@
         <v xml:space="preserve"> new Room('221', 1468, 247, 85, 114),</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>58</v>
       </c>
@@ -12777,7 +12780,7 @@
         <v xml:space="preserve"> new Room('225', 1383, 358, 175, 49),</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>59</v>
       </c>
@@ -12798,7 +12801,7 @@
         <v xml:space="preserve"> new Room('240/241', 1159, 372, 143, 69),</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>60</v>
       </c>
@@ -12819,7 +12822,7 @@
         <v xml:space="preserve"> new Room('200', 1159, 372, 143, 47),</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>61</v>
       </c>
@@ -12840,7 +12843,7 @@
         <v xml:space="preserve"> new Room('201', 1200, 314, 45, 48),</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>62</v>
       </c>
@@ -12861,7 +12864,7 @@
         <v xml:space="preserve"> new Room('202', 1244, 316, 46, 46),</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>63</v>
       </c>
@@ -12882,7 +12885,7 @@
         <v xml:space="preserve"> new Room('203', 1291, 314, 45, 48),</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>64</v>
       </c>
@@ -12903,7 +12906,7 @@
         <v xml:space="preserve"> new Room('226', 1303, 374, 48, 23),</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>65</v>
       </c>
@@ -12924,7 +12927,7 @@
         <v xml:space="preserve"> new Room('228', 1304, 396, 46, 24),</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>66</v>
       </c>
@@ -12945,7 +12948,7 @@
         <v xml:space="preserve"> new Room('230', 1300, 420, 50, 21),</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>67</v>
       </c>
@@ -12966,7 +12969,7 @@
         <v xml:space="preserve"> new Room('234', 1269, 441, 77, 50),</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>68</v>
       </c>
@@ -12987,7 +12990,7 @@
         <v xml:space="preserve"> new Room('232', 1215, 457, 55, 33),</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>69</v>
       </c>
@@ -13008,7 +13011,7 @@
         <v xml:space="preserve"> new Room('235', 1216, 438, 52, 20),</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>70</v>
       </c>
@@ -13029,7 +13032,7 @@
         <v xml:space="preserve"> new Room('boys br', 1258, 491, 91, 17),</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>71</v>
       </c>
@@ -13050,7 +13053,7 @@
         <v xml:space="preserve"> new Room('girls br', 1260, 511, 88, 17),</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>72</v>
       </c>
@@ -13071,7 +13074,7 @@
         <v xml:space="preserve"> new Room('fake 322', 1259, 527, 89, 43),</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>73</v>
       </c>
@@ -13092,7 +13095,7 @@
         <v xml:space="preserve"> new Room('312', 1257, 570, 90, 33),</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>74</v>
       </c>
@@ -13113,7 +13116,7 @@
         <v xml:space="preserve"> new Room('314', 1260, 622, 91, 37),</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>75</v>
       </c>
@@ -13134,7 +13137,7 @@
         <v xml:space="preserve"> new Room('316', 1258, 660, 91, 37),</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>76</v>
       </c>
@@ -13155,7 +13158,7 @@
         <v xml:space="preserve"> new Room('318', 1258, 750, 94, 34),</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>77</v>
       </c>
@@ -13176,7 +13179,7 @@
         <v xml:space="preserve"> new Room('320', 1258, 750, 94, 34),</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>78</v>
       </c>
@@ -13197,7 +13200,7 @@
         <v xml:space="preserve"> new Room('322', 1258, 785, 92, 34),</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>79</v>
       </c>
@@ -13218,7 +13221,7 @@
         <v xml:space="preserve"> new Room('stairs', 1378, 491, 99, 21),</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>80</v>
       </c>
@@ -13239,7 +13242,7 @@
         <v xml:space="preserve"> new Room('305', 1380, 509, 98, 47),</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>81</v>
       </c>
@@ -13260,7 +13263,7 @@
         <v xml:space="preserve"> new Room('311', 1382, 554, 94, 36),</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>82</v>
       </c>
@@ -13281,7 +13284,7 @@
         <v xml:space="preserve"> new Room('313', 1381, 588, 95, 36),</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>83</v>
       </c>

--- a/school map app coordinates.xlsx
+++ b/school map app coordinates.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="435" windowWidth="25605" windowHeight="14505" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="435" windowWidth="25605" windowHeight="14505" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="908" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="917" uniqueCount="223">
   <si>
     <t>Name</t>
   </si>
@@ -574,9 +574,6 @@
     <t>2,6</t>
   </si>
   <si>
-    <t xml:space="preserve"> 4,1,2,1,4,8,4,10,4,18,2,18,2,8,2,10</t>
-  </si>
-  <si>
     <t>4,4</t>
   </si>
   <si>
@@ -674,6 +671,33 @@
   </si>
   <si>
     <t>Stair</t>
+  </si>
+  <si>
+    <t>outerRoom</t>
+  </si>
+  <si>
+    <t>Storage1</t>
+  </si>
+  <si>
+    <t>Stairs1</t>
+  </si>
+  <si>
+    <t>Stairs2</t>
+  </si>
+  <si>
+    <t>OuterRoom</t>
+  </si>
+  <si>
+    <t>309</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4,1,2,2,4,8,4,10,4,18,2,18,2,8,2,10,1,30,1,2</t>
+  </si>
+  <si>
+    <t>Nurse</t>
+  </si>
+  <si>
+    <t>Admin Office</t>
   </si>
 </sst>
 </file>
@@ -4169,22 +4193,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J147"/>
+  <dimension ref="A1:K149"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H1" sqref="H1:H1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H44" sqref="H44:H45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="57.875" customWidth="1"/>
-    <col min="9" max="9" width="18.875" customWidth="1"/>
-    <col min="10" max="10" width="15.875" customWidth="1"/>
+    <col min="6" max="6" width="42.5" customWidth="1"/>
+    <col min="9" max="9" width="57.875" customWidth="1"/>
+    <col min="10" max="10" width="18.875" customWidth="1"/>
+    <col min="11" max="11" width="15.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4206,14 +4231,17 @@
       <c r="G1" t="s">
         <v>165</v>
       </c>
-      <c r="I1" t="s">
+      <c r="H1" t="s">
+        <v>218</v>
+      </c>
+      <c r="J1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>164</v>
       </c>
@@ -4235,15 +4263,15 @@
       <c r="G2" t="s">
         <v>166</v>
       </c>
-      <c r="H2" t="str">
-        <f>CONCATENATE(" new Room('", A2,"', ", B2,", ", C2,", ",D2,", ",E2, ",[",F2,"],'",G2,"'),")</f>
-        <v xml:space="preserve"> new Room('mech3', 0, 4, 13, 9,[2,3],'Normal'),</v>
-      </c>
-      <c r="J2" t="s">
+      <c r="I2" t="str">
+        <f>CONCATENATE(" new Room('", A2,"', ", B2,", ", C2,", ",D2,", ",E2, ",[",F2,"],'",G2,"','",H2,"'),")</f>
+        <v xml:space="preserve"> new Room('mech3', 0, 4, 13, 9,[2,3],'Normal',''),</v>
+      </c>
+      <c r="K2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>26</v>
       </c>
@@ -4265,15 +4293,15 @@
       <c r="G3" t="s">
         <v>166</v>
       </c>
-      <c r="H3" t="str">
-        <f t="shared" ref="H3:H62" si="0">CONCATENATE(" new Room('", A3,"', ", B3,", ", C3,", ",D3,", ",E3, ",[",F3,"],'",G3,"'),")</f>
-        <v xml:space="preserve"> new Room('receiving', 5, 13, 8, 5,[2,4],'Normal'),</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="I3" t="str">
+        <f t="shared" ref="I3:I6" si="0">CONCATENATE(" new Room('", A3,"', ", B3,", ", C3,", ",D3,", ",E3, ",[",F3,"],'",G3,"','",H3,"'),")</f>
+        <v xml:space="preserve"> new Room('receiving', 5, 13, 8, 5,[2,4],'Normal',''),</v>
+      </c>
+      <c r="K3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -4295,15 +4323,15 @@
       <c r="G4" t="s">
         <v>166</v>
       </c>
-      <c r="H4" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> new Room('kitchen', 2, 18, 11, 10,[3,1],'Normal'),</v>
-      </c>
-      <c r="J4" t="s">
+      <c r="I4" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> new Room('kitchen', 2, 18, 11, 10,[3,1],'Normal',''),</v>
+      </c>
+      <c r="K4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
@@ -4325,15 +4353,15 @@
       <c r="G5" t="s">
         <v>166</v>
       </c>
-      <c r="H5" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> new Room('servery', 2, 28, 8, 9,[2,9],'Normal'),</v>
-      </c>
-      <c r="J5" t="s">
+      <c r="I5" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> new Room('servery', 2, 28, 8, 9,[2,9],'Normal',''),</v>
+      </c>
+      <c r="K5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
@@ -4355,15 +4383,15 @@
       <c r="G6" t="s">
         <v>166</v>
       </c>
-      <c r="H6" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> new Room('faculty lounge', 2, 37, 8, 6,[2,6],'Normal'),</v>
-      </c>
-      <c r="J6" t="s">
+      <c r="I6" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> new Room('faculty lounge', 2, 37, 8, 6,[2,6],'Normal',''),</v>
+      </c>
+      <c r="K6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
@@ -4380,20 +4408,20 @@
         <v>18</v>
       </c>
       <c r="F8" t="s">
-        <v>181</v>
+        <v>220</v>
       </c>
       <c r="G8" t="s">
         <v>166</v>
       </c>
-      <c r="H8" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> new Room('main gym', 16, 23, 32, 18,[ 4,1,2,1,4,8,4,10,4,18,2,18,2,8,2,10],'Normal'),</v>
-      </c>
-      <c r="J8" t="s">
+      <c r="I8" t="str">
+        <f t="shared" ref="I8:I10" si="1">CONCATENATE(" new Room('", A8,"', ", B8,", ", C8,", ",D8,", ",E8, ",[",F8,"],'",G8,"','",H8,"'),")</f>
+        <v xml:space="preserve"> new Room('main gym', 16, 23, 32, 18,[ 4,1,2,2,4,8,4,10,4,18,2,18,2,8,2,10,1,30,1,2],'Normal',''),</v>
+      </c>
+      <c r="K8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
@@ -4415,15 +4443,18 @@
       <c r="G9" t="s">
         <v>166</v>
       </c>
-      <c r="H9" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> new Room('boys locker', 16, 17, 16, 6,[3,2],'Normal'),</v>
-      </c>
-      <c r="J9" t="s">
+      <c r="H9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> new Room('boys locker', 16, 17, 16, 6,[3,2],'Normal','main gym'),</v>
+      </c>
+      <c r="K9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>18</v>
       </c>
@@ -4440,20 +4471,23 @@
         <v>6</v>
       </c>
       <c r="F10" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G10" t="s">
         <v>166</v>
       </c>
-      <c r="H10" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> new Room('girls locker', 32, 17, 16, 6,[3,14],'Normal'),</v>
-      </c>
-      <c r="J10" t="s">
+      <c r="H10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> new Room('girls locker', 32, 17, 16, 6,[3,14],'Normal','main gym'),</v>
+      </c>
+      <c r="K10" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>20</v>
       </c>
@@ -4470,20 +4504,20 @@
         <v>5</v>
       </c>
       <c r="F12" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G12" t="s">
         <v>166</v>
       </c>
-      <c r="H12" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> new Room('trainer\'s room', 16, 7, 5, 5,[4,4],'Normal'),</v>
-      </c>
-      <c r="J12" t="s">
+      <c r="I12" t="str">
+        <f t="shared" ref="I12:I16" si="2">CONCATENATE(" new Room('", A12,"', ", B12,", ", C12,", ",D12,", ",E12, ",[",F12,"],'",G12,"','",H12,"'),")</f>
+        <v xml:space="preserve"> new Room('trainer\'s room', 16, 7, 5, 5,[4,4],'Normal',''),</v>
+      </c>
+      <c r="K12" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>22</v>
       </c>
@@ -4502,15 +4536,15 @@
       <c r="G13" t="s">
         <v>166</v>
       </c>
-      <c r="H13" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> new Room('team room 1', 21, 7, 16, 8,[],'Normal'),</v>
-      </c>
-      <c r="J13" t="s">
+      <c r="I13" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> new Room('team room 1', 21, 7, 16, 8,[],'Normal',''),</v>
+      </c>
+      <c r="K13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>24</v>
       </c>
@@ -4529,15 +4563,15 @@
       <c r="G14" t="s">
         <v>166</v>
       </c>
-      <c r="H14" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> new Room('team room 2', 39, 7, 9, 8,[],'Normal'),</v>
-      </c>
-      <c r="J14" t="s">
+      <c r="I14" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> new Room('team room 2', 39, 7, 9, 8,[],'Normal',''),</v>
+      </c>
+      <c r="K14" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>35</v>
       </c>
@@ -4554,20 +4588,20 @@
         <v>9</v>
       </c>
       <c r="F15" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G15" t="s">
         <v>166</v>
       </c>
-      <c r="H15" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> new Room('606', 50, 7, 13, 9,[4,9,2,2],'Normal'),</v>
-      </c>
-      <c r="J15" t="s">
+      <c r="I15" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> new Room('606', 50, 7, 13, 9,[4,9,2,2],'Normal',''),</v>
+      </c>
+      <c r="K15" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>37</v>
       </c>
@@ -4584,20 +4618,20 @@
         <v>8</v>
       </c>
       <c r="F16" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G16" t="s">
         <v>166</v>
       </c>
-      <c r="H16" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> new Room('602', 63, 8, 10, 8,[3,1,2,1],'Normal'),</v>
-      </c>
-      <c r="J16" t="s">
+      <c r="I16" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> new Room('602', 63, 8, 10, 8,[3,1,2,1],'Normal',''),</v>
+      </c>
+      <c r="K16" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>151</v>
       </c>
@@ -4616,13 +4650,13 @@
       <c r="G18" t="s">
         <v>173</v>
       </c>
-      <c r="H18" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> new Room('cafeteria', 16, 43, 32, 11,[],'Walkable'),</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I18" t="str">
+        <f>CONCATENATE(" new Room('", A18,"', ", B18,", ", C18,", ",D18,", ",E18, ",[",F18,"],'",G18,"','",H18,"'),")</f>
+        <v xml:space="preserve"> new Room('cafeteria', 16, 43, 32, 11,[],'Walkable',''),</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>29</v>
       </c>
@@ -4641,18 +4675,18 @@
       <c r="G20" t="s">
         <v>166</v>
       </c>
-      <c r="H20" t="str">
-        <f t="shared" si="0"/>
+      <c r="I20" t="str">
+        <f t="shared" ref="I20:I22" si="3">CONCATENATE(" new Room('", A20,"', ", B20,", ", C20,", ",D20,", ",E20, ",[",F20,"],'",G20,"'),")</f>
         <v xml:space="preserve"> new Room('band room', 1, 57, 12, 9,[],'Normal'),</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>105</v>
       </c>
-      <c r="J20" t="s">
+      <c r="K20" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>30</v>
       </c>
@@ -4671,18 +4705,18 @@
       <c r="G21" t="s">
         <v>166</v>
       </c>
-      <c r="H21" t="str">
-        <f t="shared" si="0"/>
+      <c r="I21" t="str">
+        <f t="shared" si="3"/>
         <v xml:space="preserve"> new Room('orchestra', 0, 74, 13, 9,[],'Normal'),</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>106</v>
       </c>
-      <c r="J21" t="s">
+      <c r="K21" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>32</v>
       </c>
@@ -4701,18 +4735,18 @@
       <c r="G22" t="s">
         <v>166</v>
       </c>
-      <c r="H22" t="str">
-        <f t="shared" si="0"/>
+      <c r="I22" t="str">
+        <f t="shared" si="3"/>
         <v xml:space="preserve"> new Room('choir', 25, 77, 13, 9,[],'Normal'),</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>108</v>
       </c>
-      <c r="J22" t="s">
+      <c r="K22" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>34</v>
       </c>
@@ -4729,20 +4763,20 @@
         <v>5</v>
       </c>
       <c r="F23" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G23" t="s">
         <v>166</v>
       </c>
-      <c r="H23" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> new Room('school store', 55, 46, 5, 5,[4,2],'Normal'),</v>
-      </c>
-      <c r="J23" t="s">
+      <c r="I23" t="str">
+        <f>CONCATENATE(" new Room('", A23,"', ", B23,", ", C23,", ",D23,", ",E23, ",[",F23,"],'",G23,"','",H23,"'),")</f>
+        <v xml:space="preserve"> new Room('school store', 55, 46, 5, 5,[4,2],'Normal',''),</v>
+      </c>
+      <c r="K23" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>152</v>
       </c>
@@ -4759,20 +4793,20 @@
         <v>5</v>
       </c>
       <c r="F25" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G25" t="s">
         <v>166</v>
       </c>
-      <c r="H25" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> new Room('mech1', 63, 0, 6, 5,[4,3],'Normal'),</v>
-      </c>
-      <c r="J25" t="s">
+      <c r="I25" t="str">
+        <f t="shared" ref="I25:I33" si="4">CONCATENATE(" new Room('", A25,"', ", B25,", ", C25,", ",D25,", ",E25, ",[",F25,"],'",G25,"','",H25,"'),")</f>
+        <v xml:space="preserve"> new Room('mech1', 63, 0, 6, 5,[4,3],'Normal',''),</v>
+      </c>
+      <c r="K25" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>153</v>
       </c>
@@ -4794,15 +4828,15 @@
       <c r="G26" t="s">
         <v>166</v>
       </c>
-      <c r="H26" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> new Room('mech2', 69, 0, 6, 5,[3,2],'Normal'),</v>
-      </c>
-      <c r="J26" t="s">
+      <c r="I26" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> new Room('mech2', 69, 0, 6, 5,[3,2],'Normal',''),</v>
+      </c>
+      <c r="K26" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>40</v>
       </c>
@@ -4819,20 +4853,20 @@
         <v>5</v>
       </c>
       <c r="F27" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G27" t="s">
         <v>166</v>
       </c>
-      <c r="H27" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> new Room('210', 75, 0, 8, 5,[3,7],'Normal'),</v>
-      </c>
-      <c r="J27">
+      <c r="I27" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> new Room('210', 75, 0, 8, 5,[3,7],'Normal',''),</v>
+      </c>
+      <c r="K27">
         <v>150</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>41</v>
       </c>
@@ -4854,15 +4888,15 @@
       <c r="G28" t="s">
         <v>166</v>
       </c>
-      <c r="H28" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> new Room('211', 83, 0, 8, 5,[3,2],'Normal'),</v>
-      </c>
-      <c r="J28">
+      <c r="I28" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> new Room('211', 83, 0, 8, 5,[3,2],'Normal',''),</v>
+      </c>
+      <c r="K28">
         <v>148</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>42</v>
       </c>
@@ -4879,20 +4913,20 @@
         <v>5</v>
       </c>
       <c r="F29" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G29" t="s">
         <v>166</v>
       </c>
-      <c r="H29" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> new Room('212', 91, 0, 9, 5,[3,7],'Normal'),</v>
-      </c>
-      <c r="J29">
+      <c r="I29" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> new Room('212', 91, 0, 9, 5,[3,7],'Normal',''),</v>
+      </c>
+      <c r="K29">
         <v>146</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>43</v>
       </c>
@@ -4914,15 +4948,15 @@
       <c r="G30" t="s">
         <v>166</v>
       </c>
-      <c r="H30" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> new Room('213', 100, 0, 8, 5,[3,2],'Normal'),</v>
-      </c>
-      <c r="J30">
+      <c r="I30" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> new Room('213', 100, 0, 8, 5,[3,2],'Normal',''),</v>
+      </c>
+      <c r="K30">
         <v>144</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>44</v>
       </c>
@@ -4939,20 +4973,20 @@
         <v>5</v>
       </c>
       <c r="F31" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G31" t="s">
         <v>166</v>
       </c>
-      <c r="H31" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> new Room('214', 108, 0, 8, 5,[3,7],'Normal'),</v>
-      </c>
-      <c r="J31">
+      <c r="I31" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> new Room('214', 108, 0, 8, 5,[3,7],'Normal',''),</v>
+      </c>
+      <c r="K31">
         <v>142</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>45</v>
       </c>
@@ -4974,15 +5008,15 @@
       <c r="G32" t="s">
         <v>166</v>
       </c>
-      <c r="H32" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> new Room('215', 116, 0, 8, 5,[3,2],'Normal'),</v>
-      </c>
-      <c r="J32">
+      <c r="I32" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> new Room('215', 116, 0, 8, 5,[3,2],'Normal',''),</v>
+      </c>
+      <c r="K32">
         <v>140</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>56</v>
       </c>
@@ -5004,15 +5038,15 @@
       <c r="G33" t="s">
         <v>166</v>
       </c>
-      <c r="H33" t="str">
-        <f>CONCATENATE(" new Room('", A33,"', ", B33,", ", C33,", ",D33,", ",E33, ",[",F33,"],'",G33,"'),")</f>
-        <v xml:space="preserve"> new Room('218', 130, 0, 13, 5,[3,2],'Normal'),</v>
-      </c>
-      <c r="J33">
+      <c r="I33" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> new Room('218', 130, 0, 13, 5,[3,2],'Normal',''),</v>
+      </c>
+      <c r="K33">
         <v>138</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>131</v>
       </c>
@@ -5031,12 +5065,12 @@
       <c r="G35" t="s">
         <v>166</v>
       </c>
-      <c r="H35" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> new Room('131', 71, 58, 9, 6,[],'Normal'),</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I35" t="str">
+        <f t="shared" ref="I35:I42" si="5">CONCATENATE(" new Room('", A35,"', ", B35,", ", C35,", ",D35,", ",E35, ",[",F35,"],'",G35,"','",H35,"'),")</f>
+        <v xml:space="preserve"> new Room('131', 71, 58, 9, 6,[],'Normal',''),</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>133</v>
       </c>
@@ -5055,12 +5089,12 @@
       <c r="G36" t="s">
         <v>166</v>
       </c>
-      <c r="H36" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> new Room('133', 80, 58, 8, 6,[],'Normal'),</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I36" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> new Room('133', 80, 58, 8, 6,[],'Normal',''),</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>105</v>
       </c>
@@ -5079,12 +5113,12 @@
       <c r="G37" t="s">
         <v>166</v>
       </c>
-      <c r="H37" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> new Room('Media Center', 71, 64, 17, 15,[],'Normal'),</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I37" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> new Room('Media Center', 71, 64, 17, 15,[],'Normal',''),</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>104</v>
       </c>
@@ -5103,12 +5137,12 @@
       <c r="G38" t="s">
         <v>166</v>
       </c>
-      <c r="H38" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> new Room('Attendance', 84, 81, 7, 4,[],'Normal'),</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I38" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> new Room('Attendance', 84, 81, 7, 4,[],'Normal',''),</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>102</v>
       </c>
@@ -5127,12 +5161,12 @@
       <c r="G39" t="s">
         <v>166</v>
       </c>
-      <c r="H39" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> new Room('Main Office', 69, 80, 7, 6,[],'Normal'),</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I39" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> new Room('Main Office', 69, 80, 7, 6,[],'Normal',''),</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>106</v>
       </c>
@@ -5151,12 +5185,12 @@
       <c r="G40" t="s">
         <v>166</v>
       </c>
-      <c r="H40" t="str">
-        <f>CONCATENATE(" new Room('", A40,"', ", B40,", ", C40,", ",D40,", ",E40, ",[",F40,"],'",G40,"'),")</f>
-        <v xml:space="preserve"> new Room('Guidance', 90, 57, 12, 12,[],'Normal'),</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I40" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> new Room('Guidance', 90, 57, 12, 12,[],'Normal',''),</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>107</v>
       </c>
@@ -5176,40 +5210,40 @@
       <c r="G41" t="s">
         <v>166</v>
       </c>
-      <c r="H41" t="str">
-        <f>CONCATENATE(" new Room('", A41,"', ", B41,", ", C41,", ",D41,", ",E41, ",[",F41,"],'",G41,"'),")</f>
-        <v xml:space="preserve"> new Room('Special Services', 90, 69, 10, 10,[],'Normal'),</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I41" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> new Room('Special Services', 90, 69, 10, 10,[],'Normal',''),</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B42">
         <f>B40+D40</f>
         <v>102</v>
       </c>
       <c r="C42">
-        <f>C145</f>
+        <f>C147</f>
         <v>55</v>
       </c>
       <c r="D42">
-        <f>B145 - (B40+D40)</f>
+        <f>B147 - (B40+D40)</f>
         <v>11</v>
       </c>
       <c r="E42">
         <v>2</v>
       </c>
       <c r="G42" t="s">
-        <v>213</v>
-      </c>
-      <c r="H42" t="str">
-        <f>CONCATENATE(" new Room('", A42,"', ", B42,", ", C42,", ",D42,", ",E42, ",[",F42,"],'",G42,"'),")</f>
-        <v xml:space="preserve"> new Room('Outside', 102, 55, 11, 2,[],'Outside,HideWall-23'),</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>212</v>
+      </c>
+      <c r="I42" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> new Room('Outside', 102, 55, 11, 2,[],'Outside,HideWall-23',''),</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>110</v>
       </c>
@@ -5228,12 +5262,13 @@
       <c r="G44" t="s">
         <v>166</v>
       </c>
-      <c r="H44" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> new Room('Lecture Hall 501', 33, 54, 11, 4,[],'Normal'),</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H44" s="2"/>
+      <c r="I44" t="str">
+        <f t="shared" ref="I44:I46" si="6">CONCATENATE(" new Room('", A44,"', ", B44,", ", C44,", ",D44,", ",E44, ",[",F44,"],'",G44,"','",H44,"'),")</f>
+        <v xml:space="preserve"> new Room('Lecture Hall 501', 33, 54, 11, 4,[],'Normal',''),</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>109</v>
       </c>
@@ -5252,12 +5287,13 @@
       <c r="G45" t="s">
         <v>166</v>
       </c>
-      <c r="H45" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> new Room('Lecture Hall 502', 16, 54, 11, 4,[],'Normal'),</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H45" s="2"/>
+      <c r="I45" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> new Room('Lecture Hall 502', 16, 54, 11, 4,[],'Normal',''),</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>111</v>
       </c>
@@ -5276,12 +5312,12 @@
       <c r="G46" t="s">
         <v>166</v>
       </c>
-      <c r="H46" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> new Room('Auditorium', 16, 58, 28, 13,[],'Normal'),</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I46" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> new Room('Auditorium', 16, 58, 28, 13,[],'Normal',''),</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47">
         <v>-13</v>
       </c>
@@ -5289,7 +5325,7 @@
         <v>-18</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>108</v>
       </c>
@@ -5306,18 +5342,18 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G48" t="s">
         <v>166</v>
       </c>
-      <c r="H48" t="str">
-        <f>CONCATENATE(" new Room('", A48,"', ", B48,", ", C48,", ",D48,", ",E48, ",[",F48,"],'",G48,"'),")</f>
-        <v xml:space="preserve"> new Room('Auxillary Gym', 66, 43, 26, 10,[1,1,1,26,3,1,3,26],'Normal'),</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="50" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I48" t="str">
+        <f>CONCATENATE(" new Room('", A48,"', ", B48,", ", C48,", ",D48,", ",E48, ",[",F48,"],'",G48,"','",H48,"'),")</f>
+        <v xml:space="preserve"> new Room('Auxillary Gym', 66, 43, 26, 10,[1,1,1,26,3,1,3,26],'Normal',''),</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="50" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>157</v>
       </c>
@@ -5336,12 +5372,12 @@
       <c r="G50" t="s">
         <v>166</v>
       </c>
-      <c r="H50" t="str">
-        <f>CONCATENATE(" new Room('", A50,"', ", B50,", ", C50,", ",D50,", ",E50, ",[",F50,"],'",G50,"'),")</f>
-        <v xml:space="preserve"> new Room('Courtyard3', 47, 55, 10, 12,[],'Normal'),</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I50" t="str">
+        <f t="shared" ref="I50:I53" si="7">CONCATENATE(" new Room('", A50,"', ", B50,", ", C50,", ",D50,", ",E50, ",[",F50,"],'",G50,"','",H50,"'),")</f>
+        <v xml:space="preserve"> new Room('Courtyard3', 47, 55, 10, 12,[],'Normal',''),</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>87</v>
       </c>
@@ -5363,12 +5399,12 @@
       <c r="G51" t="s">
         <v>166</v>
       </c>
-      <c r="H51" t="str">
-        <f>CONCATENATE(" new Room('", A51,"', ", B51,", ", C51,", ",D51,", ",E51, ",[",F51,"],'",G51,"'),")</f>
-        <v xml:space="preserve"> new Room('126', 57, 55, 12, 4,[2,4],'Normal'),</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I51" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> new Room('126', 57, 55, 12, 4,[2,4],'Normal',''),</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>88</v>
       </c>
@@ -5390,12 +5426,12 @@
       <c r="G52" t="s">
         <v>166</v>
       </c>
-      <c r="H52" t="str">
-        <f>CONCATENATE(" new Room('", A52,"', ", B52,", ", C52,", ",D52,", ",E52, ",[",F52,"],'",G52,"'),")</f>
-        <v xml:space="preserve"> new Room('124', 57, 59, 12, 4,[2,3],'Normal'),</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I52" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> new Room('124', 57, 59, 12, 4,[2,3],'Normal',''),</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>89</v>
       </c>
@@ -5417,13 +5453,13 @@
       <c r="G53" t="s">
         <v>166</v>
       </c>
-      <c r="H53" t="str">
-        <f>CONCATENATE(" new Room('", A53,"', ", B53,", ", C53,", ",D53,", ",E53, ",[",F53,"],'",G53,"'),")</f>
-        <v xml:space="preserve"> new Room('122', 57, 63, 12, 4,[2,4],'Normal'),</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="55" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I53" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> new Room('122', 57, 63, 12, 4,[2,4],'Normal',''),</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>97</v>
       </c>
@@ -5440,17 +5476,17 @@
         <v>4</v>
       </c>
       <c r="F55" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G55" t="s">
         <v>166</v>
       </c>
-      <c r="H55" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> new Room('Band Lockers', 1, 67, 6, 4,[1,4],'Normal'),</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I55" t="str">
+        <f t="shared" ref="I55:I63" si="8">CONCATENATE(" new Room('", A55,"', ", B55,", ", C55,", ",D55,", ",E55, ",[",F55,"],'",G55,"','",H55,"'),")</f>
+        <v xml:space="preserve"> new Room('Band Lockers', 1, 67, 6, 4,[1,4],'Normal',''),</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>98</v>
       </c>
@@ -5467,17 +5503,17 @@
         <v>3</v>
       </c>
       <c r="F56" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G56" t="s">
         <v>166</v>
       </c>
-      <c r="H56" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> new Room('Band Office', 9, 67, 5, 3,[4,3],'Normal'),</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I56" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve"> new Room('Band Office', 9, 67, 5, 3,[4,3],'Normal',''),</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>96</v>
       </c>
@@ -5494,17 +5530,17 @@
         <v>9</v>
       </c>
       <c r="F57" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G57" t="s">
         <v>166</v>
       </c>
-      <c r="H57" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> new Room('Band Room', 1, 58, 12, 9,[1,1,1,9],'Normal'),</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I57" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve"> new Room('Band Room', 1, 58, 12, 9,[1,1,1,9],'Normal',''),</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>100</v>
       </c>
@@ -5521,41 +5557,17 @@
         <v>6</v>
       </c>
       <c r="F58" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G58" t="s">
         <v>166</v>
       </c>
-      <c r="H58" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> new Room('Choral Room', 25, 77, 15, 6,[1,1,1,14],'Normal'),</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="B59">
-        <v>47</v>
-      </c>
-      <c r="C59">
-        <v>68</v>
-      </c>
-      <c r="D59">
-        <v>10</v>
-      </c>
-      <c r="E59">
-        <v>10</v>
-      </c>
-      <c r="G59" t="s">
-        <v>166</v>
-      </c>
-      <c r="H59" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> new Room('Courtyard2', 47, 68, 10, 10,[],'Normal'),</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I58" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve"> new Room('Choral Room', 25, 77, 15, 6,[1,1,1,14],'Normal',''),</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>99</v>
       </c>
@@ -5572,17 +5584,17 @@
         <v>9</v>
       </c>
       <c r="F60" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G60" t="s">
         <v>166</v>
       </c>
-      <c r="H60" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> new Room('Orchestra', 0, 74, 12, 9,[4,6,2,2],'Normal'),</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I60" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve"> new Room('Orchestra', 0, 74, 12, 9,[4,6,2,2],'Normal',''),</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>95</v>
       </c>
@@ -5599,17 +5611,17 @@
         <v>5</v>
       </c>
       <c r="F61" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G61" t="s">
         <v>166</v>
       </c>
-      <c r="H61" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> new Room('Piano Room', 1, 53, 10, 5,[2,1,3,8],'Normal'),</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I61" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve"> new Room('Piano Room', 1, 53, 10, 5,[2,1,3,8],'Normal',''),</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>101</v>
       </c>
@@ -5626,17 +5638,17 @@
         <v>3</v>
       </c>
       <c r="F62" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G62" t="s">
         <v>166</v>
       </c>
-      <c r="H62" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> new Room('Sm. Ensemble Room', 16, 80, 6, 3,[1,1],'Normal'),</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I62" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve"> new Room('Sm. Ensemble Room', 16, 80, 6, 3,[1,1],'Normal',''),</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>112</v>
       </c>
@@ -5653,18 +5665,18 @@
         <v>5</v>
       </c>
       <c r="F63" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G63" t="s">
         <v>166</v>
       </c>
-      <c r="H63" t="str">
-        <f t="shared" ref="H63:H132" si="1">CONCATENATE(" new Room('", A63,"', ", B63,", ", C63,", ",D63,", ",E63, ",[",F63,"],'",G63,"'),")</f>
-        <v xml:space="preserve"> new Room('Stage', 16, 71, 28, 5,[4,5,3,2,2,1],'Normal'),</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="65" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I63" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve"> new Room('Stage', 16, 71, 28, 5,[4,5,3,2,2,1],'Normal',''),</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="65" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>155</v>
       </c>
@@ -5684,12 +5696,12 @@
       <c r="G65" t="s">
         <v>166</v>
       </c>
-      <c r="H65" t="str">
-        <f t="shared" ref="H65:H71" si="2">CONCATENATE(" new Room('", A65,"', ", B65,", ", C65,", ",D65,", ",E65, ",[",F65,"],'",G65,"'),")</f>
-        <v xml:space="preserve"> new Room('Courtyard1', 51, 18, 7, 23,[],'Normal'),</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I65" t="str">
+        <f t="shared" ref="I65:I71" si="9">CONCATENATE(" new Room('", A65,"', ", B65,", ", C65,", ",D65,", ",E65, ",[",F65,"],'",G65,"','",H65,"'),")</f>
+        <v xml:space="preserve"> new Room('Courtyard1', 51, 18, 7, 23,[],'Normal',''),</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>92</v>
       </c>
@@ -5706,17 +5718,17 @@
         <v>3</v>
       </c>
       <c r="F66" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G66" t="s">
         <v>166</v>
       </c>
-      <c r="H66" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> new Room('District MDF', 58, 18, 8, 3,[1,2],'Normal'),</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I66" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve"> new Room('District MDF', 58, 18, 8, 3,[1,2],'Normal',''),</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>162</v>
       </c>
@@ -5733,17 +5745,17 @@
         <v>3</v>
       </c>
       <c r="F67" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G67" t="s">
         <v>166</v>
       </c>
-      <c r="H67" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> new Room('MDF1', 66, 18, 7, 3,[1,2],'Normal'),</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I67" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve"> new Room('MDF1', 66, 18, 7, 3,[1,2],'Normal',''),</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>272</v>
       </c>
@@ -5765,12 +5777,12 @@
       <c r="G68" t="s">
         <v>166</v>
       </c>
-      <c r="H68" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> new Room('272', 58, 21, 15, 5,[2,4],'Normal'),</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I68" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve"> new Room('272', 58, 21, 15, 5,[2,4],'Normal',''),</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>276</v>
       </c>
@@ -5792,12 +5804,12 @@
       <c r="G69" t="s">
         <v>166</v>
       </c>
-      <c r="H69" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> new Room('276', 58, 26, 15, 5,[2,3],'Normal'),</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I69" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve"> new Room('276', 58, 26, 15, 5,[2,3],'Normal',''),</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>278</v>
       </c>
@@ -5819,12 +5831,12 @@
       <c r="G70" t="s">
         <v>166</v>
       </c>
-      <c r="H70" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> new Room('278', 58, 31, 15, 5,[2,2],'Normal'),</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I70" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve"> new Room('278', 58, 31, 15, 5,[2,2],'Normal',''),</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>282</v>
       </c>
@@ -5846,213 +5858,261 @@
       <c r="G71" t="s">
         <v>166</v>
       </c>
-      <c r="H71" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> new Room('282', 58, 36, 15, 5,[2,2],'Normal'),</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="73" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="74" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="76" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="2">
+      <c r="I71" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve"> new Room('282', 58, 36, 15, 5,[2,2],'Normal',''),</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="73" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B73">
+        <v>47</v>
+      </c>
+      <c r="C73">
+        <v>68</v>
+      </c>
+      <c r="D73">
+        <v>10</v>
+      </c>
+      <c r="E73">
+        <v>10</v>
+      </c>
+      <c r="G73" t="s">
+        <v>166</v>
+      </c>
+      <c r="I73" t="str">
+        <f>CONCATENATE(" new Room('", A73,"', ", B73,", ", C73,", ",D73,", ",E73, ",[",F73,"],'",G73,"','",H73,"'),")</f>
+        <v xml:space="preserve"> new Room('Courtyard2', 47, 68, 10, 10,[],'Normal',''),</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B74">
+        <f>B73+D73</f>
+        <v>57</v>
+      </c>
+      <c r="C74">
+        <v>68</v>
+      </c>
+      <c r="D74">
+        <v>12</v>
+      </c>
+      <c r="E74">
+        <v>5</v>
+      </c>
+      <c r="G74" t="s">
+        <v>166</v>
+      </c>
+      <c r="I74" t="str">
+        <f>CONCATENATE(" new Room('", A74,"', ", B74,", ", C74,", ",D74,", ",E74, ",[",F74,"],'",G74,"','",H74,"'),")</f>
+        <v xml:space="preserve"> new Room('120', 57, 68, 12, 5,[],'Normal',''),</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B75">
+        <f>B73+D73</f>
+        <v>57</v>
+      </c>
+      <c r="C75">
+        <f>C74+E74</f>
+        <v>73</v>
+      </c>
+      <c r="D75">
+        <v>12</v>
+      </c>
+      <c r="E75">
+        <v>5</v>
+      </c>
+      <c r="G75" t="s">
+        <v>166</v>
+      </c>
+      <c r="I75" t="str">
+        <f>CONCATENATE(" new Room('", A75,"', ", B75,", ", C75,", ",D75,", ",E75, ",[",F75,"],'",G75,"','",H75,"'),")</f>
+        <v xml:space="preserve"> new Room('Nurse', 57, 73, 12, 5,[],'Normal',''),</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B76">
+        <v>49</v>
+      </c>
+      <c r="C76">
+        <f>C75+E75</f>
+        <v>78</v>
+      </c>
+      <c r="D76">
+        <f>C75+E75-B76</f>
+        <v>29</v>
+      </c>
+      <c r="E76">
+        <v>4</v>
+      </c>
+      <c r="G76" t="s">
+        <v>166</v>
+      </c>
+      <c r="H76" t="s">
+        <v>102</v>
+      </c>
+      <c r="I76" t="str">
+        <f>CONCATENATE(" new Room('", A76,"', ", B76,", ", C76,", ",D76,", ",E76, ",[",F76,"],'",G76,"','",H76,"'),")</f>
+        <v xml:space="preserve"> new Room('Admin Office', 49, 78, 29, 4,[],'Normal','Main Office'),</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="2">
         <v>242</v>
       </c>
-      <c r="B76">
+      <c r="B78">
         <v>84</v>
       </c>
-      <c r="C76">
+      <c r="C78">
         <v>19</v>
       </c>
-      <c r="D76">
+      <c r="D78">
         <v>17</v>
       </c>
-      <c r="E76">
+      <c r="E78">
         <v>9</v>
       </c>
-      <c r="F76" t="s">
-        <v>197</v>
-      </c>
-      <c r="G76" t="s">
-        <v>166</v>
-      </c>
-      <c r="H76" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> new Room('242', 84, 19, 17, 9,[1,14,2,8],'Normal'),</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="79" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="2">
+      <c r="F78" t="s">
+        <v>196</v>
+      </c>
+      <c r="G78" t="s">
+        <v>166</v>
+      </c>
+      <c r="I78" t="str">
+        <f>CONCATENATE(" new Room('", A78,"', ", B78,", ", C78,", ",D78,", ",E78, ",[",F78,"],'",G78,"','",H78,"'),")</f>
+        <v xml:space="preserve"> new Room('242', 84, 19, 17, 9,[1,14,2,8],'Normal',''),</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="81" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="2">
         <v>263</v>
       </c>
-      <c r="B79">
+      <c r="B81">
         <v>84</v>
       </c>
-      <c r="C79">
+      <c r="C81">
         <v>19</v>
       </c>
-      <c r="D79">
+      <c r="D81">
         <v>8</v>
       </c>
-      <c r="E79">
+      <c r="E81">
         <v>5</v>
       </c>
-      <c r="F79" t="s">
-        <v>194</v>
-      </c>
-      <c r="G79" t="s">
-        <v>166</v>
-      </c>
-      <c r="H79" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> new Room('263', 84, 19, 8, 5,[1,1],'Normal'),</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="2">
+      <c r="F81" t="s">
+        <v>193</v>
+      </c>
+      <c r="G81" t="s">
+        <v>166</v>
+      </c>
+      <c r="I81" t="str">
+        <f t="shared" ref="I81:I89" si="10">CONCATENATE(" new Room('", A81,"', ", B81,", ", C81,", ",D81,", ",E81, ",[",F81,"],'",G81,"','",H81,"'),")</f>
+        <v xml:space="preserve"> new Room('263', 84, 19, 8, 5,[1,1],'Normal',''),</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="2">
         <v>265</v>
-      </c>
-      <c r="B80">
-        <v>75</v>
-      </c>
-      <c r="C80">
-        <v>19</v>
-      </c>
-      <c r="D80">
-        <v>9</v>
-      </c>
-      <c r="E80">
-        <v>3</v>
-      </c>
-      <c r="F80" t="s">
-        <v>198</v>
-      </c>
-      <c r="G80" t="s">
-        <v>166</v>
-      </c>
-      <c r="H80" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> new Room('265', 75, 19, 9, 3,[1,9],'Normal'),</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="2">
-        <v>266</v>
-      </c>
-      <c r="B81">
-        <v>75</v>
-      </c>
-      <c r="C81">
-        <v>22</v>
-      </c>
-      <c r="D81">
-        <v>9</v>
-      </c>
-      <c r="E81">
-        <v>4</v>
-      </c>
-      <c r="F81" t="s">
-        <v>199</v>
-      </c>
-      <c r="G81" t="s">
-        <v>166</v>
-      </c>
-      <c r="H81" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> new Room('266', 75, 22, 9, 4,[4,1],'Normal'),</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="2">
-        <v>267</v>
       </c>
       <c r="B82">
         <v>75</v>
       </c>
       <c r="C82">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D82">
         <v>9</v>
       </c>
       <c r="E82">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F82" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G82" t="s">
         <v>166</v>
       </c>
-      <c r="H82" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> new Room('267', 75, 26, 9, 5,[4,1],'Normal'),</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I82" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve"> new Room('265', 75, 19, 9, 3,[1,9],'Normal',''),</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="B83">
         <v>75</v>
       </c>
       <c r="C83">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D83">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E83">
         <v>4</v>
       </c>
       <c r="F83" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G83" t="s">
         <v>166</v>
       </c>
-      <c r="H83" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> new Room('275', 75, 31, 12, 4,[4,1],'Normal'),</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I83" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve"> new Room('266', 75, 22, 9, 4,[4,1],'Normal',''),</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
-        <v>281</v>
+        <v>267</v>
       </c>
       <c r="B84">
         <v>75</v>
       </c>
       <c r="C84">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="D84">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E84">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F84" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
       <c r="G84" t="s">
         <v>166</v>
       </c>
-      <c r="H84" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> new Room('281', 75, 37, 12, 4,[4,4],'Normal'),</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I84" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve"> new Room('267', 75, 26, 9, 5,[4,1],'Normal',''),</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="B85">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="C85">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D85">
         <v>12</v>
@@ -6061,25 +6121,25 @@
         <v>4</v>
       </c>
       <c r="F85" t="s">
-        <v>178</v>
+        <v>198</v>
       </c>
       <c r="G85" t="s">
         <v>166</v>
       </c>
-      <c r="H85" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> new Room('283', 87, 37, 12, 4,[3,1],'Normal'),</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I85" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve"> new Room('275', 75, 31, 12, 4,[4,1],'Normal',''),</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
-        <v>248</v>
+        <v>281</v>
       </c>
       <c r="B86">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="C86">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D86">
         <v>12</v>
@@ -6088,132 +6148,102 @@
         <v>4</v>
       </c>
       <c r="F86" t="s">
-        <v>200</v>
+        <v>181</v>
       </c>
       <c r="G86" t="s">
         <v>166</v>
       </c>
-      <c r="H86" t="str">
-        <f>CONCATENATE(" new Room('", A86,"', ", B86,", ", C86,", ",D86,", ",E86, ",[",F86,"],'",G86,"'),")</f>
-        <v xml:space="preserve"> new Room('248', 87, 33, 12, 4,[2,1],'Normal'),</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="2" t="s">
+      <c r="I86" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve"> new Room('281', 75, 37, 12, 4,[4,4],'Normal',''),</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="2">
+        <v>283</v>
+      </c>
+      <c r="B87">
+        <v>87</v>
+      </c>
+      <c r="C87">
+        <v>37</v>
+      </c>
+      <c r="D87">
+        <v>12</v>
+      </c>
+      <c r="E87">
+        <v>4</v>
+      </c>
+      <c r="F87" t="s">
+        <v>178</v>
+      </c>
+      <c r="G87" t="s">
+        <v>166</v>
+      </c>
+      <c r="I87" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve"> new Room('283', 87, 37, 12, 4,[3,1],'Normal',''),</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="2">
+        <v>248</v>
+      </c>
+      <c r="B88">
+        <v>87</v>
+      </c>
+      <c r="C88">
+        <v>33</v>
+      </c>
+      <c r="D88">
+        <v>12</v>
+      </c>
+      <c r="E88">
+        <v>4</v>
+      </c>
+      <c r="F88" t="s">
+        <v>199</v>
+      </c>
+      <c r="G88" t="s">
+        <v>166</v>
+      </c>
+      <c r="I88" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve"> new Room('248', 87, 33, 12, 4,[2,1],'Normal',''),</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="B87">
+      <c r="B89">
         <v>84</v>
       </c>
-      <c r="C87">
+      <c r="C89">
         <v>28</v>
       </c>
-      <c r="D87">
+      <c r="D89">
         <v>9</v>
       </c>
-      <c r="E87">
+      <c r="E89">
         <v>3</v>
       </c>
-      <c r="G87" t="s">
-        <v>166</v>
-      </c>
-      <c r="H87" t="str">
-        <f>CONCATENATE(" new Room('", A87,"', ", B87,", ", C87,", ",D87,", ",E87, ",[",F87,"],'",G87,"'),")</f>
-        <v xml:space="preserve"> new Room('mech4', 84, 28, 9, 3,[],'Normal'),</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="89" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B89">
-        <v>58</v>
-      </c>
-      <c r="C89">
-        <v>69</v>
-      </c>
-      <c r="D89">
-        <v>11</v>
-      </c>
-      <c r="E89">
-        <v>6</v>
-      </c>
       <c r="G89" t="s">
         <v>166</v>
       </c>
-      <c r="H89" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> new Room('120', 58, 69, 11, 6,[],'Normal'),</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="91" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="2" t="s">
+      <c r="I89" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve"> new Room('mech4', 84, 28, 9, 3,[],'Normal',''),</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="92" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="93" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B91">
+      <c r="B93">
         <v>75</v>
-      </c>
-      <c r="C91">
-        <v>6</v>
-      </c>
-      <c r="D91">
-        <v>7</v>
-      </c>
-      <c r="E91">
-        <v>5</v>
-      </c>
-      <c r="F91" t="s">
-        <v>201</v>
-      </c>
-      <c r="G91" t="s">
-        <v>166</v>
-      </c>
-      <c r="H91" t="str">
-        <f t="shared" ref="H91:H99" si="3">CONCATENATE(" new Room('", A91,"', ", B91,", ", C91,", ",D91,", ",E91, ",[",F91,"],'",G91,"'),")</f>
-        <v xml:space="preserve"> new Room('251', 75, 6, 7, 5,[1,7],'Normal'),</v>
-      </c>
-      <c r="J91">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="92" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B92">
-        <v>82</v>
-      </c>
-      <c r="C92">
-        <v>6</v>
-      </c>
-      <c r="D92">
-        <v>8</v>
-      </c>
-      <c r="E92">
-        <v>5</v>
-      </c>
-      <c r="F92" t="s">
-        <v>202</v>
-      </c>
-      <c r="G92" t="s">
-        <v>166</v>
-      </c>
-      <c r="H92" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> new Room('252', 82, 6, 8, 5,[1,8],'Normal'),</v>
-      </c>
-      <c r="J92">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="93" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B93">
-        <v>90</v>
       </c>
       <c r="C93">
         <v>6</v>
@@ -6222,58 +6252,61 @@
         <v>7</v>
       </c>
       <c r="E93">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F93" t="s">
+        <v>200</v>
+      </c>
+      <c r="G93" t="s">
+        <v>166</v>
+      </c>
+      <c r="I93" t="str">
+        <f t="shared" ref="I93:I101" si="11">CONCATENATE(" new Room('", A93,"', ", B93,", ", C93,", ",D93,", ",E93, ",[",F93,"],'",G93,"','",H93,"'),")</f>
+        <v xml:space="preserve"> new Room('251', 75, 6, 7, 5,[1,7],'Normal',''),</v>
+      </c>
+      <c r="K93">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B94">
+        <v>82</v>
+      </c>
+      <c r="C94">
+        <v>6</v>
+      </c>
+      <c r="D94">
+        <v>8</v>
+      </c>
+      <c r="E94">
+        <v>5</v>
+      </c>
+      <c r="F94" t="s">
         <v>201</v>
       </c>
-      <c r="G93" t="s">
-        <v>166</v>
-      </c>
-      <c r="H93" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> new Room('255', 90, 6, 7, 4,[1,7],'Normal'),</v>
-      </c>
-      <c r="J93" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="94" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="2">
-        <v>253</v>
-      </c>
-      <c r="B94">
-        <v>90</v>
-      </c>
-      <c r="C94">
-        <v>10</v>
-      </c>
-      <c r="D94">
-        <v>7</v>
-      </c>
-      <c r="E94">
-        <v>4</v>
-      </c>
-      <c r="F94" t="s">
-        <v>177</v>
-      </c>
       <c r="G94" t="s">
         <v>166</v>
       </c>
-      <c r="H94" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> new Room('253', 90, 10, 7, 4,[2,4],'Normal'),</v>
-      </c>
-    </row>
-    <row r="95" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="2">
-        <v>260</v>
+      <c r="I94" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve"> new Room('252', 82, 6, 8, 5,[1,8],'Normal',''),</v>
+      </c>
+      <c r="K94">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="B95">
         <v>90</v>
       </c>
       <c r="C95">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D95">
         <v>7</v>
@@ -6282,25 +6315,28 @@
         <v>4</v>
       </c>
       <c r="F95" t="s">
-        <v>178</v>
+        <v>200</v>
       </c>
       <c r="G95" t="s">
         <v>166</v>
       </c>
-      <c r="H95" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> new Room('260', 90, 14, 7, 4,[3,1],'Normal'),</v>
-      </c>
-    </row>
-    <row r="96" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I95" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve"> new Room('255', 90, 6, 7, 4,[1,7],'Normal',''),</v>
+      </c>
+      <c r="K95" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="B96">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="C96">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D96">
         <v>7</v>
@@ -6309,370 +6345,370 @@
         <v>4</v>
       </c>
       <c r="F96" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="G96" t="s">
         <v>166</v>
       </c>
-      <c r="H96" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> new Room('262', 83, 14, 7, 4,[3,7],'Normal'),</v>
-      </c>
-    </row>
-    <row r="97" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I96" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve"> new Room('253', 90, 10, 7, 4,[2,4],'Normal',''),</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="B97">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="C97">
         <v>14</v>
       </c>
       <c r="D97">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E97">
         <v>4</v>
       </c>
       <c r="F97" t="s">
-        <v>203</v>
+        <v>178</v>
       </c>
       <c r="G97" t="s">
         <v>166</v>
       </c>
-      <c r="H97" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> new Room('264', 75, 14, 8, 4,[3,8],'Normal'),</v>
-      </c>
-    </row>
-    <row r="98" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I97" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve"> new Room('260', 90, 14, 7, 4,[3,1],'Normal',''),</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
+        <v>262</v>
+      </c>
+      <c r="B98">
+        <v>83</v>
+      </c>
+      <c r="C98">
+        <v>14</v>
+      </c>
+      <c r="D98">
+        <v>7</v>
+      </c>
+      <c r="E98">
+        <v>4</v>
+      </c>
+      <c r="F98" t="s">
+        <v>187</v>
+      </c>
+      <c r="G98" t="s">
+        <v>166</v>
+      </c>
+      <c r="I98" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve"> new Room('262', 83, 14, 7, 4,[3,7],'Normal',''),</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="2">
+        <v>264</v>
+      </c>
+      <c r="B99">
+        <v>75</v>
+      </c>
+      <c r="C99">
+        <v>14</v>
+      </c>
+      <c r="D99">
+        <v>8</v>
+      </c>
+      <c r="E99">
+        <v>4</v>
+      </c>
+      <c r="F99" t="s">
+        <v>202</v>
+      </c>
+      <c r="G99" t="s">
+        <v>166</v>
+      </c>
+      <c r="I99" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve"> new Room('264', 75, 14, 8, 4,[3,8],'Normal',''),</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="2">
         <v>288</v>
       </c>
-      <c r="B98">
+      <c r="B100">
         <v>75</v>
       </c>
-      <c r="C98">
+      <c r="C100">
         <v>11</v>
       </c>
-      <c r="D98">
+      <c r="D100">
         <v>15</v>
       </c>
-      <c r="E98">
+      <c r="E100">
         <v>3</v>
       </c>
-      <c r="F98" t="s">
-        <v>186</v>
-      </c>
-      <c r="G98" t="s">
-        <v>166</v>
-      </c>
-      <c r="H98" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> new Room('288', 75, 11, 15, 3,[4,2],'Normal'),</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="2" t="s">
+      <c r="F100" t="s">
+        <v>185</v>
+      </c>
+      <c r="G100" t="s">
+        <v>166</v>
+      </c>
+      <c r="I100" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve"> new Room('288', 75, 11, 15, 3,[4,2],'Normal',''),</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="B99">
+      <c r="B101">
         <v>97</v>
       </c>
-      <c r="C99">
+      <c r="C101">
         <v>15</v>
       </c>
-      <c r="D99">
+      <c r="D101">
         <v>3</v>
-      </c>
-      <c r="E99">
-        <v>3</v>
-      </c>
-      <c r="F99" t="s">
-        <v>194</v>
-      </c>
-      <c r="G99" t="s">
-        <v>166</v>
-      </c>
-      <c r="H99" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> new Room('MDF2', 97, 15, 3, 3,[1,1],'Normal'),</v>
-      </c>
-    </row>
-    <row r="100" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="101" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B101">
-        <v>121</v>
-      </c>
-      <c r="C101">
-        <v>14</v>
-      </c>
-      <c r="D101">
-        <f>D102</f>
-        <v>8</v>
       </c>
       <c r="E101">
         <v>3</v>
       </c>
       <c r="F101" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="G101" t="s">
         <v>166</v>
       </c>
-      <c r="H101" t="str">
-        <f t="shared" ref="H101:H111" si="4">CONCATENATE(" new Room('", A101,"', ", B101,", ", C101,", ",D101,", ",E101, ",[",F101,"],'",G101,"'),")</f>
-        <v xml:space="preserve"> new Room('204', 121, 14, 8, 3,[2,1,2,2],'Normal'),</v>
-      </c>
-      <c r="J101">
+      <c r="I101" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve"> new Room('MDF2', 97, 15, 3, 3,[1,1],'Normal',''),</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="103" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B103">
+        <v>121</v>
+      </c>
+      <c r="C103">
+        <v>14</v>
+      </c>
+      <c r="D103">
+        <f>D104</f>
+        <v>8</v>
+      </c>
+      <c r="E103">
+        <v>3</v>
+      </c>
+      <c r="F103" t="s">
+        <v>203</v>
+      </c>
+      <c r="G103" t="s">
+        <v>166</v>
+      </c>
+      <c r="I103" t="str">
+        <f t="shared" ref="I103:I113" si="12">CONCATENATE(" new Room('", A103,"', ", B103,", ", C103,", ",D103,", ",E103, ",[",F103,"],'",G103,"','",H103,"'),")</f>
+        <v xml:space="preserve"> new Room('204', 121, 14, 8, 3,[2,1,2,2],'Normal',''),</v>
+      </c>
+      <c r="K103">
         <v>135</v>
       </c>
     </row>
-    <row r="102" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="2" t="s">
+    <row r="104" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="B102">
-        <v>121</v>
-      </c>
-      <c r="C102">
-        <v>11</v>
-      </c>
-      <c r="D102">
-        <v>8</v>
-      </c>
-      <c r="E102">
-        <v>3</v>
-      </c>
-      <c r="F102" t="s">
-        <v>200</v>
-      </c>
-      <c r="G102" t="s">
-        <v>166</v>
-      </c>
-      <c r="H102" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> new Room('205', 121, 11, 8, 3,[2,1],'Normal'),</v>
-      </c>
-      <c r="J102">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="103" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="B103">
-        <v>101</v>
-      </c>
-      <c r="C103">
-        <v>10</v>
-      </c>
-      <c r="D103">
-        <f>D108+D109+D110+D111</f>
-        <v>20</v>
-      </c>
-      <c r="E103">
-        <f>E102</f>
-        <v>3</v>
-      </c>
-      <c r="G103" t="s">
-        <v>166</v>
-      </c>
-      <c r="H103" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> new Room('Courtyard6', 101, 10, 20, 3,[],'Normal'),</v>
-      </c>
-    </row>
-    <row r="104" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="2" t="s">
-        <v>53</v>
       </c>
       <c r="B104">
         <v>121</v>
       </c>
       <c r="C104">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D104">
-        <f>D102</f>
         <v>8</v>
       </c>
       <c r="E104">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F104" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="G104" t="s">
         <v>166</v>
       </c>
-      <c r="H104" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> new Room('206', 121, 6, 8, 5,[2,1,1,3],'Normal'),</v>
-      </c>
-      <c r="J104">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="105" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I104" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> new Room('205', 121, 11, 8, 3,[2,1],'Normal',''),</v>
+      </c>
+      <c r="K104">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>52</v>
+        <v>160</v>
       </c>
       <c r="B105">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="C105">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D105">
-        <v>5</v>
+        <f>D110+D111+D112+D113</f>
+        <v>20</v>
       </c>
       <c r="E105">
-        <v>4</v>
-      </c>
-      <c r="F105" t="s">
-        <v>189</v>
+        <f>E104</f>
+        <v>3</v>
       </c>
       <c r="G105" t="s">
         <v>166</v>
       </c>
-      <c r="H105" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> new Room('207', 116, 6, 5, 4,[1,4],'Normal'),</v>
-      </c>
-      <c r="J105">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="106" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I105" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> new Room('Courtyard6', 101, 10, 20, 3,[],'Normal',''),</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B106">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="C106">
         <v>6</v>
       </c>
       <c r="D106">
+        <f>D104</f>
+        <v>8</v>
+      </c>
+      <c r="E106">
+        <v>5</v>
+      </c>
+      <c r="F106" t="s">
+        <v>204</v>
+      </c>
+      <c r="G106" t="s">
+        <v>166</v>
+      </c>
+      <c r="I106" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> new Room('206', 121, 6, 8, 5,[2,1,1,3],'Normal',''),</v>
+      </c>
+      <c r="K106">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B107">
+        <v>116</v>
+      </c>
+      <c r="C107">
+        <v>6</v>
+      </c>
+      <c r="D107">
+        <v>5</v>
+      </c>
+      <c r="E107">
+        <v>4</v>
+      </c>
+      <c r="F107" t="s">
+        <v>188</v>
+      </c>
+      <c r="G107" t="s">
+        <v>166</v>
+      </c>
+      <c r="I107" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> new Room('207', 116, 6, 5, 4,[1,4],'Normal',''),</v>
+      </c>
+      <c r="K107">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B108">
+        <v>108</v>
+      </c>
+      <c r="C108">
+        <v>6</v>
+      </c>
+      <c r="D108">
         <f>D31</f>
         <v>8</v>
       </c>
-      <c r="E106">
-        <f>E107</f>
+      <c r="E108">
+        <f>E109</f>
         <v>4</v>
       </c>
-      <c r="F106" t="s">
-        <v>196</v>
-      </c>
-      <c r="G106" t="s">
-        <v>166</v>
-      </c>
-      <c r="H106" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> new Room('208', 108, 6, 8, 4,[1,2],'Normal'),</v>
-      </c>
-      <c r="J106">
+      <c r="F108" t="s">
+        <v>195</v>
+      </c>
+      <c r="G108" t="s">
+        <v>166</v>
+      </c>
+      <c r="I108" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> new Room('208', 108, 6, 8, 4,[1,2],'Normal',''),</v>
+      </c>
+      <c r="K108">
         <v>143</v>
       </c>
     </row>
-    <row r="107" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="2" t="s">
+    <row r="109" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B107">
+      <c r="B109">
         <v>100</v>
       </c>
-      <c r="C107">
+      <c r="C109">
         <v>6</v>
       </c>
-      <c r="D107">
+      <c r="D109">
         <f>D30</f>
         <v>8</v>
       </c>
-      <c r="E107">
-        <f>E93</f>
+      <c r="E109">
+        <f>E95</f>
         <v>4</v>
       </c>
-      <c r="F107" t="s">
-        <v>207</v>
-      </c>
-      <c r="G107" t="s">
-        <v>166</v>
-      </c>
-      <c r="H107" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> new Room('209', 100, 6, 8, 4,[1,5],'Normal'),</v>
-      </c>
-      <c r="J107">
+      <c r="F109" t="s">
+        <v>206</v>
+      </c>
+      <c r="G109" t="s">
+        <v>166</v>
+      </c>
+      <c r="I109" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> new Room('209', 100, 6, 8, 4,[1,5],'Normal',''),</v>
+      </c>
+      <c r="K109">
         <v>145</v>
       </c>
     </row>
-    <row r="108" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="2" t="s">
+    <row r="110" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B108">
+      <c r="B110">
         <v>101</v>
-      </c>
-      <c r="C108">
-        <v>13</v>
-      </c>
-      <c r="D108">
-        <v>5</v>
-      </c>
-      <c r="E108">
-        <v>4</v>
-      </c>
-      <c r="F108" t="s">
-        <v>206</v>
-      </c>
-      <c r="G108" t="s">
-        <v>166</v>
-      </c>
-      <c r="H108" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> new Room('200', 101, 13, 5, 4,[3,3],'Normal'),</v>
-      </c>
-    </row>
-    <row r="109" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B109">
-        <v>106</v>
-      </c>
-      <c r="C109">
-        <v>13</v>
-      </c>
-      <c r="D109">
-        <v>5</v>
-      </c>
-      <c r="E109">
-        <v>4</v>
-      </c>
-      <c r="F109" t="s">
-        <v>178</v>
-      </c>
-      <c r="G109" t="s">
-        <v>166</v>
-      </c>
-      <c r="H109" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> new Room('201', 106, 13, 5, 4,[3,1],'Normal'),</v>
-      </c>
-    </row>
-    <row r="110" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B110">
-        <v>111</v>
       </c>
       <c r="C110">
         <v>13</v>
@@ -6684,22 +6720,22 @@
         <v>4</v>
       </c>
       <c r="F110" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G110" t="s">
         <v>166</v>
       </c>
-      <c r="H110" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> new Room('202', 111, 13, 5, 4,[3,3],'Normal'),</v>
-      </c>
-    </row>
-    <row r="111" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I110" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> new Room('200', 101, 13, 5, 4,[3,3],'Normal',''),</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B111">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="C111">
         <v>13</v>
@@ -6716,298 +6752,295 @@
       <c r="G111" t="s">
         <v>166</v>
       </c>
-      <c r="H111" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> new Room('203', 116, 13, 5, 4,[3,1],'Normal'),</v>
-      </c>
-    </row>
-    <row r="112" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="113" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I111" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> new Room('201', 106, 13, 5, 4,[3,1],'Normal',''),</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B112">
+        <v>111</v>
+      </c>
+      <c r="C112">
+        <v>13</v>
+      </c>
+      <c r="D112">
+        <v>5</v>
+      </c>
+      <c r="E112">
+        <v>4</v>
+      </c>
+      <c r="F112" t="s">
+        <v>205</v>
+      </c>
+      <c r="G112" t="s">
+        <v>166</v>
+      </c>
+      <c r="I112" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> new Room('202', 111, 13, 5, 4,[3,3],'Normal',''),</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B113">
+        <v>116</v>
+      </c>
+      <c r="C113">
+        <v>13</v>
+      </c>
+      <c r="D113">
+        <v>5</v>
+      </c>
+      <c r="E113">
+        <v>4</v>
+      </c>
+      <c r="F113" t="s">
+        <v>178</v>
+      </c>
+      <c r="G113" t="s">
+        <v>166</v>
+      </c>
+      <c r="I113" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> new Room('203', 116, 13, 5, 4,[3,1],'Normal',''),</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="115" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B113">
+      <c r="B115">
         <v>134</v>
       </c>
-      <c r="C113">
+      <c r="C115">
         <v>7</v>
       </c>
-      <c r="D113">
+      <c r="D115">
         <v>9</v>
       </c>
-      <c r="E113">
+      <c r="E115">
         <v>11</v>
       </c>
-      <c r="F113" t="s">
-        <v>208</v>
-      </c>
-      <c r="G113" t="s">
-        <v>166</v>
-      </c>
-      <c r="H113" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> new Room('221', 134, 7, 9, 11,[4,6],'Normal'),</v>
-      </c>
-      <c r="J113">
+      <c r="F115" t="s">
+        <v>207</v>
+      </c>
+      <c r="G115" t="s">
+        <v>166</v>
+      </c>
+      <c r="I115" t="str">
+        <f t="shared" ref="I115:I122" si="13">CONCATENATE(" new Room('", A115,"', ", B115,", ", C115,", ",D115,", ",E115, ",[",F115,"],'",G115,"','",H115,"'),")</f>
+        <v xml:space="preserve"> new Room('221', 134, 7, 9, 11,[4,6],'Normal',''),</v>
+      </c>
+      <c r="K115">
         <v>136</v>
       </c>
     </row>
-    <row r="114" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="2" t="s">
+    <row r="116" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="B114">
-        <v>117</v>
-      </c>
-      <c r="C114">
-        <v>19</v>
-      </c>
-      <c r="D114">
-        <v>5</v>
-      </c>
-      <c r="E114">
-        <v>3</v>
-      </c>
-      <c r="F114" t="s">
-        <v>176</v>
-      </c>
-      <c r="G114" t="s">
-        <v>166</v>
-      </c>
-      <c r="H114" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> new Room('226', 117, 19, 5, 3,[2,3],'Normal'),</v>
-      </c>
-    </row>
-    <row r="115" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B115">
-        <v>117</v>
-      </c>
-      <c r="C115">
-        <v>22</v>
-      </c>
-      <c r="D115">
-        <f>D114</f>
-        <v>5</v>
-      </c>
-      <c r="E115">
-        <f>E114</f>
-        <v>3</v>
-      </c>
-      <c r="F115" t="s">
-        <v>176</v>
-      </c>
-      <c r="G115" t="s">
-        <v>166</v>
-      </c>
-      <c r="H115" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> new Room('228', 117, 22, 5, 3,[2,3],'Normal'),</v>
-      </c>
-    </row>
-    <row r="116" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="2" t="s">
-        <v>66</v>
       </c>
       <c r="B116">
         <v>117</v>
       </c>
       <c r="C116">
+        <v>19</v>
+      </c>
+      <c r="D116">
+        <v>5</v>
+      </c>
+      <c r="E116">
+        <v>3</v>
+      </c>
+      <c r="F116" t="s">
+        <v>176</v>
+      </c>
+      <c r="G116" t="s">
+        <v>166</v>
+      </c>
+      <c r="I116" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve"> new Room('226', 117, 19, 5, 3,[2,3],'Normal',''),</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B117">
+        <v>117</v>
+      </c>
+      <c r="C117">
+        <v>22</v>
+      </c>
+      <c r="D117">
+        <f>D116</f>
+        <v>5</v>
+      </c>
+      <c r="E117">
+        <f>E116</f>
+        <v>3</v>
+      </c>
+      <c r="F117" t="s">
+        <v>176</v>
+      </c>
+      <c r="G117" t="s">
+        <v>166</v>
+      </c>
+      <c r="I117" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve"> new Room('228', 117, 22, 5, 3,[2,3],'Normal',''),</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B118">
+        <v>117</v>
+      </c>
+      <c r="C118">
         <v>25</v>
       </c>
-      <c r="D116">
-        <f>D115</f>
+      <c r="D118">
+        <f>D117</f>
         <v>5</v>
       </c>
-      <c r="E116">
-        <f>E115</f>
+      <c r="E118">
+        <f>E117</f>
         <v>3</v>
       </c>
-      <c r="F116" t="s">
-        <v>200</v>
-      </c>
-      <c r="G116" t="s">
-        <v>166</v>
-      </c>
-      <c r="H116" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> new Room('230', 117, 25, 5, 3,[2,1],'Normal'),</v>
-      </c>
-    </row>
-    <row r="117" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="2" t="s">
+      <c r="F118" t="s">
+        <v>199</v>
+      </c>
+      <c r="G118" t="s">
+        <v>166</v>
+      </c>
+      <c r="I118" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve"> new Room('230', 117, 25, 5, 3,[2,1],'Normal',''),</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="B117">
-        <v>109</v>
-      </c>
-      <c r="C117">
-        <v>30</v>
-      </c>
-      <c r="D117">
-        <v>6</v>
-      </c>
-      <c r="E117">
-        <v>3</v>
-      </c>
-      <c r="G117" t="s">
-        <v>166</v>
-      </c>
-      <c r="H117" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> new Room('232', 109, 30, 6, 3,[],'Normal'),</v>
-      </c>
-    </row>
-    <row r="118" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B118">
-        <v>114</v>
-      </c>
-      <c r="C118">
-        <v>28</v>
-      </c>
-      <c r="D118">
-        <v>8</v>
-      </c>
-      <c r="E118">
-        <v>5</v>
-      </c>
-      <c r="G118" t="s">
-        <v>166</v>
-      </c>
-      <c r="H118" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> new Room('234', 114, 28, 8, 5,[],'Normal'),</v>
-      </c>
-    </row>
-    <row r="119" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="2" t="s">
-        <v>69</v>
       </c>
       <c r="B119">
         <v>109</v>
       </c>
       <c r="C119">
+        <v>30</v>
+      </c>
+      <c r="D119">
+        <v>6</v>
+      </c>
+      <c r="E119">
+        <v>3</v>
+      </c>
+      <c r="G119" t="s">
+        <v>166</v>
+      </c>
+      <c r="I119" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve"> new Room('232', 109, 30, 6, 3,[],'Normal',''),</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B120">
+        <v>114</v>
+      </c>
+      <c r="C120">
         <v>28</v>
       </c>
-      <c r="D119">
+      <c r="D120">
+        <v>8</v>
+      </c>
+      <c r="E120">
         <v>5</v>
       </c>
-      <c r="E119">
+      <c r="G120" t="s">
+        <v>166</v>
+      </c>
+      <c r="I120" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve"> new Room('234', 114, 28, 8, 5,[],'Normal',''),</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B121">
+        <v>109</v>
+      </c>
+      <c r="C121">
+        <v>28</v>
+      </c>
+      <c r="D121">
+        <v>5</v>
+      </c>
+      <c r="E121">
         <v>2</v>
       </c>
-      <c r="G119" t="s">
-        <v>166</v>
-      </c>
-      <c r="H119" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> new Room('235', 109, 28, 5, 2,[],'Normal'),</v>
-      </c>
-    </row>
-    <row r="120" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="2" t="s">
+      <c r="G121" t="s">
+        <v>166</v>
+      </c>
+      <c r="I121" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve"> new Room('235', 109, 28, 5, 2,[],'Normal',''),</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B120">
+      <c r="B122">
         <v>103</v>
       </c>
-      <c r="C120">
+      <c r="C122">
         <v>19</v>
       </c>
-      <c r="D120">
+      <c r="D122">
         <v>14</v>
       </c>
-      <c r="E120">
-        <f>E114+E115+E116</f>
+      <c r="E122">
+        <f>E116+E117+E118</f>
         <v>9</v>
       </c>
-      <c r="F120" t="s">
-        <v>196</v>
-      </c>
-      <c r="G120" t="s">
-        <v>166</v>
-      </c>
-      <c r="H120" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> new Room('240/241', 103, 19, 14, 9,[1,2],'Normal'),</v>
-      </c>
-      <c r="J120">
+      <c r="F122" t="s">
+        <v>195</v>
+      </c>
+      <c r="G122" t="s">
+        <v>166</v>
+      </c>
+      <c r="I122" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve"> new Room('240/241', 103, 19, 14, 9,[1,2],'Normal',''),</v>
+      </c>
+      <c r="K122">
         <v>154</v>
       </c>
     </row>
-    <row r="121" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="122" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="123" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="2" t="s">
+    <row r="123" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="124" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="125" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="B123">
-        <v>125</v>
-      </c>
-      <c r="C123">
-        <v>18</v>
-      </c>
-      <c r="D123">
-        <v>18</v>
-      </c>
-      <c r="E123">
-        <v>5</v>
-      </c>
-      <c r="F123" t="s">
-        <v>187</v>
-      </c>
-      <c r="G123" t="s">
-        <v>166</v>
-      </c>
-      <c r="H123" t="str">
-        <f>CONCATENATE(" new Room('", A123,"', ", B123,", ", C123,", ",D123,", ",E123, ",[",F123,"],'",G123,"'),")</f>
-        <v xml:space="preserve"> new Room('225', 125, 18, 18, 5,[4,3],'Normal'),</v>
-      </c>
-      <c r="J123">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="124" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="B124">
-        <v>125</v>
-      </c>
-      <c r="C124">
-        <v>23</v>
-      </c>
-      <c r="D124">
-        <v>18</v>
-      </c>
-      <c r="E124">
-        <v>5</v>
-      </c>
-      <c r="F124" t="s">
-        <v>186</v>
-      </c>
-      <c r="G124" t="s">
-        <v>166</v>
-      </c>
-      <c r="H124" t="str">
-        <f t="shared" ref="H124:H125" si="5">CONCATENATE(" new Room('", A124,"', ", B124,", ", C124,", ",D124,", ",E124, ",[",F124,"],'",G124,"'),")</f>
-        <v xml:space="preserve"> new Room('229', 125, 23, 18, 5,[4,2],'Normal'),</v>
-      </c>
-    </row>
-    <row r="125" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="2" t="s">
-        <v>171</v>
       </c>
       <c r="B125">
         <v>125</v>
       </c>
       <c r="C125">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="D125">
         <v>18</v>
@@ -7016,133 +7049,136 @@
         <v>5</v>
       </c>
       <c r="F125" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="G125" t="s">
         <v>166</v>
       </c>
-      <c r="H125" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> new Room('231', 125, 28, 18, 5,[4,4],'Normal'),</v>
-      </c>
-    </row>
-    <row r="126" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I125" t="str">
+        <f t="shared" ref="I125:I136" si="14">CONCATENATE(" new Room('", A125,"', ", B125,", ", C125,", ",D125,", ",E125, ",[",F125,"],'",G125,"','",H125,"'),")</f>
+        <v xml:space="preserve"> new Room('225', 125, 18, 18, 5,[4,3],'Normal',''),</v>
+      </c>
+      <c r="K125">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B126">
         <v>125</v>
       </c>
       <c r="C126">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="D126">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E126">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F126" t="s">
-        <v>209</v>
+        <v>185</v>
       </c>
       <c r="G126" t="s">
-        <v>214</v>
-      </c>
-      <c r="H126" t="str">
-        <f>CONCATENATE(" new Room('", A126,"', ", B126,", ", C126,", ",D126,", ",E126, ",[",F126,"],'",G126,"'),")</f>
-        <v xml:space="preserve"> new Room('stairs1', 125, 33, 10, 2,[4,1,4,2],'Stair'),</v>
-      </c>
-    </row>
-    <row r="127" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+      <c r="I126" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve"> new Room('229', 125, 23, 18, 5,[4,2],'Normal',''),</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
-        <v>80</v>
+        <v>171</v>
       </c>
       <c r="B127">
         <v>125</v>
       </c>
       <c r="C127">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="D127">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E127">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F127" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="G127" t="s">
         <v>166</v>
       </c>
-      <c r="H127" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> new Room('305', 125, 35, 10, 4,[4,3],'Normal'),</v>
-      </c>
-    </row>
-    <row r="128" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I127" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve"> new Room('231', 125, 28, 18, 5,[4,4],'Normal',''),</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
-        <v>81</v>
+        <v>169</v>
       </c>
       <c r="B128">
         <v>125</v>
       </c>
       <c r="C128">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D128">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E128">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F128" t="s">
-        <v>182</v>
+        <v>208</v>
       </c>
       <c r="G128" t="s">
-        <v>166</v>
-      </c>
-      <c r="H128" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> new Room('311', 125, 39, 9, 4,[4,4],'Normal'),</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>213</v>
+      </c>
+      <c r="I128" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve"> new Room('stairs1', 125, 33, 10, 2,[4,1,4,2],'Stair',''),</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B129">
         <v>125</v>
       </c>
       <c r="C129">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="D129">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E129">
         <v>4</v>
       </c>
       <c r="F129" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="G129" t="s">
         <v>166</v>
       </c>
-      <c r="H129" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> new Room('313', 125, 43, 9, 4,[4,1],'Normal'),</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I129" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve"> new Room('305', 125, 35, 10, 4,[4,3],'Normal',''),</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B130">
         <v>125</v>
       </c>
       <c r="C130">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D130">
         <v>9</v>
@@ -7151,25 +7187,25 @@
         <v>4</v>
       </c>
       <c r="F130" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G130" t="s">
         <v>166</v>
       </c>
-      <c r="H130" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> new Room('315', 125, 47, 9, 4,[4,4],'Normal'),</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I130" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve"> new Room('311', 125, 39, 9, 4,[4,4],'Normal',''),</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B131">
         <v>125</v>
       </c>
       <c r="C131">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="D131">
         <v>9</v>
@@ -7178,25 +7214,25 @@
         <v>4</v>
       </c>
       <c r="F131" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G131" t="s">
         <v>166</v>
       </c>
-      <c r="H131" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> new Room('317', 125, 51, 9, 4,[4,1],'Normal'),</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I131" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve"> new Room('313', 125, 43, 9, 4,[4,1],'Normal',''),</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B132">
         <v>125</v>
       </c>
       <c r="C132">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D132">
         <v>9</v>
@@ -7205,25 +7241,25 @@
         <v>4</v>
       </c>
       <c r="F132" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G132" t="s">
         <v>166</v>
       </c>
-      <c r="H132" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> new Room('319', 125, 55, 9, 4,[4,4],'Normal'),</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I132" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve"> new Room('315', 125, 47, 9, 4,[4,4],'Normal',''),</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B133">
         <v>125</v>
       </c>
       <c r="C133">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="D133">
         <v>9</v>
@@ -7232,266 +7268,266 @@
         <v>4</v>
       </c>
       <c r="F133" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G133" t="s">
         <v>166</v>
       </c>
-      <c r="H133" t="str">
-        <f t="shared" ref="H133:H147" si="6">CONCATENATE(" new Room('", A133,"', ", B133,", ", C133,", ",D133,", ",E133, ",[",F133,"],'",G133,"'),")</f>
-        <v xml:space="preserve"> new Room('321', 125, 59, 9, 4,[4,1],'Normal'),</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I133" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve"> new Room('317', 125, 51, 9, 4,[4,1],'Normal',''),</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
-        <v>168</v>
+        <v>85</v>
       </c>
       <c r="B134">
         <v>125</v>
       </c>
       <c r="C134">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="D134">
         <v>9</v>
       </c>
       <c r="E134">
+        <v>4</v>
+      </c>
+      <c r="F134" t="s">
+        <v>181</v>
+      </c>
+      <c r="G134" t="s">
+        <v>166</v>
+      </c>
+      <c r="I134" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve"> new Room('319', 125, 55, 9, 4,[4,4],'Normal',''),</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B135">
+        <v>125</v>
+      </c>
+      <c r="C135">
+        <v>59</v>
+      </c>
+      <c r="D135">
+        <v>9</v>
+      </c>
+      <c r="E135">
+        <v>4</v>
+      </c>
+      <c r="F135" t="s">
+        <v>198</v>
+      </c>
+      <c r="G135" t="s">
+        <v>166</v>
+      </c>
+      <c r="I135" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve"> new Room('321', 125, 59, 9, 4,[4,1],'Normal',''),</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B136">
+        <v>125</v>
+      </c>
+      <c r="C136">
+        <v>64</v>
+      </c>
+      <c r="D136">
+        <v>9</v>
+      </c>
+      <c r="E136">
         <v>3</v>
       </c>
-      <c r="F134" t="s">
-        <v>210</v>
-      </c>
-      <c r="G134" t="s">
-        <v>214</v>
-      </c>
-      <c r="H134" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve"> new Room('stairs2', 125, 64, 9, 3,[4,2,4,1],'Stair'),</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="136" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="2" t="s">
+      <c r="F136" t="s">
+        <v>209</v>
+      </c>
+      <c r="G136" t="s">
+        <v>213</v>
+      </c>
+      <c r="I136" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve"> new Room('stairs2', 125, 64, 9, 3,[4,2,4,1],'Stair',''),</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="138" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="B136">
+      <c r="B138">
         <v>103</v>
       </c>
-      <c r="C136">
+      <c r="C138">
         <v>33</v>
       </c>
-      <c r="D136">
+      <c r="D138">
         <v>10</v>
       </c>
-      <c r="E136">
-        <f>E137+E138+E139+E140</f>
+      <c r="E138">
+        <f>E139+E140+E141+E142</f>
         <v>10</v>
       </c>
-      <c r="G136" t="s">
-        <v>166</v>
-      </c>
-      <c r="H136" t="str">
-        <f>CONCATENATE(" new Room('", A136,"', ", B136,", ", C136,", ",D136,", ",E136, ",[",F136,"],'",G136,"'),")</f>
-        <v xml:space="preserve"> new Room('Courtyard5', 103, 33, 10, 10,[],'Normal'),</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="2" t="s">
+      <c r="G138" t="s">
+        <v>166</v>
+      </c>
+      <c r="I138" t="str">
+        <f t="shared" ref="I138:I142" si="15">CONCATENATE(" new Room('", A138,"', ", B138,", ", C138,", ",D138,", ",E138, ",[",F138,"],'",G138,"','",H138,"'),")</f>
+        <v xml:space="preserve"> new Room('Courtyard5', 103, 33, 10, 10,[],'Normal',''),</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="2" t="s">
         <v>154</v>
-      </c>
-      <c r="B137">
-        <v>113</v>
-      </c>
-      <c r="C137">
-        <v>33</v>
-      </c>
-      <c r="D137">
-        <v>9</v>
-      </c>
-      <c r="E137">
-        <v>2</v>
-      </c>
-      <c r="F137" t="s">
-        <v>200</v>
-      </c>
-      <c r="G137" t="s">
-        <v>166</v>
-      </c>
-      <c r="H137" t="str">
-        <f>CONCATENATE(" new Room('", A137,"', ", B137,", ", C137,", ",D137,", ",E137, ",[",F137,"],'",G137,"'),")</f>
-        <v xml:space="preserve"> new Room('boys br1', 113, 33, 9, 2,[2,1],'Normal'),</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="B138">
-        <v>113</v>
-      </c>
-      <c r="C138">
-        <v>35</v>
-      </c>
-      <c r="D138">
-        <v>9</v>
-      </c>
-      <c r="E138">
-        <v>2</v>
-      </c>
-      <c r="F138" t="s">
-        <v>175</v>
-      </c>
-      <c r="G138" t="s">
-        <v>166</v>
-      </c>
-      <c r="H138" t="str">
-        <f>CONCATENATE(" new Room('", A138,"', ", B138,", ", C138,", ",D138,", ",E138, ",[",F138,"],'",G138,"'),")</f>
-        <v xml:space="preserve"> new Room('girls br1', 113, 35, 9, 2,[2,2],'Normal'),</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="2" t="s">
-        <v>72</v>
       </c>
       <c r="B139">
         <v>113</v>
       </c>
       <c r="C139">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D139">
         <v>9</v>
       </c>
       <c r="E139">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F139" t="s">
-        <v>175</v>
+        <v>199</v>
       </c>
       <c r="G139" t="s">
         <v>166</v>
       </c>
-      <c r="H139" t="str">
-        <f>CONCATENATE(" new Room('", A139,"', ", B139,", ", C139,", ",D139,", ",E139, ",[",F139,"],'",G139,"'),")</f>
-        <v xml:space="preserve"> new Room('fake 322', 113, 37, 9, 3,[2,2],'Normal'),</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I139" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve"> new Room('boys br1', 113, 33, 9, 2,[2,1],'Normal',''),</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>73</v>
+        <v>161</v>
       </c>
       <c r="B140">
         <v>113</v>
       </c>
       <c r="C140">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D140">
         <v>9</v>
       </c>
       <c r="E140">
+        <v>2</v>
+      </c>
+      <c r="F140" t="s">
+        <v>175</v>
+      </c>
+      <c r="G140" t="s">
+        <v>166</v>
+      </c>
+      <c r="I140" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve"> new Room('girls br1', 113, 35, 9, 2,[2,2],'Normal',''),</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="B141">
+        <v>113</v>
+      </c>
+      <c r="C141">
+        <v>37</v>
+      </c>
+      <c r="D141">
+        <v>9</v>
+      </c>
+      <c r="E141">
         <v>3</v>
       </c>
-      <c r="F140" t="s">
+      <c r="F141" t="s">
+        <v>175</v>
+      </c>
+      <c r="G141" t="s">
+        <v>166</v>
+      </c>
+      <c r="I141" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve"> new Room('309', 113, 37, 9, 3,[2,2],'Normal',''),</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B142">
+        <v>113</v>
+      </c>
+      <c r="C142">
+        <v>40</v>
+      </c>
+      <c r="D142">
+        <v>9</v>
+      </c>
+      <c r="E142">
+        <v>3</v>
+      </c>
+      <c r="F142" t="s">
         <v>176</v>
       </c>
-      <c r="G140" t="s">
-        <v>166</v>
-      </c>
-      <c r="H140" t="str">
-        <f>CONCATENATE(" new Room('", A140,"', ", B140,", ", C140,", ",D140,", ",E140, ",[",F140,"],'",G140,"'),")</f>
-        <v xml:space="preserve"> new Room('312', 113, 40, 9, 3,[2,3],'Normal'),</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="142" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="2" t="s">
+      <c r="G142" t="s">
+        <v>166</v>
+      </c>
+      <c r="I142" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve"> new Room('312', 113, 40, 9, 3,[2,3],'Normal',''),</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="144" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="B142">
+      <c r="B144">
         <v>103</v>
       </c>
-      <c r="C142">
+      <c r="C144">
         <v>45</v>
       </c>
-      <c r="D142">
+      <c r="D144">
         <v>10</v>
       </c>
-      <c r="E142">
-        <f>E143+E144</f>
+      <c r="E144">
+        <f>E145+E146</f>
         <v>8</v>
       </c>
-      <c r="G142" t="s">
-        <v>166</v>
-      </c>
-      <c r="H142" t="str">
-        <f>CONCATENATE(" new Room('", A142,"', ", B142,", ", C142,", ",D142,", ",E142, ",[",F142,"],'",G142,"'),")</f>
-        <v xml:space="preserve"> new Room('Courtyard4', 103, 45, 10, 8,[],'Normal'),</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="2" t="s">
+      <c r="G144" t="s">
+        <v>166</v>
+      </c>
+      <c r="I144" t="str">
+        <f t="shared" ref="I144:I149" si="16">CONCATENATE(" new Room('", A144,"', ", B144,", ", C144,", ",D144,", ",E144, ",[",F144,"],'",G144,"','",H144,"'),")</f>
+        <v xml:space="preserve"> new Room('Courtyard4', 103, 45, 10, 8,[],'Normal',''),</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A145" s="2" t="s">
         <v>74</v>
-      </c>
-      <c r="B143">
-        <v>113</v>
-      </c>
-      <c r="C143">
-        <v>45</v>
-      </c>
-      <c r="D143">
-        <v>9</v>
-      </c>
-      <c r="E143">
-        <v>4</v>
-      </c>
-      <c r="F143" t="s">
-        <v>177</v>
-      </c>
-      <c r="G143" t="s">
-        <v>166</v>
-      </c>
-      <c r="H143" t="str">
-        <f>CONCATENATE(" new Room('", A143,"', ", B143,", ", C143,", ",D143,", ",E143, ",[",F143,"],'",G143,"'),")</f>
-        <v xml:space="preserve"> new Room('314', 113, 45, 9, 4,[2,4],'Normal'),</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B144">
-        <v>113</v>
-      </c>
-      <c r="C144">
-        <v>49</v>
-      </c>
-      <c r="D144">
-        <v>9</v>
-      </c>
-      <c r="E144">
-        <v>4</v>
-      </c>
-      <c r="F144" t="s">
-        <v>200</v>
-      </c>
-      <c r="G144" t="s">
-        <v>166</v>
-      </c>
-      <c r="H144" t="str">
-        <f>CONCATENATE(" new Room('", A144,"', ", B144,", ", C144,", ",D144,", ",E144, ",[",F144,"],'",G144,"'),")</f>
-        <v xml:space="preserve"> new Room('316', 113, 49, 9, 4,[2,1],'Normal'),</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="2" t="s">
-        <v>76</v>
       </c>
       <c r="B145">
         <v>113</v>
       </c>
       <c r="C145">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="D145">
         <v>9</v>
@@ -7500,25 +7536,25 @@
         <v>4</v>
       </c>
       <c r="F145" t="s">
-        <v>200</v>
+        <v>177</v>
       </c>
       <c r="G145" t="s">
         <v>166</v>
       </c>
-      <c r="H145" t="str">
-        <f>CONCATENATE(" new Room('", A145,"', ", B145,", ", C145,", ",D145,", ",E145, ",[",F145,"],'",G145,"'),")</f>
-        <v xml:space="preserve"> new Room('318', 113, 55, 9, 4,[2,1],'Normal'),</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I145" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve"> new Room('314', 113, 45, 9, 4,[2,4],'Normal',''),</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B146">
         <v>113</v>
       </c>
       <c r="C146">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="D146">
         <v>9</v>
@@ -7527,42 +7563,96 @@
         <v>4</v>
       </c>
       <c r="F146" t="s">
-        <v>177</v>
+        <v>199</v>
       </c>
       <c r="G146" t="s">
         <v>166</v>
       </c>
-      <c r="H146" t="str">
-        <f>CONCATENATE(" new Room('", A146,"', ", B146,", ", C146,", ",D146,", ",E146, ",[",F146,"],'",G146,"'),")</f>
-        <v xml:space="preserve"> new Room('320', 113, 59, 9, 4,[2,4],'Normal'),</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I146" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve"> new Room('316', 113, 49, 9, 4,[2,1],'Normal',''),</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B147">
         <v>113</v>
       </c>
       <c r="C147">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="D147">
         <v>9</v>
       </c>
       <c r="E147">
-        <f>E146</f>
         <v>4</v>
       </c>
       <c r="F147" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G147" t="s">
         <v>166</v>
       </c>
-      <c r="H147" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve"> new Room('322', 113, 63, 9, 4,[2,1],'Normal'),</v>
+      <c r="I147" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve"> new Room('318', 113, 55, 9, 4,[2,1],'Normal',''),</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B148">
+        <v>113</v>
+      </c>
+      <c r="C148">
+        <v>59</v>
+      </c>
+      <c r="D148">
+        <v>9</v>
+      </c>
+      <c r="E148">
+        <v>4</v>
+      </c>
+      <c r="F148" t="s">
+        <v>177</v>
+      </c>
+      <c r="G148" t="s">
+        <v>166</v>
+      </c>
+      <c r="I148" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve"> new Room('320', 113, 59, 9, 4,[2,4],'Normal',''),</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B149">
+        <v>113</v>
+      </c>
+      <c r="C149">
+        <v>63</v>
+      </c>
+      <c r="D149">
+        <v>9</v>
+      </c>
+      <c r="E149">
+        <f>E148</f>
+        <v>4</v>
+      </c>
+      <c r="F149" t="s">
+        <v>199</v>
+      </c>
+      <c r="G149" t="s">
+        <v>166</v>
+      </c>
+      <c r="I149" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve"> new Room('322', 113, 63, 9, 4,[2,1],'Normal',''),</v>
       </c>
     </row>
   </sheetData>
@@ -7576,18 +7666,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I22" sqref="I2:I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="10" max="10" width="25" customWidth="1"/>
+    <col min="11" max="11" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>113</v>
       </c>
@@ -7609,11 +7699,14 @@
       <c r="G1" t="s">
         <v>172</v>
       </c>
-      <c r="K1" t="s">
+      <c r="H1" t="s">
+        <v>214</v>
+      </c>
+      <c r="L1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>122</v>
       </c>
@@ -7630,22 +7723,22 @@
         <v>2</v>
       </c>
       <c r="F2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G2" t="s">
         <v>166</v>
       </c>
-      <c r="H2" t="str">
-        <f>CONCATENATE(" new Room('", A2,"', ", B2,", ", C2,", ",D2,", ",E2, ",[",F2,"],'",G2,"'),")</f>
-        <v xml:space="preserve"> new Room('Boys BR', 0, 0, 8, 2,[2,1],'Normal'),</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="I2" t="str">
+        <f>CONCATENATE(" new Room('", A2,"', ", B2,", ", C2,", ",D2,", ",E2, ",[",F2,"],'",G2,"','",H2,"'),")</f>
+        <v xml:space="preserve"> new Room('Boys BR', 0, 0, 8, 2,[2,1],'Normal',''),</v>
+      </c>
+      <c r="L2" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -7661,20 +7754,20 @@
         <v>2</v>
       </c>
       <c r="F3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G3" t="s">
         <v>166</v>
       </c>
-      <c r="H3" t="str">
-        <f t="shared" ref="H3:H22" si="0">CONCATENATE(" new Room('", A3,"', ", B3,", ", C3,", ",D3,", ",E3, ",[",F3,"],'",G3,"'),")</f>
-        <v xml:space="preserve"> new Room('girls BR', 0, 2, 8, 2,[2,1],'Normal'),</v>
-      </c>
-      <c r="K3" t="s">
+      <c r="I3" t="str">
+        <f t="shared" ref="I3:I11" si="0">CONCATENATE(" new Room('", A3,"', ", B3,", ", C3,", ",D3,", ",E3, ",[",F3,"],'",G3,"','",H3,"'),")</f>
+        <v xml:space="preserve"> new Room('Girls BR', 0, 2, 8, 2,[2,1],'Normal',''),</v>
+      </c>
+      <c r="L3" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>127</v>
       </c>
@@ -7697,15 +7790,15 @@
       <c r="G4" t="s">
         <v>166</v>
       </c>
-      <c r="H4" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> new Room('workroom', 0, 4, 8, 5,[2,3],'Normal'),</v>
-      </c>
-      <c r="K4" t="s">
+      <c r="I4" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> new Room('workroom', 0, 4, 8, 5,[2,3],'Normal',''),</v>
+      </c>
+      <c r="L4" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>412</v>
       </c>
@@ -7728,15 +7821,15 @@
       <c r="G5" t="s">
         <v>166</v>
       </c>
-      <c r="H5" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> new Room('412', 0, 9, 8, 4,[2,4],'Normal'),</v>
-      </c>
-      <c r="K5">
+      <c r="I5" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> new Room('412', 0, 9, 8, 4,[2,4],'Normal',''),</v>
+      </c>
+      <c r="L5">
         <v>181</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>414</v>
       </c>
@@ -7754,20 +7847,20 @@
         <v>4</v>
       </c>
       <c r="F6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G6" t="s">
         <v>166</v>
       </c>
-      <c r="H6" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> new Room('414', 0, 13, 8, 4,[2,1],'Normal'),</v>
-      </c>
-      <c r="K6">
+      <c r="I6" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> new Room('414', 0, 13, 8, 4,[2,1],'Normal',''),</v>
+      </c>
+      <c r="L6">
         <v>179</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>416</v>
       </c>
@@ -7790,15 +7883,15 @@
       <c r="G7" t="s">
         <v>166</v>
       </c>
-      <c r="H7" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> new Room('416', 0, 17, 8, 4,[2,4],'Normal'),</v>
-      </c>
-      <c r="K7">
+      <c r="I7" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> new Room('416', 0, 17, 8, 4,[2,4],'Normal',''),</v>
+      </c>
+      <c r="L7">
         <v>177</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>418</v>
       </c>
@@ -7816,20 +7909,20 @@
         <v>4</v>
       </c>
       <c r="F8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G8" t="s">
         <v>166</v>
       </c>
-      <c r="H8" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> new Room('418', 0, 21, 8, 4,[2,1],'Normal'),</v>
-      </c>
-      <c r="K8">
+      <c r="I8" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> new Room('418', 0, 21, 8, 4,[2,1],'Normal',''),</v>
+      </c>
+      <c r="L8">
         <v>175</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>420</v>
       </c>
@@ -7852,15 +7945,15 @@
       <c r="G9" t="s">
         <v>166</v>
       </c>
-      <c r="H9" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> new Room('420', 0, 25, 8, 4,[2,4],'Normal'),</v>
-      </c>
-      <c r="K9">
+      <c r="I9" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> new Room('420', 0, 25, 8, 4,[2,4],'Normal',''),</v>
+      </c>
+      <c r="L9">
         <v>173</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>422</v>
       </c>
@@ -7878,22 +7971,22 @@
         <v>4</v>
       </c>
       <c r="F10" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G10" t="s">
         <v>166</v>
       </c>
-      <c r="H10" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> new Room('422', 0, 29, 8, 4,[2,1],'Normal'),</v>
-      </c>
-      <c r="K10">
+      <c r="I10" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> new Room('422', 0, 29, 8, 4,[2,1],'Normal',''),</v>
+      </c>
+      <c r="L10">
         <v>171</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>49</v>
+        <v>215</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -7911,17 +8004,17 @@
       <c r="G11" t="s">
         <v>166</v>
       </c>
-      <c r="H11" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> new Room('Storage', 0, 33, 8, 3,[],'Normal'),</v>
-      </c>
-      <c r="K11" t="s">
+      <c r="I11" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> new Room('Storage1', 0, 33, 8, 3,[],'Normal',''),</v>
+      </c>
+      <c r="L11" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>169</v>
+        <v>216</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -7936,20 +8029,20 @@
         <v>2</v>
       </c>
       <c r="F13" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G13" t="s">
-        <v>214</v>
-      </c>
-      <c r="H13" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> new Room('stairs1', 12, 0, 9, 2,[4,1,4,2],'Stair'),</v>
-      </c>
-      <c r="K13" t="s">
+        <v>213</v>
+      </c>
+      <c r="I13" t="str">
+        <f t="shared" ref="I13:I22" si="2">CONCATENATE(" new Room('", A13,"', ", B13,", ", C13,", ",D13,", ",E13, ",[",F13,"],'",G13,"','",H13,"'),")</f>
+        <v xml:space="preserve"> new Room('Stairs1', 12, 0, 9, 2,[4,1,4,2],'Stair',''),</v>
+      </c>
+      <c r="L13" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>128</v>
       </c>
@@ -7967,20 +8060,20 @@
         <v>5</v>
       </c>
       <c r="F14" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G14" t="s">
         <v>166</v>
       </c>
-      <c r="H14" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> new Room('Workroom', 12, 2, 9, 5,[4,3],'Normal'),</v>
-      </c>
-      <c r="K14" t="s">
+      <c r="I14" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> new Room('Workroom', 12, 2, 9, 5,[4,3],'Normal',''),</v>
+      </c>
+      <c r="L14" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>411</v>
       </c>
@@ -7988,7 +8081,7 @@
         <v>12</v>
       </c>
       <c r="C15">
-        <f t="shared" ref="C15:C22" si="2">C14+E14</f>
+        <f t="shared" ref="C15:C22" si="3">C14+E14</f>
         <v>7</v>
       </c>
       <c r="D15">
@@ -7998,20 +8091,20 @@
         <v>4</v>
       </c>
       <c r="F15" t="s">
+        <v>181</v>
+      </c>
+      <c r="G15" t="s">
+        <v>166</v>
+      </c>
+      <c r="I15" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> new Room('411', 12, 7, 9, 4,[4,4],'Normal',''),</v>
+      </c>
+      <c r="L15">
         <v>182</v>
       </c>
-      <c r="G15" t="s">
-        <v>166</v>
-      </c>
-      <c r="H15" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> new Room('411', 12, 7, 9, 4,[4,4],'Normal'),</v>
-      </c>
-      <c r="K15">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>413</v>
       </c>
@@ -8019,7 +8112,7 @@
         <v>12</v>
       </c>
       <c r="C16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="D16">
@@ -8029,20 +8122,20 @@
         <v>4</v>
       </c>
       <c r="F16" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G16" t="s">
         <v>166</v>
       </c>
-      <c r="H16" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> new Room('413', 12, 11, 9, 4,[4,1],'Normal'),</v>
-      </c>
-      <c r="K16">
+      <c r="I16" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> new Room('413', 12, 11, 9, 4,[4,1],'Normal',''),</v>
+      </c>
+      <c r="L16">
         <v>180</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>415</v>
       </c>
@@ -8050,7 +8143,7 @@
         <v>12</v>
       </c>
       <c r="C17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="D17">
@@ -8060,20 +8153,20 @@
         <v>4</v>
       </c>
       <c r="F17" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G17" t="s">
         <v>166</v>
       </c>
-      <c r="H17" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> new Room('415', 12, 15, 9, 4,[4,4],'Normal'),</v>
-      </c>
-      <c r="K17">
+      <c r="I17" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> new Room('415', 12, 15, 9, 4,[4,4],'Normal',''),</v>
+      </c>
+      <c r="L17">
         <v>178</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>417</v>
       </c>
@@ -8081,7 +8174,7 @@
         <v>12</v>
       </c>
       <c r="C18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>19</v>
       </c>
       <c r="D18">
@@ -8091,20 +8184,20 @@
         <v>3</v>
       </c>
       <c r="F18" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G18" t="s">
         <v>166</v>
       </c>
-      <c r="H18" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> new Room('417', 12, 19, 9, 3,[4,1],'Normal'),</v>
-      </c>
-      <c r="K18">
+      <c r="I18" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> new Room('417', 12, 19, 9, 3,[4,1],'Normal',''),</v>
+      </c>
+      <c r="L18">
         <v>176</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>419</v>
       </c>
@@ -8112,7 +8205,7 @@
         <v>12</v>
       </c>
       <c r="C19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>22</v>
       </c>
       <c r="D19">
@@ -8122,20 +8215,20 @@
         <v>4</v>
       </c>
       <c r="F19" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G19" t="s">
         <v>166</v>
       </c>
-      <c r="H19" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> new Room('419', 12, 22, 9, 4,[4,4],'Normal'),</v>
-      </c>
-      <c r="K19">
+      <c r="I19" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> new Room('419', 12, 22, 9, 4,[4,4],'Normal',''),</v>
+      </c>
+      <c r="L19">
         <v>174</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>421</v>
       </c>
@@ -8143,7 +8236,7 @@
         <v>12</v>
       </c>
       <c r="C20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>26</v>
       </c>
       <c r="D20">
@@ -8153,28 +8246,28 @@
         <v>3</v>
       </c>
       <c r="F20" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G20" t="s">
         <v>166</v>
       </c>
-      <c r="H20" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> new Room('421', 12, 26, 9, 3,[4,1],'Normal'),</v>
-      </c>
-      <c r="K20">
+      <c r="I20" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> new Room('421', 12, 26, 9, 3,[4,1],'Normal',''),</v>
+      </c>
+      <c r="L20">
         <v>172</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>136</v>
+        <v>49</v>
       </c>
       <c r="B21">
         <v>12</v>
       </c>
       <c r="C21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>29</v>
       </c>
       <c r="D21">
@@ -8184,28 +8277,28 @@
         <v>3</v>
       </c>
       <c r="F21" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G21" t="s">
         <v>166</v>
       </c>
-      <c r="H21" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> new Room('storage', 12, 29, 9, 3,[4,4],'Normal'),</v>
-      </c>
-      <c r="K21" t="s">
+      <c r="I21" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> new Room('Storage', 12, 29, 9, 3,[4,4],'Normal',''),</v>
+      </c>
+      <c r="L21" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>168</v>
+        <v>217</v>
       </c>
       <c r="B22">
         <v>12</v>
       </c>
       <c r="C22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>32</v>
       </c>
       <c r="D22">
@@ -8215,16 +8308,16 @@
         <v>2</v>
       </c>
       <c r="F22" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G22" t="s">
-        <v>214</v>
-      </c>
-      <c r="H22" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> new Room('stairs2', 12, 32, 8, 2,[4,1,4,2],'Stair'),</v>
-      </c>
-      <c r="K22" t="s">
+        <v>213</v>
+      </c>
+      <c r="I22" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> new Room('Stairs2', 12, 32, 8, 2,[4,1,4,2],'Stair',''),</v>
+      </c>
+      <c r="L22" t="s">
         <v>79</v>
       </c>
     </row>

--- a/school map app coordinates.xlsx
+++ b/school map app coordinates.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27309"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WebSites\apperoni\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sarahhoffman/Documents/apperoni/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="435" windowWidth="25605" windowHeight="14505" tabRatio="500" activeTab="1"/>
+    <workbookView minimized="1" xWindow="0" yWindow="440" windowWidth="25600" windowHeight="14500" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,8 +19,11 @@
     <sheet name="SaveInCase" sheetId="6" r:id="rId5"/>
     <sheet name="old" sheetId="2" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -29,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="917" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="908" uniqueCount="216">
   <si>
     <t>Name</t>
   </si>
@@ -574,6 +577,9 @@
     <t>2,6</t>
   </si>
   <si>
+    <t xml:space="preserve"> 4,1,2,1,4,8,4,10,4,18,2,18,2,8,2,10</t>
+  </si>
+  <si>
     <t>4,4</t>
   </si>
   <si>
@@ -673,31 +679,7 @@
     <t>Stair</t>
   </si>
   <si>
-    <t>outerRoom</t>
-  </si>
-  <si>
-    <t>Storage1</t>
-  </si>
-  <si>
-    <t>Stairs1</t>
-  </si>
-  <si>
-    <t>Stairs2</t>
-  </si>
-  <si>
-    <t>OuterRoom</t>
-  </si>
-  <si>
     <t>309</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 4,1,2,2,4,8,4,10,4,18,2,18,2,8,2,10,1,30,1,2</t>
-  </si>
-  <si>
-    <t>Nurse</t>
-  </si>
-  <si>
-    <t>Admin Office</t>
   </si>
 </sst>
 </file>
@@ -746,8 +728,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="233">
+  <cellStyleXfs count="235">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -991,7 +975,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="233">
+  <cellStyles count="235">
     <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
@@ -1108,6 +1092,7 @@
     <cellStyle name="Followed Hyperlink" xfId="228" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="230" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="232" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="234" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
@@ -1224,6 +1209,7 @@
     <cellStyle name="Hyperlink" xfId="227" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="229" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="231" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="233" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1509,11 +1495,11 @@
       <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="6" max="6" width="57.875" customWidth="1"/>
-    <col min="8" max="8" width="18.875" customWidth="1"/>
-    <col min="9" max="9" width="15.875" customWidth="1"/>
+    <col min="6" max="6" width="57.83203125" customWidth="1"/>
+    <col min="8" max="8" width="18.83203125" customWidth="1"/>
+    <col min="9" max="9" width="15.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -1542,7 +1528,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -1809,7 +1795,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>27</v>
       </c>
@@ -1986,7 +1972,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>8</v>
       </c>
@@ -2010,7 +1996,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>8</v>
       </c>
@@ -2442,7 +2428,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>58</v>
       </c>
@@ -2466,7 +2452,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>59</v>
       </c>
@@ -2490,7 +2476,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>60</v>
       </c>
@@ -2511,7 +2497,7 @@
         <v xml:space="preserve"> new Room('200', 1159, 372, 143, 47,[]),</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>61</v>
       </c>
@@ -2532,7 +2518,7 @@
         <v xml:space="preserve"> new Room('201', 1200, 314, 45, 48,[]),</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>62</v>
       </c>
@@ -2553,7 +2539,7 @@
         <v xml:space="preserve"> new Room('202', 1244, 316, 46, 46,[]),</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>63</v>
       </c>
@@ -2574,7 +2560,7 @@
         <v xml:space="preserve"> new Room('203', 1291, 314, 45, 48,[]),</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>64</v>
       </c>
@@ -2595,7 +2581,7 @@
         <v xml:space="preserve"> new Room('226', 1303, 374, 48, 23,[]),</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>65</v>
       </c>
@@ -2616,7 +2602,7 @@
         <v xml:space="preserve"> new Room('228', 1304, 396, 46, 24,[]),</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>66</v>
       </c>
@@ -2637,7 +2623,7 @@
         <v xml:space="preserve"> new Room('230', 1300, 420, 50, 21,[]),</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>67</v>
       </c>
@@ -2658,7 +2644,7 @@
         <v xml:space="preserve"> new Room('234', 1269, 441, 77, 50,[]),</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>68</v>
       </c>
@@ -2679,7 +2665,7 @@
         <v xml:space="preserve"> new Room('232', 1215, 457, 55, 33,[]),</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>69</v>
       </c>
@@ -2700,7 +2686,7 @@
         <v xml:space="preserve"> new Room('235', 1216, 438, 52, 20,[]),</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>70</v>
       </c>
@@ -2721,7 +2707,7 @@
         <v xml:space="preserve"> new Room('boys br', 1258, 491, 91, 17,[]),</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>71</v>
       </c>
@@ -2742,7 +2728,7 @@
         <v xml:space="preserve"> new Room('girls br', 1260, 511, 88, 17,[]),</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>72</v>
       </c>
@@ -2763,7 +2749,7 @@
         <v xml:space="preserve"> new Room('fake 322', 1259, 527, 89, 43,[]),</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>73</v>
       </c>
@@ -2784,7 +2770,7 @@
         <v xml:space="preserve"> new Room('312', 1257, 570, 90, 33,[]),</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>74</v>
       </c>
@@ -2805,7 +2791,7 @@
         <v xml:space="preserve"> new Room('314', 1260, 622, 91, 37,[]),</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>75</v>
       </c>
@@ -2826,7 +2812,7 @@
         <v xml:space="preserve"> new Room('316', 1258, 660, 91, 37,[]),</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>76</v>
       </c>
@@ -2847,7 +2833,7 @@
         <v xml:space="preserve"> new Room('318', 1258, 750, 94, 34,[]),</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>77</v>
       </c>
@@ -2868,7 +2854,7 @@
         <v xml:space="preserve"> new Room('320', 1258, 750, 94, 34,[]),</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>78</v>
       </c>
@@ -2889,7 +2875,7 @@
         <v xml:space="preserve"> new Room('322', 1258, 785, 92, 34,[]),</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>79</v>
       </c>
@@ -2910,7 +2896,7 @@
         <v xml:space="preserve"> new Room('stairs', 1378, 491, 99, 21,[]),</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>80</v>
       </c>
@@ -2931,7 +2917,7 @@
         <v xml:space="preserve"> new Room('305', 1380, 509, 98, 47,[]),</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>81</v>
       </c>
@@ -2952,7 +2938,7 @@
         <v xml:space="preserve"> new Room('311', 1382, 554, 94, 36,[]),</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>82</v>
       </c>
@@ -2973,7 +2959,7 @@
         <v xml:space="preserve"> new Room('313', 1381, 588, 95, 36,[]),</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>83</v>
       </c>
@@ -2994,7 +2980,7 @@
         <v xml:space="preserve"> new Room('315', 1382, 624, 94, 36,[]),</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>84</v>
       </c>
@@ -3015,7 +3001,7 @@
         <v xml:space="preserve"> new Room('317', 1382, 660, 94, 37,[]),</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>85</v>
       </c>
@@ -3036,7 +3022,7 @@
         <v xml:space="preserve"> new Room('319', 1383, 693, 92, 36,[]),</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>86</v>
       </c>
@@ -3057,7 +3043,7 @@
         <v xml:space="preserve"> new Room('321', 1383, 728, 94, 37,[]),</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>87</v>
       </c>
@@ -3078,7 +3064,7 @@
         <v xml:space="preserve"> new Room('126', 693, 735, 121, 35,[]),</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>88</v>
       </c>
@@ -3099,7 +3085,7 @@
         <v xml:space="preserve"> new Room('124', 693, 784, 120, 36,[]),</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>89</v>
       </c>
@@ -3120,7 +3106,7 @@
         <v xml:space="preserve"> new Room('122', 693, 818, 122, 35,[]),</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>90</v>
       </c>
@@ -3141,7 +3127,7 @@
         <v xml:space="preserve"> new Room('120', 705, 866, 110, 57,[]),</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>91</v>
       </c>
@@ -3162,7 +3148,7 @@
         <v xml:space="preserve"> new Room('Courtyard', 639, 357, 69, 217,[]),</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>92</v>
       </c>
@@ -3183,7 +3169,7 @@
         <v xml:space="preserve"> new Room('District MDF', 708, 357, 81, 35,[]),</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>93</v>
       </c>
@@ -3204,7 +3190,7 @@
         <v xml:space="preserve"> new Room('MDF', 787, 356, 67, 37,[]),</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>272</v>
       </c>
@@ -3225,7 +3211,7 @@
         <v xml:space="preserve"> new Room('272', 706, 391, 142, 45,[]),</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>276</v>
       </c>
@@ -3246,7 +3232,7 @@
         <v xml:space="preserve"> new Room('276', 706, 438, 142, 45,[]),</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>278</v>
       </c>
@@ -3267,7 +3253,7 @@
         <v xml:space="preserve"> new Room('278', 706, 483, 142, 45,[]),</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>282</v>
       </c>
@@ -3288,7 +3274,7 @@
         <v xml:space="preserve"> new Room('282', 706, 526, 142, 45,[]),</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>253</v>
       </c>
@@ -3309,7 +3295,7 @@
         <v xml:space="preserve"> new Room('253', 1032, 280, 70, 36,[]),</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>260</v>
       </c>
@@ -3330,7 +3316,7 @@
         <v xml:space="preserve"> new Room('260', 1032, 315, 70, 36,[]),</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>288</v>
       </c>
@@ -3351,7 +3337,7 @@
         <v xml:space="preserve"> new Room('288', 884, 289, 150, 28,[]),</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>264</v>
       </c>
@@ -3372,7 +3358,7 @@
         <v xml:space="preserve"> new Room('264', 884, 316, 78, 44,[]),</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>262</v>
       </c>
@@ -3393,7 +3379,7 @@
         <v xml:space="preserve"> new Room('262', 963, 316, 78, 44,[]),</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>260</v>
       </c>
@@ -3414,7 +3400,7 @@
         <v xml:space="preserve"> new Room('260', 1033, 316, 78, 44,[]),</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>93</v>
       </c>
@@ -3435,7 +3421,7 @@
         <v xml:space="preserve"> new Room('MDF', 1103, 335, 31, 25,[]),</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>265</v>
       </c>
@@ -3456,7 +3442,7 @@
         <v xml:space="preserve"> new Room('265', 884, 373, 86, 33,[]),</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>266</v>
       </c>
@@ -3477,7 +3463,7 @@
         <v xml:space="preserve"> new Room('266', 885, 406, 86, 42,[]),</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>267</v>
       </c>
@@ -3498,7 +3484,7 @@
         <v xml:space="preserve"> new Room('267', 885, 446, 85, 45,[]),</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>263</v>
       </c>
@@ -3519,7 +3505,7 @@
         <v xml:space="preserve"> new Room('263', 970, 373, 82, 47,[]),</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>242</v>
       </c>
@@ -3540,7 +3526,7 @@
         <v xml:space="preserve"> new Room('242', 970, 374, 165, 88,[]),</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>275</v>
       </c>
@@ -3561,7 +3547,7 @@
         <v xml:space="preserve"> new Room('275', 884, 490, 118, 44,[]),</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>281</v>
       </c>
@@ -3582,7 +3568,7 @@
         <v xml:space="preserve"> new Room('281', 884, 548, 120, 44,[]),</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>248</v>
       </c>
@@ -3603,7 +3589,7 @@
         <v xml:space="preserve"> new Room('248', 1002, 508, 117, 44,[]),</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>283</v>
       </c>
@@ -3624,7 +3610,7 @@
         <v xml:space="preserve"> new Room('283', 1002, 552, 116, 35,[]),</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>94</v>
       </c>
@@ -3645,7 +3631,7 @@
         <v xml:space="preserve"> new Room('Mech', 970, 460, 88, 31,[]),</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>95</v>
       </c>
@@ -3666,7 +3652,7 @@
         <v xml:space="preserve"> new Room('Piano Room', 140, 710, 100, 46,[]),</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>96</v>
       </c>
@@ -3687,7 +3673,7 @@
         <v xml:space="preserve"> new Room('Band Room', 136, 754, 120, 92,[]),</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>97</v>
       </c>
@@ -3708,7 +3694,7 @@
         <v xml:space="preserve"> new Room('Band Lockers', 142, 846, 60, 42,[]),</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>98</v>
       </c>
@@ -3729,7 +3715,7 @@
         <v xml:space="preserve"> new Room('Band Office', 218, 846, 46, 34,[]),</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>99</v>
       </c>
@@ -3750,7 +3736,7 @@
         <v xml:space="preserve"> new Room('Orchestra', 132, 920, 124, 90,[]),</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>100</v>
       </c>
@@ -3771,7 +3757,7 @@
         <v xml:space="preserve"> new Room('Choral Room', 378, 952, 150, 58,[]),</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>101</v>
       </c>
@@ -3792,7 +3778,7 @@
         <v xml:space="preserve"> new Room('Sm. Ensemble Room', 286, 976, 64, 30,[]),</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>91</v>
       </c>
@@ -3813,7 +3799,7 @@
         <v xml:space="preserve"> new Room('Courtyard', 600, 864, 104, 96,[]),</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>91</v>
       </c>
@@ -3834,7 +3820,7 @@
         <v xml:space="preserve"> new Room('Courtyard', 600, 734, 98, 120,[]),</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>131</v>
       </c>
@@ -3855,7 +3841,7 @@
         <v xml:space="preserve"> new Room('131', 841, 755, 86, 56,[]),</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>133</v>
       </c>
@@ -3876,7 +3862,7 @@
         <v xml:space="preserve"> new Room('133', 927, 755, 80, 56,[]),</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>102</v>
       </c>
@@ -3897,7 +3883,7 @@
         <v xml:space="preserve"> new Room('Main Office', 815, 976, 70, 62,[]),</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>103</v>
       </c>
@@ -3918,7 +3904,7 @@
         <v xml:space="preserve"> new Room('Lobby', 885, 960, 85, 50,[]),</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>104</v>
       </c>
@@ -3939,7 +3925,7 @@
         <v xml:space="preserve"> new Room('Attendance', 970, 992, 70, 44,[]),</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>105</v>
       </c>
@@ -3960,7 +3946,7 @@
         <v xml:space="preserve"> new Room('Media Center', 840, 810, 168, 154,[]),</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>106</v>
       </c>
@@ -3981,7 +3967,7 @@
         <v xml:space="preserve"> new Room('Guidance', 1030, 750, 115, 54,[]),</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>107</v>
       </c>
@@ -4002,7 +3988,7 @@
         <v xml:space="preserve"> new Room('Special Services', 1030, 868, 95, 50,[]),</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>108</v>
       </c>
@@ -4023,7 +4009,7 @@
         <v xml:space="preserve"> new Room('Auxillary Gym', 787, 608, 264, 116,[]),</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>91</v>
       </c>
@@ -4044,7 +4030,7 @@
         <v xml:space="preserve"> new Room('Courtyard', 1163, 625, 96, 73,[]),</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>91</v>
       </c>
@@ -4065,12 +4051,12 @@
         <v xml:space="preserve"> new Room('Courtyard', 1163, 494, 98, 114,[]),</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>243</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>91</v>
       </c>
@@ -4091,17 +4077,17 @@
         <v xml:space="preserve"> new Room('Courtyard', 1163, 281, 191, 35,[]),</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>231</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>229</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>109</v>
       </c>
@@ -4122,7 +4108,7 @@
         <v xml:space="preserve"> new Room('Lecture Hall 502', 294, 724, 113, 40,[]),</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>110</v>
       </c>
@@ -4143,7 +4129,7 @@
         <v xml:space="preserve"> new Room('Lecture Hall 501', 461, 724, 107, 40,[]),</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>111</v>
       </c>
@@ -4164,7 +4150,7 @@
         <v xml:space="preserve"> new Room('Auditorium', 291, 765, 279, 130,[]),</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>112</v>
       </c>
@@ -4193,23 +4179,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K149"/>
+  <dimension ref="A1:J147"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H44" sqref="H44:H45"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H139" sqref="H139"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="42.5" customWidth="1"/>
-    <col min="9" max="9" width="57.875" customWidth="1"/>
-    <col min="10" max="10" width="18.875" customWidth="1"/>
-    <col min="11" max="11" width="15.875" customWidth="1"/>
+    <col min="1" max="1" width="17.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="57.83203125" customWidth="1"/>
+    <col min="9" max="9" width="18.83203125" customWidth="1"/>
+    <col min="10" max="10" width="15.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4231,17 +4216,14 @@
       <c r="G1" t="s">
         <v>165</v>
       </c>
-      <c r="H1" t="s">
-        <v>218</v>
+      <c r="I1" t="s">
+        <v>6</v>
       </c>
       <c r="J1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>164</v>
       </c>
@@ -4263,15 +4245,15 @@
       <c r="G2" t="s">
         <v>166</v>
       </c>
-      <c r="I2" t="str">
-        <f>CONCATENATE(" new Room('", A2,"', ", B2,", ", C2,", ",D2,", ",E2, ",[",F2,"],'",G2,"','",H2,"'),")</f>
-        <v xml:space="preserve"> new Room('mech3', 0, 4, 13, 9,[2,3],'Normal',''),</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="H2" t="str">
+        <f>CONCATENATE(" new Room('", A2,"', ", B2,", ", C2,", ",D2,", ",E2, ",[",F2,"],'",G2,"'),")</f>
+        <v xml:space="preserve"> new Room('mech3', 0, 4, 13, 9,[2,3],'Normal'),</v>
+      </c>
+      <c r="J2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>26</v>
       </c>
@@ -4293,15 +4275,15 @@
       <c r="G3" t="s">
         <v>166</v>
       </c>
-      <c r="I3" t="str">
-        <f t="shared" ref="I3:I6" si="0">CONCATENATE(" new Room('", A3,"', ", B3,", ", C3,", ",D3,", ",E3, ",[",F3,"],'",G3,"','",H3,"'),")</f>
-        <v xml:space="preserve"> new Room('receiving', 5, 13, 8, 5,[2,4],'Normal',''),</v>
-      </c>
-      <c r="K3" t="s">
+      <c r="H3" t="str">
+        <f t="shared" ref="H3:H62" si="0">CONCATENATE(" new Room('", A3,"', ", B3,", ", C3,", ",D3,", ",E3, ",[",F3,"],'",G3,"'),")</f>
+        <v xml:space="preserve"> new Room('receiving', 5, 13, 8, 5,[2,4],'Normal'),</v>
+      </c>
+      <c r="J3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -4323,15 +4305,15 @@
       <c r="G4" t="s">
         <v>166</v>
       </c>
-      <c r="I4" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> new Room('kitchen', 2, 18, 11, 10,[3,1],'Normal',''),</v>
-      </c>
-      <c r="K4" t="s">
+      <c r="H4" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> new Room('kitchen', 2, 18, 11, 10,[3,1],'Normal'),</v>
+      </c>
+      <c r="J4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
@@ -4353,15 +4335,15 @@
       <c r="G5" t="s">
         <v>166</v>
       </c>
-      <c r="I5" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> new Room('servery', 2, 28, 8, 9,[2,9],'Normal',''),</v>
-      </c>
-      <c r="K5" t="s">
+      <c r="H5" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> new Room('servery', 2, 28, 8, 9,[2,9],'Normal'),</v>
+      </c>
+      <c r="J5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
@@ -4383,15 +4365,15 @@
       <c r="G6" t="s">
         <v>166</v>
       </c>
-      <c r="I6" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> new Room('faculty lounge', 2, 37, 8, 6,[2,6],'Normal',''),</v>
-      </c>
-      <c r="K6" t="s">
+      <c r="H6" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> new Room('faculty lounge', 2, 37, 8, 6,[2,6],'Normal'),</v>
+      </c>
+      <c r="J6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
@@ -4408,20 +4390,20 @@
         <v>18</v>
       </c>
       <c r="F8" t="s">
-        <v>220</v>
+        <v>181</v>
       </c>
       <c r="G8" t="s">
         <v>166</v>
       </c>
-      <c r="I8" t="str">
-        <f t="shared" ref="I8:I10" si="1">CONCATENATE(" new Room('", A8,"', ", B8,", ", C8,", ",D8,", ",E8, ",[",F8,"],'",G8,"','",H8,"'),")</f>
-        <v xml:space="preserve"> new Room('main gym', 16, 23, 32, 18,[ 4,1,2,2,4,8,4,10,4,18,2,18,2,8,2,10,1,30,1,2],'Normal',''),</v>
-      </c>
-      <c r="K8" t="s">
+      <c r="H8" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> new Room('main gym', 16, 23, 32, 18,[ 4,1,2,1,4,8,4,10,4,18,2,18,2,8,2,10],'Normal'),</v>
+      </c>
+      <c r="J8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
@@ -4443,18 +4425,15 @@
       <c r="G9" t="s">
         <v>166</v>
       </c>
-      <c r="H9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I9" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> new Room('boys locker', 16, 17, 16, 6,[3,2],'Normal','main gym'),</v>
-      </c>
-      <c r="K9" t="s">
+      <c r="H9" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> new Room('boys locker', 16, 17, 16, 6,[3,2],'Normal'),</v>
+      </c>
+      <c r="J9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>18</v>
       </c>
@@ -4471,23 +4450,20 @@
         <v>6</v>
       </c>
       <c r="F10" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G10" t="s">
         <v>166</v>
       </c>
-      <c r="H10" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I10" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> new Room('girls locker', 32, 17, 16, 6,[3,14],'Normal','main gym'),</v>
-      </c>
-      <c r="K10" t="s">
+      <c r="H10" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> new Room('girls locker', 32, 17, 16, 6,[3,14],'Normal'),</v>
+      </c>
+      <c r="J10" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>20</v>
       </c>
@@ -4504,20 +4480,20 @@
         <v>5</v>
       </c>
       <c r="F12" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="G12" t="s">
         <v>166</v>
       </c>
-      <c r="I12" t="str">
-        <f t="shared" ref="I12:I16" si="2">CONCATENATE(" new Room('", A12,"', ", B12,", ", C12,", ",D12,", ",E12, ",[",F12,"],'",G12,"','",H12,"'),")</f>
-        <v xml:space="preserve"> new Room('trainer\'s room', 16, 7, 5, 5,[4,4],'Normal',''),</v>
-      </c>
-      <c r="K12" t="s">
+      <c r="H12" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> new Room('trainer\'s room', 16, 7, 5, 5,[4,4],'Normal'),</v>
+      </c>
+      <c r="J12" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>22</v>
       </c>
@@ -4536,15 +4512,15 @@
       <c r="G13" t="s">
         <v>166</v>
       </c>
-      <c r="I13" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> new Room('team room 1', 21, 7, 16, 8,[],'Normal',''),</v>
-      </c>
-      <c r="K13" t="s">
+      <c r="H13" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> new Room('team room 1', 21, 7, 16, 8,[],'Normal'),</v>
+      </c>
+      <c r="J13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>24</v>
       </c>
@@ -4563,15 +4539,15 @@
       <c r="G14" t="s">
         <v>166</v>
       </c>
-      <c r="I14" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> new Room('team room 2', 39, 7, 9, 8,[],'Normal',''),</v>
-      </c>
-      <c r="K14" t="s">
+      <c r="H14" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> new Room('team room 2', 39, 7, 9, 8,[],'Normal'),</v>
+      </c>
+      <c r="J14" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>35</v>
       </c>
@@ -4588,20 +4564,20 @@
         <v>9</v>
       </c>
       <c r="F15" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="G15" t="s">
         <v>166</v>
       </c>
-      <c r="I15" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> new Room('606', 50, 7, 13, 9,[4,9,2,2],'Normal',''),</v>
-      </c>
-      <c r="K15" t="s">
+      <c r="H15" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> new Room('606', 50, 7, 13, 9,[4,9,2,2],'Normal'),</v>
+      </c>
+      <c r="J15" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>37</v>
       </c>
@@ -4618,20 +4594,20 @@
         <v>8</v>
       </c>
       <c r="F16" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="G16" t="s">
         <v>166</v>
       </c>
-      <c r="I16" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> new Room('602', 63, 8, 10, 8,[3,1,2,1],'Normal',''),</v>
-      </c>
-      <c r="K16" t="s">
+      <c r="H16" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> new Room('602', 63, 8, 10, 8,[3,1,2,1],'Normal'),</v>
+      </c>
+      <c r="J16" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>151</v>
       </c>
@@ -4650,13 +4626,13 @@
       <c r="G18" t="s">
         <v>173</v>
       </c>
-      <c r="I18" t="str">
-        <f>CONCATENATE(" new Room('", A18,"', ", B18,", ", C18,", ",D18,", ",E18, ",[",F18,"],'",G18,"','",H18,"'),")</f>
-        <v xml:space="preserve"> new Room('cafeteria', 16, 43, 32, 11,[],'Walkable',''),</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H18" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> new Room('cafeteria', 16, 43, 32, 11,[],'Walkable'),</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="20" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>29</v>
       </c>
@@ -4675,18 +4651,18 @@
       <c r="G20" t="s">
         <v>166</v>
       </c>
-      <c r="I20" t="str">
-        <f t="shared" ref="I20:I22" si="3">CONCATENATE(" new Room('", A20,"', ", B20,", ", C20,", ",D20,", ",E20, ",[",F20,"],'",G20,"'),")</f>
+      <c r="H20" t="str">
+        <f t="shared" si="0"/>
         <v xml:space="preserve"> new Room('band room', 1, 57, 12, 9,[],'Normal'),</v>
       </c>
-      <c r="J20">
+      <c r="I20">
         <v>105</v>
       </c>
-      <c r="K20" t="s">
+      <c r="J20" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>30</v>
       </c>
@@ -4705,18 +4681,18 @@
       <c r="G21" t="s">
         <v>166</v>
       </c>
-      <c r="I21" t="str">
-        <f t="shared" si="3"/>
+      <c r="H21" t="str">
+        <f t="shared" si="0"/>
         <v xml:space="preserve"> new Room('orchestra', 0, 74, 13, 9,[],'Normal'),</v>
       </c>
-      <c r="J21">
+      <c r="I21">
         <v>106</v>
       </c>
-      <c r="K21" t="s">
+      <c r="J21" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>32</v>
       </c>
@@ -4735,18 +4711,18 @@
       <c r="G22" t="s">
         <v>166</v>
       </c>
-      <c r="I22" t="str">
-        <f t="shared" si="3"/>
+      <c r="H22" t="str">
+        <f t="shared" si="0"/>
         <v xml:space="preserve"> new Room('choir', 25, 77, 13, 9,[],'Normal'),</v>
       </c>
-      <c r="J22">
+      <c r="I22">
         <v>108</v>
       </c>
-      <c r="K22" t="s">
+      <c r="J22" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>34</v>
       </c>
@@ -4763,20 +4739,20 @@
         <v>5</v>
       </c>
       <c r="F23" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="G23" t="s">
         <v>166</v>
       </c>
-      <c r="I23" t="str">
-        <f>CONCATENATE(" new Room('", A23,"', ", B23,", ", C23,", ",D23,", ",E23, ",[",F23,"],'",G23,"','",H23,"'),")</f>
-        <v xml:space="preserve"> new Room('school store', 55, 46, 5, 5,[4,2],'Normal',''),</v>
-      </c>
-      <c r="K23" t="s">
+      <c r="H23" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> new Room('school store', 55, 46, 5, 5,[4,2],'Normal'),</v>
+      </c>
+      <c r="J23" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>152</v>
       </c>
@@ -4793,20 +4769,20 @@
         <v>5</v>
       </c>
       <c r="F25" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G25" t="s">
         <v>166</v>
       </c>
-      <c r="I25" t="str">
-        <f t="shared" ref="I25:I33" si="4">CONCATENATE(" new Room('", A25,"', ", B25,", ", C25,", ",D25,", ",E25, ",[",F25,"],'",G25,"','",H25,"'),")</f>
-        <v xml:space="preserve"> new Room('mech1', 63, 0, 6, 5,[4,3],'Normal',''),</v>
-      </c>
-      <c r="K25" t="s">
+      <c r="H25" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> new Room('mech1', 63, 0, 6, 5,[4,3],'Normal'),</v>
+      </c>
+      <c r="J25" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>153</v>
       </c>
@@ -4828,15 +4804,15 @@
       <c r="G26" t="s">
         <v>166</v>
       </c>
-      <c r="I26" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> new Room('mech2', 69, 0, 6, 5,[3,2],'Normal',''),</v>
-      </c>
-      <c r="K26" t="s">
+      <c r="H26" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> new Room('mech2', 69, 0, 6, 5,[3,2],'Normal'),</v>
+      </c>
+      <c r="J26" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>40</v>
       </c>
@@ -4853,20 +4829,20 @@
         <v>5</v>
       </c>
       <c r="F27" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G27" t="s">
         <v>166</v>
       </c>
-      <c r="I27" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> new Room('210', 75, 0, 8, 5,[3,7],'Normal',''),</v>
-      </c>
-      <c r="K27">
+      <c r="H27" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> new Room('210', 75, 0, 8, 5,[3,7],'Normal'),</v>
+      </c>
+      <c r="J27">
         <v>150</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>41</v>
       </c>
@@ -4888,15 +4864,15 @@
       <c r="G28" t="s">
         <v>166</v>
       </c>
-      <c r="I28" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> new Room('211', 83, 0, 8, 5,[3,2],'Normal',''),</v>
-      </c>
-      <c r="K28">
+      <c r="H28" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> new Room('211', 83, 0, 8, 5,[3,2],'Normal'),</v>
+      </c>
+      <c r="J28">
         <v>148</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>42</v>
       </c>
@@ -4913,20 +4889,20 @@
         <v>5</v>
       </c>
       <c r="F29" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G29" t="s">
         <v>166</v>
       </c>
-      <c r="I29" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> new Room('212', 91, 0, 9, 5,[3,7],'Normal',''),</v>
-      </c>
-      <c r="K29">
+      <c r="H29" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> new Room('212', 91, 0, 9, 5,[3,7],'Normal'),</v>
+      </c>
+      <c r="J29">
         <v>146</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>43</v>
       </c>
@@ -4948,15 +4924,15 @@
       <c r="G30" t="s">
         <v>166</v>
       </c>
-      <c r="I30" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> new Room('213', 100, 0, 8, 5,[3,2],'Normal',''),</v>
-      </c>
-      <c r="K30">
+      <c r="H30" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> new Room('213', 100, 0, 8, 5,[3,2],'Normal'),</v>
+      </c>
+      <c r="J30">
         <v>144</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>44</v>
       </c>
@@ -4973,20 +4949,20 @@
         <v>5</v>
       </c>
       <c r="F31" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G31" t="s">
         <v>166</v>
       </c>
-      <c r="I31" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> new Room('214', 108, 0, 8, 5,[3,7],'Normal',''),</v>
-      </c>
-      <c r="K31">
+      <c r="H31" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> new Room('214', 108, 0, 8, 5,[3,7],'Normal'),</v>
+      </c>
+      <c r="J31">
         <v>142</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>45</v>
       </c>
@@ -5008,15 +4984,15 @@
       <c r="G32" t="s">
         <v>166</v>
       </c>
-      <c r="I32" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> new Room('215', 116, 0, 8, 5,[3,2],'Normal',''),</v>
-      </c>
-      <c r="K32">
+      <c r="H32" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> new Room('215', 116, 0, 8, 5,[3,2],'Normal'),</v>
+      </c>
+      <c r="J32">
         <v>140</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>56</v>
       </c>
@@ -5038,15 +5014,15 @@
       <c r="G33" t="s">
         <v>166</v>
       </c>
-      <c r="I33" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> new Room('218', 130, 0, 13, 5,[3,2],'Normal',''),</v>
-      </c>
-      <c r="K33">
+      <c r="H33" t="str">
+        <f>CONCATENATE(" new Room('", A33,"', ", B33,", ", C33,", ",D33,", ",E33, ",[",F33,"],'",G33,"'),")</f>
+        <v xml:space="preserve"> new Room('218', 130, 0, 13, 5,[3,2],'Normal'),</v>
+      </c>
+      <c r="J33">
         <v>138</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>131</v>
       </c>
@@ -5065,12 +5041,12 @@
       <c r="G35" t="s">
         <v>166</v>
       </c>
-      <c r="I35" t="str">
-        <f t="shared" ref="I35:I42" si="5">CONCATENATE(" new Room('", A35,"', ", B35,", ", C35,", ",D35,", ",E35, ",[",F35,"],'",G35,"','",H35,"'),")</f>
-        <v xml:space="preserve"> new Room('131', 71, 58, 9, 6,[],'Normal',''),</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H35" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> new Room('131', 71, 58, 9, 6,[],'Normal'),</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>133</v>
       </c>
@@ -5089,12 +5065,12 @@
       <c r="G36" t="s">
         <v>166</v>
       </c>
-      <c r="I36" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> new Room('133', 80, 58, 8, 6,[],'Normal',''),</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H36" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> new Room('133', 80, 58, 8, 6,[],'Normal'),</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>105</v>
       </c>
@@ -5113,12 +5089,12 @@
       <c r="G37" t="s">
         <v>166</v>
       </c>
-      <c r="I37" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> new Room('Media Center', 71, 64, 17, 15,[],'Normal',''),</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H37" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> new Room('Media Center', 71, 64, 17, 15,[],'Normal'),</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>104</v>
       </c>
@@ -5137,12 +5113,12 @@
       <c r="G38" t="s">
         <v>166</v>
       </c>
-      <c r="I38" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> new Room('Attendance', 84, 81, 7, 4,[],'Normal',''),</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H38" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> new Room('Attendance', 84, 81, 7, 4,[],'Normal'),</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>102</v>
       </c>
@@ -5161,12 +5137,12 @@
       <c r="G39" t="s">
         <v>166</v>
       </c>
-      <c r="I39" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> new Room('Main Office', 69, 80, 7, 6,[],'Normal',''),</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H39" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> new Room('Main Office', 69, 80, 7, 6,[],'Normal'),</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>106</v>
       </c>
@@ -5185,12 +5161,12 @@
       <c r="G40" t="s">
         <v>166</v>
       </c>
-      <c r="I40" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> new Room('Guidance', 90, 57, 12, 12,[],'Normal',''),</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H40" t="str">
+        <f>CONCATENATE(" new Room('", A40,"', ", B40,", ", C40,", ",D40,", ",E40, ",[",F40,"],'",G40,"'),")</f>
+        <v xml:space="preserve"> new Room('Guidance', 90, 57, 12, 12,[],'Normal'),</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>107</v>
       </c>
@@ -5210,40 +5186,40 @@
       <c r="G41" t="s">
         <v>166</v>
       </c>
-      <c r="I41" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> new Room('Special Services', 90, 69, 10, 10,[],'Normal',''),</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H41" t="str">
+        <f>CONCATENATE(" new Room('", A41,"', ", B41,", ", C41,", ",D41,", ",E41, ",[",F41,"],'",G41,"'),")</f>
+        <v xml:space="preserve"> new Room('Special Services', 90, 69, 10, 10,[],'Normal'),</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B42">
         <f>B40+D40</f>
         <v>102</v>
       </c>
       <c r="C42">
-        <f>C147</f>
+        <f>C145</f>
         <v>55</v>
       </c>
       <c r="D42">
-        <f>B147 - (B40+D40)</f>
+        <f>B145 - (B40+D40)</f>
         <v>11</v>
       </c>
       <c r="E42">
         <v>2</v>
       </c>
       <c r="G42" t="s">
-        <v>212</v>
-      </c>
-      <c r="I42" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> new Room('Outside', 102, 55, 11, 2,[],'Outside,HideWall-23',''),</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>213</v>
+      </c>
+      <c r="H42" t="str">
+        <f>CONCATENATE(" new Room('", A42,"', ", B42,", ", C42,", ",D42,", ",E42, ",[",F42,"],'",G42,"'),")</f>
+        <v xml:space="preserve"> new Room('Outside', 102, 55, 11, 2,[],'Outside,HideWall-23'),</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="44" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>110</v>
       </c>
@@ -5262,13 +5238,12 @@
       <c r="G44" t="s">
         <v>166</v>
       </c>
-      <c r="H44" s="2"/>
-      <c r="I44" t="str">
-        <f t="shared" ref="I44:I46" si="6">CONCATENATE(" new Room('", A44,"', ", B44,", ", C44,", ",D44,", ",E44, ",[",F44,"],'",G44,"','",H44,"'),")</f>
-        <v xml:space="preserve"> new Room('Lecture Hall 501', 33, 54, 11, 4,[],'Normal',''),</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H44" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> new Room('Lecture Hall 501', 33, 54, 11, 4,[],'Normal'),</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>109</v>
       </c>
@@ -5287,13 +5262,12 @@
       <c r="G45" t="s">
         <v>166</v>
       </c>
-      <c r="H45" s="2"/>
-      <c r="I45" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve"> new Room('Lecture Hall 502', 16, 54, 11, 4,[],'Normal',''),</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H45" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> new Room('Lecture Hall 502', 16, 54, 11, 4,[],'Normal'),</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>111</v>
       </c>
@@ -5312,12 +5286,12 @@
       <c r="G46" t="s">
         <v>166</v>
       </c>
-      <c r="I46" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve"> new Room('Auditorium', 16, 58, 28, 13,[],'Normal',''),</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H46" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> new Room('Auditorium', 16, 58, 28, 13,[],'Normal'),</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47">
         <v>-13</v>
       </c>
@@ -5325,7 +5299,7 @@
         <v>-18</v>
       </c>
     </row>
-    <row r="48" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>108</v>
       </c>
@@ -5342,18 +5316,18 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="G48" t="s">
         <v>166</v>
       </c>
-      <c r="I48" t="str">
-        <f>CONCATENATE(" new Room('", A48,"', ", B48,", ", C48,", ",D48,", ",E48, ",[",F48,"],'",G48,"','",H48,"'),")</f>
-        <v xml:space="preserve"> new Room('Auxillary Gym', 66, 43, 26, 10,[1,1,1,26,3,1,3,26],'Normal',''),</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="50" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H48" t="str">
+        <f>CONCATENATE(" new Room('", A48,"', ", B48,", ", C48,", ",D48,", ",E48, ",[",F48,"],'",G48,"'),")</f>
+        <v xml:space="preserve"> new Room('Auxillary Gym', 66, 43, 26, 10,[1,1,1,26,3,1,3,26],'Normal'),</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="50" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>157</v>
       </c>
@@ -5372,12 +5346,12 @@
       <c r="G50" t="s">
         <v>166</v>
       </c>
-      <c r="I50" t="str">
-        <f t="shared" ref="I50:I53" si="7">CONCATENATE(" new Room('", A50,"', ", B50,", ", C50,", ",D50,", ",E50, ",[",F50,"],'",G50,"','",H50,"'),")</f>
-        <v xml:space="preserve"> new Room('Courtyard3', 47, 55, 10, 12,[],'Normal',''),</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H50" t="str">
+        <f>CONCATENATE(" new Room('", A50,"', ", B50,", ", C50,", ",D50,", ",E50, ",[",F50,"],'",G50,"'),")</f>
+        <v xml:space="preserve"> new Room('Courtyard3', 47, 55, 10, 12,[],'Normal'),</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>87</v>
       </c>
@@ -5399,12 +5373,12 @@
       <c r="G51" t="s">
         <v>166</v>
       </c>
-      <c r="I51" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve"> new Room('126', 57, 55, 12, 4,[2,4],'Normal',''),</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H51" t="str">
+        <f>CONCATENATE(" new Room('", A51,"', ", B51,", ", C51,", ",D51,", ",E51, ",[",F51,"],'",G51,"'),")</f>
+        <v xml:space="preserve"> new Room('126', 57, 55, 12, 4,[2,4],'Normal'),</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>88</v>
       </c>
@@ -5426,12 +5400,12 @@
       <c r="G52" t="s">
         <v>166</v>
       </c>
-      <c r="I52" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve"> new Room('124', 57, 59, 12, 4,[2,3],'Normal',''),</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H52" t="str">
+        <f>CONCATENATE(" new Room('", A52,"', ", B52,", ", C52,", ",D52,", ",E52, ",[",F52,"],'",G52,"'),")</f>
+        <v xml:space="preserve"> new Room('124', 57, 59, 12, 4,[2,3],'Normal'),</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>89</v>
       </c>
@@ -5453,13 +5427,13 @@
       <c r="G53" t="s">
         <v>166</v>
       </c>
-      <c r="I53" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve"> new Room('122', 57, 63, 12, 4,[2,4],'Normal',''),</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="55" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H53" t="str">
+        <f>CONCATENATE(" new Room('", A53,"', ", B53,", ", C53,", ",D53,", ",E53, ",[",F53,"],'",G53,"'),")</f>
+        <v xml:space="preserve"> new Room('122', 57, 63, 12, 4,[2,4],'Normal'),</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="55" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>97</v>
       </c>
@@ -5476,17 +5450,17 @@
         <v>4</v>
       </c>
       <c r="F55" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="G55" t="s">
         <v>166</v>
       </c>
-      <c r="I55" t="str">
-        <f t="shared" ref="I55:I63" si="8">CONCATENATE(" new Room('", A55,"', ", B55,", ", C55,", ",D55,", ",E55, ",[",F55,"],'",G55,"','",H55,"'),")</f>
-        <v xml:space="preserve"> new Room('Band Lockers', 1, 67, 6, 4,[1,4],'Normal',''),</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H55" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> new Room('Band Lockers', 1, 67, 6, 4,[1,4],'Normal'),</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>98</v>
       </c>
@@ -5503,17 +5477,17 @@
         <v>3</v>
       </c>
       <c r="F56" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G56" t="s">
         <v>166</v>
       </c>
-      <c r="I56" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve"> new Room('Band Office', 9, 67, 5, 3,[4,3],'Normal',''),</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H56" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> new Room('Band Office', 9, 67, 5, 3,[4,3],'Normal'),</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>96</v>
       </c>
@@ -5530,17 +5504,17 @@
         <v>9</v>
       </c>
       <c r="F57" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G57" t="s">
         <v>166</v>
       </c>
-      <c r="I57" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve"> new Room('Band Room', 1, 58, 12, 9,[1,1,1,9],'Normal',''),</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H57" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> new Room('Band Room', 1, 58, 12, 9,[1,1,1,9],'Normal'),</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>100</v>
       </c>
@@ -5557,17 +5531,41 @@
         <v>6</v>
       </c>
       <c r="F58" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="G58" t="s">
         <v>166</v>
       </c>
-      <c r="I58" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve"> new Room('Choral Room', 25, 77, 15, 6,[1,1,1,14],'Normal',''),</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H58" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> new Room('Choral Room', 25, 77, 15, 6,[1,1,1,14],'Normal'),</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B59">
+        <v>47</v>
+      </c>
+      <c r="C59">
+        <v>68</v>
+      </c>
+      <c r="D59">
+        <v>10</v>
+      </c>
+      <c r="E59">
+        <v>10</v>
+      </c>
+      <c r="G59" t="s">
+        <v>166</v>
+      </c>
+      <c r="H59" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> new Room('Courtyard2', 47, 68, 10, 10,[],'Normal'),</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>99</v>
       </c>
@@ -5584,17 +5582,17 @@
         <v>9</v>
       </c>
       <c r="F60" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="G60" t="s">
         <v>166</v>
       </c>
-      <c r="I60" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve"> new Room('Orchestra', 0, 74, 12, 9,[4,6,2,2],'Normal',''),</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H60" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> new Room('Orchestra', 0, 74, 12, 9,[4,6,2,2],'Normal'),</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
         <v>95</v>
       </c>
@@ -5611,17 +5609,17 @@
         <v>5</v>
       </c>
       <c r="F61" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="G61" t="s">
         <v>166</v>
       </c>
-      <c r="I61" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve"> new Room('Piano Room', 1, 53, 10, 5,[2,1,3,8],'Normal',''),</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H61" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> new Room('Piano Room', 1, 53, 10, 5,[2,1,3,8],'Normal'),</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>101</v>
       </c>
@@ -5638,17 +5636,17 @@
         <v>3</v>
       </c>
       <c r="F62" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="G62" t="s">
         <v>166</v>
       </c>
-      <c r="I62" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve"> new Room('Sm. Ensemble Room', 16, 80, 6, 3,[1,1],'Normal',''),</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H62" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> new Room('Sm. Ensemble Room', 16, 80, 6, 3,[1,1],'Normal'),</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
         <v>112</v>
       </c>
@@ -5665,18 +5663,18 @@
         <v>5</v>
       </c>
       <c r="F63" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="G63" t="s">
         <v>166</v>
       </c>
-      <c r="I63" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve"> new Room('Stage', 16, 71, 28, 5,[4,5,3,2,2,1],'Normal',''),</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="65" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H63" t="str">
+        <f t="shared" ref="H63:H132" si="1">CONCATENATE(" new Room('", A63,"', ", B63,", ", C63,", ",D63,", ",E63, ",[",F63,"],'",G63,"'),")</f>
+        <v xml:space="preserve"> new Room('Stage', 16, 71, 28, 5,[4,5,3,2,2,1],'Normal'),</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="65" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
         <v>155</v>
       </c>
@@ -5696,12 +5694,12 @@
       <c r="G65" t="s">
         <v>166</v>
       </c>
-      <c r="I65" t="str">
-        <f t="shared" ref="I65:I71" si="9">CONCATENATE(" new Room('", A65,"', ", B65,", ", C65,", ",D65,", ",E65, ",[",F65,"],'",G65,"','",H65,"'),")</f>
-        <v xml:space="preserve"> new Room('Courtyard1', 51, 18, 7, 23,[],'Normal',''),</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H65" t="str">
+        <f t="shared" ref="H65:H71" si="2">CONCATENATE(" new Room('", A65,"', ", B65,", ", C65,", ",D65,", ",E65, ",[",F65,"],'",G65,"'),")</f>
+        <v xml:space="preserve"> new Room('Courtyard1', 51, 18, 7, 23,[],'Normal'),</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
         <v>92</v>
       </c>
@@ -5718,17 +5716,17 @@
         <v>3</v>
       </c>
       <c r="F66" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G66" t="s">
         <v>166</v>
       </c>
-      <c r="I66" t="str">
-        <f t="shared" si="9"/>
-        <v xml:space="preserve"> new Room('District MDF', 58, 18, 8, 3,[1,2],'Normal',''),</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H66" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> new Room('District MDF', 58, 18, 8, 3,[1,2],'Normal'),</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
         <v>162</v>
       </c>
@@ -5745,17 +5743,17 @@
         <v>3</v>
       </c>
       <c r="F67" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G67" t="s">
         <v>166</v>
       </c>
-      <c r="I67" t="str">
-        <f t="shared" si="9"/>
-        <v xml:space="preserve"> new Room('MDF1', 66, 18, 7, 3,[1,2],'Normal',''),</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H67" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> new Room('MDF1', 66, 18, 7, 3,[1,2],'Normal'),</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="2">
         <v>272</v>
       </c>
@@ -5777,12 +5775,12 @@
       <c r="G68" t="s">
         <v>166</v>
       </c>
-      <c r="I68" t="str">
-        <f t="shared" si="9"/>
-        <v xml:space="preserve"> new Room('272', 58, 21, 15, 5,[2,4],'Normal',''),</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H68" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> new Room('272', 58, 21, 15, 5,[2,4],'Normal'),</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2">
         <v>276</v>
       </c>
@@ -5804,12 +5802,12 @@
       <c r="G69" t="s">
         <v>166</v>
       </c>
-      <c r="I69" t="str">
-        <f t="shared" si="9"/>
-        <v xml:space="preserve"> new Room('276', 58, 26, 15, 5,[2,3],'Normal',''),</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H69" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> new Room('276', 58, 26, 15, 5,[2,3],'Normal'),</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2">
         <v>278</v>
       </c>
@@ -5831,12 +5829,12 @@
       <c r="G70" t="s">
         <v>166</v>
       </c>
-      <c r="I70" t="str">
-        <f t="shared" si="9"/>
-        <v xml:space="preserve"> new Room('278', 58, 31, 15, 5,[2,2],'Normal',''),</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H70" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> new Room('278', 58, 31, 15, 5,[2,2],'Normal'),</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2">
         <v>282</v>
       </c>
@@ -5858,261 +5856,213 @@
       <c r="G71" t="s">
         <v>166</v>
       </c>
-      <c r="I71" t="str">
-        <f t="shared" si="9"/>
-        <v xml:space="preserve"> new Room('282', 58, 36, 15, 5,[2,2],'Normal',''),</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="73" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="B73">
-        <v>47</v>
-      </c>
-      <c r="C73">
-        <v>68</v>
-      </c>
-      <c r="D73">
-        <v>10</v>
-      </c>
-      <c r="E73">
-        <v>10</v>
-      </c>
-      <c r="G73" t="s">
-        <v>166</v>
-      </c>
-      <c r="I73" t="str">
-        <f>CONCATENATE(" new Room('", A73,"', ", B73,", ", C73,", ",D73,", ",E73, ",[",F73,"],'",G73,"','",H73,"'),")</f>
-        <v xml:space="preserve"> new Room('Courtyard2', 47, 68, 10, 10,[],'Normal',''),</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B74">
-        <f>B73+D73</f>
-        <v>57</v>
-      </c>
-      <c r="C74">
-        <v>68</v>
-      </c>
-      <c r="D74">
-        <v>12</v>
-      </c>
-      <c r="E74">
+      <c r="H71" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> new Room('282', 58, 36, 15, 5,[2,2],'Normal'),</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="73" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="74" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="76" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="2">
+        <v>242</v>
+      </c>
+      <c r="B76">
+        <v>84</v>
+      </c>
+      <c r="C76">
+        <v>19</v>
+      </c>
+      <c r="D76">
+        <v>17</v>
+      </c>
+      <c r="E76">
+        <v>9</v>
+      </c>
+      <c r="F76" t="s">
+        <v>197</v>
+      </c>
+      <c r="G76" t="s">
+        <v>166</v>
+      </c>
+      <c r="H76" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> new Room('242', 84, 19, 17, 9,[1,14,2,8],'Normal'),</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="79" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="2">
+        <v>263</v>
+      </c>
+      <c r="B79">
+        <v>84</v>
+      </c>
+      <c r="C79">
+        <v>19</v>
+      </c>
+      <c r="D79">
+        <v>8</v>
+      </c>
+      <c r="E79">
         <v>5</v>
       </c>
-      <c r="G74" t="s">
-        <v>166</v>
-      </c>
-      <c r="I74" t="str">
-        <f>CONCATENATE(" new Room('", A74,"', ", B74,", ", C74,", ",D74,", ",E74, ",[",F74,"],'",G74,"','",H74,"'),")</f>
-        <v xml:space="preserve"> new Room('120', 57, 68, 12, 5,[],'Normal',''),</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="B75">
-        <f>B73+D73</f>
-        <v>57</v>
-      </c>
-      <c r="C75">
-        <f>C74+E74</f>
-        <v>73</v>
-      </c>
-      <c r="D75">
-        <v>12</v>
-      </c>
-      <c r="E75">
-        <v>5</v>
-      </c>
-      <c r="G75" t="s">
-        <v>166</v>
-      </c>
-      <c r="I75" t="str">
-        <f>CONCATENATE(" new Room('", A75,"', ", B75,", ", C75,", ",D75,", ",E75, ",[",F75,"],'",G75,"','",H75,"'),")</f>
-        <v xml:space="preserve"> new Room('Nurse', 57, 73, 12, 5,[],'Normal',''),</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="B76">
-        <v>49</v>
-      </c>
-      <c r="C76">
-        <f>C75+E75</f>
-        <v>78</v>
-      </c>
-      <c r="D76">
-        <f>C75+E75-B76</f>
-        <v>29</v>
-      </c>
-      <c r="E76">
+      <c r="F79" t="s">
+        <v>194</v>
+      </c>
+      <c r="G79" t="s">
+        <v>166</v>
+      </c>
+      <c r="H79" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> new Room('263', 84, 19, 8, 5,[1,1],'Normal'),</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="2">
+        <v>265</v>
+      </c>
+      <c r="B80">
+        <v>75</v>
+      </c>
+      <c r="C80">
+        <v>19</v>
+      </c>
+      <c r="D80">
+        <v>9</v>
+      </c>
+      <c r="E80">
+        <v>3</v>
+      </c>
+      <c r="F80" t="s">
+        <v>198</v>
+      </c>
+      <c r="G80" t="s">
+        <v>166</v>
+      </c>
+      <c r="H80" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> new Room('265', 75, 19, 9, 3,[1,9],'Normal'),</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="2">
+        <v>266</v>
+      </c>
+      <c r="B81">
+        <v>75</v>
+      </c>
+      <c r="C81">
+        <v>22</v>
+      </c>
+      <c r="D81">
+        <v>9</v>
+      </c>
+      <c r="E81">
         <v>4</v>
       </c>
-      <c r="G76" t="s">
-        <v>166</v>
-      </c>
-      <c r="H76" t="s">
-        <v>102</v>
-      </c>
-      <c r="I76" t="str">
-        <f>CONCATENATE(" new Room('", A76,"', ", B76,", ", C76,", ",D76,", ",E76, ",[",F76,"],'",G76,"','",H76,"'),")</f>
-        <v xml:space="preserve"> new Room('Admin Office', 49, 78, 29, 4,[],'Normal','Main Office'),</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="2">
-        <v>242</v>
-      </c>
-      <c r="B78">
-        <v>84</v>
-      </c>
-      <c r="C78">
-        <v>19</v>
-      </c>
-      <c r="D78">
-        <v>17</v>
-      </c>
-      <c r="E78">
-        <v>9</v>
-      </c>
-      <c r="F78" t="s">
-        <v>196</v>
-      </c>
-      <c r="G78" t="s">
-        <v>166</v>
-      </c>
-      <c r="I78" t="str">
-        <f>CONCATENATE(" new Room('", A78,"', ", B78,", ", C78,", ",D78,", ",E78, ",[",F78,"],'",G78,"','",H78,"'),")</f>
-        <v xml:space="preserve"> new Room('242', 84, 19, 17, 9,[1,14,2,8],'Normal',''),</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="81" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="2">
-        <v>263</v>
-      </c>
-      <c r="B81">
-        <v>84</v>
-      </c>
-      <c r="C81">
-        <v>19</v>
-      </c>
-      <c r="D81">
-        <v>8</v>
-      </c>
-      <c r="E81">
-        <v>5</v>
-      </c>
       <c r="F81" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="G81" t="s">
         <v>166</v>
       </c>
-      <c r="I81" t="str">
-        <f t="shared" ref="I81:I89" si="10">CONCATENATE(" new Room('", A81,"', ", B81,", ", C81,", ",D81,", ",E81, ",[",F81,"],'",G81,"','",H81,"'),")</f>
-        <v xml:space="preserve"> new Room('263', 84, 19, 8, 5,[1,1],'Normal',''),</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H81" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> new Room('266', 75, 22, 9, 4,[4,1],'Normal'),</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="2">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="B82">
         <v>75</v>
       </c>
       <c r="C82">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D82">
         <v>9</v>
       </c>
       <c r="E82">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F82" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="G82" t="s">
         <v>166</v>
       </c>
-      <c r="I82" t="str">
-        <f t="shared" si="10"/>
-        <v xml:space="preserve"> new Room('265', 75, 19, 9, 3,[1,9],'Normal',''),</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H82" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> new Room('267', 75, 26, 9, 5,[4,1],'Normal'),</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="2">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="B83">
         <v>75</v>
       </c>
       <c r="C83">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="D83">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E83">
         <v>4</v>
       </c>
       <c r="F83" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G83" t="s">
         <v>166</v>
       </c>
-      <c r="I83" t="str">
-        <f t="shared" si="10"/>
-        <v xml:space="preserve"> new Room('266', 75, 22, 9, 4,[4,1],'Normal',''),</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H83" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> new Room('275', 75, 31, 12, 4,[4,1],'Normal'),</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="2">
-        <v>267</v>
+        <v>281</v>
       </c>
       <c r="B84">
         <v>75</v>
       </c>
       <c r="C84">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="D84">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E84">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F84" t="s">
-        <v>198</v>
+        <v>182</v>
       </c>
       <c r="G84" t="s">
         <v>166</v>
       </c>
-      <c r="I84" t="str">
-        <f t="shared" si="10"/>
-        <v xml:space="preserve"> new Room('267', 75, 26, 9, 5,[4,1],'Normal',''),</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H84" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> new Room('281', 75, 37, 12, 4,[4,4],'Normal'),</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="2">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="B85">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="C85">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="D85">
         <v>12</v>
@@ -6121,25 +6071,25 @@
         <v>4</v>
       </c>
       <c r="F85" t="s">
-        <v>198</v>
+        <v>178</v>
       </c>
       <c r="G85" t="s">
         <v>166</v>
       </c>
-      <c r="I85" t="str">
-        <f t="shared" si="10"/>
-        <v xml:space="preserve"> new Room('275', 75, 31, 12, 4,[4,1],'Normal',''),</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H85" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> new Room('283', 87, 37, 12, 4,[3,1],'Normal'),</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="2">
-        <v>281</v>
+        <v>248</v>
       </c>
       <c r="B86">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="C86">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D86">
         <v>12</v>
@@ -6148,102 +6098,132 @@
         <v>4</v>
       </c>
       <c r="F86" t="s">
-        <v>181</v>
+        <v>200</v>
       </c>
       <c r="G86" t="s">
         <v>166</v>
       </c>
-      <c r="I86" t="str">
-        <f t="shared" si="10"/>
-        <v xml:space="preserve"> new Room('281', 75, 37, 12, 4,[4,4],'Normal',''),</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="2">
-        <v>283</v>
+      <c r="H86" t="str">
+        <f>CONCATENATE(" new Room('", A86,"', ", B86,", ", C86,", ",D86,", ",E86, ",[",F86,"],'",G86,"'),")</f>
+        <v xml:space="preserve"> new Room('248', 87, 33, 12, 4,[2,1],'Normal'),</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="2" t="s">
+        <v>167</v>
       </c>
       <c r="B87">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C87">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="D87">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E87">
-        <v>4</v>
-      </c>
-      <c r="F87" t="s">
-        <v>178</v>
+        <v>3</v>
       </c>
       <c r="G87" t="s">
         <v>166</v>
       </c>
-      <c r="I87" t="str">
-        <f t="shared" si="10"/>
-        <v xml:space="preserve"> new Room('283', 87, 37, 12, 4,[3,1],'Normal',''),</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="2">
-        <v>248</v>
-      </c>
-      <c r="B88">
-        <v>87</v>
-      </c>
-      <c r="C88">
-        <v>33</v>
-      </c>
-      <c r="D88">
-        <v>12</v>
-      </c>
-      <c r="E88">
-        <v>4</v>
-      </c>
-      <c r="F88" t="s">
-        <v>199</v>
-      </c>
-      <c r="G88" t="s">
-        <v>166</v>
-      </c>
-      <c r="I88" t="str">
-        <f t="shared" si="10"/>
-        <v xml:space="preserve"> new Room('248', 87, 33, 12, 4,[2,1],'Normal',''),</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H87" t="str">
+        <f>CONCATENATE(" new Room('", A87,"', ", B87,", ", C87,", ",D87,", ",E87, ",[",F87,"],'",G87,"'),")</f>
+        <v xml:space="preserve"> new Room('mech4', 84, 28, 9, 3,[],'Normal'),</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="89" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
-        <v>167</v>
+        <v>90</v>
       </c>
       <c r="B89">
-        <v>84</v>
+        <v>58</v>
       </c>
       <c r="C89">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="D89">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E89">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G89" t="s">
         <v>166</v>
       </c>
-      <c r="I89" t="str">
-        <f t="shared" si="10"/>
-        <v xml:space="preserve"> new Room('mech4', 84, 28, 9, 3,[],'Normal',''),</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="92" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="93" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H89" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> new Room('120', 58, 69, 11, 6,[],'Normal'),</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="91" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B91">
+        <v>75</v>
+      </c>
+      <c r="C91">
+        <v>6</v>
+      </c>
+      <c r="D91">
+        <v>7</v>
+      </c>
+      <c r="E91">
+        <v>5</v>
+      </c>
+      <c r="F91" t="s">
+        <v>201</v>
+      </c>
+      <c r="G91" t="s">
+        <v>166</v>
+      </c>
+      <c r="H91" t="str">
+        <f t="shared" ref="H91:H99" si="3">CONCATENATE(" new Room('", A91,"', ", B91,", ", C91,", ",D91,", ",E91, ",[",F91,"],'",G91,"'),")</f>
+        <v xml:space="preserve"> new Room('251', 75, 6, 7, 5,[1,7],'Normal'),</v>
+      </c>
+      <c r="J91">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B92">
+        <v>82</v>
+      </c>
+      <c r="C92">
+        <v>6</v>
+      </c>
+      <c r="D92">
+        <v>8</v>
+      </c>
+      <c r="E92">
+        <v>5</v>
+      </c>
+      <c r="F92" t="s">
+        <v>202</v>
+      </c>
+      <c r="G92" t="s">
+        <v>166</v>
+      </c>
+      <c r="H92" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> new Room('252', 82, 6, 8, 5,[1,8],'Normal'),</v>
+      </c>
+      <c r="J92">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B93">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="C93">
         <v>6</v>
@@ -6252,61 +6232,58 @@
         <v>7</v>
       </c>
       <c r="E93">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F93" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="G93" t="s">
         <v>166</v>
       </c>
-      <c r="I93" t="str">
-        <f t="shared" ref="I93:I101" si="11">CONCATENATE(" new Room('", A93,"', ", B93,", ", C93,", ",D93,", ",E93, ",[",F93,"],'",G93,"','",H93,"'),")</f>
-        <v xml:space="preserve"> new Room('251', 75, 6, 7, 5,[1,7],'Normal',''),</v>
-      </c>
-      <c r="K93">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="2" t="s">
-        <v>47</v>
+      <c r="H93" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> new Room('255', 90, 6, 7, 4,[1,7],'Normal'),</v>
+      </c>
+      <c r="J93" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="2">
+        <v>253</v>
       </c>
       <c r="B94">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="C94">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D94">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E94">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F94" t="s">
-        <v>201</v>
+        <v>177</v>
       </c>
       <c r="G94" t="s">
         <v>166</v>
       </c>
-      <c r="I94" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve"> new Room('252', 82, 6, 8, 5,[1,8],'Normal',''),</v>
-      </c>
-      <c r="K94">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="2" t="s">
-        <v>48</v>
+      <c r="H94" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> new Room('253', 90, 10, 7, 4,[2,4],'Normal'),</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="2">
+        <v>260</v>
       </c>
       <c r="B95">
         <v>90</v>
       </c>
       <c r="C95">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D95">
         <v>7</v>
@@ -6315,28 +6292,25 @@
         <v>4</v>
       </c>
       <c r="F95" t="s">
-        <v>200</v>
+        <v>178</v>
       </c>
       <c r="G95" t="s">
         <v>166</v>
       </c>
-      <c r="I95" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve"> new Room('255', 90, 6, 7, 4,[1,7],'Normal',''),</v>
-      </c>
-      <c r="K95" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H95" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> new Room('260', 90, 14, 7, 4,[3,1],'Normal'),</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="2">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="B96">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="C96">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D96">
         <v>7</v>
@@ -6345,370 +6319,370 @@
         <v>4</v>
       </c>
       <c r="F96" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="G96" t="s">
         <v>166</v>
       </c>
-      <c r="I96" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve"> new Room('253', 90, 10, 7, 4,[2,4],'Normal',''),</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H96" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> new Room('262', 83, 14, 7, 4,[3,7],'Normal'),</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="2">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="B97">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="C97">
         <v>14</v>
       </c>
       <c r="D97">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E97">
         <v>4</v>
       </c>
       <c r="F97" t="s">
-        <v>178</v>
+        <v>203</v>
       </c>
       <c r="G97" t="s">
         <v>166</v>
       </c>
-      <c r="I97" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve"> new Room('260', 90, 14, 7, 4,[3,1],'Normal',''),</v>
-      </c>
-    </row>
-    <row r="98" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H97" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> new Room('264', 75, 14, 8, 4,[3,8],'Normal'),</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="2">
-        <v>262</v>
+        <v>288</v>
       </c>
       <c r="B98">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C98">
+        <v>11</v>
+      </c>
+      <c r="D98">
+        <v>15</v>
+      </c>
+      <c r="E98">
+        <v>3</v>
+      </c>
+      <c r="F98" t="s">
+        <v>186</v>
+      </c>
+      <c r="G98" t="s">
+        <v>166</v>
+      </c>
+      <c r="H98" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> new Room('288', 75, 11, 15, 3,[4,2],'Normal'),</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B99">
+        <v>97</v>
+      </c>
+      <c r="C99">
+        <v>15</v>
+      </c>
+      <c r="D99">
+        <v>3</v>
+      </c>
+      <c r="E99">
+        <v>3</v>
+      </c>
+      <c r="F99" t="s">
+        <v>194</v>
+      </c>
+      <c r="G99" t="s">
+        <v>166</v>
+      </c>
+      <c r="H99" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> new Room('MDF2', 97, 15, 3, 3,[1,1],'Normal'),</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="101" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B101">
+        <v>121</v>
+      </c>
+      <c r="C101">
         <v>14</v>
       </c>
-      <c r="D98">
-        <v>7</v>
-      </c>
-      <c r="E98">
-        <v>4</v>
-      </c>
-      <c r="F98" t="s">
-        <v>187</v>
-      </c>
-      <c r="G98" t="s">
-        <v>166</v>
-      </c>
-      <c r="I98" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve"> new Room('262', 83, 14, 7, 4,[3,7],'Normal',''),</v>
-      </c>
-    </row>
-    <row r="99" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="2">
-        <v>264</v>
-      </c>
-      <c r="B99">
-        <v>75</v>
-      </c>
-      <c r="C99">
-        <v>14</v>
-      </c>
-      <c r="D99">
+      <c r="D101">
+        <f>D102</f>
         <v>8</v>
-      </c>
-      <c r="E99">
-        <v>4</v>
-      </c>
-      <c r="F99" t="s">
-        <v>202</v>
-      </c>
-      <c r="G99" t="s">
-        <v>166</v>
-      </c>
-      <c r="I99" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve"> new Room('264', 75, 14, 8, 4,[3,8],'Normal',''),</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="2">
-        <v>288</v>
-      </c>
-      <c r="B100">
-        <v>75</v>
-      </c>
-      <c r="C100">
-        <v>11</v>
-      </c>
-      <c r="D100">
-        <v>15</v>
-      </c>
-      <c r="E100">
-        <v>3</v>
-      </c>
-      <c r="F100" t="s">
-        <v>185</v>
-      </c>
-      <c r="G100" t="s">
-        <v>166</v>
-      </c>
-      <c r="I100" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve"> new Room('288', 75, 11, 15, 3,[4,2],'Normal',''),</v>
-      </c>
-    </row>
-    <row r="101" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="B101">
-        <v>97</v>
-      </c>
-      <c r="C101">
-        <v>15</v>
-      </c>
-      <c r="D101">
-        <v>3</v>
       </c>
       <c r="E101">
         <v>3</v>
       </c>
       <c r="F101" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="G101" t="s">
         <v>166</v>
       </c>
-      <c r="I101" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve"> new Room('MDF2', 97, 15, 3, 3,[1,1],'Normal',''),</v>
-      </c>
-    </row>
-    <row r="102" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="103" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H101" t="str">
+        <f t="shared" ref="H101:H111" si="4">CONCATENATE(" new Room('", A101,"', ", B101,", ", C101,", ",D101,", ",E101, ",[",F101,"],'",G101,"'),")</f>
+        <v xml:space="preserve"> new Room('204', 121, 14, 8, 3,[2,1,2,2],'Normal'),</v>
+      </c>
+      <c r="J101">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A102" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B102">
+        <v>121</v>
+      </c>
+      <c r="C102">
+        <v>11</v>
+      </c>
+      <c r="D102">
+        <v>8</v>
+      </c>
+      <c r="E102">
+        <v>3</v>
+      </c>
+      <c r="F102" t="s">
+        <v>200</v>
+      </c>
+      <c r="G102" t="s">
+        <v>166</v>
+      </c>
+      <c r="H102" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> new Room('205', 121, 11, 8, 3,[2,1],'Normal'),</v>
+      </c>
+      <c r="J102">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
-        <v>55</v>
+        <v>160</v>
       </c>
       <c r="B103">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="C103">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D103">
-        <f>D104</f>
-        <v>8</v>
+        <f>D108+D109+D110+D111</f>
+        <v>20</v>
       </c>
       <c r="E103">
+        <f>E102</f>
         <v>3</v>
       </c>
-      <c r="F103" t="s">
-        <v>203</v>
-      </c>
       <c r="G103" t="s">
         <v>166</v>
       </c>
-      <c r="I103" t="str">
-        <f t="shared" ref="I103:I113" si="12">CONCATENATE(" new Room('", A103,"', ", B103,", ", C103,", ",D103,", ",E103, ",[",F103,"],'",G103,"','",H103,"'),")</f>
-        <v xml:space="preserve"> new Room('204', 121, 14, 8, 3,[2,1,2,2],'Normal',''),</v>
-      </c>
-      <c r="K103">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="104" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H103" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> new Room('Courtyard6', 101, 10, 20, 3,[],'Normal'),</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B104">
         <v>121</v>
       </c>
       <c r="C104">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D104">
+        <f>D102</f>
         <v>8</v>
       </c>
       <c r="E104">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F104" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="G104" t="s">
         <v>166</v>
       </c>
-      <c r="I104" t="str">
-        <f t="shared" si="12"/>
-        <v xml:space="preserve"> new Room('205', 121, 11, 8, 3,[2,1],'Normal',''),</v>
-      </c>
-      <c r="K104">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="105" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H104" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> new Room('206', 121, 6, 8, 5,[2,1,1,3],'Normal'),</v>
+      </c>
+      <c r="J104">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
-        <v>160</v>
+        <v>52</v>
       </c>
       <c r="B105">
-        <v>101</v>
+        <v>116</v>
       </c>
       <c r="C105">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D105">
-        <f>D110+D111+D112+D113</f>
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E105">
-        <f>E104</f>
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="F105" t="s">
+        <v>189</v>
       </c>
       <c r="G105" t="s">
         <v>166</v>
       </c>
-      <c r="I105" t="str">
-        <f t="shared" si="12"/>
-        <v xml:space="preserve"> new Room('Courtyard6', 101, 10, 20, 3,[],'Normal',''),</v>
-      </c>
-    </row>
-    <row r="106" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H105" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> new Room('207', 116, 6, 5, 4,[1,4],'Normal'),</v>
+      </c>
+      <c r="J105">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B106">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="C106">
         <v>6</v>
       </c>
       <c r="D106">
-        <f>D104</f>
+        <f>D31</f>
         <v>8</v>
       </c>
       <c r="E106">
-        <v>5</v>
+        <f>E107</f>
+        <v>4</v>
       </c>
       <c r="F106" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="G106" t="s">
         <v>166</v>
       </c>
-      <c r="I106" t="str">
-        <f t="shared" si="12"/>
-        <v xml:space="preserve"> new Room('206', 121, 6, 8, 5,[2,1,1,3],'Normal',''),</v>
-      </c>
-      <c r="K106">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="107" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H106" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> new Room('208', 108, 6, 8, 4,[1,2],'Normal'),</v>
+      </c>
+      <c r="J106">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B107">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="C107">
         <v>6</v>
       </c>
       <c r="D107">
-        <v>5</v>
-      </c>
-      <c r="E107">
-        <v>4</v>
-      </c>
-      <c r="F107" t="s">
-        <v>188</v>
-      </c>
-      <c r="G107" t="s">
-        <v>166</v>
-      </c>
-      <c r="I107" t="str">
-        <f t="shared" si="12"/>
-        <v xml:space="preserve"> new Room('207', 116, 6, 5, 4,[1,4],'Normal',''),</v>
-      </c>
-      <c r="K107">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="108" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B108">
-        <v>108</v>
-      </c>
-      <c r="C108">
-        <v>6</v>
-      </c>
-      <c r="D108">
-        <f>D31</f>
-        <v>8</v>
-      </c>
-      <c r="E108">
-        <f>E109</f>
-        <v>4</v>
-      </c>
-      <c r="F108" t="s">
-        <v>195</v>
-      </c>
-      <c r="G108" t="s">
-        <v>166</v>
-      </c>
-      <c r="I108" t="str">
-        <f t="shared" si="12"/>
-        <v xml:space="preserve"> new Room('208', 108, 6, 8, 4,[1,2],'Normal',''),</v>
-      </c>
-      <c r="K108">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="109" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B109">
-        <v>100</v>
-      </c>
-      <c r="C109">
-        <v>6</v>
-      </c>
-      <c r="D109">
         <f>D30</f>
         <v>8</v>
       </c>
+      <c r="E107">
+        <f>E93</f>
+        <v>4</v>
+      </c>
+      <c r="F107" t="s">
+        <v>207</v>
+      </c>
+      <c r="G107" t="s">
+        <v>166</v>
+      </c>
+      <c r="H107" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> new Room('209', 100, 6, 8, 4,[1,5],'Normal'),</v>
+      </c>
+      <c r="J107">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A108" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B108">
+        <v>101</v>
+      </c>
+      <c r="C108">
+        <v>13</v>
+      </c>
+      <c r="D108">
+        <v>5</v>
+      </c>
+      <c r="E108">
+        <v>4</v>
+      </c>
+      <c r="F108" t="s">
+        <v>206</v>
+      </c>
+      <c r="G108" t="s">
+        <v>166</v>
+      </c>
+      <c r="H108" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> new Room('200', 101, 13, 5, 4,[3,3],'Normal'),</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A109" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B109">
+        <v>106</v>
+      </c>
+      <c r="C109">
+        <v>13</v>
+      </c>
+      <c r="D109">
+        <v>5</v>
+      </c>
       <c r="E109">
-        <f>E95</f>
         <v>4</v>
       </c>
       <c r="F109" t="s">
-        <v>206</v>
+        <v>178</v>
       </c>
       <c r="G109" t="s">
         <v>166</v>
       </c>
-      <c r="I109" t="str">
-        <f t="shared" si="12"/>
-        <v xml:space="preserve"> new Room('209', 100, 6, 8, 4,[1,5],'Normal',''),</v>
-      </c>
-      <c r="K109">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="110" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H109" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> new Room('201', 106, 13, 5, 4,[3,1],'Normal'),</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B110">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="C110">
         <v>13</v>
@@ -6720,22 +6694,22 @@
         <v>4</v>
       </c>
       <c r="F110" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="G110" t="s">
         <v>166</v>
       </c>
-      <c r="I110" t="str">
-        <f t="shared" si="12"/>
-        <v xml:space="preserve"> new Room('200', 101, 13, 5, 4,[3,3],'Normal',''),</v>
-      </c>
-    </row>
-    <row r="111" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H110" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> new Room('202', 111, 13, 5, 4,[3,3],'Normal'),</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B111">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="C111">
         <v>13</v>
@@ -6752,295 +6726,298 @@
       <c r="G111" t="s">
         <v>166</v>
       </c>
-      <c r="I111" t="str">
-        <f t="shared" si="12"/>
-        <v xml:space="preserve"> new Room('201', 106, 13, 5, 4,[3,1],'Normal',''),</v>
-      </c>
-    </row>
-    <row r="112" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B112">
-        <v>111</v>
-      </c>
-      <c r="C112">
-        <v>13</v>
-      </c>
-      <c r="D112">
+      <c r="H111" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> new Room('203', 116, 13, 5, 4,[3,1],'Normal'),</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="113" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A113" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B113">
+        <v>134</v>
+      </c>
+      <c r="C113">
+        <v>7</v>
+      </c>
+      <c r="D113">
+        <v>9</v>
+      </c>
+      <c r="E113">
+        <v>11</v>
+      </c>
+      <c r="F113" t="s">
+        <v>208</v>
+      </c>
+      <c r="G113" t="s">
+        <v>166</v>
+      </c>
+      <c r="H113" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> new Room('221', 134, 7, 9, 11,[4,6],'Normal'),</v>
+      </c>
+      <c r="J113">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A114" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B114">
+        <v>117</v>
+      </c>
+      <c r="C114">
+        <v>19</v>
+      </c>
+      <c r="D114">
         <v>5</v>
       </c>
-      <c r="E112">
-        <v>4</v>
-      </c>
-      <c r="F112" t="s">
-        <v>205</v>
-      </c>
-      <c r="G112" t="s">
-        <v>166</v>
-      </c>
-      <c r="I112" t="str">
-        <f t="shared" si="12"/>
-        <v xml:space="preserve"> new Room('202', 111, 13, 5, 4,[3,3],'Normal',''),</v>
-      </c>
-    </row>
-    <row r="113" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B113">
-        <v>116</v>
-      </c>
-      <c r="C113">
-        <v>13</v>
-      </c>
-      <c r="D113">
+      <c r="E114">
+        <v>3</v>
+      </c>
+      <c r="F114" t="s">
+        <v>176</v>
+      </c>
+      <c r="G114" t="s">
+        <v>166</v>
+      </c>
+      <c r="H114" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> new Room('226', 117, 19, 5, 3,[2,3],'Normal'),</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A115" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B115">
+        <v>117</v>
+      </c>
+      <c r="C115">
+        <v>22</v>
+      </c>
+      <c r="D115">
+        <f>D114</f>
         <v>5</v>
       </c>
-      <c r="E113">
-        <v>4</v>
-      </c>
-      <c r="F113" t="s">
-        <v>178</v>
-      </c>
-      <c r="G113" t="s">
-        <v>166</v>
-      </c>
-      <c r="I113" t="str">
-        <f t="shared" si="12"/>
-        <v xml:space="preserve"> new Room('203', 116, 13, 5, 4,[3,1],'Normal',''),</v>
-      </c>
-    </row>
-    <row r="114" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="115" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B115">
-        <v>134</v>
-      </c>
-      <c r="C115">
-        <v>7</v>
-      </c>
-      <c r="D115">
-        <v>9</v>
-      </c>
       <c r="E115">
-        <v>11</v>
+        <f>E114</f>
+        <v>3</v>
       </c>
       <c r="F115" t="s">
-        <v>207</v>
+        <v>176</v>
       </c>
       <c r="G115" t="s">
         <v>166</v>
       </c>
-      <c r="I115" t="str">
-        <f t="shared" ref="I115:I122" si="13">CONCATENATE(" new Room('", A115,"', ", B115,", ", C115,", ",D115,", ",E115, ",[",F115,"],'",G115,"','",H115,"'),")</f>
-        <v xml:space="preserve"> new Room('221', 134, 7, 9, 11,[4,6],'Normal',''),</v>
-      </c>
-      <c r="K115">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="116" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H115" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> new Room('228', 117, 22, 5, 3,[2,3],'Normal'),</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B116">
         <v>117</v>
       </c>
       <c r="C116">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D116">
+        <f>D115</f>
         <v>5</v>
       </c>
       <c r="E116">
+        <f>E115</f>
         <v>3</v>
       </c>
       <c r="F116" t="s">
-        <v>176</v>
+        <v>200</v>
       </c>
       <c r="G116" t="s">
         <v>166</v>
       </c>
-      <c r="I116" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve"> new Room('226', 117, 19, 5, 3,[2,3],'Normal',''),</v>
-      </c>
-    </row>
-    <row r="117" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H116" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> new Room('230', 117, 25, 5, 3,[2,1],'Normal'),</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B117">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="C117">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="D117">
-        <f>D116</f>
+        <v>6</v>
+      </c>
+      <c r="E117">
+        <v>3</v>
+      </c>
+      <c r="G117" t="s">
+        <v>166</v>
+      </c>
+      <c r="H117" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> new Room('232', 109, 30, 6, 3,[],'Normal'),</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A118" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B118">
+        <v>114</v>
+      </c>
+      <c r="C118">
+        <v>28</v>
+      </c>
+      <c r="D118">
+        <v>8</v>
+      </c>
+      <c r="E118">
         <v>5</v>
       </c>
-      <c r="E117">
-        <f>E116</f>
-        <v>3</v>
-      </c>
-      <c r="F117" t="s">
-        <v>176</v>
-      </c>
-      <c r="G117" t="s">
-        <v>166</v>
-      </c>
-      <c r="I117" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve"> new Room('228', 117, 22, 5, 3,[2,3],'Normal',''),</v>
-      </c>
-    </row>
-    <row r="118" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B118">
-        <v>117</v>
-      </c>
-      <c r="C118">
-        <v>25</v>
-      </c>
-      <c r="D118">
-        <f>D117</f>
-        <v>5</v>
-      </c>
-      <c r="E118">
-        <f>E117</f>
-        <v>3</v>
-      </c>
-      <c r="F118" t="s">
-        <v>199</v>
-      </c>
       <c r="G118" t="s">
         <v>166</v>
       </c>
-      <c r="I118" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve"> new Room('230', 117, 25, 5, 3,[2,1],'Normal',''),</v>
-      </c>
-    </row>
-    <row r="119" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H118" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> new Room('234', 114, 28, 8, 5,[],'Normal'),</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B119">
         <v>109</v>
       </c>
       <c r="C119">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D119">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E119">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G119" t="s">
         <v>166</v>
       </c>
-      <c r="I119" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve"> new Room('232', 109, 30, 6, 3,[],'Normal',''),</v>
-      </c>
-    </row>
-    <row r="120" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H119" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> new Room('235', 109, 28, 5, 2,[],'Normal'),</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B120">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="C120">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="D120">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E120">
+        <f>E114+E115+E116</f>
+        <v>9</v>
+      </c>
+      <c r="F120" t="s">
+        <v>196</v>
+      </c>
+      <c r="G120" t="s">
+        <v>166</v>
+      </c>
+      <c r="H120" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> new Room('240/241', 103, 19, 14, 9,[1,2],'Normal'),</v>
+      </c>
+      <c r="J120">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="122" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="123" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A123" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B123">
+        <v>125</v>
+      </c>
+      <c r="C123">
+        <v>18</v>
+      </c>
+      <c r="D123">
+        <v>18</v>
+      </c>
+      <c r="E123">
         <v>5</v>
       </c>
-      <c r="G120" t="s">
-        <v>166</v>
-      </c>
-      <c r="I120" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve"> new Room('234', 114, 28, 8, 5,[],'Normal',''),</v>
-      </c>
-    </row>
-    <row r="121" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B121">
-        <v>109</v>
-      </c>
-      <c r="C121">
-        <v>28</v>
-      </c>
-      <c r="D121">
+      <c r="F123" t="s">
+        <v>187</v>
+      </c>
+      <c r="G123" t="s">
+        <v>166</v>
+      </c>
+      <c r="H123" t="str">
+        <f>CONCATENATE(" new Room('", A123,"', ", B123,", ", C123,", ",D123,", ",E123, ",[",F123,"],'",G123,"'),")</f>
+        <v xml:space="preserve"> new Room('225', 125, 18, 18, 5,[4,3],'Normal'),</v>
+      </c>
+      <c r="J123">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A124" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B124">
+        <v>125</v>
+      </c>
+      <c r="C124">
+        <v>23</v>
+      </c>
+      <c r="D124">
+        <v>18</v>
+      </c>
+      <c r="E124">
         <v>5</v>
       </c>
-      <c r="E121">
-        <v>2</v>
-      </c>
-      <c r="G121" t="s">
-        <v>166</v>
-      </c>
-      <c r="I121" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve"> new Room('235', 109, 28, 5, 2,[],'Normal',''),</v>
-      </c>
-    </row>
-    <row r="122" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B122">
-        <v>103</v>
-      </c>
-      <c r="C122">
-        <v>19</v>
-      </c>
-      <c r="D122">
-        <v>14</v>
-      </c>
-      <c r="E122">
-        <f>E116+E117+E118</f>
-        <v>9</v>
-      </c>
-      <c r="F122" t="s">
-        <v>195</v>
-      </c>
-      <c r="G122" t="s">
-        <v>166</v>
-      </c>
-      <c r="I122" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve"> new Room('240/241', 103, 19, 14, 9,[1,2],'Normal',''),</v>
-      </c>
-      <c r="K122">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="123" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="124" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="125" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F124" t="s">
+        <v>186</v>
+      </c>
+      <c r="G124" t="s">
+        <v>166</v>
+      </c>
+      <c r="H124" t="str">
+        <f t="shared" ref="H124:H125" si="5">CONCATENATE(" new Room('", A124,"', ", B124,", ", C124,", ",D124,", ",E124, ",[",F124,"],'",G124,"'),")</f>
+        <v xml:space="preserve"> new Room('229', 125, 23, 18, 5,[4,2],'Normal'),</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
-        <v>58</v>
+        <v>171</v>
       </c>
       <c r="B125">
         <v>125</v>
       </c>
       <c r="C125">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D125">
         <v>18</v>
@@ -7049,136 +7026,133 @@
         <v>5</v>
       </c>
       <c r="F125" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="G125" t="s">
         <v>166</v>
       </c>
-      <c r="I125" t="str">
-        <f t="shared" ref="I125:I136" si="14">CONCATENATE(" new Room('", A125,"', ", B125,", ", C125,", ",D125,", ",E125, ",[",F125,"],'",G125,"','",H125,"'),")</f>
-        <v xml:space="preserve"> new Room('225', 125, 18, 18, 5,[4,3],'Normal',''),</v>
-      </c>
-      <c r="K125">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="126" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H125" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> new Room('231', 125, 28, 18, 5,[4,4],'Normal'),</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B126">
         <v>125</v>
       </c>
       <c r="C126">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="D126">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E126">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F126" t="s">
-        <v>185</v>
+        <v>209</v>
       </c>
       <c r="G126" t="s">
-        <v>166</v>
-      </c>
-      <c r="I126" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve"> new Room('229', 125, 23, 18, 5,[4,2],'Normal',''),</v>
-      </c>
-    </row>
-    <row r="127" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>214</v>
+      </c>
+      <c r="H126" t="str">
+        <f>CONCATENATE(" new Room('", A126,"', ", B126,", ", C126,", ",D126,", ",E126, ",[",F126,"],'",G126,"'),")</f>
+        <v xml:space="preserve"> new Room('stairs1', 125, 33, 10, 2,[4,1,4,2],'Stair'),</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
-        <v>171</v>
+        <v>80</v>
       </c>
       <c r="B127">
         <v>125</v>
       </c>
       <c r="C127">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="D127">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E127">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F127" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="G127" t="s">
         <v>166</v>
       </c>
-      <c r="I127" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve"> new Room('231', 125, 28, 18, 5,[4,4],'Normal',''),</v>
-      </c>
-    </row>
-    <row r="128" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H127" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> new Room('305', 125, 35, 10, 4,[4,3],'Normal'),</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="s">
-        <v>169</v>
+        <v>81</v>
       </c>
       <c r="B128">
         <v>125</v>
       </c>
       <c r="C128">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D128">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E128">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F128" t="s">
-        <v>208</v>
+        <v>182</v>
       </c>
       <c r="G128" t="s">
-        <v>213</v>
-      </c>
-      <c r="I128" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve"> new Room('stairs1', 125, 33, 10, 2,[4,1,4,2],'Stair',''),</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+      <c r="H128" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> new Room('311', 125, 39, 9, 4,[4,4],'Normal'),</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B129">
         <v>125</v>
       </c>
       <c r="C129">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="D129">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E129">
         <v>4</v>
       </c>
       <c r="F129" t="s">
-        <v>186</v>
+        <v>199</v>
       </c>
       <c r="G129" t="s">
         <v>166</v>
       </c>
-      <c r="I129" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve"> new Room('305', 125, 35, 10, 4,[4,3],'Normal',''),</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H129" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> new Room('313', 125, 43, 9, 4,[4,1],'Normal'),</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B130">
         <v>125</v>
       </c>
       <c r="C130">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="D130">
         <v>9</v>
@@ -7187,25 +7161,25 @@
         <v>4</v>
       </c>
       <c r="F130" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="G130" t="s">
         <v>166</v>
       </c>
-      <c r="I130" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve"> new Room('311', 125, 39, 9, 4,[4,4],'Normal',''),</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H130" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> new Room('315', 125, 47, 9, 4,[4,4],'Normal'),</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B131">
         <v>125</v>
       </c>
       <c r="C131">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="D131">
         <v>9</v>
@@ -7214,25 +7188,25 @@
         <v>4</v>
       </c>
       <c r="F131" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G131" t="s">
         <v>166</v>
       </c>
-      <c r="I131" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve"> new Room('313', 125, 43, 9, 4,[4,1],'Normal',''),</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H131" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> new Room('317', 125, 51, 9, 4,[4,1],'Normal'),</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B132">
         <v>125</v>
       </c>
       <c r="C132">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="D132">
         <v>9</v>
@@ -7241,25 +7215,25 @@
         <v>4</v>
       </c>
       <c r="F132" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="G132" t="s">
         <v>166</v>
       </c>
-      <c r="I132" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve"> new Room('315', 125, 47, 9, 4,[4,4],'Normal',''),</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H132" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> new Room('319', 125, 55, 9, 4,[4,4],'Normal'),</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B133">
         <v>125</v>
       </c>
       <c r="C133">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="D133">
         <v>9</v>
@@ -7268,266 +7242,266 @@
         <v>4</v>
       </c>
       <c r="F133" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G133" t="s">
         <v>166</v>
       </c>
-      <c r="I133" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve"> new Room('317', 125, 51, 9, 4,[4,1],'Normal',''),</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H133" t="str">
+        <f t="shared" ref="H133:H147" si="6">CONCATENATE(" new Room('", A133,"', ", B133,", ", C133,", ",D133,", ",E133, ",[",F133,"],'",G133,"'),")</f>
+        <v xml:space="preserve"> new Room('321', 125, 59, 9, 4,[4,1],'Normal'),</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
-        <v>85</v>
+        <v>168</v>
       </c>
       <c r="B134">
         <v>125</v>
       </c>
       <c r="C134">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="D134">
         <v>9</v>
       </c>
       <c r="E134">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F134" t="s">
-        <v>181</v>
+        <v>210</v>
       </c>
       <c r="G134" t="s">
-        <v>166</v>
-      </c>
-      <c r="I134" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve"> new Room('319', 125, 55, 9, 4,[4,4],'Normal',''),</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B135">
-        <v>125</v>
-      </c>
-      <c r="C135">
-        <v>59</v>
-      </c>
-      <c r="D135">
+        <v>214</v>
+      </c>
+      <c r="H134" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> new Room('stairs2', 125, 64, 9, 3,[4,2,4,1],'Stair'),</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="136" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A136" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B136">
+        <v>103</v>
+      </c>
+      <c r="C136">
+        <v>33</v>
+      </c>
+      <c r="D136">
+        <v>10</v>
+      </c>
+      <c r="E136">
+        <f>E137+E138+E139+E140</f>
+        <v>10</v>
+      </c>
+      <c r="G136" t="s">
+        <v>166</v>
+      </c>
+      <c r="H136" t="str">
+        <f>CONCATENATE(" new Room('", A136,"', ", B136,", ", C136,", ",D136,", ",E136, ",[",F136,"],'",G136,"'),")</f>
+        <v xml:space="preserve"> new Room('Courtyard5', 103, 33, 10, 10,[],'Normal'),</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A137" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B137">
+        <v>113</v>
+      </c>
+      <c r="C137">
+        <v>33</v>
+      </c>
+      <c r="D137">
         <v>9</v>
       </c>
-      <c r="E135">
-        <v>4</v>
-      </c>
-      <c r="F135" t="s">
-        <v>198</v>
-      </c>
-      <c r="G135" t="s">
-        <v>166</v>
-      </c>
-      <c r="I135" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve"> new Room('321', 125, 59, 9, 4,[4,1],'Normal',''),</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="B136">
-        <v>125</v>
-      </c>
-      <c r="C136">
-        <v>64</v>
-      </c>
-      <c r="D136">
+      <c r="E137">
+        <v>2</v>
+      </c>
+      <c r="F137" t="s">
+        <v>200</v>
+      </c>
+      <c r="G137" t="s">
+        <v>166</v>
+      </c>
+      <c r="H137" t="str">
+        <f>CONCATENATE(" new Room('", A137,"', ", B137,", ", C137,", ",D137,", ",E137, ",[",F137,"],'",G137,"'),")</f>
+        <v xml:space="preserve"> new Room('boys br1', 113, 33, 9, 2,[2,1],'Normal'),</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A138" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B138">
+        <v>113</v>
+      </c>
+      <c r="C138">
+        <v>35</v>
+      </c>
+      <c r="D138">
         <v>9</v>
       </c>
-      <c r="E136">
-        <v>3</v>
-      </c>
-      <c r="F136" t="s">
-        <v>209</v>
-      </c>
-      <c r="G136" t="s">
-        <v>213</v>
-      </c>
-      <c r="I136" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve"> new Room('stairs2', 125, 64, 9, 3,[4,2,4,1],'Stair',''),</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="138" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="B138">
-        <v>103</v>
-      </c>
-      <c r="C138">
-        <v>33</v>
-      </c>
-      <c r="D138">
-        <v>10</v>
-      </c>
       <c r="E138">
-        <f>E139+E140+E141+E142</f>
-        <v>10</v>
+        <v>2</v>
+      </c>
+      <c r="F138" t="s">
+        <v>175</v>
       </c>
       <c r="G138" t="s">
         <v>166</v>
       </c>
-      <c r="I138" t="str">
-        <f t="shared" ref="I138:I142" si="15">CONCATENATE(" new Room('", A138,"', ", B138,", ", C138,", ",D138,", ",E138, ",[",F138,"],'",G138,"','",H138,"'),")</f>
-        <v xml:space="preserve"> new Room('Courtyard5', 103, 33, 10, 10,[],'Normal',''),</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H138" t="str">
+        <f>CONCATENATE(" new Room('", A138,"', ", B138,", ", C138,", ",D138,", ",E138, ",[",F138,"],'",G138,"'),")</f>
+        <v xml:space="preserve"> new Room('girls br1', 113, 35, 9, 2,[2,2],'Normal'),</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
-        <v>154</v>
+        <v>215</v>
       </c>
       <c r="B139">
         <v>113</v>
       </c>
       <c r="C139">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D139">
         <v>9</v>
       </c>
       <c r="E139">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F139" t="s">
-        <v>199</v>
+        <v>175</v>
       </c>
       <c r="G139" t="s">
         <v>166</v>
       </c>
-      <c r="I139" t="str">
-        <f t="shared" si="15"/>
-        <v xml:space="preserve"> new Room('boys br1', 113, 33, 9, 2,[2,1],'Normal',''),</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H139" t="str">
+        <f>CONCATENATE(" new Room('", A139,"', ", B139,", ", C139,", ",D139,", ",E139, ",[",F139,"],'",G139,"'),")</f>
+        <v xml:space="preserve"> new Room('309', 113, 37, 9, 3,[2,2],'Normal'),</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="2" t="s">
-        <v>161</v>
+        <v>73</v>
       </c>
       <c r="B140">
         <v>113</v>
       </c>
       <c r="C140">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D140">
         <v>9</v>
       </c>
       <c r="E140">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F140" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G140" t="s">
         <v>166</v>
       </c>
-      <c r="I140" t="str">
-        <f t="shared" si="15"/>
-        <v xml:space="preserve"> new Room('girls br1', 113, 35, 9, 2,[2,2],'Normal',''),</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="B141">
+      <c r="H140" t="str">
+        <f>CONCATENATE(" new Room('", A140,"', ", B140,", ", C140,", ",D140,", ",E140, ",[",F140,"],'",G140,"'),")</f>
+        <v xml:space="preserve"> new Room('312', 113, 40, 9, 3,[2,3],'Normal'),</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="142" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A142" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B142">
+        <v>103</v>
+      </c>
+      <c r="C142">
+        <v>45</v>
+      </c>
+      <c r="D142">
+        <v>10</v>
+      </c>
+      <c r="E142">
+        <f>E143+E144</f>
+        <v>8</v>
+      </c>
+      <c r="G142" t="s">
+        <v>166</v>
+      </c>
+      <c r="H142" t="str">
+        <f>CONCATENATE(" new Room('", A142,"', ", B142,", ", C142,", ",D142,", ",E142, ",[",F142,"],'",G142,"'),")</f>
+        <v xml:space="preserve"> new Room('Courtyard4', 103, 45, 10, 8,[],'Normal'),</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A143" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B143">
         <v>113</v>
       </c>
-      <c r="C141">
-        <v>37</v>
-      </c>
-      <c r="D141">
+      <c r="C143">
+        <v>45</v>
+      </c>
+      <c r="D143">
         <v>9</v>
       </c>
-      <c r="E141">
-        <v>3</v>
-      </c>
-      <c r="F141" t="s">
-        <v>175</v>
-      </c>
-      <c r="G141" t="s">
-        <v>166</v>
-      </c>
-      <c r="I141" t="str">
-        <f t="shared" si="15"/>
-        <v xml:space="preserve"> new Room('309', 113, 37, 9, 3,[2,2],'Normal',''),</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B142">
+      <c r="E143">
+        <v>4</v>
+      </c>
+      <c r="F143" t="s">
+        <v>177</v>
+      </c>
+      <c r="G143" t="s">
+        <v>166</v>
+      </c>
+      <c r="H143" t="str">
+        <f>CONCATENATE(" new Room('", A143,"', ", B143,", ", C143,", ",D143,", ",E143, ",[",F143,"],'",G143,"'),")</f>
+        <v xml:space="preserve"> new Room('314', 113, 45, 9, 4,[2,4],'Normal'),</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A144" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B144">
         <v>113</v>
       </c>
-      <c r="C142">
-        <v>40</v>
-      </c>
-      <c r="D142">
+      <c r="C144">
+        <v>49</v>
+      </c>
+      <c r="D144">
         <v>9</v>
       </c>
-      <c r="E142">
-        <v>3</v>
-      </c>
-      <c r="F142" t="s">
-        <v>176</v>
-      </c>
-      <c r="G142" t="s">
-        <v>166</v>
-      </c>
-      <c r="I142" t="str">
-        <f t="shared" si="15"/>
-        <v xml:space="preserve"> new Room('312', 113, 40, 9, 3,[2,3],'Normal',''),</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="144" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="B144">
-        <v>103</v>
-      </c>
-      <c r="C144">
-        <v>45</v>
-      </c>
-      <c r="D144">
-        <v>10</v>
-      </c>
       <c r="E144">
-        <f>E145+E146</f>
-        <v>8</v>
+        <v>4</v>
+      </c>
+      <c r="F144" t="s">
+        <v>200</v>
       </c>
       <c r="G144" t="s">
         <v>166</v>
       </c>
-      <c r="I144" t="str">
-        <f t="shared" ref="I144:I149" si="16">CONCATENATE(" new Room('", A144,"', ", B144,", ", C144,", ",D144,", ",E144, ",[",F144,"],'",G144,"','",H144,"'),")</f>
-        <v xml:space="preserve"> new Room('Courtyard4', 103, 45, 10, 8,[],'Normal',''),</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H144" t="str">
+        <f>CONCATENATE(" new Room('", A144,"', ", B144,", ", C144,", ",D144,", ",E144, ",[",F144,"],'",G144,"'),")</f>
+        <v xml:space="preserve"> new Room('316', 113, 49, 9, 4,[2,1],'Normal'),</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B145">
         <v>113</v>
       </c>
       <c r="C145">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="D145">
         <v>9</v>
@@ -7536,25 +7510,25 @@
         <v>4</v>
       </c>
       <c r="F145" t="s">
-        <v>177</v>
+        <v>200</v>
       </c>
       <c r="G145" t="s">
         <v>166</v>
       </c>
-      <c r="I145" t="str">
-        <f t="shared" si="16"/>
-        <v xml:space="preserve"> new Room('314', 113, 45, 9, 4,[2,4],'Normal',''),</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H145" t="str">
+        <f>CONCATENATE(" new Room('", A145,"', ", B145,", ", C145,", ",D145,", ",E145, ",[",F145,"],'",G145,"'),")</f>
+        <v xml:space="preserve"> new Room('318', 113, 55, 9, 4,[2,1],'Normal'),</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B146">
         <v>113</v>
       </c>
       <c r="C146">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="D146">
         <v>9</v>
@@ -7563,96 +7537,42 @@
         <v>4</v>
       </c>
       <c r="F146" t="s">
-        <v>199</v>
+        <v>177</v>
       </c>
       <c r="G146" t="s">
         <v>166</v>
       </c>
-      <c r="I146" t="str">
-        <f t="shared" si="16"/>
-        <v xml:space="preserve"> new Room('316', 113, 49, 9, 4,[2,1],'Normal',''),</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H146" t="str">
+        <f>CONCATENATE(" new Room('", A146,"', ", B146,", ", C146,", ",D146,", ",E146, ",[",F146,"],'",G146,"'),")</f>
+        <v xml:space="preserve"> new Room('320', 113, 59, 9, 4,[2,4],'Normal'),</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B147">
         <v>113</v>
       </c>
       <c r="C147">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="D147">
         <v>9</v>
       </c>
       <c r="E147">
+        <f>E146</f>
         <v>4</v>
       </c>
       <c r="F147" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G147" t="s">
         <v>166</v>
       </c>
-      <c r="I147" t="str">
-        <f t="shared" si="16"/>
-        <v xml:space="preserve"> new Room('318', 113, 55, 9, 4,[2,1],'Normal',''),</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B148">
-        <v>113</v>
-      </c>
-      <c r="C148">
-        <v>59</v>
-      </c>
-      <c r="D148">
-        <v>9</v>
-      </c>
-      <c r="E148">
-        <v>4</v>
-      </c>
-      <c r="F148" t="s">
-        <v>177</v>
-      </c>
-      <c r="G148" t="s">
-        <v>166</v>
-      </c>
-      <c r="I148" t="str">
-        <f t="shared" si="16"/>
-        <v xml:space="preserve"> new Room('320', 113, 59, 9, 4,[2,4],'Normal',''),</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B149">
-        <v>113</v>
-      </c>
-      <c r="C149">
-        <v>63</v>
-      </c>
-      <c r="D149">
-        <v>9</v>
-      </c>
-      <c r="E149">
-        <f>E148</f>
-        <v>4</v>
-      </c>
-      <c r="F149" t="s">
-        <v>199</v>
-      </c>
-      <c r="G149" t="s">
-        <v>166</v>
-      </c>
-      <c r="I149" t="str">
-        <f t="shared" si="16"/>
-        <v xml:space="preserve"> new Room('322', 113, 63, 9, 4,[2,1],'Normal',''),</v>
+      <c r="H147" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> new Room('322', 113, 63, 9, 4,[2,1],'Normal'),</v>
       </c>
     </row>
   </sheetData>
@@ -7666,18 +7586,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L22"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I22" sqref="I2:I22"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="11" max="11" width="25" customWidth="1"/>
+    <col min="10" max="10" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>113</v>
       </c>
@@ -7699,14 +7619,11 @@
       <c r="G1" t="s">
         <v>172</v>
       </c>
-      <c r="H1" t="s">
-        <v>214</v>
-      </c>
-      <c r="L1" t="s">
+      <c r="K1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>122</v>
       </c>
@@ -7723,22 +7640,22 @@
         <v>2</v>
       </c>
       <c r="F2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G2" t="s">
         <v>166</v>
       </c>
-      <c r="I2" t="str">
-        <f>CONCATENATE(" new Room('", A2,"', ", B2,", ", C2,", ",D2,", ",E2, ",[",F2,"],'",G2,"','",H2,"'),")</f>
-        <v xml:space="preserve"> new Room('Boys BR', 0, 0, 8, 2,[2,1],'Normal',''),</v>
-      </c>
-      <c r="L2" t="s">
+      <c r="H2" t="str">
+        <f>CONCATENATE(" new Room('", A2,"', ", B2,", ", C2,", ",D2,", ",E2, ",[",F2,"],'",G2,"'),")</f>
+        <v xml:space="preserve"> new Room('Boys BR', 0, 0, 8, 2,[2,1],'Normal'),</v>
+      </c>
+      <c r="K2" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -7754,20 +7671,20 @@
         <v>2</v>
       </c>
       <c r="F3" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G3" t="s">
         <v>166</v>
       </c>
-      <c r="I3" t="str">
-        <f t="shared" ref="I3:I11" si="0">CONCATENATE(" new Room('", A3,"', ", B3,", ", C3,", ",D3,", ",E3, ",[",F3,"],'",G3,"','",H3,"'),")</f>
-        <v xml:space="preserve"> new Room('Girls BR', 0, 2, 8, 2,[2,1],'Normal',''),</v>
-      </c>
-      <c r="L3" t="s">
+      <c r="H3" t="str">
+        <f t="shared" ref="H3:H22" si="0">CONCATENATE(" new Room('", A3,"', ", B3,", ", C3,", ",D3,", ",E3, ",[",F3,"],'",G3,"'),")</f>
+        <v xml:space="preserve"> new Room('girls BR', 0, 2, 8, 2,[2,1],'Normal'),</v>
+      </c>
+      <c r="K3" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>127</v>
       </c>
@@ -7790,15 +7707,15 @@
       <c r="G4" t="s">
         <v>166</v>
       </c>
-      <c r="I4" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> new Room('workroom', 0, 4, 8, 5,[2,3],'Normal',''),</v>
-      </c>
-      <c r="L4" t="s">
+      <c r="H4" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> new Room('workroom', 0, 4, 8, 5,[2,3],'Normal'),</v>
+      </c>
+      <c r="K4" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>412</v>
       </c>
@@ -7821,15 +7738,15 @@
       <c r="G5" t="s">
         <v>166</v>
       </c>
-      <c r="I5" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> new Room('412', 0, 9, 8, 4,[2,4],'Normal',''),</v>
-      </c>
-      <c r="L5">
+      <c r="H5" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> new Room('412', 0, 9, 8, 4,[2,4],'Normal'),</v>
+      </c>
+      <c r="K5">
         <v>181</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>414</v>
       </c>
@@ -7847,20 +7764,20 @@
         <v>4</v>
       </c>
       <c r="F6" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G6" t="s">
         <v>166</v>
       </c>
-      <c r="I6" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> new Room('414', 0, 13, 8, 4,[2,1],'Normal',''),</v>
-      </c>
-      <c r="L6">
+      <c r="H6" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> new Room('414', 0, 13, 8, 4,[2,1],'Normal'),</v>
+      </c>
+      <c r="K6">
         <v>179</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>416</v>
       </c>
@@ -7883,15 +7800,15 @@
       <c r="G7" t="s">
         <v>166</v>
       </c>
-      <c r="I7" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> new Room('416', 0, 17, 8, 4,[2,4],'Normal',''),</v>
-      </c>
-      <c r="L7">
+      <c r="H7" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> new Room('416', 0, 17, 8, 4,[2,4],'Normal'),</v>
+      </c>
+      <c r="K7">
         <v>177</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>418</v>
       </c>
@@ -7909,20 +7826,20 @@
         <v>4</v>
       </c>
       <c r="F8" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G8" t="s">
         <v>166</v>
       </c>
-      <c r="I8" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> new Room('418', 0, 21, 8, 4,[2,1],'Normal',''),</v>
-      </c>
-      <c r="L8">
+      <c r="H8" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> new Room('418', 0, 21, 8, 4,[2,1],'Normal'),</v>
+      </c>
+      <c r="K8">
         <v>175</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>420</v>
       </c>
@@ -7945,15 +7862,15 @@
       <c r="G9" t="s">
         <v>166</v>
       </c>
-      <c r="I9" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> new Room('420', 0, 25, 8, 4,[2,4],'Normal',''),</v>
-      </c>
-      <c r="L9">
+      <c r="H9" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> new Room('420', 0, 25, 8, 4,[2,4],'Normal'),</v>
+      </c>
+      <c r="K9">
         <v>173</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>422</v>
       </c>
@@ -7971,22 +7888,22 @@
         <v>4</v>
       </c>
       <c r="F10" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G10" t="s">
         <v>166</v>
       </c>
-      <c r="I10" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> new Room('422', 0, 29, 8, 4,[2,1],'Normal',''),</v>
-      </c>
-      <c r="L10">
+      <c r="H10" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> new Room('422', 0, 29, 8, 4,[2,1],'Normal'),</v>
+      </c>
+      <c r="K10">
         <v>171</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>215</v>
+        <v>49</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -8004,17 +7921,17 @@
       <c r="G11" t="s">
         <v>166</v>
       </c>
-      <c r="I11" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> new Room('Storage1', 0, 33, 8, 3,[],'Normal',''),</v>
-      </c>
-      <c r="L11" t="s">
+      <c r="H11" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> new Room('Storage', 0, 33, 8, 3,[],'Normal'),</v>
+      </c>
+      <c r="K11" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>216</v>
+        <v>169</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -8029,20 +7946,20 @@
         <v>2</v>
       </c>
       <c r="F13" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="G13" t="s">
-        <v>213</v>
-      </c>
-      <c r="I13" t="str">
-        <f t="shared" ref="I13:I22" si="2">CONCATENATE(" new Room('", A13,"', ", B13,", ", C13,", ",D13,", ",E13, ",[",F13,"],'",G13,"','",H13,"'),")</f>
-        <v xml:space="preserve"> new Room('Stairs1', 12, 0, 9, 2,[4,1,4,2],'Stair',''),</v>
-      </c>
-      <c r="L13" t="s">
+        <v>214</v>
+      </c>
+      <c r="H13" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> new Room('stairs1', 12, 0, 9, 2,[4,1,4,2],'Stair'),</v>
+      </c>
+      <c r="K13" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>128</v>
       </c>
@@ -8060,20 +7977,20 @@
         <v>5</v>
       </c>
       <c r="F14" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G14" t="s">
         <v>166</v>
       </c>
-      <c r="I14" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> new Room('Workroom', 12, 2, 9, 5,[4,3],'Normal',''),</v>
-      </c>
-      <c r="L14" t="s">
+      <c r="H14" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> new Room('Workroom', 12, 2, 9, 5,[4,3],'Normal'),</v>
+      </c>
+      <c r="K14" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>411</v>
       </c>
@@ -8081,7 +7998,7 @@
         <v>12</v>
       </c>
       <c r="C15">
-        <f t="shared" ref="C15:C22" si="3">C14+E14</f>
+        <f t="shared" ref="C15:C22" si="2">C14+E14</f>
         <v>7</v>
       </c>
       <c r="D15">
@@ -8091,20 +8008,20 @@
         <v>4</v>
       </c>
       <c r="F15" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="G15" t="s">
         <v>166</v>
       </c>
-      <c r="I15" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> new Room('411', 12, 7, 9, 4,[4,4],'Normal',''),</v>
-      </c>
-      <c r="L15">
+      <c r="H15" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> new Room('411', 12, 7, 9, 4,[4,4],'Normal'),</v>
+      </c>
+      <c r="K15">
         <v>182</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>413</v>
       </c>
@@ -8112,7 +8029,7 @@
         <v>12</v>
       </c>
       <c r="C16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="D16">
@@ -8122,20 +8039,20 @@
         <v>4</v>
       </c>
       <c r="F16" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G16" t="s">
         <v>166</v>
       </c>
-      <c r="I16" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> new Room('413', 12, 11, 9, 4,[4,1],'Normal',''),</v>
-      </c>
-      <c r="L16">
+      <c r="H16" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> new Room('413', 12, 11, 9, 4,[4,1],'Normal'),</v>
+      </c>
+      <c r="K16">
         <v>180</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>415</v>
       </c>
@@ -8143,7 +8060,7 @@
         <v>12</v>
       </c>
       <c r="C17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="D17">
@@ -8153,20 +8070,20 @@
         <v>4</v>
       </c>
       <c r="F17" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="G17" t="s">
         <v>166</v>
       </c>
-      <c r="I17" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> new Room('415', 12, 15, 9, 4,[4,4],'Normal',''),</v>
-      </c>
-      <c r="L17">
+      <c r="H17" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> new Room('415', 12, 15, 9, 4,[4,4],'Normal'),</v>
+      </c>
+      <c r="K17">
         <v>178</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>417</v>
       </c>
@@ -8174,7 +8091,7 @@
         <v>12</v>
       </c>
       <c r="C18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>19</v>
       </c>
       <c r="D18">
@@ -8184,20 +8101,20 @@
         <v>3</v>
       </c>
       <c r="F18" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G18" t="s">
         <v>166</v>
       </c>
-      <c r="I18" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> new Room('417', 12, 19, 9, 3,[4,1],'Normal',''),</v>
-      </c>
-      <c r="L18">
+      <c r="H18" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> new Room('417', 12, 19, 9, 3,[4,1],'Normal'),</v>
+      </c>
+      <c r="K18">
         <v>176</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>419</v>
       </c>
@@ -8205,7 +8122,7 @@
         <v>12</v>
       </c>
       <c r="C19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>22</v>
       </c>
       <c r="D19">
@@ -8215,20 +8132,20 @@
         <v>4</v>
       </c>
       <c r="F19" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="G19" t="s">
         <v>166</v>
       </c>
-      <c r="I19" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> new Room('419', 12, 22, 9, 4,[4,4],'Normal',''),</v>
-      </c>
-      <c r="L19">
+      <c r="H19" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> new Room('419', 12, 22, 9, 4,[4,4],'Normal'),</v>
+      </c>
+      <c r="K19">
         <v>174</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>421</v>
       </c>
@@ -8236,7 +8153,7 @@
         <v>12</v>
       </c>
       <c r="C20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>26</v>
       </c>
       <c r="D20">
@@ -8246,28 +8163,28 @@
         <v>3</v>
       </c>
       <c r="F20" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G20" t="s">
         <v>166</v>
       </c>
-      <c r="I20" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> new Room('421', 12, 26, 9, 3,[4,1],'Normal',''),</v>
-      </c>
-      <c r="L20">
+      <c r="H20" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> new Room('421', 12, 26, 9, 3,[4,1],'Normal'),</v>
+      </c>
+      <c r="K20">
         <v>172</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>49</v>
+        <v>136</v>
       </c>
       <c r="B21">
         <v>12</v>
       </c>
       <c r="C21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>29</v>
       </c>
       <c r="D21">
@@ -8277,28 +8194,28 @@
         <v>3</v>
       </c>
       <c r="F21" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="G21" t="s">
         <v>166</v>
       </c>
-      <c r="I21" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> new Room('Storage', 12, 29, 9, 3,[4,4],'Normal',''),</v>
-      </c>
-      <c r="L21" t="s">
+      <c r="H21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> new Room('storage', 12, 29, 9, 3,[4,4],'Normal'),</v>
+      </c>
+      <c r="K21" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>217</v>
+        <v>168</v>
       </c>
       <c r="B22">
         <v>12</v>
       </c>
       <c r="C22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>32</v>
       </c>
       <c r="D22">
@@ -8308,16 +8225,16 @@
         <v>2</v>
       </c>
       <c r="F22" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="G22" t="s">
-        <v>213</v>
-      </c>
-      <c r="I22" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> new Room('Stairs2', 12, 32, 8, 2,[4,1,4,2],'Stair',''),</v>
-      </c>
-      <c r="L22" t="s">
+        <v>214</v>
+      </c>
+      <c r="H22" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> new Room('stairs2', 12, 32, 8, 2,[4,1,4,2],'Stair'),</v>
+      </c>
+      <c r="K22" t="s">
         <v>79</v>
       </c>
     </row>
@@ -8335,7 +8252,7 @@
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -8923,12 +8840,12 @@
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="57.875" customWidth="1"/>
-    <col min="9" max="9" width="18.875" customWidth="1"/>
-    <col min="10" max="10" width="15.875" customWidth="1"/>
+    <col min="1" max="1" width="17.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="57.83203125" customWidth="1"/>
+    <col min="9" max="9" width="18.83203125" customWidth="1"/>
+    <col min="10" max="10" width="15.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -8960,7 +8877,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>164</v>
       </c>
@@ -9466,7 +9383,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>152</v>
       </c>
@@ -9493,7 +9410,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>153</v>
       </c>
@@ -10883,7 +10800,7 @@
         <v xml:space="preserve"> new Room('267', 89, 45, 9, 5,[],'Normal'),</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" s="2">
         <v>275</v>
       </c>
@@ -10907,7 +10824,7 @@
         <v xml:space="preserve"> new Room('275', 88, 49, 12, 4,[],'Normal'),</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96" s="2">
         <v>281</v>
       </c>
@@ -10931,7 +10848,7 @@
         <v xml:space="preserve"> new Room('281', 88, 55, 12, 4,[],'Normal'),</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A97" s="2">
         <v>283</v>
       </c>
@@ -10955,7 +10872,7 @@
         <v xml:space="preserve"> new Room('283', 100, 55, 12, 4,[],'Normal'),</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A98" s="2">
         <v>288</v>
       </c>
@@ -10979,7 +10896,7 @@
         <v xml:space="preserve"> new Room('288', 88, 29, 15, 3,[],'Normal'),</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
         <v>90</v>
       </c>
@@ -11003,7 +10920,7 @@
         <v xml:space="preserve"> new Room('120', 71, 87, 11, 6,[],'Normal'),</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
         <v>60</v>
       </c>
@@ -11027,7 +10944,7 @@
         <v xml:space="preserve"> new Room('200', 116, 37, 14, 5,[],'Normal'),</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
         <v>61</v>
       </c>
@@ -11051,7 +10968,7 @@
         <v xml:space="preserve"> new Room('201', 120, 31, 5, 5,[],'Normal'),</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
         <v>62</v>
       </c>
@@ -11075,7 +10992,7 @@
         <v xml:space="preserve"> new Room('202', 124, 32, 5, 5,[],'Normal'),</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
         <v>63</v>
       </c>
@@ -11099,7 +11016,7 @@
         <v xml:space="preserve"> new Room('203', 129, 31, 5, 5,[],'Normal'),</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
         <v>55</v>
       </c>
@@ -11126,7 +11043,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
         <v>54</v>
       </c>
@@ -11153,7 +11070,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
         <v>53</v>
       </c>
@@ -11180,7 +11097,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
         <v>52</v>
       </c>
@@ -11207,7 +11124,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
         <v>51</v>
       </c>
@@ -11234,7 +11151,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
         <v>50</v>
       </c>
@@ -11261,7 +11178,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
         <v>57</v>
       </c>
@@ -11288,7 +11205,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
         <v>64</v>
       </c>
@@ -11312,7 +11229,7 @@
         <v xml:space="preserve"> new Room('226', 130, 37, 5, 2,[],'Normal'),</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
         <v>65</v>
       </c>
@@ -11336,7 +11253,7 @@
         <v xml:space="preserve"> new Room('228', 130, 40, 5, 2,[],'Normal'),</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
         <v>66</v>
       </c>
@@ -11360,7 +11277,7 @@
         <v xml:space="preserve"> new Room('230', 130, 42, 5, 2,[],'Normal'),</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
         <v>68</v>
       </c>
@@ -11384,7 +11301,7 @@
         <v xml:space="preserve"> new Room('232', 122, 46, 6, 3,[],'Normal'),</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
         <v>67</v>
       </c>
@@ -11408,7 +11325,7 @@
         <v xml:space="preserve"> new Room('234', 127, 44, 8, 5,[],'Normal'),</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
         <v>69</v>
       </c>
@@ -11432,7 +11349,7 @@
         <v xml:space="preserve"> new Room('235', 122, 44, 5, 2,[],'Normal'),</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
         <v>59</v>
       </c>
@@ -11459,7 +11376,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
         <v>46</v>
       </c>
@@ -11486,7 +11403,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
         <v>47</v>
       </c>
@@ -11513,7 +11430,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
         <v>48</v>
       </c>
@@ -11540,7 +11457,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
         <v>58</v>
       </c>
@@ -11567,7 +11484,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="s">
         <v>170</v>
       </c>
@@ -11592,7 +11509,7 @@
         <v xml:space="preserve"> new Room('229', 138, 41, 18, 5,[],'Normal'),</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
         <v>171</v>
       </c>
@@ -11617,7 +11534,7 @@
         <v xml:space="preserve"> new Room('231', 138, 46, 18, 5,[],'Normal'),</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="s">
         <v>169</v>
       </c>
@@ -11642,7 +11559,7 @@
         <v xml:space="preserve"> new Room('stairs1', 138, 51, 10, 2,[],'Normal'),</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
         <v>80</v>
       </c>
@@ -11667,7 +11584,7 @@
         <v xml:space="preserve"> new Room('305', 138, 53, 10, 5,[],'Normal'),</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
         <v>81</v>
       </c>
@@ -11692,7 +11609,7 @@
         <v xml:space="preserve"> new Room('311', 138, 58, 9, 4,[],'Normal'),</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
         <v>82</v>
       </c>
@@ -11717,7 +11634,7 @@
         <v xml:space="preserve"> new Room('313', 138, 62, 9, 4,[],'Normal'),</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
         <v>83</v>
       </c>
@@ -11742,7 +11659,7 @@
         <v xml:space="preserve"> new Room('315', 138, 66, 9, 4,[],'Normal'),</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
         <v>84</v>
       </c>
@@ -11767,7 +11684,7 @@
         <v xml:space="preserve"> new Room('317', 138, 70, 9, 4,[],'Normal'),</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
         <v>85</v>
       </c>
@@ -11792,7 +11709,7 @@
         <v xml:space="preserve"> new Room('319', 138, 74, 9, 4,[],'Normal'),</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="s">
         <v>86</v>
       </c>
@@ -11817,7 +11734,7 @@
         <v xml:space="preserve"> new Room('321', 138, 78, 9, 4,[],'Normal'),</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="s">
         <v>168</v>
       </c>
@@ -11838,7 +11755,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
         <v>72</v>
       </c>
@@ -11862,7 +11779,7 @@
         <v xml:space="preserve"> new Room('fake 322', 126, 53, 9, 4,[],'Normal'),</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
         <v>73</v>
       </c>
@@ -11887,7 +11804,7 @@
         <v xml:space="preserve"> new Room('312', 126, 57, 9, 3,[],'Normal'),</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="s">
         <v>158</v>
       </c>
@@ -11911,7 +11828,7 @@
         <v xml:space="preserve"> new Room('Courtyard4', 116, 63, 10, 7,[],'Normal'),</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A142" s="2" t="s">
         <v>74</v>
       </c>
@@ -11935,7 +11852,7 @@
         <v xml:space="preserve"> new Room('314', 126, 63, 9, 4,[],'Normal'),</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="s">
         <v>75</v>
       </c>
@@ -11960,7 +11877,7 @@
         <v xml:space="preserve"> new Room('316', 126, 67, 9, 4,[],'Normal'),</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A144" s="2" t="s">
         <v>76</v>
       </c>
@@ -11985,7 +11902,7 @@
         <v xml:space="preserve"> new Room('318', 126, 71, 9, 4,[],'Normal'),</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A145" s="2" t="s">
         <v>77</v>
       </c>
@@ -12010,7 +11927,7 @@
         <v xml:space="preserve"> new Room('320', 126, 75, 9, 4,[],'Normal'),</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A146" s="2" t="s">
         <v>78</v>
       </c>
@@ -12035,7 +11952,7 @@
         <v xml:space="preserve"> new Room('322', 126, 79, 9, 3,[],'Normal'),</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A153" s="2">
         <v>243</v>
       </c>
@@ -12056,7 +11973,7 @@
       <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -12075,7 +11992,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -12306,7 +12223,7 @@
         <v xml:space="preserve"> new Room('receiving', 180, 312, 81, 52),</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>27</v>
       </c>
@@ -12453,7 +12370,7 @@
         <v xml:space="preserve"> new Room('602', 758, 257, 95, 83),</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>8</v>
       </c>
@@ -12474,7 +12391,7 @@
         <v xml:space="preserve"> new Room('mech room', 763, 183, 57, 45),</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>8</v>
       </c>
